--- a/Tabelas/TabelaLimitesDinamicos.xlsx
+++ b/Tabelas/TabelaLimitesDinamicos.xlsx
@@ -13,7 +13,1252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="1245">
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>LIMITES</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>Tsuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TotalCurrent</t>
+  </si>
+  <si>
+    <t>TorqueCurrent</t>
+  </si>
+  <si>
+    <t>IntakePressure</t>
+  </si>
+  <si>
+    <t>DischargePressure</t>
+  </si>
+  <si>
+    <t>DifferentialPressure</t>
+  </si>
+  <si>
+    <t>ProductionSurfacePressure</t>
+  </si>
+  <si>
+    <t>ProductionSurfaceTemperature</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
   <si>
     <t>Frequencia</t>
   </si>
@@ -2523,7 +3768,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2533,14 +3778,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2570,43 +3817,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>415</v>
+        <v>830</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>416</v>
+        <v>831</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>819</v>
+        <v>1234</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>820</v>
+        <v>1235</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>821</v>
+        <v>1236</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>822</v>
+        <v>1237</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>823</v>
+        <v>1238</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>824</v>
+        <v>1239</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>825</v>
+        <v>1240</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>826</v>
+        <v>1241</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>827</v>
+        <v>1242</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>828</v>
+        <v>1243</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>829</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="2">
@@ -2614,7 +3861,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>417</v>
+        <v>832</v>
       </c>
       <c r="C2" s="0">
         <v>141</v>
@@ -2647,7 +3894,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="0">
-        <v>196.59999999999999</v>
+        <v>321.39999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -2655,7 +3902,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>418</v>
+        <v>833</v>
       </c>
       <c r="C3" s="0">
         <v>20</v>
@@ -2688,7 +3935,7 @@
         <v>40</v>
       </c>
       <c r="M3" s="0">
-        <v>321.39999999999998</v>
+        <v>196.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2696,7 +3943,7 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>419</v>
+        <v>834</v>
       </c>
       <c r="C4" s="0">
         <v>141</v>
@@ -2729,7 +3976,7 @@
         <v>100</v>
       </c>
       <c r="M4" s="0">
-        <v>198.92000000000007</v>
+        <v>322.72000000000003</v>
       </c>
     </row>
     <row r="5">
@@ -2737,7 +3984,7 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>420</v>
+        <v>835</v>
       </c>
       <c r="C5" s="0">
         <v>20</v>
@@ -2770,7 +4017,7 @@
         <v>40</v>
       </c>
       <c r="M5" s="0">
-        <v>322.72000000000003</v>
+        <v>198.92000000000007</v>
       </c>
     </row>
     <row r="6">
@@ -2778,7 +4025,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>421</v>
+        <v>836</v>
       </c>
       <c r="C6" s="0">
         <v>141</v>
@@ -2811,7 +4058,7 @@
         <v>100</v>
       </c>
       <c r="M6" s="0">
-        <v>195.57000000000008</v>
+        <v>324.04000000000008</v>
       </c>
     </row>
     <row r="7">
@@ -2819,7 +4066,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>422</v>
+        <v>837</v>
       </c>
       <c r="C7" s="0">
         <v>20</v>
@@ -2852,7 +4099,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="0">
-        <v>324.04000000000008</v>
+        <v>195.57000000000008</v>
       </c>
     </row>
     <row r="8">
@@ -2860,7 +4107,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>423</v>
+        <v>838</v>
       </c>
       <c r="C8" s="0">
         <v>141</v>
@@ -2893,7 +4140,7 @@
         <v>100</v>
       </c>
       <c r="M8" s="0">
-        <v>197.95500000000007</v>
+        <v>325.36000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -2901,7 +4148,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>424</v>
+        <v>839</v>
       </c>
       <c r="C9" s="0">
         <v>20</v>
@@ -2934,7 +4181,7 @@
         <v>40</v>
       </c>
       <c r="M9" s="0">
-        <v>325.36000000000001</v>
+        <v>197.95500000000007</v>
       </c>
     </row>
     <row r="10">
@@ -2942,7 +4189,7 @@
         <v>40.399999999999999</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>425</v>
+        <v>840</v>
       </c>
       <c r="C10" s="0">
         <v>141</v>
@@ -2975,7 +4222,7 @@
         <v>100</v>
       </c>
       <c r="M10" s="0">
-        <v>200.33999999999997</v>
+        <v>326.67999999999995</v>
       </c>
     </row>
     <row r="11">
@@ -2983,7 +4230,7 @@
         <v>40.399999999999999</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>426</v>
+        <v>841</v>
       </c>
       <c r="C11" s="0">
         <v>20</v>
@@ -3016,7 +4263,7 @@
         <v>40</v>
       </c>
       <c r="M11" s="0">
-        <v>326.67999999999995</v>
+        <v>200.33999999999997</v>
       </c>
     </row>
     <row r="12">
@@ -3024,7 +4271,7 @@
         <v>40.5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>427</v>
+        <v>842</v>
       </c>
       <c r="C12" s="0">
         <v>141</v>
@@ -3057,7 +4304,7 @@
         <v>100</v>
       </c>
       <c r="M12" s="0">
-        <v>197.25</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13">
@@ -3065,7 +4312,7 @@
         <v>40.5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>428</v>
+        <v>843</v>
       </c>
       <c r="C13" s="0">
         <v>20</v>
@@ -3098,7 +4345,7 @@
         <v>40</v>
       </c>
       <c r="M13" s="0">
-        <v>328</v>
+        <v>197.25</v>
       </c>
     </row>
     <row r="14">
@@ -3106,7 +4353,7 @@
         <v>40.600000000000001</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>429</v>
+        <v>844</v>
       </c>
       <c r="C14" s="0">
         <v>141</v>
@@ -3139,7 +4386,7 @@
         <v>100</v>
       </c>
       <c r="M14" s="0">
-        <v>199.70000000000005</v>
+        <v>329.32000000000005</v>
       </c>
     </row>
     <row r="15">
@@ -3147,7 +4394,7 @@
         <v>40.600000000000001</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>430</v>
+        <v>845</v>
       </c>
       <c r="C15" s="0">
         <v>20</v>
@@ -3180,7 +4427,7 @@
         <v>40</v>
       </c>
       <c r="M15" s="0">
-        <v>329.32000000000005</v>
+        <v>199.70000000000005</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +4435,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>431</v>
+        <v>846</v>
       </c>
       <c r="C16" s="0">
         <v>141</v>
@@ -3221,7 +4468,7 @@
         <v>100</v>
       </c>
       <c r="M16" s="0">
-        <v>202.15000000000009</v>
+        <v>330.6400000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3229,7 +4476,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>432</v>
+        <v>847</v>
       </c>
       <c r="C17" s="0">
         <v>20</v>
@@ -3262,7 +4509,7 @@
         <v>40</v>
       </c>
       <c r="M17" s="0">
-        <v>330.6400000000001</v>
+        <v>202.15000000000009</v>
       </c>
     </row>
     <row r="18">
@@ -3270,7 +4517,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>433</v>
+        <v>848</v>
       </c>
       <c r="C18" s="0">
         <v>141</v>
@@ -3303,7 +4550,7 @@
         <v>100</v>
       </c>
       <c r="M18" s="0">
-        <v>199.0100000000001</v>
+        <v>331.96000000000004</v>
       </c>
     </row>
     <row r="19">
@@ -3311,7 +4558,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>434</v>
+        <v>849</v>
       </c>
       <c r="C19" s="0">
         <v>20</v>
@@ -3344,7 +4591,7 @@
         <v>40</v>
       </c>
       <c r="M19" s="0">
-        <v>331.96000000000004</v>
+        <v>199.0100000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3352,7 +4599,7 @@
         <v>40.899999999999999</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>435</v>
+        <v>850</v>
       </c>
       <c r="C20" s="0">
         <v>141</v>
@@ -3385,7 +4632,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="0">
-        <v>201.52999999999997</v>
+        <v>333.27999999999997</v>
       </c>
     </row>
     <row r="21">
@@ -3393,7 +4640,7 @@
         <v>40.899999999999999</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>436</v>
+        <v>851</v>
       </c>
       <c r="C21" s="0">
         <v>20</v>
@@ -3426,7 +4673,7 @@
         <v>40</v>
       </c>
       <c r="M21" s="0">
-        <v>333.27999999999997</v>
+        <v>201.52999999999997</v>
       </c>
     </row>
     <row r="22">
@@ -3434,7 +4681,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>437</v>
+        <v>852</v>
       </c>
       <c r="C22" s="0">
         <v>141</v>
@@ -3467,7 +4714,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="0">
-        <v>204.05000000000001</v>
+        <v>334.60000000000002</v>
       </c>
     </row>
     <row r="23">
@@ -3475,7 +4722,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>438</v>
+        <v>853</v>
       </c>
       <c r="C23" s="0">
         <v>20</v>
@@ -3508,7 +4755,7 @@
         <v>40</v>
       </c>
       <c r="M23" s="0">
-        <v>334.60000000000002</v>
+        <v>204.05000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3516,7 +4763,7 @@
         <v>41.100000000000001</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>439</v>
+        <v>854</v>
       </c>
       <c r="C24" s="0">
         <v>141</v>
@@ -3549,7 +4796,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="0">
-        <v>200.95000000000005</v>
+        <v>335.91999999999996</v>
       </c>
     </row>
     <row r="25">
@@ -3557,7 +4804,7 @@
         <v>41.100000000000001</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>440</v>
+        <v>855</v>
       </c>
       <c r="C25" s="0">
         <v>20</v>
@@ -3590,7 +4837,7 @@
         <v>40</v>
       </c>
       <c r="M25" s="0">
-        <v>335.91999999999996</v>
+        <v>200.95000000000005</v>
       </c>
     </row>
     <row r="26">
@@ -3598,7 +4845,7 @@
         <v>41.200000000000003</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>441</v>
+        <v>856</v>
       </c>
       <c r="C26" s="0">
         <v>141</v>
@@ -3631,7 +4878,7 @@
         <v>100</v>
       </c>
       <c r="M26" s="0">
-        <v>203.30000000000007</v>
+        <v>337.24000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3639,7 +4886,7 @@
         <v>41.200000000000003</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>442</v>
+        <v>857</v>
       </c>
       <c r="C27" s="0">
         <v>20</v>
@@ -3672,7 +4919,7 @@
         <v>40</v>
       </c>
       <c r="M27" s="0">
-        <v>337.24000000000001</v>
+        <v>203.30000000000007</v>
       </c>
     </row>
     <row r="28">
@@ -3680,7 +4927,7 @@
         <v>41.299999999999997</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>443</v>
+        <v>858</v>
       </c>
       <c r="C28" s="0">
         <v>141</v>
@@ -3713,7 +4960,7 @@
         <v>100</v>
       </c>
       <c r="M28" s="0">
-        <v>200.18000000000012</v>
+        <v>338.56000000000006</v>
       </c>
     </row>
     <row r="29">
@@ -3721,7 +4968,7 @@
         <v>41.299999999999997</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>444</v>
+        <v>859</v>
       </c>
       <c r="C29" s="0">
         <v>20</v>
@@ -3754,7 +5001,7 @@
         <v>40</v>
       </c>
       <c r="M29" s="0">
-        <v>338.56000000000006</v>
+        <v>200.18000000000012</v>
       </c>
     </row>
     <row r="30">
@@ -3762,7 +5009,7 @@
         <v>41.399999999999999</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>445</v>
+        <v>860</v>
       </c>
       <c r="C30" s="0">
         <v>141</v>
@@ -3795,7 +5042,7 @@
         <v>100</v>
       </c>
       <c r="M30" s="0">
-        <v>202.58999999999997</v>
+        <v>339.88</v>
       </c>
     </row>
     <row r="31">
@@ -3803,7 +5050,7 @@
         <v>41.399999999999999</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>446</v>
+        <v>861</v>
       </c>
       <c r="C31" s="0">
         <v>20</v>
@@ -3836,7 +5083,7 @@
         <v>40</v>
       </c>
       <c r="M31" s="0">
-        <v>339.88</v>
+        <v>202.58999999999997</v>
       </c>
     </row>
     <row r="32">
@@ -3844,7 +5091,7 @@
         <v>41.5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>447</v>
+        <v>862</v>
       </c>
       <c r="C32" s="0">
         <v>141</v>
@@ -3877,7 +5124,7 @@
         <v>100</v>
       </c>
       <c r="M32" s="0">
-        <v>205</v>
+        <v>341.19999999999993</v>
       </c>
     </row>
     <row r="33">
@@ -3885,7 +5132,7 @@
         <v>41.5</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>448</v>
+        <v>863</v>
       </c>
       <c r="C33" s="0">
         <v>20</v>
@@ -3918,7 +5165,7 @@
         <v>40</v>
       </c>
       <c r="M33" s="0">
-        <v>341.19999999999993</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34">
@@ -3926,7 +5173,7 @@
         <v>41.600000000000001</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>449</v>
+        <v>864</v>
       </c>
       <c r="C34" s="0">
         <v>141</v>
@@ -3959,7 +5206,7 @@
         <v>100</v>
       </c>
       <c r="M34" s="0">
-        <v>202.11999999999989</v>
+        <v>342.51999999999998</v>
       </c>
     </row>
     <row r="35">
@@ -3967,7 +5214,7 @@
         <v>41.600000000000001</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>450</v>
+        <v>865</v>
       </c>
       <c r="C35" s="0">
         <v>20</v>
@@ -4000,7 +5247,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="0">
-        <v>342.51999999999998</v>
+        <v>202.11999999999989</v>
       </c>
     </row>
     <row r="36">
@@ -4008,7 +5255,7 @@
         <v>41.700000000000003</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>451</v>
+        <v>866</v>
       </c>
       <c r="C36" s="0">
         <v>141</v>
@@ -4041,7 +5288,7 @@
         <v>100</v>
       </c>
       <c r="M36" s="0">
-        <v>204.58999999999992</v>
+        <v>343.84000000000003</v>
       </c>
     </row>
     <row r="37">
@@ -4049,7 +5296,7 @@
         <v>41.700000000000003</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>452</v>
+        <v>867</v>
       </c>
       <c r="C37" s="0">
         <v>20</v>
@@ -4082,7 +5329,7 @@
         <v>40</v>
       </c>
       <c r="M37" s="0">
-        <v>343.84000000000003</v>
+        <v>204.58999999999992</v>
       </c>
     </row>
     <row r="38">
@@ -4090,7 +5337,7 @@
         <v>41.799999999999997</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>453</v>
+        <v>868</v>
       </c>
       <c r="C38" s="0">
         <v>141</v>
@@ -4123,7 +5370,7 @@
         <v>100</v>
       </c>
       <c r="M38" s="0">
-        <v>207.05999999999995</v>
+        <v>345.15999999999997</v>
       </c>
     </row>
     <row r="39">
@@ -4131,7 +5378,7 @@
         <v>41.799999999999997</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>454</v>
+        <v>869</v>
       </c>
       <c r="C39" s="0">
         <v>20</v>
@@ -4164,7 +5411,7 @@
         <v>40</v>
       </c>
       <c r="M39" s="0">
-        <v>345.15999999999997</v>
+        <v>207.05999999999995</v>
       </c>
     </row>
     <row r="40">
@@ -4172,7 +5419,7 @@
         <v>41.899999999999999</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>455</v>
+        <v>870</v>
       </c>
       <c r="C40" s="0">
         <v>141</v>
@@ -4205,7 +5452,7 @@
         <v>100</v>
       </c>
       <c r="M40" s="0">
-        <v>204.20499999999998</v>
+        <v>346.4799999999999</v>
       </c>
     </row>
     <row r="41">
@@ -4213,7 +5460,7 @@
         <v>41.899999999999999</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>456</v>
+        <v>871</v>
       </c>
       <c r="C41" s="0">
         <v>20</v>
@@ -4246,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="M41" s="0">
-        <v>346.4799999999999</v>
+        <v>204.20499999999998</v>
       </c>
     </row>
     <row r="42">
@@ -4254,7 +5501,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>457</v>
+        <v>872</v>
       </c>
       <c r="C42" s="0">
         <v>141</v>
@@ -4287,7 +5534,7 @@
         <v>100</v>
       </c>
       <c r="M42" s="0">
-        <v>206.75</v>
+        <v>347.80000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -4295,7 +5542,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>458</v>
+        <v>873</v>
       </c>
       <c r="C43" s="0">
         <v>20</v>
@@ -4328,7 +5575,7 @@
         <v>40</v>
       </c>
       <c r="M43" s="0">
-        <v>347.80000000000001</v>
+        <v>206.75</v>
       </c>
     </row>
     <row r="44">
@@ -4336,7 +5583,7 @@
         <v>42.100000000000001</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>459</v>
+        <v>874</v>
       </c>
       <c r="C44" s="0">
         <v>141</v>
@@ -4369,7 +5616,7 @@
         <v>100</v>
       </c>
       <c r="M44" s="0">
-        <v>209.07000000000005</v>
+        <v>349.10000000000008</v>
       </c>
     </row>
     <row r="45">
@@ -4377,7 +5624,7 @@
         <v>42.100000000000001</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>460</v>
+        <v>875</v>
       </c>
       <c r="C45" s="0">
         <v>20</v>
@@ -4410,7 +5657,7 @@
         <v>40</v>
       </c>
       <c r="M45" s="0">
-        <v>349.10000000000008</v>
+        <v>209.07000000000005</v>
       </c>
     </row>
     <row r="46">
@@ -4418,7 +5665,7 @@
         <v>42.200000000000003</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>461</v>
+        <v>876</v>
       </c>
       <c r="C46" s="0">
         <v>141</v>
@@ -4451,7 +5698,7 @@
         <v>100</v>
       </c>
       <c r="M46" s="0">
-        <v>206.24000000000001</v>
+        <v>350.40000000000003</v>
       </c>
     </row>
     <row r="47">
@@ -4459,7 +5706,7 @@
         <v>42.200000000000003</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>462</v>
+        <v>877</v>
       </c>
       <c r="C47" s="0">
         <v>20</v>
@@ -4492,7 +5739,7 @@
         <v>40</v>
       </c>
       <c r="M47" s="0">
-        <v>350.40000000000003</v>
+        <v>206.24000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -4500,7 +5747,7 @@
         <v>42.299999999999997</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>463</v>
+        <v>878</v>
       </c>
       <c r="C48" s="0">
         <v>141</v>
@@ -4533,7 +5780,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="0">
-        <v>208.61000000000013</v>
+        <v>351.7000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -4541,7 +5788,7 @@
         <v>42.299999999999997</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>464</v>
+        <v>879</v>
       </c>
       <c r="C49" s="0">
         <v>20</v>
@@ -4574,7 +5821,7 @@
         <v>40</v>
       </c>
       <c r="M49" s="0">
-        <v>351.7000000000001</v>
+        <v>208.61000000000013</v>
       </c>
     </row>
     <row r="50">
@@ -4582,7 +5829,7 @@
         <v>42.399999999999999</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>465</v>
+        <v>880</v>
       </c>
       <c r="C50" s="0">
         <v>141</v>
@@ -4615,7 +5862,7 @@
         <v>100</v>
       </c>
       <c r="M50" s="0">
-        <v>205.68999999999997</v>
+        <v>352.99999999999994</v>
       </c>
     </row>
     <row r="51">
@@ -4623,7 +5870,7 @@
         <v>42.399999999999999</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>466</v>
+        <v>881</v>
       </c>
       <c r="C51" s="0">
         <v>20</v>
@@ -4656,7 +5903,7 @@
         <v>40</v>
       </c>
       <c r="M51" s="0">
-        <v>352.99999999999994</v>
+        <v>205.68999999999997</v>
       </c>
     </row>
     <row r="52">
@@ -4664,7 +5911,7 @@
         <v>42.5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>467</v>
+        <v>882</v>
       </c>
       <c r="C52" s="0">
         <v>141</v>
@@ -4697,7 +5944,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="0">
-        <v>208.125</v>
+        <v>354.30000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -4705,7 +5952,7 @@
         <v>42.5</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>468</v>
+        <v>883</v>
       </c>
       <c r="C53" s="0">
         <v>20</v>
@@ -4738,7 +5985,7 @@
         <v>40</v>
       </c>
       <c r="M53" s="0">
-        <v>354.30000000000001</v>
+        <v>208.125</v>
       </c>
     </row>
     <row r="54">
@@ -4746,7 +5993,7 @@
         <v>42.600000000000001</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>469</v>
+        <v>884</v>
       </c>
       <c r="C54" s="0">
         <v>141</v>
@@ -4779,7 +6026,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="0">
-        <v>210.56000000000006</v>
+        <v>355.60000000000008</v>
       </c>
     </row>
     <row r="55">
@@ -4787,7 +6034,7 @@
         <v>42.600000000000001</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>470</v>
+        <v>885</v>
       </c>
       <c r="C55" s="0">
         <v>20</v>
@@ -4820,7 +6067,7 @@
         <v>40</v>
       </c>
       <c r="M55" s="0">
-        <v>355.60000000000008</v>
+        <v>210.56000000000006</v>
       </c>
     </row>
     <row r="56">
@@ -4828,7 +6075,7 @@
         <v>42.700000000000003</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>471</v>
+        <v>886</v>
       </c>
       <c r="C56" s="0">
         <v>141</v>
@@ -4861,7 +6108,7 @@
         <v>100</v>
       </c>
       <c r="M56" s="0">
-        <v>207.89999999999998</v>
+        <v>356.90000000000003</v>
       </c>
     </row>
     <row r="57">
@@ -4869,7 +6116,7 @@
         <v>42.700000000000003</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>472</v>
+        <v>887</v>
       </c>
       <c r="C57" s="0">
         <v>20</v>
@@ -4902,7 +6149,7 @@
         <v>40</v>
       </c>
       <c r="M57" s="0">
-        <v>356.90000000000003</v>
+        <v>207.89999999999998</v>
       </c>
     </row>
     <row r="58">
@@ -4910,7 +6157,7 @@
         <v>42.799999999999997</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>473</v>
+        <v>888</v>
       </c>
       <c r="C58" s="0">
         <v>141</v>
@@ -4943,7 +6190,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="0">
-        <v>210.39999999999998</v>
+        <v>358.2000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4951,7 +6198,7 @@
         <v>42.799999999999997</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>474</v>
+        <v>889</v>
       </c>
       <c r="C59" s="0">
         <v>20</v>
@@ -4984,7 +6231,7 @@
         <v>40</v>
       </c>
       <c r="M59" s="0">
-        <v>358.2000000000001</v>
+        <v>210.39999999999998</v>
       </c>
     </row>
     <row r="60">
@@ -4992,7 +6239,7 @@
         <v>42.899999999999999</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>475</v>
+        <v>890</v>
       </c>
       <c r="C60" s="0">
         <v>141</v>
@@ -5025,7 +6272,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="0">
-        <v>212.89999999999998</v>
+        <v>359.49999999999994</v>
       </c>
     </row>
     <row r="61">
@@ -5033,7 +6280,7 @@
         <v>42.899999999999999</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>476</v>
+        <v>891</v>
       </c>
       <c r="C61" s="0">
         <v>20</v>
@@ -5066,7 +6313,7 @@
         <v>40</v>
       </c>
       <c r="M61" s="0">
-        <v>359.49999999999994</v>
+        <v>212.89999999999998</v>
       </c>
     </row>
     <row r="62">
@@ -5074,7 +6321,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>477</v>
+        <v>892</v>
       </c>
       <c r="C62" s="0">
         <v>141</v>
@@ -5107,7 +6354,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="0">
-        <v>210.19999999999999</v>
+        <v>360.80000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5115,7 +6362,7 @@
         <v>43</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>478</v>
+        <v>893</v>
       </c>
       <c r="C63" s="0">
         <v>20</v>
@@ -5148,7 +6395,7 @@
         <v>40</v>
       </c>
       <c r="M63" s="0">
-        <v>360.80000000000001</v>
+        <v>210.19999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -5156,7 +6403,7 @@
         <v>43.100000000000001</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>479</v>
+        <v>894</v>
       </c>
       <c r="C64" s="0">
         <v>141</v>
@@ -5189,7 +6436,7 @@
         <v>100</v>
       </c>
       <c r="M64" s="0">
-        <v>212.54000000000002</v>
+        <v>362.08999999999997</v>
       </c>
     </row>
     <row r="65">
@@ -5197,7 +6444,7 @@
         <v>43.100000000000001</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>480</v>
+        <v>895</v>
       </c>
       <c r="C65" s="0">
         <v>20</v>
@@ -5230,7 +6477,7 @@
         <v>40</v>
       </c>
       <c r="M65" s="0">
-        <v>362.08999999999997</v>
+        <v>212.54000000000002</v>
       </c>
     </row>
     <row r="66">
@@ -5238,7 +6485,7 @@
         <v>43.200000000000003</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>481</v>
+        <v>896</v>
       </c>
       <c r="C66" s="0">
         <v>141</v>
@@ -5271,7 +6518,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="0">
-        <v>209.80000000000018</v>
+        <v>363.38000000000005</v>
       </c>
     </row>
     <row r="67">
@@ -5279,7 +6526,7 @@
         <v>43.200000000000003</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>482</v>
+        <v>897</v>
       </c>
       <c r="C67" s="0">
         <v>20</v>
@@ -5312,7 +6559,7 @@
         <v>40</v>
       </c>
       <c r="M67" s="0">
-        <v>363.38000000000005</v>
+        <v>209.80000000000018</v>
       </c>
     </row>
     <row r="68">
@@ -5320,7 +6567,7 @@
         <v>43.299999999999997</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>483</v>
+        <v>898</v>
       </c>
       <c r="C68" s="0">
         <v>141</v>
@@ -5353,7 +6600,7 @@
         <v>100</v>
       </c>
       <c r="M68" s="0">
-        <v>212.20000000000005</v>
+        <v>364.67000000000002</v>
       </c>
     </row>
     <row r="69">
@@ -5361,7 +6608,7 @@
         <v>43.299999999999997</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>484</v>
+        <v>899</v>
       </c>
       <c r="C69" s="0">
         <v>20</v>
@@ -5394,7 +6641,7 @@
         <v>40</v>
       </c>
       <c r="M69" s="0">
-        <v>364.67000000000002</v>
+        <v>212.20000000000005</v>
       </c>
     </row>
     <row r="70">
@@ -5402,7 +6649,7 @@
         <v>43.399999999999999</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>485</v>
+        <v>900</v>
       </c>
       <c r="C70" s="0">
         <v>141</v>
@@ -5435,7 +6682,7 @@
         <v>100</v>
       </c>
       <c r="M70" s="0">
-        <v>214.59999999999991</v>
+        <v>365.95999999999998</v>
       </c>
     </row>
     <row r="71">
@@ -5443,7 +6690,7 @@
         <v>43.399999999999999</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>486</v>
+        <v>901</v>
       </c>
       <c r="C71" s="0">
         <v>20</v>
@@ -5476,7 +6723,7 @@
         <v>40</v>
       </c>
       <c r="M71" s="0">
-        <v>365.95999999999998</v>
+        <v>214.59999999999991</v>
       </c>
     </row>
     <row r="72">
@@ -5484,7 +6731,7 @@
         <v>43.5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>487</v>
+        <v>902</v>
       </c>
       <c r="C72" s="0">
         <v>141</v>
@@ -5517,7 +6764,7 @@
         <v>100</v>
       </c>
       <c r="M72" s="0">
-        <v>211.89999999999998</v>
+        <v>367.24999999999994</v>
       </c>
     </row>
     <row r="73">
@@ -5525,7 +6772,7 @@
         <v>43.5</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>488</v>
+        <v>903</v>
       </c>
       <c r="C73" s="0">
         <v>20</v>
@@ -5558,7 +6805,7 @@
         <v>40</v>
       </c>
       <c r="M73" s="0">
-        <v>367.24999999999994</v>
+        <v>211.89999999999998</v>
       </c>
     </row>
     <row r="74">
@@ -5566,7 +6813,7 @@
         <v>43.600000000000001</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>489</v>
+        <v>904</v>
       </c>
       <c r="C74" s="0">
         <v>141</v>
@@ -5599,7 +6846,7 @@
         <v>100</v>
       </c>
       <c r="M74" s="0">
-        <v>214.35000000000005</v>
+        <v>368.54000000000002</v>
       </c>
     </row>
     <row r="75">
@@ -5607,7 +6854,7 @@
         <v>43.600000000000001</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>490</v>
+        <v>905</v>
       </c>
       <c r="C75" s="0">
         <v>20</v>
@@ -5640,7 +6887,7 @@
         <v>40</v>
       </c>
       <c r="M75" s="0">
-        <v>368.54000000000002</v>
+        <v>214.35000000000005</v>
       </c>
     </row>
     <row r="76">
@@ -5648,7 +6895,7 @@
         <v>43.700000000000003</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>491</v>
+        <v>906</v>
       </c>
       <c r="C76" s="0">
         <v>141</v>
@@ -5681,7 +6928,7 @@
         <v>100</v>
       </c>
       <c r="M76" s="0">
-        <v>211.79999999999995</v>
+        <v>369.82999999999998</v>
       </c>
     </row>
     <row r="77">
@@ -5689,7 +6936,7 @@
         <v>43.700000000000003</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>492</v>
+        <v>907</v>
       </c>
       <c r="C77" s="0">
         <v>20</v>
@@ -5722,7 +6969,7 @@
         <v>40</v>
       </c>
       <c r="M77" s="0">
-        <v>369.82999999999998</v>
+        <v>211.79999999999995</v>
       </c>
     </row>
     <row r="78">
@@ -5730,7 +6977,7 @@
         <v>43.799999999999997</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>493</v>
+        <v>908</v>
       </c>
       <c r="C78" s="0">
         <v>141</v>
@@ -5763,7 +7010,7 @@
         <v>100</v>
       </c>
       <c r="M78" s="0">
-        <v>214.29999999999995</v>
+        <v>371.12000000000006</v>
       </c>
     </row>
     <row r="79">
@@ -5771,7 +7018,7 @@
         <v>43.799999999999997</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>494</v>
+        <v>909</v>
       </c>
       <c r="C79" s="0">
         <v>20</v>
@@ -5804,7 +7051,7 @@
         <v>40</v>
       </c>
       <c r="M79" s="0">
-        <v>371.12000000000006</v>
+        <v>214.29999999999995</v>
       </c>
     </row>
     <row r="80">
@@ -5812,7 +7059,7 @@
         <v>43.899999999999999</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>495</v>
+        <v>910</v>
       </c>
       <c r="C80" s="0">
         <v>141</v>
@@ -5845,7 +7092,7 @@
         <v>100</v>
       </c>
       <c r="M80" s="0">
-        <v>216.79999999999995</v>
+        <v>372.41000000000003</v>
       </c>
     </row>
     <row r="81">
@@ -5853,7 +7100,7 @@
         <v>43.899999999999999</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>496</v>
+        <v>911</v>
       </c>
       <c r="C81" s="0">
         <v>20</v>
@@ -5886,7 +7133,7 @@
         <v>40</v>
       </c>
       <c r="M81" s="0">
-        <v>372.41000000000003</v>
+        <v>216.79999999999995</v>
       </c>
     </row>
     <row r="82">
@@ -5894,7 +7141,7 @@
         <v>44</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>497</v>
+        <v>912</v>
       </c>
       <c r="C82" s="0">
         <v>141</v>
@@ -5927,7 +7174,7 @@
         <v>100</v>
       </c>
       <c r="M82" s="0">
-        <v>214.30000000000001</v>
+        <v>373.69999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -5935,7 +7182,7 @@
         <v>44</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>498</v>
+        <v>913</v>
       </c>
       <c r="C83" s="0">
         <v>20</v>
@@ -5968,7 +7215,7 @@
         <v>40</v>
       </c>
       <c r="M83" s="0">
-        <v>373.69999999999999</v>
+        <v>214.30000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -5976,7 +7223,7 @@
         <v>44.100000000000001</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>499</v>
+        <v>914</v>
       </c>
       <c r="C84" s="0">
         <v>141</v>
@@ -6009,7 +7256,7 @@
         <v>100</v>
       </c>
       <c r="M84" s="0">
-        <v>216.65500000000006</v>
+        <v>374.96999999999997</v>
       </c>
     </row>
     <row r="85">
@@ -6017,7 +7264,7 @@
         <v>44.100000000000001</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>500</v>
+        <v>915</v>
       </c>
       <c r="C85" s="0">
         <v>20</v>
@@ -6050,7 +7297,7 @@
         <v>40</v>
       </c>
       <c r="M85" s="0">
-        <v>374.96999999999997</v>
+        <v>216.65500000000006</v>
       </c>
     </row>
     <row r="86">
@@ -6058,7 +7305,7 @@
         <v>44.200000000000003</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>501</v>
+        <v>916</v>
       </c>
       <c r="C86" s="0">
         <v>141</v>
@@ -6091,7 +7338,7 @@
         <v>100</v>
       </c>
       <c r="M86" s="0">
-        <v>214.10000000000014</v>
+        <v>376.24000000000007</v>
       </c>
     </row>
     <row r="87">
@@ -6099,7 +7346,7 @@
         <v>44.200000000000003</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>502</v>
+        <v>917</v>
       </c>
       <c r="C87" s="0">
         <v>20</v>
@@ -6132,7 +7379,7 @@
         <v>40</v>
       </c>
       <c r="M87" s="0">
-        <v>376.24000000000007</v>
+        <v>214.10000000000014</v>
       </c>
     </row>
     <row r="88">
@@ -6140,7 +7387,7 @@
         <v>44.299999999999997</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>503</v>
+        <v>918</v>
       </c>
       <c r="C88" s="0">
         <v>141</v>
@@ -6173,7 +7420,7 @@
         <v>100</v>
       </c>
       <c r="M88" s="0">
-        <v>216.5</v>
+        <v>377.51000000000005</v>
       </c>
     </row>
     <row r="89">
@@ -6181,7 +7428,7 @@
         <v>44.299999999999997</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>504</v>
+        <v>919</v>
       </c>
       <c r="C89" s="0">
         <v>20</v>
@@ -6214,7 +7461,7 @@
         <v>40</v>
       </c>
       <c r="M89" s="0">
-        <v>377.51000000000005</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="90">
@@ -6222,7 +7469,7 @@
         <v>44.399999999999999</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>505</v>
+        <v>920</v>
       </c>
       <c r="C90" s="0">
         <v>141</v>
@@ -6255,7 +7502,7 @@
         <v>100</v>
       </c>
       <c r="M90" s="0">
-        <v>218.89999999999986</v>
+        <v>378.77999999999992</v>
       </c>
     </row>
     <row r="91">
@@ -6263,7 +7510,7 @@
         <v>44.399999999999999</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>506</v>
+        <v>921</v>
       </c>
       <c r="C91" s="0">
         <v>20</v>
@@ -6296,7 +7543,7 @@
         <v>40</v>
       </c>
       <c r="M91" s="0">
-        <v>378.77999999999992</v>
+        <v>218.89999999999986</v>
       </c>
     </row>
     <row r="92">
@@ -6304,7 +7551,7 @@
         <v>44.5</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>507</v>
+        <v>922</v>
       </c>
       <c r="C92" s="0">
         <v>141</v>
@@ -6337,7 +7584,7 @@
         <v>100</v>
       </c>
       <c r="M92" s="0">
-        <v>216.32500000000002</v>
+        <v>380.05000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -6345,7 +7592,7 @@
         <v>44.5</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>508</v>
+        <v>923</v>
       </c>
       <c r="C93" s="0">
         <v>20</v>
@@ -6378,7 +7625,7 @@
         <v>40</v>
       </c>
       <c r="M93" s="0">
-        <v>380.05000000000001</v>
+        <v>216.32500000000002</v>
       </c>
     </row>
     <row r="94">
@@ -6386,7 +7633,7 @@
         <v>44.600000000000001</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>509</v>
+        <v>924</v>
       </c>
       <c r="C94" s="0">
         <v>141</v>
@@ -6419,7 +7666,7 @@
         <v>100</v>
       </c>
       <c r="M94" s="0">
-        <v>218.78000000000006</v>
+        <v>381.31999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -6427,7 +7674,7 @@
         <v>44.600000000000001</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>510</v>
+        <v>925</v>
       </c>
       <c r="C95" s="0">
         <v>20</v>
@@ -6460,7 +7707,7 @@
         <v>40</v>
       </c>
       <c r="M95" s="0">
-        <v>381.31999999999999</v>
+        <v>218.78000000000006</v>
       </c>
     </row>
     <row r="96">
@@ -6468,7 +7715,7 @@
         <v>44.700000000000003</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>511</v>
+        <v>926</v>
       </c>
       <c r="C96" s="0">
         <v>141</v>
@@ -6501,7 +7748,7 @@
         <v>100</v>
       </c>
       <c r="M96" s="0">
-        <v>221.23500000000007</v>
+        <v>382.58999999999997</v>
       </c>
     </row>
     <row r="97">
@@ -6509,7 +7756,7 @@
         <v>44.700000000000003</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>512</v>
+        <v>927</v>
       </c>
       <c r="C97" s="0">
         <v>20</v>
@@ -6542,7 +7789,7 @@
         <v>40</v>
       </c>
       <c r="M97" s="0">
-        <v>382.58999999999997</v>
+        <v>221.23500000000007</v>
       </c>
     </row>
     <row r="98">
@@ -6550,7 +7797,7 @@
         <v>44.799999999999997</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>513</v>
+        <v>928</v>
       </c>
       <c r="C98" s="0">
         <v>141</v>
@@ -6583,7 +7830,7 @@
         <v>100</v>
       </c>
       <c r="M98" s="0">
-        <v>218.88000000000011</v>
+        <v>383.86000000000007</v>
       </c>
     </row>
     <row r="99">
@@ -6591,7 +7838,7 @@
         <v>44.799999999999997</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>514</v>
+        <v>929</v>
       </c>
       <c r="C99" s="0">
         <v>20</v>
@@ -6624,7 +7871,7 @@
         <v>40</v>
       </c>
       <c r="M99" s="0">
-        <v>383.86000000000007</v>
+        <v>218.88000000000011</v>
       </c>
     </row>
     <row r="100">
@@ -6632,7 +7879,7 @@
         <v>44.899999999999999</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>515</v>
+        <v>930</v>
       </c>
       <c r="C100" s="0">
         <v>141</v>
@@ -6665,7 +7912,7 @@
         <v>100</v>
       </c>
       <c r="M100" s="0">
-        <v>221.3900000000001</v>
+        <v>385.13000000000005</v>
       </c>
     </row>
     <row r="101">
@@ -6673,7 +7920,7 @@
         <v>44.899999999999999</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>516</v>
+        <v>931</v>
       </c>
       <c r="C101" s="0">
         <v>20</v>
@@ -6706,7 +7953,7 @@
         <v>40</v>
       </c>
       <c r="M101" s="0">
-        <v>385.13000000000005</v>
+        <v>221.3900000000001</v>
       </c>
     </row>
     <row r="102">
@@ -6714,7 +7961,7 @@
         <v>45</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>517</v>
+        <v>932</v>
       </c>
       <c r="C102" s="0">
         <v>141</v>
@@ -6747,7 +7994,7 @@
         <v>100</v>
       </c>
       <c r="M102" s="0">
-        <v>219.04999999999995</v>
+        <v>386.39999999999998</v>
       </c>
     </row>
     <row r="103">
@@ -6755,7 +8002,7 @@
         <v>45</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>518</v>
+        <v>933</v>
       </c>
       <c r="C103" s="0">
         <v>20</v>
@@ -6788,7 +8035,7 @@
         <v>40</v>
       </c>
       <c r="M103" s="0">
-        <v>386.39999999999998</v>
+        <v>219.04999999999995</v>
       </c>
     </row>
     <row r="104">
@@ -6796,7 +8043,7 @@
         <v>45.100000000000001</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>519</v>
+        <v>934</v>
       </c>
       <c r="C104" s="0">
         <v>141</v>
@@ -6829,7 +8076,7 @@
         <v>100</v>
       </c>
       <c r="M104" s="0">
-        <v>221.41000000000003</v>
+        <v>387.65999999999997</v>
       </c>
     </row>
     <row r="105">
@@ -6837,7 +8084,7 @@
         <v>45.100000000000001</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>520</v>
+        <v>935</v>
       </c>
       <c r="C105" s="0">
         <v>20</v>
@@ -6870,7 +8117,7 @@
         <v>40</v>
       </c>
       <c r="M105" s="0">
-        <v>387.65999999999997</v>
+        <v>221.41000000000003</v>
       </c>
     </row>
     <row r="106">
@@ -6878,7 +8125,7 @@
         <v>45.200000000000003</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>521</v>
+        <v>936</v>
       </c>
       <c r="C106" s="0">
         <v>141</v>
@@ -6911,7 +8158,7 @@
         <v>100</v>
       </c>
       <c r="M106" s="0">
-        <v>219.00000000000023</v>
+        <v>388.92000000000007</v>
       </c>
     </row>
     <row r="107">
@@ -6919,7 +8166,7 @@
         <v>45.200000000000003</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>522</v>
+        <v>937</v>
       </c>
       <c r="C107" s="0">
         <v>20</v>
@@ -6952,7 +8199,7 @@
         <v>40</v>
       </c>
       <c r="M107" s="0">
-        <v>388.92000000000007</v>
+        <v>219.00000000000023</v>
       </c>
     </row>
     <row r="108">
@@ -6960,7 +8207,7 @@
         <v>45.299999999999997</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>523</v>
+        <v>938</v>
       </c>
       <c r="C108" s="0">
         <v>141</v>
@@ -6993,7 +8240,7 @@
         <v>100</v>
       </c>
       <c r="M108" s="0">
-        <v>221.40000000000009</v>
+        <v>390.18000000000006</v>
       </c>
     </row>
     <row r="109">
@@ -7001,7 +8248,7 @@
         <v>45.299999999999997</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>524</v>
+        <v>939</v>
       </c>
       <c r="C109" s="0">
         <v>20</v>
@@ -7034,7 +8281,7 @@
         <v>40</v>
       </c>
       <c r="M109" s="0">
-        <v>390.18000000000006</v>
+        <v>221.40000000000009</v>
       </c>
     </row>
     <row r="110">
@@ -7042,7 +8289,7 @@
         <v>45.399999999999999</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>525</v>
+        <v>940</v>
       </c>
       <c r="C110" s="0">
         <v>141</v>
@@ -7075,7 +8322,7 @@
         <v>100</v>
       </c>
       <c r="M110" s="0">
-        <v>223.80000000000018</v>
+        <v>391.44000000000005</v>
       </c>
     </row>
     <row r="111">
@@ -7083,7 +8330,7 @@
         <v>45.399999999999999</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>526</v>
+        <v>941</v>
       </c>
       <c r="C111" s="0">
         <v>20</v>
@@ -7116,7 +8363,7 @@
         <v>40</v>
       </c>
       <c r="M111" s="0">
-        <v>391.44000000000005</v>
+        <v>223.80000000000018</v>
       </c>
     </row>
     <row r="112">
@@ -7124,7 +8371,7 @@
         <v>45.5</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>527</v>
+        <v>942</v>
       </c>
       <c r="C112" s="0">
         <v>141</v>
@@ -7157,7 +8404,7 @@
         <v>100</v>
       </c>
       <c r="M112" s="0">
-        <v>221.375</v>
+        <v>392.70000000000005</v>
       </c>
     </row>
     <row r="113">
@@ -7165,7 +8412,7 @@
         <v>45.5</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>528</v>
+        <v>943</v>
       </c>
       <c r="C113" s="0">
         <v>20</v>
@@ -7198,7 +8445,7 @@
         <v>40</v>
       </c>
       <c r="M113" s="0">
-        <v>392.70000000000005</v>
+        <v>221.375</v>
       </c>
     </row>
     <row r="114">
@@ -7206,7 +8453,7 @@
         <v>45.600000000000001</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>529</v>
+        <v>944</v>
       </c>
       <c r="C114" s="0">
         <v>141</v>
@@ -7239,7 +8486,7 @@
         <v>100</v>
       </c>
       <c r="M114" s="0">
-        <v>223.83000000000001</v>
+        <v>393.96000000000004</v>
       </c>
     </row>
     <row r="115">
@@ -7247,7 +8494,7 @@
         <v>45.600000000000001</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>530</v>
+        <v>945</v>
       </c>
       <c r="C115" s="0">
         <v>20</v>
@@ -7280,7 +8527,7 @@
         <v>40</v>
       </c>
       <c r="M115" s="0">
-        <v>393.96000000000004</v>
+        <v>223.83000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -7288,7 +8535,7 @@
         <v>45.700000000000003</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>531</v>
+        <v>946</v>
       </c>
       <c r="C116" s="0">
         <v>141</v>
@@ -7321,7 +8568,7 @@
         <v>100</v>
       </c>
       <c r="M116" s="0">
-        <v>221.56999999999994</v>
+        <v>395.22000000000003</v>
       </c>
     </row>
     <row r="117">
@@ -7329,7 +8576,7 @@
         <v>45.700000000000003</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>532</v>
+        <v>947</v>
       </c>
       <c r="C117" s="0">
         <v>20</v>
@@ -7362,7 +8609,7 @@
         <v>40</v>
       </c>
       <c r="M117" s="0">
-        <v>395.22000000000003</v>
+        <v>221.56999999999994</v>
       </c>
     </row>
     <row r="118">
@@ -7370,7 +8617,7 @@
         <v>45.799999999999997</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>533</v>
+        <v>948</v>
       </c>
       <c r="C118" s="0">
         <v>141</v>
@@ -7403,7 +8650,7 @@
         <v>100</v>
       </c>
       <c r="M118" s="0">
-        <v>224.08000000000015</v>
+        <v>396.48000000000002</v>
       </c>
     </row>
     <row r="119">
@@ -7411,7 +8658,7 @@
         <v>45.799999999999997</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>534</v>
+        <v>949</v>
       </c>
       <c r="C119" s="0">
         <v>20</v>
@@ -7444,7 +8691,7 @@
         <v>40</v>
       </c>
       <c r="M119" s="0">
-        <v>396.48000000000002</v>
+        <v>224.08000000000015</v>
       </c>
     </row>
     <row r="120">
@@ -7452,7 +8699,7 @@
         <v>45.899999999999999</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>535</v>
+        <v>950</v>
       </c>
       <c r="C120" s="0">
         <v>141</v>
@@ -7485,7 +8732,7 @@
         <v>100</v>
       </c>
       <c r="M120" s="0">
-        <v>226.59000000000015</v>
+        <v>397.74000000000012</v>
       </c>
     </row>
     <row r="121">
@@ -7493,7 +8740,7 @@
         <v>45.899999999999999</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>536</v>
+        <v>951</v>
       </c>
       <c r="C121" s="0">
         <v>20</v>
@@ -7526,7 +8773,7 @@
         <v>40</v>
       </c>
       <c r="M121" s="0">
-        <v>397.74000000000012</v>
+        <v>226.59000000000015</v>
       </c>
     </row>
     <row r="122">
@@ -7534,7 +8781,7 @@
         <v>46</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>537</v>
+        <v>952</v>
       </c>
       <c r="C122" s="0">
         <v>141</v>
@@ -7567,7 +8814,7 @@
         <v>100</v>
       </c>
       <c r="M122" s="0">
-        <v>224.35000000000002</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123">
@@ -7575,7 +8822,7 @@
         <v>46</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>538</v>
+        <v>953</v>
       </c>
       <c r="C123" s="0">
         <v>20</v>
@@ -7608,7 +8855,7 @@
         <v>40</v>
       </c>
       <c r="M123" s="0">
-        <v>399</v>
+        <v>224.35000000000002</v>
       </c>
     </row>
     <row r="124">
@@ -7616,7 +8863,7 @@
         <v>46.100000000000001</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>539</v>
+        <v>954</v>
       </c>
       <c r="C124" s="0">
         <v>141</v>
@@ -7649,7 +8896,7 @@
         <v>100</v>
       </c>
       <c r="M124" s="0">
-        <v>226.70500000000004</v>
+        <v>400.31000000000006</v>
       </c>
     </row>
     <row r="125">
@@ -7657,7 +8904,7 @@
         <v>46.100000000000001</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>540</v>
+        <v>955</v>
       </c>
       <c r="C125" s="0">
         <v>20</v>
@@ -7690,7 +8937,7 @@
         <v>40</v>
       </c>
       <c r="M125" s="0">
-        <v>400.31000000000006</v>
+        <v>226.70500000000004</v>
       </c>
     </row>
     <row r="126">
@@ -7698,7 +8945,7 @@
         <v>46.200000000000003</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>541</v>
+        <v>956</v>
       </c>
       <c r="C126" s="0">
         <v>141</v>
@@ -7731,7 +8978,7 @@
         <v>100</v>
       </c>
       <c r="M126" s="0">
-        <v>224.4000000000002</v>
+        <v>401.62</v>
       </c>
     </row>
     <row r="127">
@@ -7739,7 +8986,7 @@
         <v>46.200000000000003</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>542</v>
+        <v>957</v>
       </c>
       <c r="C127" s="0">
         <v>20</v>
@@ -7772,7 +9019,7 @@
         <v>40</v>
       </c>
       <c r="M127" s="0">
-        <v>401.62</v>
+        <v>224.4000000000002</v>
       </c>
     </row>
     <row r="128">
@@ -7780,7 +9027,7 @@
         <v>46.299999999999997</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>543</v>
+        <v>958</v>
       </c>
       <c r="C128" s="0">
         <v>141</v>
@@ -7813,7 +9060,7 @@
         <v>100</v>
       </c>
       <c r="M128" s="0">
-        <v>226.80000000000007</v>
+        <v>402.93000000000006</v>
       </c>
     </row>
     <row r="129">
@@ -7821,7 +9068,7 @@
         <v>46.299999999999997</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>544</v>
+        <v>959</v>
       </c>
       <c r="C129" s="0">
         <v>20</v>
@@ -7854,7 +9101,7 @@
         <v>40</v>
       </c>
       <c r="M129" s="0">
-        <v>402.93000000000006</v>
+        <v>226.80000000000007</v>
       </c>
     </row>
     <row r="130">
@@ -7862,7 +9109,7 @@
         <v>46.399999999999999</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>545</v>
+        <v>960</v>
       </c>
       <c r="C130" s="0">
         <v>141</v>
@@ -7895,7 +9142,7 @@
         <v>100</v>
       </c>
       <c r="M130" s="0">
-        <v>229.20000000000016</v>
+        <v>404.24000000000012</v>
       </c>
     </row>
     <row r="131">
@@ -7903,7 +9150,7 @@
         <v>46.399999999999999</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>546</v>
+        <v>961</v>
       </c>
       <c r="C131" s="0">
         <v>20</v>
@@ -7936,7 +9183,7 @@
         <v>40</v>
       </c>
       <c r="M131" s="0">
-        <v>404.24000000000012</v>
+        <v>229.20000000000016</v>
       </c>
     </row>
     <row r="132">
@@ -7944,7 +9191,7 @@
         <v>46.5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>547</v>
+        <v>962</v>
       </c>
       <c r="C132" s="0">
         <v>141</v>
@@ -7977,7 +9224,7 @@
         <v>100</v>
       </c>
       <c r="M132" s="0">
-        <v>226.94999999999999</v>
+        <v>405.54999999999995</v>
       </c>
     </row>
     <row r="133">
@@ -7985,7 +9232,7 @@
         <v>46.5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>548</v>
+        <v>963</v>
       </c>
       <c r="C133" s="0">
         <v>20</v>
@@ -8018,7 +9265,7 @@
         <v>40</v>
       </c>
       <c r="M133" s="0">
-        <v>405.54999999999995</v>
+        <v>226.94999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -8026,7 +9273,7 @@
         <v>46.600000000000001</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>549</v>
+        <v>964</v>
       </c>
       <c r="C134" s="0">
         <v>141</v>
@@ -8059,7 +9306,7 @@
         <v>100</v>
       </c>
       <c r="M134" s="0">
-        <v>229.40000000000003</v>
+        <v>406.86000000000001</v>
       </c>
     </row>
     <row r="135">
@@ -8067,7 +9314,7 @@
         <v>46.600000000000001</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>550</v>
+        <v>965</v>
       </c>
       <c r="C135" s="0">
         <v>20</v>
@@ -8100,7 +9347,7 @@
         <v>40</v>
       </c>
       <c r="M135" s="0">
-        <v>406.86000000000001</v>
+        <v>229.40000000000003</v>
       </c>
     </row>
     <row r="136">
@@ -8108,7 +9355,7 @@
         <v>46.700000000000003</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>551</v>
+        <v>966</v>
       </c>
       <c r="C136" s="0">
         <v>141</v>
@@ -8141,7 +9388,7 @@
         <v>100</v>
       </c>
       <c r="M136" s="0">
-        <v>227.29999999999995</v>
+        <v>408.17000000000007</v>
       </c>
     </row>
     <row r="137">
@@ -8149,7 +9396,7 @@
         <v>46.700000000000003</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>552</v>
+        <v>967</v>
       </c>
       <c r="C137" s="0">
         <v>20</v>
@@ -8182,7 +9429,7 @@
         <v>40</v>
       </c>
       <c r="M137" s="0">
-        <v>408.17000000000007</v>
+        <v>227.29999999999995</v>
       </c>
     </row>
     <row r="138">
@@ -8190,7 +9437,7 @@
         <v>46.799999999999997</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>553</v>
+        <v>968</v>
       </c>
       <c r="C138" s="0">
         <v>141</v>
@@ -8223,7 +9470,7 @@
         <v>100</v>
       </c>
       <c r="M138" s="0">
-        <v>229.79999999999995</v>
+        <v>409.48000000000002</v>
       </c>
     </row>
     <row r="139">
@@ -8231,7 +9478,7 @@
         <v>46.799999999999997</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>554</v>
+        <v>969</v>
       </c>
       <c r="C139" s="0">
         <v>20</v>
@@ -8264,7 +9511,7 @@
         <v>40</v>
       </c>
       <c r="M139" s="0">
-        <v>409.48000000000002</v>
+        <v>229.79999999999995</v>
       </c>
     </row>
     <row r="140">
@@ -8272,7 +9519,7 @@
         <v>46.899999999999999</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>555</v>
+        <v>970</v>
       </c>
       <c r="C140" s="0">
         <v>141</v>
@@ -8305,7 +9552,7 @@
         <v>100</v>
       </c>
       <c r="M140" s="0">
-        <v>227.59500000000017</v>
+        <v>410.79000000000008</v>
       </c>
     </row>
     <row r="141">
@@ -8313,7 +9560,7 @@
         <v>46.899999999999999</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>556</v>
+        <v>971</v>
       </c>
       <c r="C141" s="0">
         <v>20</v>
@@ -8346,7 +9593,7 @@
         <v>40</v>
       </c>
       <c r="M141" s="0">
-        <v>410.79000000000008</v>
+        <v>227.59500000000017</v>
       </c>
     </row>
     <row r="142">
@@ -8354,7 +9601,7 @@
         <v>47</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="C142" s="0">
         <v>141</v>
@@ -8387,7 +9634,7 @@
         <v>100</v>
       </c>
       <c r="M142" s="0">
-        <v>230.14999999999998</v>
+        <v>412.10000000000002</v>
       </c>
     </row>
     <row r="143">
@@ -8395,7 +9642,7 @@
         <v>47</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>558</v>
+        <v>973</v>
       </c>
       <c r="C143" s="0">
         <v>20</v>
@@ -8428,7 +9675,7 @@
         <v>40</v>
       </c>
       <c r="M143" s="0">
-        <v>412.10000000000002</v>
+        <v>230.14999999999998</v>
       </c>
     </row>
     <row r="144">
@@ -8436,7 +9683,7 @@
         <v>47.100000000000001</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>559</v>
+        <v>974</v>
       </c>
       <c r="C144" s="0">
         <v>141</v>
@@ -8469,7 +9716,7 @@
         <v>100</v>
       </c>
       <c r="M144" s="0">
-        <v>232.50500000000002</v>
+        <v>413.38</v>
       </c>
     </row>
     <row r="145">
@@ -8477,7 +9724,7 @@
         <v>47.100000000000001</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>560</v>
+        <v>975</v>
       </c>
       <c r="C145" s="0">
         <v>20</v>
@@ -8510,7 +9757,7 @@
         <v>40</v>
       </c>
       <c r="M145" s="0">
-        <v>413.38</v>
+        <v>232.50500000000002</v>
       </c>
     </row>
     <row r="146">
@@ -8518,7 +9765,7 @@
         <v>47.200000000000003</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>561</v>
+        <v>976</v>
       </c>
       <c r="C146" s="0">
         <v>141</v>
@@ -8551,7 +9798,7 @@
         <v>100</v>
       </c>
       <c r="M146" s="0">
-        <v>230.30000000000018</v>
+        <v>414.66000000000008</v>
       </c>
     </row>
     <row r="147">
@@ -8559,7 +9806,7 @@
         <v>47.200000000000003</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>562</v>
+        <v>977</v>
       </c>
       <c r="C147" s="0">
         <v>20</v>
@@ -8592,7 +9839,7 @@
         <v>40</v>
       </c>
       <c r="M147" s="0">
-        <v>414.66000000000008</v>
+        <v>230.30000000000018</v>
       </c>
     </row>
     <row r="148">
@@ -8600,7 +9847,7 @@
         <v>47.299999999999997</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>563</v>
+        <v>978</v>
       </c>
       <c r="C148" s="0">
         <v>141</v>
@@ -8633,7 +9880,7 @@
         <v>100</v>
       </c>
       <c r="M148" s="0">
-        <v>232.70000000000005</v>
+        <v>415.94000000000005</v>
       </c>
     </row>
     <row r="149">
@@ -8641,7 +9888,7 @@
         <v>47.299999999999997</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>564</v>
+        <v>979</v>
       </c>
       <c r="C149" s="0">
         <v>20</v>
@@ -8674,7 +9921,7 @@
         <v>40</v>
       </c>
       <c r="M149" s="0">
-        <v>415.94000000000005</v>
+        <v>232.70000000000005</v>
       </c>
     </row>
     <row r="150">
@@ -8682,7 +9929,7 @@
         <v>47.399999999999999</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>565</v>
+        <v>980</v>
       </c>
       <c r="C150" s="0">
         <v>141</v>
@@ -8715,7 +9962,7 @@
         <v>100</v>
       </c>
       <c r="M150" s="0">
-        <v>230.53000000000014</v>
+        <v>414.7600000000001</v>
       </c>
     </row>
     <row r="151">
@@ -8723,7 +9970,7 @@
         <v>47.399999999999999</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>566</v>
+        <v>981</v>
       </c>
       <c r="C151" s="0">
         <v>20</v>
@@ -8756,7 +10003,7 @@
         <v>40</v>
       </c>
       <c r="M151" s="0">
-        <v>414.7600000000001</v>
+        <v>230.53000000000014</v>
       </c>
     </row>
     <row r="152">
@@ -8764,7 +10011,7 @@
         <v>47.5</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>567</v>
+        <v>982</v>
       </c>
       <c r="C152" s="0">
         <v>141</v>
@@ -8797,7 +10044,7 @@
         <v>100</v>
       </c>
       <c r="M152" s="0">
-        <v>232.97499999999999</v>
+        <v>416.04999999999995</v>
       </c>
     </row>
     <row r="153">
@@ -8805,7 +10052,7 @@
         <v>47.5</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>568</v>
+        <v>983</v>
       </c>
       <c r="C153" s="0">
         <v>20</v>
@@ -8838,7 +10085,7 @@
         <v>40</v>
       </c>
       <c r="M153" s="0">
-        <v>416.04999999999995</v>
+        <v>232.97499999999999</v>
       </c>
     </row>
     <row r="154">
@@ -8846,7 +10093,7 @@
         <v>47.600000000000001</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>569</v>
+        <v>984</v>
       </c>
       <c r="C154" s="0">
         <v>141</v>
@@ -8879,7 +10126,7 @@
         <v>100</v>
       </c>
       <c r="M154" s="0">
-        <v>230.94000000000005</v>
+        <v>417.34000000000003</v>
       </c>
     </row>
     <row r="155">
@@ -8887,7 +10134,7 @@
         <v>47.600000000000001</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>570</v>
+        <v>985</v>
       </c>
       <c r="C155" s="0">
         <v>20</v>
@@ -8920,7 +10167,7 @@
         <v>40</v>
       </c>
       <c r="M155" s="0">
-        <v>417.34000000000003</v>
+        <v>230.94000000000005</v>
       </c>
     </row>
     <row r="156">
@@ -8928,7 +10175,7 @@
         <v>47.700000000000003</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>571</v>
+        <v>986</v>
       </c>
       <c r="C156" s="0">
         <v>141</v>
@@ -8961,7 +10208,7 @@
         <v>100</v>
       </c>
       <c r="M156" s="0">
-        <v>233.43000000000006</v>
+        <v>418.63000000000005</v>
       </c>
     </row>
     <row r="157">
@@ -8969,7 +10216,7 @@
         <v>47.700000000000003</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>572</v>
+        <v>987</v>
       </c>
       <c r="C157" s="0">
         <v>20</v>
@@ -9002,7 +10249,7 @@
         <v>40</v>
       </c>
       <c r="M157" s="0">
-        <v>418.63000000000005</v>
+        <v>233.43000000000006</v>
       </c>
     </row>
     <row r="158">
@@ -9010,7 +10257,7 @@
         <v>47.799999999999997</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>573</v>
+        <v>988</v>
       </c>
       <c r="C158" s="0">
         <v>141</v>
@@ -9043,7 +10290,7 @@
         <v>100</v>
       </c>
       <c r="M158" s="0">
-        <v>235.9200000000003</v>
+        <v>419.92000000000007</v>
       </c>
     </row>
     <row r="159">
@@ -9051,7 +10298,7 @@
         <v>47.799999999999997</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>574</v>
+        <v>989</v>
       </c>
       <c r="C159" s="0">
         <v>20</v>
@@ -9084,7 +10331,7 @@
         <v>40</v>
       </c>
       <c r="M159" s="0">
-        <v>419.92000000000007</v>
+        <v>235.9200000000003</v>
       </c>
     </row>
     <row r="160">
@@ -9092,7 +10339,7 @@
         <v>47.899999999999999</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>575</v>
+        <v>990</v>
       </c>
       <c r="C160" s="0">
         <v>141</v>
@@ -9125,7 +10372,7 @@
         <v>100</v>
       </c>
       <c r="M160" s="0">
-        <v>233.86000000000013</v>
+        <v>421.21000000000009</v>
       </c>
     </row>
     <row r="161">
@@ -9133,7 +10380,7 @@
         <v>47.899999999999999</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>576</v>
+        <v>991</v>
       </c>
       <c r="C161" s="0">
         <v>20</v>
@@ -9166,7 +10413,7 @@
         <v>40</v>
       </c>
       <c r="M161" s="0">
-        <v>421.21000000000009</v>
+        <v>233.86000000000013</v>
       </c>
     </row>
     <row r="162">
@@ -9174,7 +10421,7 @@
         <v>48</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>577</v>
+        <v>992</v>
       </c>
       <c r="C162" s="0">
         <v>141</v>
@@ -9207,7 +10454,7 @@
         <v>100</v>
       </c>
       <c r="M162" s="0">
-        <v>236.39999999999998</v>
+        <v>420.10000000000002</v>
       </c>
     </row>
     <row r="163">
@@ -9215,7 +10462,7 @@
         <v>48</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>578</v>
+        <v>993</v>
       </c>
       <c r="C163" s="0">
         <v>20</v>
@@ -9248,7 +10495,7 @@
         <v>40</v>
       </c>
       <c r="M163" s="0">
-        <v>420.10000000000002</v>
+        <v>236.39999999999998</v>
       </c>
     </row>
     <row r="164">
@@ -9256,7 +10503,7 @@
         <v>48.100000000000001</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>579</v>
+        <v>994</v>
       </c>
       <c r="C164" s="0">
         <v>141</v>
@@ -9289,7 +10536,7 @@
         <v>100</v>
       </c>
       <c r="M164" s="0">
-        <v>234.29000000000008</v>
+        <v>421.40000000000009</v>
       </c>
     </row>
     <row r="165">
@@ -9297,7 +10544,7 @@
         <v>48.100000000000001</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>580</v>
+        <v>995</v>
       </c>
       <c r="C165" s="0">
         <v>20</v>
@@ -9330,7 +10577,7 @@
         <v>40</v>
       </c>
       <c r="M165" s="0">
-        <v>421.40000000000009</v>
+        <v>234.29000000000008</v>
       </c>
     </row>
     <row r="166">
@@ -9338,7 +10585,7 @@
         <v>48.200000000000003</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>581</v>
+        <v>996</v>
       </c>
       <c r="C166" s="0">
         <v>141</v>
@@ -9371,7 +10618,7 @@
         <v>100</v>
       </c>
       <c r="M166" s="0">
-        <v>236.67999999999995</v>
+        <v>422.70000000000005</v>
       </c>
     </row>
     <row r="167">
@@ -9379,7 +10626,7 @@
         <v>48.200000000000003</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>582</v>
+        <v>997</v>
       </c>
       <c r="C167" s="0">
         <v>20</v>
@@ -9412,7 +10659,7 @@
         <v>40</v>
       </c>
       <c r="M167" s="0">
-        <v>422.70000000000005</v>
+        <v>236.67999999999995</v>
       </c>
     </row>
     <row r="168">
@@ -9420,7 +10667,7 @@
         <v>48.299999999999997</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>583</v>
+        <v>998</v>
       </c>
       <c r="C168" s="0">
         <v>141</v>
@@ -9453,7 +10700,7 @@
         <v>100</v>
       </c>
       <c r="M168" s="0">
-        <v>239.07000000000005</v>
+        <v>424.00000000000011</v>
       </c>
     </row>
     <row r="169">
@@ -9461,7 +10708,7 @@
         <v>48.299999999999997</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>584</v>
+        <v>999</v>
       </c>
       <c r="C169" s="0">
         <v>20</v>
@@ -9494,7 +10741,7 @@
         <v>40</v>
       </c>
       <c r="M169" s="0">
-        <v>424.00000000000011</v>
+        <v>239.07000000000005</v>
       </c>
     </row>
     <row r="170">
@@ -9502,7 +10749,7 @@
         <v>48.399999999999999</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>585</v>
+        <v>1000</v>
       </c>
       <c r="C170" s="0">
         <v>141</v>
@@ -9535,7 +10782,7 @@
         <v>100</v>
       </c>
       <c r="M170" s="0">
-        <v>241.46000000000015</v>
+        <v>425.30000000000007</v>
       </c>
     </row>
     <row r="171">
@@ -9543,7 +10790,7 @@
         <v>48.399999999999999</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>586</v>
+        <v>1001</v>
       </c>
       <c r="C171" s="0">
         <v>20</v>
@@ -9576,7 +10823,7 @@
         <v>40</v>
       </c>
       <c r="M171" s="0">
-        <v>425.30000000000007</v>
+        <v>241.46000000000015</v>
       </c>
     </row>
     <row r="172">
@@ -9584,7 +10831,7 @@
         <v>48.5</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>587</v>
+        <v>1002</v>
       </c>
       <c r="C172" s="0">
         <v>141</v>
@@ -9617,7 +10864,7 @@
         <v>100</v>
       </c>
       <c r="M172" s="0">
-        <v>243.85000000000002</v>
+        <v>424.32500000000005</v>
       </c>
     </row>
     <row r="173">
@@ -9625,7 +10872,7 @@
         <v>48.5</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>588</v>
+        <v>1003</v>
       </c>
       <c r="C173" s="0">
         <v>20</v>
@@ -9658,7 +10905,7 @@
         <v>40</v>
       </c>
       <c r="M173" s="0">
-        <v>424.32500000000005</v>
+        <v>243.85000000000002</v>
       </c>
     </row>
     <row r="174">
@@ -9666,7 +10913,7 @@
         <v>48.600000000000001</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>589</v>
+        <v>1004</v>
       </c>
       <c r="C174" s="0">
         <v>141</v>
@@ -9699,7 +10946,7 @@
         <v>100</v>
       </c>
       <c r="M174" s="0">
-        <v>246.24000000000012</v>
+        <v>425.63000000000005</v>
       </c>
     </row>
     <row r="175">
@@ -9707,7 +10954,7 @@
         <v>48.600000000000001</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>590</v>
+        <v>1005</v>
       </c>
       <c r="C175" s="0">
         <v>20</v>
@@ -9740,7 +10987,7 @@
         <v>40</v>
       </c>
       <c r="M175" s="0">
-        <v>425.63000000000005</v>
+        <v>246.24000000000012</v>
       </c>
     </row>
     <row r="176">
@@ -9748,7 +10995,7 @@
         <v>48.700000000000003</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>591</v>
+        <v>1006</v>
       </c>
       <c r="C176" s="0">
         <v>141</v>
@@ -9781,7 +11028,7 @@
         <v>100</v>
       </c>
       <c r="M176" s="0">
-        <v>248.63</v>
+        <v>426.93500000000006</v>
       </c>
     </row>
     <row r="177">
@@ -9789,7 +11036,7 @@
         <v>48.700000000000003</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>592</v>
+        <v>1007</v>
       </c>
       <c r="C177" s="0">
         <v>20</v>
@@ -9822,7 +11069,7 @@
         <v>40</v>
       </c>
       <c r="M177" s="0">
-        <v>426.93500000000006</v>
+        <v>248.63</v>
       </c>
     </row>
     <row r="178">
@@ -9830,7 +11077,7 @@
         <v>48.799999999999997</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>593</v>
+        <v>1008</v>
       </c>
       <c r="C178" s="0">
         <v>141</v>
@@ -9863,7 +11110,7 @@
         <v>100</v>
       </c>
       <c r="M178" s="0">
-        <v>251.0200000000001</v>
+        <v>428.24000000000012</v>
       </c>
     </row>
     <row r="179">
@@ -9871,7 +11118,7 @@
         <v>48.799999999999997</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>594</v>
+        <v>1009</v>
       </c>
       <c r="C179" s="0">
         <v>20</v>
@@ -9904,7 +11151,7 @@
         <v>40</v>
       </c>
       <c r="M179" s="0">
-        <v>428.24000000000012</v>
+        <v>251.0200000000001</v>
       </c>
     </row>
     <row r="180">
@@ -9912,7 +11159,7 @@
         <v>48.899999999999999</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>595</v>
+        <v>1010</v>
       </c>
       <c r="C180" s="0">
         <v>141</v>
@@ -9945,7 +11192,7 @@
         <v>100</v>
       </c>
       <c r="M180" s="0">
-        <v>253.4100000000002</v>
+        <v>429.54500000000007</v>
       </c>
     </row>
     <row r="181">
@@ -9953,7 +11200,7 @@
         <v>48.899999999999999</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>596</v>
+        <v>1011</v>
       </c>
       <c r="C181" s="0">
         <v>20</v>
@@ -9986,7 +11233,7 @@
         <v>40</v>
       </c>
       <c r="M181" s="0">
-        <v>429.54500000000007</v>
+        <v>253.4100000000002</v>
       </c>
     </row>
     <row r="182">
@@ -9994,7 +11241,7 @@
         <v>49</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>597</v>
+        <v>1012</v>
       </c>
       <c r="C182" s="0">
         <v>141</v>
@@ -10027,7 +11274,7 @@
         <v>100</v>
       </c>
       <c r="M182" s="0">
-        <v>255.80000000000001</v>
+        <v>428.60000000000002</v>
       </c>
     </row>
     <row r="183">
@@ -10035,7 +11282,7 @@
         <v>49</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>598</v>
+        <v>1013</v>
       </c>
       <c r="C183" s="0">
         <v>20</v>
@@ -10068,7 +11315,7 @@
         <v>40</v>
       </c>
       <c r="M183" s="0">
-        <v>428.60000000000002</v>
+        <v>255.80000000000001</v>
       </c>
     </row>
     <row r="184">
@@ -10076,7 +11323,7 @@
         <v>49.100000000000001</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>599</v>
+        <v>1014</v>
       </c>
       <c r="C184" s="0">
         <v>141</v>
@@ -10109,7 +11356,7 @@
         <v>100</v>
       </c>
       <c r="M184" s="0">
-        <v>258.02999999999997</v>
+        <v>429.90000000000009</v>
       </c>
     </row>
     <row r="185">
@@ -10117,7 +11364,7 @@
         <v>49.100000000000001</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>600</v>
+        <v>1015</v>
       </c>
       <c r="C185" s="0">
         <v>20</v>
@@ -10150,7 +11397,7 @@
         <v>40</v>
       </c>
       <c r="M185" s="0">
-        <v>429.90000000000009</v>
+        <v>258.02999999999997</v>
       </c>
     </row>
     <row r="186">
@@ -10158,7 +11405,7 @@
         <v>49.200000000000003</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>601</v>
+        <v>1016</v>
       </c>
       <c r="C186" s="0">
         <v>141</v>
@@ -10191,7 +11438,7 @@
         <v>100</v>
       </c>
       <c r="M186" s="0">
-        <v>260.25999999999999</v>
+        <v>431.20000000000005</v>
       </c>
     </row>
     <row r="187">
@@ -10199,7 +11446,7 @@
         <v>49.200000000000003</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>602</v>
+        <v>1017</v>
       </c>
       <c r="C187" s="0">
         <v>20</v>
@@ -10232,7 +11479,7 @@
         <v>40</v>
       </c>
       <c r="M187" s="0">
-        <v>431.20000000000005</v>
+        <v>260.25999999999999</v>
       </c>
     </row>
     <row r="188">
@@ -10240,7 +11487,7 @@
         <v>49.299999999999997</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>603</v>
+        <v>1018</v>
       </c>
       <c r="C188" s="0">
         <v>141</v>
@@ -10273,7 +11520,7 @@
         <v>100</v>
       </c>
       <c r="M188" s="0">
-        <v>262.49000000000001</v>
+        <v>432.50000000000011</v>
       </c>
     </row>
     <row r="189">
@@ -10281,7 +11528,7 @@
         <v>49.299999999999997</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>604</v>
+        <v>1019</v>
       </c>
       <c r="C189" s="0">
         <v>20</v>
@@ -10314,7 +11561,7 @@
         <v>40</v>
       </c>
       <c r="M189" s="0">
-        <v>432.50000000000011</v>
+        <v>262.49000000000001</v>
       </c>
     </row>
     <row r="190">
@@ -10322,7 +11569,7 @@
         <v>49.399999999999999</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>605</v>
+        <v>1020</v>
       </c>
       <c r="C190" s="0">
         <v>141</v>
@@ -10355,7 +11602,7 @@
         <v>100</v>
       </c>
       <c r="M190" s="0">
-        <v>264.72000000000025</v>
+        <v>433.80000000000007</v>
       </c>
     </row>
     <row r="191">
@@ -10363,7 +11610,7 @@
         <v>49.399999999999999</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>606</v>
+        <v>1021</v>
       </c>
       <c r="C191" s="0">
         <v>20</v>
@@ -10396,7 +11643,7 @@
         <v>40</v>
       </c>
       <c r="M191" s="0">
-        <v>433.80000000000007</v>
+        <v>264.72000000000025</v>
       </c>
     </row>
     <row r="192">
@@ -10404,7 +11651,7 @@
         <v>49.5</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>607</v>
+        <v>1022</v>
       </c>
       <c r="C192" s="0">
         <v>141</v>
@@ -10437,7 +11684,7 @@
         <v>100</v>
       </c>
       <c r="M192" s="0">
-        <v>266.95000000000005</v>
+        <v>432.95000000000005</v>
       </c>
     </row>
     <row r="193">
@@ -10445,7 +11692,7 @@
         <v>49.5</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>608</v>
+        <v>1023</v>
       </c>
       <c r="C193" s="0">
         <v>20</v>
@@ -10478,7 +11725,7 @@
         <v>40</v>
       </c>
       <c r="M193" s="0">
-        <v>432.95000000000005</v>
+        <v>266.95000000000005</v>
       </c>
     </row>
     <row r="194">
@@ -10486,7 +11733,7 @@
         <v>49.600000000000001</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>609</v>
+        <v>1024</v>
       </c>
       <c r="C194" s="0">
         <v>141</v>
@@ -10519,7 +11766,7 @@
         <v>100</v>
       </c>
       <c r="M194" s="0">
-        <v>269.18000000000006</v>
+        <v>434.26000000000005</v>
       </c>
     </row>
     <row r="195">
@@ -10527,7 +11774,7 @@
         <v>49.600000000000001</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>610</v>
+        <v>1025</v>
       </c>
       <c r="C195" s="0">
         <v>20</v>
@@ -10560,7 +11807,7 @@
         <v>40</v>
       </c>
       <c r="M195" s="0">
-        <v>434.26000000000005</v>
+        <v>269.18000000000006</v>
       </c>
     </row>
     <row r="196">
@@ -10568,7 +11815,7 @@
         <v>49.700000000000003</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>611</v>
+        <v>1026</v>
       </c>
       <c r="C196" s="0">
         <v>141</v>
@@ -10601,7 +11848,7 @@
         <v>100</v>
       </c>
       <c r="M196" s="0">
-        <v>271.41000000000008</v>
+        <v>435.57000000000005</v>
       </c>
     </row>
     <row r="197">
@@ -10609,7 +11856,7 @@
         <v>49.700000000000003</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>612</v>
+        <v>1027</v>
       </c>
       <c r="C197" s="0">
         <v>20</v>
@@ -10642,7 +11889,7 @@
         <v>40</v>
       </c>
       <c r="M197" s="0">
-        <v>435.57000000000005</v>
+        <v>271.41000000000008</v>
       </c>
     </row>
     <row r="198">
@@ -10650,7 +11897,7 @@
         <v>49.799999999999997</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>613</v>
+        <v>1028</v>
       </c>
       <c r="C198" s="0">
         <v>141</v>
@@ -10683,7 +11930,7 @@
         <v>100</v>
       </c>
       <c r="M198" s="0">
-        <v>273.6400000000001</v>
+        <v>436.88000000000011</v>
       </c>
     </row>
     <row r="199">
@@ -10691,7 +11938,7 @@
         <v>49.799999999999997</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>614</v>
+        <v>1029</v>
       </c>
       <c r="C199" s="0">
         <v>20</v>
@@ -10724,7 +11971,7 @@
         <v>40</v>
       </c>
       <c r="M199" s="0">
-        <v>436.88000000000011</v>
+        <v>273.6400000000001</v>
       </c>
     </row>
     <row r="200">
@@ -10732,7 +11979,7 @@
         <v>49.899999999999999</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>615</v>
+        <v>1030</v>
       </c>
       <c r="C200" s="0">
         <v>141</v>
@@ -10765,7 +12012,7 @@
         <v>100</v>
       </c>
       <c r="M200" s="0">
-        <v>275.87000000000012</v>
+        <v>438.19000000000005</v>
       </c>
     </row>
     <row r="201">
@@ -10773,7 +12020,7 @@
         <v>49.899999999999999</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>616</v>
+        <v>1031</v>
       </c>
       <c r="C201" s="0">
         <v>20</v>
@@ -10806,7 +12053,7 @@
         <v>40</v>
       </c>
       <c r="M201" s="0">
-        <v>438.19000000000005</v>
+        <v>275.87000000000012</v>
       </c>
     </row>
     <row r="202">
@@ -10814,7 +12061,7 @@
         <v>50</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>617</v>
+        <v>1032</v>
       </c>
       <c r="C202" s="0">
         <v>141</v>
@@ -10847,7 +12094,7 @@
         <v>100</v>
       </c>
       <c r="M202" s="0">
-        <v>278.10000000000002</v>
+        <v>437.39999999999998</v>
       </c>
     </row>
     <row r="203">
@@ -10855,7 +12102,7 @@
         <v>50</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>618</v>
+        <v>1033</v>
       </c>
       <c r="C203" s="0">
         <v>20</v>
@@ -10888,7 +12135,7 @@
         <v>40</v>
       </c>
       <c r="M203" s="0">
-        <v>437.39999999999998</v>
+        <v>278.10000000000002</v>
       </c>
     </row>
     <row r="204">
@@ -10896,7 +12143,7 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>619</v>
+        <v>1034</v>
       </c>
       <c r="C204" s="0">
         <v>141</v>
@@ -10929,7 +12176,7 @@
         <v>100</v>
       </c>
       <c r="M204" s="0">
-        <v>280.21000000000015</v>
+        <v>438.70000000000005</v>
       </c>
     </row>
     <row r="205">
@@ -10937,7 +12184,7 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>620</v>
+        <v>1035</v>
       </c>
       <c r="C205" s="0">
         <v>20</v>
@@ -10970,7 +12217,7 @@
         <v>40</v>
       </c>
       <c r="M205" s="0">
-        <v>438.70000000000005</v>
+        <v>280.21000000000015</v>
       </c>
     </row>
     <row r="206">
@@ -10978,7 +12225,7 @@
         <v>50.200000000000003</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>621</v>
+        <v>1036</v>
       </c>
       <c r="C206" s="0">
         <v>141</v>
@@ -11011,7 +12258,7 @@
         <v>100</v>
       </c>
       <c r="M206" s="0">
-        <v>282.32000000000028</v>
+        <v>440</v>
       </c>
     </row>
     <row r="207">
@@ -11019,7 +12266,7 @@
         <v>50.200000000000003</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>622</v>
+        <v>1037</v>
       </c>
       <c r="C207" s="0">
         <v>20</v>
@@ -11052,7 +12299,7 @@
         <v>40</v>
       </c>
       <c r="M207" s="0">
-        <v>440</v>
+        <v>282.32000000000028</v>
       </c>
     </row>
     <row r="208">
@@ -11060,7 +12307,7 @@
         <v>50.299999999999997</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>623</v>
+        <v>1038</v>
       </c>
       <c r="C208" s="0">
         <v>141</v>
@@ -11093,7 +12340,7 @@
         <v>100</v>
       </c>
       <c r="M208" s="0">
-        <v>284.43000000000018</v>
+        <v>441.30000000000007</v>
       </c>
     </row>
     <row r="209">
@@ -11101,7 +12348,7 @@
         <v>50.299999999999997</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>624</v>
+        <v>1039</v>
       </c>
       <c r="C209" s="0">
         <v>20</v>
@@ -11134,7 +12381,7 @@
         <v>40</v>
       </c>
       <c r="M209" s="0">
-        <v>441.30000000000007</v>
+        <v>284.43000000000018</v>
       </c>
     </row>
     <row r="210">
@@ -11142,7 +12389,7 @@
         <v>50.399999999999999</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>625</v>
+        <v>1040</v>
       </c>
       <c r="C210" s="0">
         <v>141</v>
@@ -11175,7 +12422,7 @@
         <v>100</v>
       </c>
       <c r="M210" s="0">
-        <v>286.5400000000003</v>
+        <v>440.49000000000001</v>
       </c>
     </row>
     <row r="211">
@@ -11183,7 +12430,7 @@
         <v>50.399999999999999</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>626</v>
+        <v>1041</v>
       </c>
       <c r="C211" s="0">
         <v>20</v>
@@ -11216,7 +12463,7 @@
         <v>40</v>
       </c>
       <c r="M211" s="0">
-        <v>440.49000000000001</v>
+        <v>286.5400000000003</v>
       </c>
     </row>
     <row r="212">
@@ -11224,7 +12471,7 @@
         <v>50.5</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>627</v>
+        <v>1042</v>
       </c>
       <c r="C212" s="0">
         <v>141</v>
@@ -11257,7 +12504,7 @@
         <v>100</v>
       </c>
       <c r="M212" s="0">
-        <v>288.6500000000002</v>
+        <v>441.80000000000001</v>
       </c>
     </row>
     <row r="213">
@@ -11265,7 +12512,7 @@
         <v>50.5</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>628</v>
+        <v>1043</v>
       </c>
       <c r="C213" s="0">
         <v>20</v>
@@ -11298,7 +12545,7 @@
         <v>40</v>
       </c>
       <c r="M213" s="0">
-        <v>441.80000000000001</v>
+        <v>288.6500000000002</v>
       </c>
     </row>
     <row r="214">
@@ -11306,7 +12553,7 @@
         <v>50.600000000000001</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>629</v>
+        <v>1044</v>
       </c>
       <c r="C214" s="0">
         <v>141</v>
@@ -11339,7 +12586,7 @@
         <v>100</v>
       </c>
       <c r="M214" s="0">
-        <v>290.7600000000001</v>
+        <v>443.11000000000001</v>
       </c>
     </row>
     <row r="215">
@@ -11347,7 +12594,7 @@
         <v>50.600000000000001</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>630</v>
+        <v>1045</v>
       </c>
       <c r="C215" s="0">
         <v>20</v>
@@ -11380,7 +12627,7 @@
         <v>40</v>
       </c>
       <c r="M215" s="0">
-        <v>443.11000000000001</v>
+        <v>290.7600000000001</v>
       </c>
     </row>
     <row r="216">
@@ -11388,7 +12635,7 @@
         <v>50.700000000000003</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>631</v>
+        <v>1046</v>
       </c>
       <c r="C216" s="0">
         <v>141</v>
@@ -11421,7 +12668,7 @@
         <v>100</v>
       </c>
       <c r="M216" s="0">
-        <v>292.87000000000023</v>
+        <v>444.42000000000007</v>
       </c>
     </row>
     <row r="217">
@@ -11429,7 +12676,7 @@
         <v>50.700000000000003</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>632</v>
+        <v>1047</v>
       </c>
       <c r="C217" s="0">
         <v>20</v>
@@ -11462,7 +12709,7 @@
         <v>40</v>
       </c>
       <c r="M217" s="0">
-        <v>444.42000000000007</v>
+        <v>292.87000000000023</v>
       </c>
     </row>
     <row r="218">
@@ -11470,7 +12717,7 @@
         <v>50.799999999999997</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>633</v>
+        <v>1048</v>
       </c>
       <c r="C218" s="0">
         <v>141</v>
@@ -11503,7 +12750,7 @@
         <v>100</v>
       </c>
       <c r="M218" s="0">
-        <v>294.98000000000013</v>
+        <v>445.73000000000008</v>
       </c>
     </row>
     <row r="219">
@@ -11511,7 +12758,7 @@
         <v>50.799999999999997</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>634</v>
+        <v>1049</v>
       </c>
       <c r="C219" s="0">
         <v>20</v>
@@ -11544,7 +12791,7 @@
         <v>40</v>
       </c>
       <c r="M219" s="0">
-        <v>445.73000000000008</v>
+        <v>294.98000000000013</v>
       </c>
     </row>
     <row r="220">
@@ -11552,7 +12799,7 @@
         <v>50.899999999999999</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>635</v>
+        <v>1050</v>
       </c>
       <c r="C220" s="0">
         <v>141</v>
@@ -11585,7 +12832,7 @@
         <v>100</v>
       </c>
       <c r="M220" s="0">
-        <v>297.09000000000026</v>
+        <v>444.98000000000013</v>
       </c>
     </row>
     <row r="221">
@@ -11593,7 +12840,7 @@
         <v>50.899999999999999</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>636</v>
+        <v>1051</v>
       </c>
       <c r="C221" s="0">
         <v>20</v>
@@ -11626,7 +12873,7 @@
         <v>40</v>
       </c>
       <c r="M221" s="0">
-        <v>444.98000000000013</v>
+        <v>297.09000000000026</v>
       </c>
     </row>
     <row r="222">
@@ -11634,7 +12881,7 @@
         <v>51</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>637</v>
+        <v>1052</v>
       </c>
       <c r="C222" s="0">
         <v>141</v>
@@ -11667,7 +12914,7 @@
         <v>100</v>
       </c>
       <c r="M222" s="0">
-        <v>299.19999999999999</v>
+        <v>446.30000000000001</v>
       </c>
     </row>
     <row r="223">
@@ -11675,7 +12922,7 @@
         <v>51</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>638</v>
+        <v>1053</v>
       </c>
       <c r="C223" s="0">
         <v>20</v>
@@ -11708,7 +12955,7 @@
         <v>40</v>
       </c>
       <c r="M223" s="0">
-        <v>446.30000000000001</v>
+        <v>299.19999999999999</v>
       </c>
     </row>
     <row r="224">
@@ -11716,7 +12963,7 @@
         <v>51.100000000000001</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>639</v>
+        <v>1054</v>
       </c>
       <c r="C224" s="0">
         <v>141</v>
@@ -11749,7 +12996,7 @@
         <v>100</v>
       </c>
       <c r="M224" s="0">
-        <v>301.20000000000005</v>
+        <v>447.58999999999997</v>
       </c>
     </row>
     <row r="225">
@@ -11757,7 +13004,7 @@
         <v>51.100000000000001</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>640</v>
+        <v>1055</v>
       </c>
       <c r="C225" s="0">
         <v>20</v>
@@ -11790,7 +13037,7 @@
         <v>40</v>
       </c>
       <c r="M225" s="0">
-        <v>447.58999999999997</v>
+        <v>301.20000000000005</v>
       </c>
     </row>
     <row r="226">
@@ -11798,7 +13045,7 @@
         <v>51.200000000000003</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>641</v>
+        <v>1056</v>
       </c>
       <c r="C226" s="0">
         <v>141</v>
@@ -11831,7 +13078,7 @@
         <v>100</v>
       </c>
       <c r="M226" s="0">
-        <v>303.20000000000005</v>
+        <v>448.88000000000005</v>
       </c>
     </row>
     <row r="227">
@@ -11839,7 +13086,7 @@
         <v>51.200000000000003</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>642</v>
+        <v>1057</v>
       </c>
       <c r="C227" s="0">
         <v>20</v>
@@ -11872,7 +13119,7 @@
         <v>40</v>
       </c>
       <c r="M227" s="0">
-        <v>448.88000000000005</v>
+        <v>303.20000000000005</v>
       </c>
     </row>
     <row r="228">
@@ -11880,7 +13127,7 @@
         <v>51.299999999999997</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>643</v>
+        <v>1058</v>
       </c>
       <c r="C228" s="0">
         <v>141</v>
@@ -11913,7 +13160,7 @@
         <v>100</v>
       </c>
       <c r="M228" s="0">
-        <v>305.20000000000005</v>
+        <v>447.70000000000005</v>
       </c>
     </row>
     <row r="229">
@@ -11921,7 +13168,7 @@
         <v>51.299999999999997</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>644</v>
+        <v>1059</v>
       </c>
       <c r="C229" s="0">
         <v>20</v>
@@ -11954,7 +13201,7 @@
         <v>40</v>
       </c>
       <c r="M229" s="0">
-        <v>447.70000000000005</v>
+        <v>305.20000000000005</v>
       </c>
     </row>
     <row r="230">
@@ -11962,7 +13209,7 @@
         <v>51.399999999999999</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>645</v>
+        <v>1060</v>
       </c>
       <c r="C230" s="0">
         <v>141</v>
@@ -11995,7 +13242,7 @@
         <v>100</v>
       </c>
       <c r="M230" s="0">
-        <v>307.20000000000005</v>
+        <v>449.00000000000006</v>
       </c>
     </row>
     <row r="231">
@@ -12003,7 +13250,7 @@
         <v>51.399999999999999</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>646</v>
+        <v>1061</v>
       </c>
       <c r="C231" s="0">
         <v>20</v>
@@ -12036,7 +13283,7 @@
         <v>40</v>
       </c>
       <c r="M231" s="0">
-        <v>449.00000000000006</v>
+        <v>307.20000000000005</v>
       </c>
     </row>
     <row r="232">
@@ -12044,7 +13291,7 @@
         <v>51.5</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>647</v>
+        <v>1062</v>
       </c>
       <c r="C232" s="0">
         <v>141</v>
@@ -12077,7 +13324,7 @@
         <v>100</v>
       </c>
       <c r="M232" s="0">
-        <v>309.20000000000005</v>
+        <v>450.29999999999995</v>
       </c>
     </row>
     <row r="233">
@@ -12085,7 +13332,7 @@
         <v>51.5</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>648</v>
+        <v>1063</v>
       </c>
       <c r="C233" s="0">
         <v>20</v>
@@ -12118,7 +13365,7 @@
         <v>40</v>
       </c>
       <c r="M233" s="0">
-        <v>450.29999999999995</v>
+        <v>309.20000000000005</v>
       </c>
     </row>
     <row r="234">
@@ -12126,7 +13373,7 @@
         <v>51.600000000000001</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>649</v>
+        <v>1064</v>
       </c>
       <c r="C234" s="0">
         <v>141</v>
@@ -12159,7 +13406,7 @@
         <v>100</v>
       </c>
       <c r="M234" s="0">
-        <v>311.20000000000005</v>
+        <v>451.60000000000002</v>
       </c>
     </row>
     <row r="235">
@@ -12167,7 +13414,7 @@
         <v>51.600000000000001</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>650</v>
+        <v>1065</v>
       </c>
       <c r="C235" s="0">
         <v>20</v>
@@ -12200,7 +13447,7 @@
         <v>40</v>
       </c>
       <c r="M235" s="0">
-        <v>451.60000000000002</v>
+        <v>311.20000000000005</v>
       </c>
     </row>
     <row r="236">
@@ -12208,7 +13455,7 @@
         <v>51.700000000000003</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>651</v>
+        <v>1066</v>
       </c>
       <c r="C236" s="0">
         <v>141</v>
@@ -12241,7 +13488,7 @@
         <v>100</v>
       </c>
       <c r="M236" s="0">
-        <v>313.20000000000005</v>
+        <v>452.90000000000003</v>
       </c>
     </row>
     <row r="237">
@@ -12249,7 +13496,7 @@
         <v>51.700000000000003</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>652</v>
+        <v>1067</v>
       </c>
       <c r="C237" s="0">
         <v>20</v>
@@ -12282,7 +13529,7 @@
         <v>40</v>
       </c>
       <c r="M237" s="0">
-        <v>452.90000000000003</v>
+        <v>313.20000000000005</v>
       </c>
     </row>
     <row r="238">
@@ -12290,7 +13537,7 @@
         <v>51.799999999999997</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>653</v>
+        <v>1068</v>
       </c>
       <c r="C238" s="0">
         <v>141</v>
@@ -12323,7 +13570,7 @@
         <v>100</v>
       </c>
       <c r="M238" s="0">
-        <v>315.20000000000005</v>
+        <v>451.78000000000003</v>
       </c>
     </row>
     <row r="239">
@@ -12331,7 +13578,7 @@
         <v>51.799999999999997</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>654</v>
+        <v>1069</v>
       </c>
       <c r="C239" s="0">
         <v>20</v>
@@ -12364,7 +13611,7 @@
         <v>40</v>
       </c>
       <c r="M239" s="0">
-        <v>451.78000000000003</v>
+        <v>315.20000000000005</v>
       </c>
     </row>
     <row r="240">
@@ -12372,7 +13619,7 @@
         <v>51.899999999999999</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>655</v>
+        <v>1070</v>
       </c>
       <c r="C240" s="0">
         <v>141</v>
@@ -12405,7 +13652,7 @@
         <v>100</v>
       </c>
       <c r="M240" s="0">
-        <v>317.20000000000005</v>
+        <v>453.08999999999997</v>
       </c>
     </row>
     <row r="241">
@@ -12413,7 +13660,7 @@
         <v>51.899999999999999</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>656</v>
+        <v>1071</v>
       </c>
       <c r="C241" s="0">
         <v>20</v>
@@ -12446,7 +13693,7 @@
         <v>40</v>
       </c>
       <c r="M241" s="0">
-        <v>453.08999999999997</v>
+        <v>317.20000000000005</v>
       </c>
     </row>
     <row r="242">
@@ -12454,7 +13701,7 @@
         <v>52</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>657</v>
+        <v>1072</v>
       </c>
       <c r="C242" s="0">
         <v>141</v>
@@ -12487,7 +13734,7 @@
         <v>100</v>
       </c>
       <c r="M242" s="0">
-        <v>319.19999999999999</v>
+        <v>454.39999999999998</v>
       </c>
     </row>
     <row r="243">
@@ -12495,7 +13742,7 @@
         <v>52</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>658</v>
+        <v>1073</v>
       </c>
       <c r="C243" s="0">
         <v>20</v>
@@ -12528,7 +13775,7 @@
         <v>40</v>
       </c>
       <c r="M243" s="0">
-        <v>454.39999999999998</v>
+        <v>319.19999999999999</v>
       </c>
     </row>
     <row r="244">
@@ -12536,7 +13783,7 @@
         <v>52.100000000000001</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>659</v>
+        <v>1074</v>
       </c>
       <c r="C244" s="0">
         <v>141</v>
@@ -12569,7 +13816,7 @@
         <v>100</v>
       </c>
       <c r="M244" s="0">
-        <v>321.12000000000012</v>
+        <v>455.69000000000005</v>
       </c>
     </row>
     <row r="245">
@@ -12577,7 +13824,7 @@
         <v>52.100000000000001</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>660</v>
+        <v>1075</v>
       </c>
       <c r="C245" s="0">
         <v>20</v>
@@ -12610,7 +13857,7 @@
         <v>40</v>
       </c>
       <c r="M245" s="0">
-        <v>455.69000000000005</v>
+        <v>321.12000000000012</v>
       </c>
     </row>
     <row r="246">
@@ -12618,7 +13865,7 @@
         <v>52.200000000000003</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>661</v>
+        <v>1076</v>
       </c>
       <c r="C246" s="0">
         <v>141</v>
@@ -12651,7 +13898,7 @@
         <v>100</v>
       </c>
       <c r="M246" s="0">
-        <v>323.04000000000008</v>
+        <v>456.98000000000002</v>
       </c>
     </row>
     <row r="247">
@@ -12659,7 +13906,7 @@
         <v>52.200000000000003</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>662</v>
+        <v>1077</v>
       </c>
       <c r="C247" s="0">
         <v>20</v>
@@ -12692,7 +13939,7 @@
         <v>40</v>
       </c>
       <c r="M247" s="0">
-        <v>456.98000000000002</v>
+        <v>323.04000000000008</v>
       </c>
     </row>
     <row r="248">
@@ -12700,7 +13947,7 @@
         <v>52.299999999999997</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>663</v>
+        <v>1078</v>
       </c>
       <c r="C248" s="0">
         <v>141</v>
@@ -12733,7 +13980,7 @@
         <v>100</v>
       </c>
       <c r="M248" s="0">
-        <v>324.96000000000015</v>
+        <v>458.2700000000001</v>
       </c>
     </row>
     <row r="249">
@@ -12741,7 +13988,7 @@
         <v>52.299999999999997</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>664</v>
+        <v>1079</v>
       </c>
       <c r="C249" s="0">
         <v>20</v>
@@ -12774,7 +14021,7 @@
         <v>40</v>
       </c>
       <c r="M249" s="0">
-        <v>458.2700000000001</v>
+        <v>324.96000000000015</v>
       </c>
     </row>
     <row r="250">
@@ -12782,7 +14029,7 @@
         <v>52.399999999999999</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>665</v>
+        <v>1080</v>
       </c>
       <c r="C250" s="0">
         <v>141</v>
@@ -12815,7 +14062,7 @@
         <v>100</v>
       </c>
       <c r="M250" s="0">
-        <v>326.88000000000011</v>
+        <v>457.13000000000005</v>
       </c>
     </row>
     <row r="251">
@@ -12823,7 +14070,7 @@
         <v>52.399999999999999</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>666</v>
+        <v>1081</v>
       </c>
       <c r="C251" s="0">
         <v>20</v>
@@ -12856,7 +14103,7 @@
         <v>40</v>
       </c>
       <c r="M251" s="0">
-        <v>457.13000000000005</v>
+        <v>326.88000000000011</v>
       </c>
     </row>
     <row r="252">
@@ -12864,7 +14111,7 @@
         <v>52.5</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>667</v>
+        <v>1082</v>
       </c>
       <c r="C252" s="0">
         <v>141</v>
@@ -12897,7 +14144,7 @@
         <v>100</v>
       </c>
       <c r="M252" s="0">
-        <v>328.80000000000007</v>
+        <v>458.42500000000001</v>
       </c>
     </row>
     <row r="253">
@@ -12905,7 +14152,7 @@
         <v>52.5</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>668</v>
+        <v>1083</v>
       </c>
       <c r="C253" s="0">
         <v>20</v>
@@ -12938,7 +14185,7 @@
         <v>40</v>
       </c>
       <c r="M253" s="0">
-        <v>458.42500000000001</v>
+        <v>328.80000000000007</v>
       </c>
     </row>
     <row r="254">
@@ -12946,7 +14193,7 @@
         <v>52.600000000000001</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>669</v>
+        <v>1084</v>
       </c>
       <c r="C254" s="0">
         <v>141</v>
@@ -12979,7 +14226,7 @@
         <v>100</v>
       </c>
       <c r="M254" s="0">
-        <v>330.72000000000003</v>
+        <v>459.72000000000003</v>
       </c>
     </row>
     <row r="255">
@@ -12987,7 +14234,7 @@
         <v>52.600000000000001</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>670</v>
+        <v>1085</v>
       </c>
       <c r="C255" s="0">
         <v>20</v>
@@ -13020,7 +14267,7 @@
         <v>40</v>
       </c>
       <c r="M255" s="0">
-        <v>459.72000000000003</v>
+        <v>330.72000000000003</v>
       </c>
     </row>
     <row r="256">
@@ -13028,7 +14275,7 @@
         <v>52.700000000000003</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>671</v>
+        <v>1086</v>
       </c>
       <c r="C256" s="0">
         <v>141</v>
@@ -13061,7 +14308,7 @@
         <v>100</v>
       </c>
       <c r="M256" s="0">
-        <v>332.6400000000001</v>
+        <v>461.0150000000001</v>
       </c>
     </row>
     <row r="257">
@@ -13069,7 +14316,7 @@
         <v>52.700000000000003</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>672</v>
+        <v>1087</v>
       </c>
       <c r="C257" s="0">
         <v>20</v>
@@ -13102,7 +14349,7 @@
         <v>40</v>
       </c>
       <c r="M257" s="0">
-        <v>461.0150000000001</v>
+        <v>332.6400000000001</v>
       </c>
     </row>
     <row r="258">
@@ -13110,7 +14357,7 @@
         <v>52.799999999999997</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>673</v>
+        <v>1088</v>
       </c>
       <c r="C258" s="0">
         <v>141</v>
@@ -13143,7 +14390,7 @@
         <v>100</v>
       </c>
       <c r="M258" s="0">
-        <v>334.56000000000017</v>
+        <v>462.31000000000006</v>
       </c>
     </row>
     <row r="259">
@@ -13151,7 +14398,7 @@
         <v>52.799999999999997</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>674</v>
+        <v>1089</v>
       </c>
       <c r="C259" s="0">
         <v>20</v>
@@ -13184,7 +14431,7 @@
         <v>40</v>
       </c>
       <c r="M259" s="0">
-        <v>462.31000000000006</v>
+        <v>334.56000000000017</v>
       </c>
     </row>
     <row r="260">
@@ -13192,7 +14439,7 @@
         <v>52.899999999999999</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>675</v>
+        <v>1090</v>
       </c>
       <c r="C260" s="0">
         <v>141</v>
@@ -13225,7 +14472,7 @@
         <v>100</v>
       </c>
       <c r="M260" s="0">
-        <v>336.48000000000013</v>
+        <v>461.20000000000005</v>
       </c>
     </row>
     <row r="261">
@@ -13233,7 +14480,7 @@
         <v>52.899999999999999</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>676</v>
+        <v>1091</v>
       </c>
       <c r="C261" s="0">
         <v>20</v>
@@ -13266,7 +14513,7 @@
         <v>40</v>
       </c>
       <c r="M261" s="0">
-        <v>461.20000000000005</v>
+        <v>336.48000000000013</v>
       </c>
     </row>
     <row r="262">
@@ -13274,7 +14521,7 @@
         <v>53</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>677</v>
+        <v>1092</v>
       </c>
       <c r="C262" s="0">
         <v>141</v>
@@ -13307,7 +14554,7 @@
         <v>100</v>
       </c>
       <c r="M262" s="0">
-        <v>338.39999999999998</v>
+        <v>462.5</v>
       </c>
     </row>
     <row r="263">
@@ -13315,7 +14562,7 @@
         <v>53</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>678</v>
+        <v>1093</v>
       </c>
       <c r="C263" s="0">
         <v>20</v>
@@ -13348,7 +14595,7 @@
         <v>40</v>
       </c>
       <c r="M263" s="0">
-        <v>462.5</v>
+        <v>338.39999999999998</v>
       </c>
     </row>
     <row r="264">
@@ -13356,7 +14603,7 @@
         <v>53.100000000000001</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>679</v>
+        <v>1094</v>
       </c>
       <c r="C264" s="0">
         <v>141</v>
@@ -13389,7 +14636,7 @@
         <v>100</v>
       </c>
       <c r="M264" s="0">
-        <v>340.2399999999999</v>
+        <v>463.80000000000007</v>
       </c>
     </row>
     <row r="265">
@@ -13397,7 +14644,7 @@
         <v>53.100000000000001</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>680</v>
+        <v>1095</v>
       </c>
       <c r="C265" s="0">
         <v>20</v>
@@ -13430,7 +14677,7 @@
         <v>40</v>
       </c>
       <c r="M265" s="0">
-        <v>463.80000000000007</v>
+        <v>340.2399999999999</v>
       </c>
     </row>
     <row r="266">
@@ -13438,7 +14685,7 @@
         <v>53.200000000000003</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>681</v>
+        <v>1096</v>
       </c>
       <c r="C266" s="0">
         <v>141</v>
@@ -13471,7 +14718,7 @@
         <v>100</v>
       </c>
       <c r="M266" s="0">
-        <v>342.07999999999993</v>
+        <v>465.10000000000002</v>
       </c>
     </row>
     <row r="267">
@@ -13479,7 +14726,7 @@
         <v>53.200000000000003</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>682</v>
+        <v>1097</v>
       </c>
       <c r="C267" s="0">
         <v>20</v>
@@ -13512,7 +14759,7 @@
         <v>40</v>
       </c>
       <c r="M267" s="0">
-        <v>465.10000000000002</v>
+        <v>342.07999999999993</v>
       </c>
     </row>
     <row r="268">
@@ -13520,7 +14767,7 @@
         <v>53.299999999999997</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>683</v>
+        <v>1098</v>
       </c>
       <c r="C268" s="0">
         <v>141</v>
@@ -13553,7 +14800,7 @@
         <v>100</v>
       </c>
       <c r="M268" s="0">
-        <v>343.91999999999996</v>
+        <v>466.40000000000009</v>
       </c>
     </row>
     <row r="269">
@@ -13561,7 +14808,7 @@
         <v>53.299999999999997</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>684</v>
+        <v>1099</v>
       </c>
       <c r="C269" s="0">
         <v>20</v>
@@ -13594,7 +14841,7 @@
         <v>40</v>
       </c>
       <c r="M269" s="0">
-        <v>466.40000000000009</v>
+        <v>343.91999999999996</v>
       </c>
     </row>
     <row r="270">
@@ -13602,7 +14849,7 @@
         <v>53.399999999999999</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>685</v>
+        <v>1100</v>
       </c>
       <c r="C270" s="0">
         <v>141</v>
@@ -13635,7 +14882,7 @@
         <v>100</v>
       </c>
       <c r="M270" s="0">
-        <v>345.75999999999999</v>
+        <v>465.40000000000009</v>
       </c>
     </row>
     <row r="271">
@@ -13643,7 +14890,7 @@
         <v>53.399999999999999</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>686</v>
+        <v>1101</v>
       </c>
       <c r="C271" s="0">
         <v>20</v>
@@ -13676,7 +14923,7 @@
         <v>40</v>
       </c>
       <c r="M271" s="0">
-        <v>465.40000000000009</v>
+        <v>345.75999999999999</v>
       </c>
     </row>
     <row r="272">
@@ -13684,7 +14931,7 @@
         <v>53.5</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>687</v>
+        <v>1102</v>
       </c>
       <c r="C272" s="0">
         <v>141</v>
@@ -13717,7 +14964,7 @@
         <v>100</v>
       </c>
       <c r="M272" s="0">
-        <v>347.59999999999991</v>
+        <v>466.70000000000005</v>
       </c>
     </row>
     <row r="273">
@@ -13725,7 +14972,7 @@
         <v>53.5</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>688</v>
+        <v>1103</v>
       </c>
       <c r="C273" s="0">
         <v>20</v>
@@ -13758,7 +15005,7 @@
         <v>40</v>
       </c>
       <c r="M273" s="0">
-        <v>466.70000000000005</v>
+        <v>347.59999999999991</v>
       </c>
     </row>
     <row r="274">
@@ -13766,7 +15013,7 @@
         <v>53.600000000000001</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>689</v>
+        <v>1104</v>
       </c>
       <c r="C274" s="0">
         <v>141</v>
@@ -13799,7 +15046,7 @@
         <v>100</v>
       </c>
       <c r="M274" s="0">
-        <v>349.43999999999994</v>
+        <v>468</v>
       </c>
     </row>
     <row r="275">
@@ -13807,7 +15054,7 @@
         <v>53.600000000000001</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>690</v>
+        <v>1105</v>
       </c>
       <c r="C275" s="0">
         <v>20</v>
@@ -13840,7 +15087,7 @@
         <v>40</v>
       </c>
       <c r="M275" s="0">
-        <v>468</v>
+        <v>349.43999999999994</v>
       </c>
     </row>
     <row r="276">
@@ -13848,7 +15095,7 @@
         <v>53.700000000000003</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>691</v>
+        <v>1106</v>
       </c>
       <c r="C276" s="0">
         <v>141</v>
@@ -13881,7 +15128,7 @@
         <v>100</v>
       </c>
       <c r="M276" s="0">
-        <v>351.27999999999997</v>
+        <v>469.29999999999995</v>
       </c>
     </row>
     <row r="277">
@@ -13889,7 +15136,7 @@
         <v>53.700000000000003</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>692</v>
+        <v>1107</v>
       </c>
       <c r="C277" s="0">
         <v>20</v>
@@ -13922,7 +15169,7 @@
         <v>40</v>
       </c>
       <c r="M277" s="0">
-        <v>469.29999999999995</v>
+        <v>351.27999999999997</v>
       </c>
     </row>
     <row r="278">
@@ -13930,7 +15177,7 @@
         <v>53.799999999999997</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>693</v>
+        <v>1108</v>
       </c>
       <c r="C278" s="0">
         <v>141</v>
@@ -13963,7 +15210,7 @@
         <v>100</v>
       </c>
       <c r="M278" s="0">
-        <v>353.12</v>
+        <v>470.60000000000002</v>
       </c>
     </row>
     <row r="279">
@@ -13971,7 +15218,7 @@
         <v>53.799999999999997</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>694</v>
+        <v>1109</v>
       </c>
       <c r="C279" s="0">
         <v>20</v>
@@ -14004,7 +15251,7 @@
         <v>40</v>
       </c>
       <c r="M279" s="0">
-        <v>470.60000000000002</v>
+        <v>353.12</v>
       </c>
     </row>
     <row r="280">
@@ -14012,7 +15259,7 @@
         <v>53.899999999999999</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>695</v>
+        <v>1110</v>
       </c>
       <c r="C280" s="0">
         <v>141</v>
@@ -14045,7 +15292,7 @@
         <v>100</v>
       </c>
       <c r="M280" s="0">
-        <v>354.96000000000004</v>
+        <v>469.60000000000002</v>
       </c>
     </row>
     <row r="281">
@@ -14053,7 +15300,7 @@
         <v>53.899999999999999</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>696</v>
+        <v>1111</v>
       </c>
       <c r="C281" s="0">
         <v>20</v>
@@ -14086,7 +15333,7 @@
         <v>40</v>
       </c>
       <c r="M281" s="0">
-        <v>469.60000000000002</v>
+        <v>354.96000000000004</v>
       </c>
     </row>
     <row r="282">
@@ -14094,7 +15341,7 @@
         <v>54</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>697</v>
+        <v>1112</v>
       </c>
       <c r="C282" s="0">
         <v>141</v>
@@ -14127,7 +15374,7 @@
         <v>100</v>
       </c>
       <c r="M282" s="0">
-        <v>356.80000000000001</v>
+        <v>470.89999999999998</v>
       </c>
     </row>
     <row r="283">
@@ -14135,7 +15382,7 @@
         <v>54</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>698</v>
+        <v>1113</v>
       </c>
       <c r="C283" s="0">
         <v>20</v>
@@ -14168,7 +15415,7 @@
         <v>40</v>
       </c>
       <c r="M283" s="0">
-        <v>470.89999999999998</v>
+        <v>356.80000000000001</v>
       </c>
     </row>
     <row r="284">
@@ -14176,7 +15423,7 @@
         <v>54.100000000000001</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>699</v>
+        <v>1114</v>
       </c>
       <c r="C284" s="0">
         <v>141</v>
@@ -14209,7 +15456,7 @@
         <v>100</v>
       </c>
       <c r="M284" s="0">
-        <v>358.59000000000003</v>
+        <v>472.20000000000005</v>
       </c>
     </row>
     <row r="285">
@@ -14217,7 +15464,7 @@
         <v>54.100000000000001</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>700</v>
+        <v>1115</v>
       </c>
       <c r="C285" s="0">
         <v>20</v>
@@ -14250,7 +15497,7 @@
         <v>40</v>
       </c>
       <c r="M285" s="0">
-        <v>472.20000000000005</v>
+        <v>358.59000000000003</v>
       </c>
     </row>
     <row r="286">
@@ -14258,7 +15505,7 @@
         <v>54.200000000000003</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>701</v>
+        <v>1116</v>
       </c>
       <c r="C286" s="0">
         <v>141</v>
@@ -14291,7 +15538,7 @@
         <v>100</v>
       </c>
       <c r="M286" s="0">
-        <v>360.38</v>
+        <v>473.5</v>
       </c>
     </row>
     <row r="287">
@@ -14299,7 +15546,7 @@
         <v>54.200000000000003</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>702</v>
+        <v>1117</v>
       </c>
       <c r="C287" s="0">
         <v>20</v>
@@ -14332,7 +15579,7 @@
         <v>40</v>
       </c>
       <c r="M287" s="0">
-        <v>473.5</v>
+        <v>360.38</v>
       </c>
     </row>
     <row r="288">
@@ -14340,7 +15587,7 @@
         <v>54.299999999999997</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>703</v>
+        <v>1118</v>
       </c>
       <c r="C288" s="0">
         <v>141</v>
@@ -14373,7 +15620,7 @@
         <v>100</v>
       </c>
       <c r="M288" s="0">
-        <v>362.17000000000007</v>
+        <v>474.80000000000007</v>
       </c>
     </row>
     <row r="289">
@@ -14381,7 +15628,7 @@
         <v>54.299999999999997</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>704</v>
+        <v>1119</v>
       </c>
       <c r="C289" s="0">
         <v>20</v>
@@ -14414,7 +15661,7 @@
         <v>40</v>
       </c>
       <c r="M289" s="0">
-        <v>474.80000000000007</v>
+        <v>362.17000000000007</v>
       </c>
     </row>
     <row r="290">
@@ -14422,7 +15669,7 @@
         <v>54.399999999999999</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>705</v>
+        <v>1120</v>
       </c>
       <c r="C290" s="0">
         <v>141</v>
@@ -14455,7 +15702,7 @@
         <v>100</v>
       </c>
       <c r="M290" s="0">
-        <v>363.96000000000004</v>
+        <v>473.87</v>
       </c>
     </row>
     <row r="291">
@@ -14463,7 +15710,7 @@
         <v>54.399999999999999</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>706</v>
+        <v>1121</v>
       </c>
       <c r="C291" s="0">
         <v>20</v>
@@ -14496,7 +15743,7 @@
         <v>40</v>
       </c>
       <c r="M291" s="0">
-        <v>473.87</v>
+        <v>363.96000000000004</v>
       </c>
     </row>
     <row r="292">
@@ -14504,7 +15751,7 @@
         <v>54.5</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>707</v>
+        <v>1122</v>
       </c>
       <c r="C292" s="0">
         <v>141</v>
@@ -14537,7 +15784,7 @@
         <v>100</v>
       </c>
       <c r="M292" s="0">
-        <v>365.75</v>
+        <v>475.17499999999995</v>
       </c>
     </row>
     <row r="293">
@@ -14545,7 +15792,7 @@
         <v>54.5</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>708</v>
+        <v>1123</v>
       </c>
       <c r="C293" s="0">
         <v>20</v>
@@ -14578,7 +15825,7 @@
         <v>40</v>
       </c>
       <c r="M293" s="0">
-        <v>475.17499999999995</v>
+        <v>365.75</v>
       </c>
     </row>
     <row r="294">
@@ -14586,7 +15833,7 @@
         <v>54.600000000000001</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>709</v>
+        <v>1124</v>
       </c>
       <c r="C294" s="0">
         <v>141</v>
@@ -14619,7 +15866,7 @@
         <v>100</v>
       </c>
       <c r="M294" s="0">
-        <v>367.53999999999996</v>
+        <v>476.48000000000002</v>
       </c>
     </row>
     <row r="295">
@@ -14627,7 +15874,7 @@
         <v>54.600000000000001</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>710</v>
+        <v>1125</v>
       </c>
       <c r="C295" s="0">
         <v>20</v>
@@ -14660,7 +15907,7 @@
         <v>40</v>
       </c>
       <c r="M295" s="0">
-        <v>476.48000000000002</v>
+        <v>367.53999999999996</v>
       </c>
     </row>
     <row r="296">
@@ -14668,7 +15915,7 @@
         <v>54.700000000000003</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>711</v>
+        <v>1126</v>
       </c>
       <c r="C296" s="0">
         <v>141</v>
@@ -14701,7 +15948,7 @@
         <v>100</v>
       </c>
       <c r="M296" s="0">
-        <v>369.33000000000004</v>
+        <v>477.78500000000003</v>
       </c>
     </row>
     <row r="297">
@@ -14709,7 +15956,7 @@
         <v>54.700000000000003</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>712</v>
+        <v>1127</v>
       </c>
       <c r="C297" s="0">
         <v>20</v>
@@ -14742,7 +15989,7 @@
         <v>40</v>
       </c>
       <c r="M297" s="0">
-        <v>477.78500000000003</v>
+        <v>369.33000000000004</v>
       </c>
     </row>
     <row r="298">
@@ -14750,7 +15997,7 @@
         <v>54.799999999999997</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>713</v>
+        <v>1128</v>
       </c>
       <c r="C298" s="0">
         <v>141</v>
@@ -14783,7 +16030,7 @@
         <v>100</v>
       </c>
       <c r="M298" s="0">
-        <v>371.12</v>
+        <v>479.09000000000009</v>
       </c>
     </row>
     <row r="299">
@@ -14791,7 +16038,7 @@
         <v>54.799999999999997</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>714</v>
+        <v>1129</v>
       </c>
       <c r="C299" s="0">
         <v>20</v>
@@ -14824,7 +16071,7 @@
         <v>40</v>
       </c>
       <c r="M299" s="0">
-        <v>479.09000000000009</v>
+        <v>371.12</v>
       </c>
     </row>
     <row r="300">
@@ -14832,7 +16079,7 @@
         <v>54.899999999999999</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>715</v>
+        <v>1130</v>
       </c>
       <c r="C300" s="0">
         <v>141</v>
@@ -14865,7 +16112,7 @@
         <v>100</v>
       </c>
       <c r="M300" s="0">
-        <v>372.91000000000008</v>
+        <v>478.19000000000005</v>
       </c>
     </row>
     <row r="301">
@@ -14873,7 +16120,7 @@
         <v>54.899999999999999</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>716</v>
+        <v>1131</v>
       </c>
       <c r="C301" s="0">
         <v>20</v>
@@ -14906,7 +16153,7 @@
         <v>40</v>
       </c>
       <c r="M301" s="0">
-        <v>478.19000000000005</v>
+        <v>372.91000000000008</v>
       </c>
     </row>
     <row r="302">
@@ -14914,7 +16161,7 @@
         <v>55</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>717</v>
+        <v>1132</v>
       </c>
       <c r="C302" s="0">
         <v>141</v>
@@ -14947,7 +16194,7 @@
         <v>100</v>
       </c>
       <c r="M302" s="0">
-        <v>374.69999999999999</v>
+        <v>479.5</v>
       </c>
     </row>
     <row r="303">
@@ -14955,7 +16202,7 @@
         <v>55</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>718</v>
+        <v>1133</v>
       </c>
       <c r="C303" s="0">
         <v>20</v>
@@ -14988,7 +16235,7 @@
         <v>40</v>
       </c>
       <c r="M303" s="0">
-        <v>479.5</v>
+        <v>374.69999999999999</v>
       </c>
     </row>
     <row r="304">
@@ -14996,7 +16243,7 @@
         <v>55.100000000000001</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>719</v>
+        <v>1134</v>
       </c>
       <c r="C304" s="0">
         <v>141</v>
@@ -15029,7 +16276,7 @@
         <v>100</v>
       </c>
       <c r="M304" s="0">
-        <v>376.43000000000006</v>
+        <v>480.78999999999996</v>
       </c>
     </row>
     <row r="305">
@@ -15037,7 +16284,7 @@
         <v>55.100000000000001</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>720</v>
+        <v>1135</v>
       </c>
       <c r="C305" s="0">
         <v>20</v>
@@ -15070,7 +16317,7 @@
         <v>40</v>
       </c>
       <c r="M305" s="0">
-        <v>480.78999999999996</v>
+        <v>376.43000000000006</v>
       </c>
     </row>
     <row r="306">
@@ -15078,7 +16325,7 @@
         <v>55.200000000000003</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>721</v>
+        <v>1136</v>
       </c>
       <c r="C306" s="0">
         <v>141</v>
@@ -15111,7 +16358,7 @@
         <v>100</v>
       </c>
       <c r="M306" s="0">
-        <v>378.16000000000008</v>
+        <v>482.08000000000004</v>
       </c>
     </row>
     <row r="307">
@@ -15119,7 +16366,7 @@
         <v>55.200000000000003</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>722</v>
+        <v>1137</v>
       </c>
       <c r="C307" s="0">
         <v>20</v>
@@ -15152,7 +16399,7 @@
         <v>40</v>
       </c>
       <c r="M307" s="0">
-        <v>482.08000000000004</v>
+        <v>378.16000000000008</v>
       </c>
     </row>
     <row r="308">
@@ -15160,7 +16407,7 @@
         <v>55.299999999999997</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>723</v>
+        <v>1138</v>
       </c>
       <c r="C308" s="0">
         <v>141</v>
@@ -15193,7 +16440,7 @@
         <v>100</v>
       </c>
       <c r="M308" s="0">
-        <v>379.8900000000001</v>
+        <v>481.20000000000005</v>
       </c>
     </row>
     <row r="309">
@@ -15201,7 +16448,7 @@
         <v>55.299999999999997</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>724</v>
+        <v>1139</v>
       </c>
       <c r="C309" s="0">
         <v>20</v>
@@ -15234,7 +16481,7 @@
         <v>40</v>
       </c>
       <c r="M309" s="0">
-        <v>481.20000000000005</v>
+        <v>379.8900000000001</v>
       </c>
     </row>
     <row r="310">
@@ -15242,7 +16489,7 @@
         <v>55.399999999999999</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>725</v>
+        <v>1140</v>
       </c>
       <c r="C310" s="0">
         <v>141</v>
@@ -15275,7 +16522,7 @@
         <v>100</v>
       </c>
       <c r="M310" s="0">
-        <v>381.62000000000012</v>
+        <v>482.50000000000011</v>
       </c>
     </row>
     <row r="311">
@@ -15283,7 +16530,7 @@
         <v>55.399999999999999</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>726</v>
+        <v>1141</v>
       </c>
       <c r="C311" s="0">
         <v>20</v>
@@ -15316,7 +16563,7 @@
         <v>40</v>
       </c>
       <c r="M311" s="0">
-        <v>482.50000000000011</v>
+        <v>381.62000000000012</v>
       </c>
     </row>
     <row r="312">
@@ -15324,7 +16571,7 @@
         <v>55.5</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>727</v>
+        <v>1142</v>
       </c>
       <c r="C312" s="0">
         <v>141</v>
@@ -15357,7 +16604,7 @@
         <v>100</v>
       </c>
       <c r="M312" s="0">
-        <v>383.35000000000002</v>
+        <v>483.80000000000001</v>
       </c>
     </row>
     <row r="313">
@@ -15365,7 +16612,7 @@
         <v>55.5</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>728</v>
+        <v>1143</v>
       </c>
       <c r="C313" s="0">
         <v>20</v>
@@ -15398,7 +16645,7 @@
         <v>40</v>
       </c>
       <c r="M313" s="0">
-        <v>483.80000000000001</v>
+        <v>383.35000000000002</v>
       </c>
     </row>
     <row r="314">
@@ -15406,7 +16653,7 @@
         <v>55.600000000000001</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>729</v>
+        <v>1144</v>
       </c>
       <c r="C314" s="0">
         <v>141</v>
@@ -15439,7 +16686,7 @@
         <v>100</v>
       </c>
       <c r="M314" s="0">
-        <v>385.08000000000004</v>
+        <v>485.10000000000002</v>
       </c>
     </row>
     <row r="315">
@@ -15447,7 +16694,7 @@
         <v>55.600000000000001</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>730</v>
+        <v>1145</v>
       </c>
       <c r="C315" s="0">
         <v>20</v>
@@ -15480,7 +16727,7 @@
         <v>40</v>
       </c>
       <c r="M315" s="0">
-        <v>485.10000000000002</v>
+        <v>385.08000000000004</v>
       </c>
     </row>
     <row r="316">
@@ -15488,7 +16735,7 @@
         <v>55.700000000000003</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>731</v>
+        <v>1146</v>
       </c>
       <c r="C316" s="0">
         <v>141</v>
@@ -15521,7 +16768,7 @@
         <v>100</v>
       </c>
       <c r="M316" s="0">
-        <v>386.81000000000006</v>
+        <v>486.39999999999998</v>
       </c>
     </row>
     <row r="317">
@@ -15529,7 +16776,7 @@
         <v>55.700000000000003</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>732</v>
+        <v>1147</v>
       </c>
       <c r="C317" s="0">
         <v>20</v>
@@ -15562,7 +16809,7 @@
         <v>40</v>
       </c>
       <c r="M317" s="0">
-        <v>486.39999999999998</v>
+        <v>386.81000000000006</v>
       </c>
     </row>
     <row r="318">
@@ -15570,7 +16817,7 @@
         <v>55.799999999999997</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>733</v>
+        <v>1148</v>
       </c>
       <c r="C318" s="0">
         <v>141</v>
@@ -15603,7 +16850,7 @@
         <v>100</v>
       </c>
       <c r="M318" s="0">
-        <v>388.54000000000008</v>
+        <v>485.58000000000004</v>
       </c>
     </row>
     <row r="319">
@@ -15611,7 +16858,7 @@
         <v>55.799999999999997</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>734</v>
+        <v>1149</v>
       </c>
       <c r="C319" s="0">
         <v>20</v>
@@ -15644,7 +16891,7 @@
         <v>40</v>
       </c>
       <c r="M319" s="0">
-        <v>485.58000000000004</v>
+        <v>388.54000000000008</v>
       </c>
     </row>
     <row r="320">
@@ -15652,7 +16899,7 @@
         <v>55.899999999999999</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>735</v>
+        <v>1150</v>
       </c>
       <c r="C320" s="0">
         <v>141</v>
@@ -15685,7 +16932,7 @@
         <v>100</v>
       </c>
       <c r="M320" s="0">
-        <v>390.2700000000001</v>
+        <v>486.88999999999999</v>
       </c>
     </row>
     <row r="321">
@@ -15693,7 +16940,7 @@
         <v>55.899999999999999</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>736</v>
+        <v>1151</v>
       </c>
       <c r="C321" s="0">
         <v>20</v>
@@ -15726,7 +16973,7 @@
         <v>40</v>
       </c>
       <c r="M321" s="0">
-        <v>486.88999999999999</v>
+        <v>390.2700000000001</v>
       </c>
     </row>
     <row r="322">
@@ -15734,7 +16981,7 @@
         <v>56</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>737</v>
+        <v>1152</v>
       </c>
       <c r="C322" s="0">
         <v>141</v>
@@ -15767,7 +17014,7 @@
         <v>100</v>
       </c>
       <c r="M322" s="0">
-        <v>392</v>
+        <v>488.19999999999999</v>
       </c>
     </row>
     <row r="323">
@@ -15775,7 +17022,7 @@
         <v>56</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>738</v>
+        <v>1153</v>
       </c>
       <c r="C323" s="0">
         <v>20</v>
@@ -15808,7 +17055,7 @@
         <v>40</v>
       </c>
       <c r="M323" s="0">
-        <v>488.19999999999999</v>
+        <v>392</v>
       </c>
     </row>
     <row r="324">
@@ -15816,7 +17063,7 @@
         <v>56.100000000000001</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>739</v>
+        <v>1154</v>
       </c>
       <c r="C324" s="0">
         <v>141</v>
@@ -15849,7 +17096,7 @@
         <v>100</v>
       </c>
       <c r="M324" s="0">
-        <v>393.68000000000006</v>
+        <v>489.50000000000006</v>
       </c>
     </row>
     <row r="325">
@@ -15857,7 +17104,7 @@
         <v>56.100000000000001</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>740</v>
+        <v>1155</v>
       </c>
       <c r="C325" s="0">
         <v>20</v>
@@ -15890,7 +17137,7 @@
         <v>40</v>
       </c>
       <c r="M325" s="0">
-        <v>489.50000000000006</v>
+        <v>393.68000000000006</v>
       </c>
     </row>
     <row r="326">
@@ -15898,7 +17145,7 @@
         <v>56.200000000000003</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>741</v>
+        <v>1156</v>
       </c>
       <c r="C326" s="0">
         <v>141</v>
@@ -15931,7 +17178,7 @@
         <v>100</v>
       </c>
       <c r="M326" s="0">
-        <v>395.36000000000001</v>
+        <v>488.71000000000004</v>
       </c>
     </row>
     <row r="327">
@@ -15939,7 +17186,7 @@
         <v>56.200000000000003</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>742</v>
+        <v>1157</v>
       </c>
       <c r="C327" s="0">
         <v>20</v>
@@ -15972,7 +17219,7 @@
         <v>40</v>
       </c>
       <c r="M327" s="0">
-        <v>488.71000000000004</v>
+        <v>395.36000000000001</v>
       </c>
     </row>
     <row r="328">
@@ -15980,7 +17227,7 @@
         <v>56.299999999999997</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>743</v>
+        <v>1158</v>
       </c>
       <c r="C328" s="0">
         <v>141</v>
@@ -16013,7 +17260,7 @@
         <v>100</v>
       </c>
       <c r="M328" s="0">
-        <v>397.03999999999996</v>
+        <v>490.01499999999993</v>
       </c>
     </row>
     <row r="329">
@@ -16021,7 +17268,7 @@
         <v>56.299999999999997</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>744</v>
+        <v>1159</v>
       </c>
       <c r="C329" s="0">
         <v>20</v>
@@ -16054,7 +17301,7 @@
         <v>40</v>
       </c>
       <c r="M329" s="0">
-        <v>490.01499999999993</v>
+        <v>397.03999999999996</v>
       </c>
     </row>
     <row r="330">
@@ -16062,7 +17309,7 @@
         <v>56.399999999999999</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>745</v>
+        <v>1160</v>
       </c>
       <c r="C330" s="0">
         <v>141</v>
@@ -16095,7 +17342,7 @@
         <v>100</v>
       </c>
       <c r="M330" s="0">
-        <v>398.72000000000014</v>
+        <v>491.32000000000011</v>
       </c>
     </row>
     <row r="331">
@@ -16103,7 +17350,7 @@
         <v>56.399999999999999</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>746</v>
+        <v>1161</v>
       </c>
       <c r="C331" s="0">
         <v>20</v>
@@ -16136,7 +17383,7 @@
         <v>40</v>
       </c>
       <c r="M331" s="0">
-        <v>491.32000000000011</v>
+        <v>398.72000000000014</v>
       </c>
     </row>
     <row r="332">
@@ -16144,7 +17391,7 @@
         <v>56.5</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>747</v>
+        <v>1162</v>
       </c>
       <c r="C332" s="0">
         <v>141</v>
@@ -16177,7 +17424,7 @@
         <v>100</v>
       </c>
       <c r="M332" s="0">
-        <v>400.39999999999998</v>
+        <v>492.625</v>
       </c>
     </row>
     <row r="333">
@@ -16185,7 +17432,7 @@
         <v>56.5</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>748</v>
+        <v>1163</v>
       </c>
       <c r="C333" s="0">
         <v>20</v>
@@ -16218,7 +17465,7 @@
         <v>40</v>
       </c>
       <c r="M333" s="0">
-        <v>492.625</v>
+        <v>400.39999999999998</v>
       </c>
     </row>
     <row r="334">
@@ -16226,7 +17473,7 @@
         <v>56.600000000000001</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>749</v>
+        <v>1164</v>
       </c>
       <c r="C334" s="0">
         <v>141</v>
@@ -16259,7 +17506,7 @@
         <v>100</v>
       </c>
       <c r="M334" s="0">
-        <v>402.08000000000004</v>
+        <v>493.93000000000006</v>
       </c>
     </row>
     <row r="335">
@@ -16267,7 +17514,7 @@
         <v>56.600000000000001</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>750</v>
+        <v>1165</v>
       </c>
       <c r="C335" s="0">
         <v>20</v>
@@ -16300,7 +17547,7 @@
         <v>40</v>
       </c>
       <c r="M335" s="0">
-        <v>493.93000000000006</v>
+        <v>402.08000000000004</v>
       </c>
     </row>
     <row r="336">
@@ -16308,7 +17555,7 @@
         <v>56.700000000000003</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>751</v>
+        <v>1166</v>
       </c>
       <c r="C336" s="0">
         <v>141</v>
@@ -16341,7 +17588,7 @@
         <v>100</v>
       </c>
       <c r="M336" s="0">
-        <v>403.7600000000001</v>
+        <v>493.17000000000007</v>
       </c>
     </row>
     <row r="337">
@@ -16349,7 +17596,7 @@
         <v>56.700000000000003</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>752</v>
+        <v>1167</v>
       </c>
       <c r="C337" s="0">
         <v>20</v>
@@ -16382,7 +17629,7 @@
         <v>40</v>
       </c>
       <c r="M337" s="0">
-        <v>493.17000000000007</v>
+        <v>403.7600000000001</v>
       </c>
     </row>
     <row r="338">
@@ -16390,7 +17637,7 @@
         <v>56.799999999999997</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>753</v>
+        <v>1168</v>
       </c>
       <c r="C338" s="0">
         <v>141</v>
@@ -16423,7 +17670,7 @@
         <v>100</v>
       </c>
       <c r="M338" s="0">
-        <v>405.43999999999994</v>
+        <v>494.48000000000002</v>
       </c>
     </row>
     <row r="339">
@@ -16431,7 +17678,7 @@
         <v>56.799999999999997</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>754</v>
+        <v>1169</v>
       </c>
       <c r="C339" s="0">
         <v>20</v>
@@ -16464,7 +17711,7 @@
         <v>40</v>
       </c>
       <c r="M339" s="0">
-        <v>494.48000000000002</v>
+        <v>405.43999999999994</v>
       </c>
     </row>
     <row r="340">
@@ -16472,7 +17719,7 @@
         <v>56.899999999999999</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>755</v>
+        <v>1170</v>
       </c>
       <c r="C340" s="0">
         <v>141</v>
@@ -16505,7 +17752,7 @@
         <v>100</v>
       </c>
       <c r="M340" s="0">
-        <v>407.12000000000012</v>
+        <v>495.79000000000008</v>
       </c>
     </row>
     <row r="341">
@@ -16513,7 +17760,7 @@
         <v>56.899999999999999</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>756</v>
+        <v>1171</v>
       </c>
       <c r="C341" s="0">
         <v>20</v>
@@ -16546,7 +17793,7 @@
         <v>40</v>
       </c>
       <c r="M341" s="0">
-        <v>495.79000000000008</v>
+        <v>407.12000000000012</v>
       </c>
     </row>
     <row r="342">
@@ -16554,7 +17801,7 @@
         <v>57</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>757</v>
+        <v>1172</v>
       </c>
       <c r="C342" s="0">
         <v>141</v>
@@ -16587,7 +17834,7 @@
         <v>100</v>
       </c>
       <c r="M342" s="0">
-        <v>408.80000000000001</v>
+        <v>497.10000000000002</v>
       </c>
     </row>
     <row r="343">
@@ -16595,7 +17842,7 @@
         <v>57</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>758</v>
+        <v>1173</v>
       </c>
       <c r="C343" s="0">
         <v>20</v>
@@ -16628,7 +17875,7 @@
         <v>40</v>
       </c>
       <c r="M343" s="0">
-        <v>497.10000000000002</v>
+        <v>408.80000000000001</v>
       </c>
     </row>
     <row r="344">
@@ -16636,7 +17883,7 @@
         <v>57.100000000000001</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>759</v>
+        <v>1174</v>
       </c>
       <c r="C344" s="0">
         <v>141</v>
@@ -16669,7 +17916,7 @@
         <v>100</v>
       </c>
       <c r="M344" s="0">
-        <v>410.43000000000006</v>
+        <v>496.30500000000001</v>
       </c>
     </row>
     <row r="345">
@@ -16677,7 +17924,7 @@
         <v>57.100000000000001</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>760</v>
+        <v>1175</v>
       </c>
       <c r="C345" s="0">
         <v>20</v>
@@ -16710,7 +17957,7 @@
         <v>40</v>
       </c>
       <c r="M345" s="0">
-        <v>496.30500000000001</v>
+        <v>410.43000000000006</v>
       </c>
     </row>
     <row r="346">
@@ -16718,7 +17965,7 @@
         <v>57.200000000000003</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>761</v>
+        <v>1176</v>
       </c>
       <c r="C346" s="0">
         <v>141</v>
@@ -16751,7 +17998,7 @@
         <v>100</v>
       </c>
       <c r="M346" s="0">
-        <v>412.06000000000006</v>
+        <v>497.61000000000001</v>
       </c>
     </row>
     <row r="347">
@@ -16759,7 +18006,7 @@
         <v>57.200000000000003</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>762</v>
+        <v>1177</v>
       </c>
       <c r="C347" s="0">
         <v>20</v>
@@ -16792,7 +18039,7 @@
         <v>40</v>
       </c>
       <c r="M347" s="0">
-        <v>497.61000000000001</v>
+        <v>412.06000000000006</v>
       </c>
     </row>
     <row r="348">
@@ -16800,7 +18047,7 @@
         <v>57.299999999999997</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>763</v>
+        <v>1178</v>
       </c>
       <c r="C348" s="0">
         <v>141</v>
@@ -16833,7 +18080,7 @@
         <v>100</v>
       </c>
       <c r="M348" s="0">
-        <v>413.68999999999994</v>
+        <v>498.91499999999996</v>
       </c>
     </row>
     <row r="349">
@@ -16841,7 +18088,7 @@
         <v>57.299999999999997</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>764</v>
+        <v>1179</v>
       </c>
       <c r="C349" s="0">
         <v>20</v>
@@ -16874,7 +18121,7 @@
         <v>40</v>
       </c>
       <c r="M349" s="0">
-        <v>498.91499999999996</v>
+        <v>413.68999999999994</v>
       </c>
     </row>
     <row r="350">
@@ -16882,7 +18129,7 @@
         <v>57.399999999999999</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>765</v>
+        <v>1180</v>
       </c>
       <c r="C350" s="0">
         <v>141</v>
@@ -16915,7 +18162,7 @@
         <v>100</v>
       </c>
       <c r="M350" s="0">
-        <v>415.32000000000016</v>
+        <v>500.22000000000003</v>
       </c>
     </row>
     <row r="351">
@@ -16923,7 +18170,7 @@
         <v>57.399999999999999</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>766</v>
+        <v>1181</v>
       </c>
       <c r="C351" s="0">
         <v>20</v>
@@ -16956,7 +18203,7 @@
         <v>40</v>
       </c>
       <c r="M351" s="0">
-        <v>500.22000000000003</v>
+        <v>415.32000000000016</v>
       </c>
     </row>
     <row r="352">
@@ -16964,7 +18211,7 @@
         <v>57.5</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>767</v>
+        <v>1182</v>
       </c>
       <c r="C352" s="0">
         <v>141</v>
@@ -16997,7 +18244,7 @@
         <v>100</v>
       </c>
       <c r="M352" s="0">
-        <v>416.95000000000005</v>
+        <v>499.45000000000005</v>
       </c>
     </row>
     <row r="353">
@@ -17005,7 +18252,7 @@
         <v>57.5</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>768</v>
+        <v>1183</v>
       </c>
       <c r="C353" s="0">
         <v>20</v>
@@ -17038,7 +18285,7 @@
         <v>40</v>
       </c>
       <c r="M353" s="0">
-        <v>499.45000000000005</v>
+        <v>416.95000000000005</v>
       </c>
     </row>
     <row r="354">
@@ -17046,7 +18293,7 @@
         <v>57.600000000000001</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>769</v>
+        <v>1184</v>
       </c>
       <c r="C354" s="0">
         <v>141</v>
@@ -17079,7 +18326,7 @@
         <v>100</v>
       </c>
       <c r="M354" s="0">
-        <v>418.58000000000004</v>
+        <v>500.75999999999999</v>
       </c>
     </row>
     <row r="355">
@@ -17087,7 +18334,7 @@
         <v>57.600000000000001</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>770</v>
+        <v>1185</v>
       </c>
       <c r="C355" s="0">
         <v>20</v>
@@ -17120,7 +18367,7 @@
         <v>40</v>
       </c>
       <c r="M355" s="0">
-        <v>500.75999999999999</v>
+        <v>418.58000000000004</v>
       </c>
     </row>
     <row r="356">
@@ -17128,7 +18375,7 @@
         <v>57.700000000000003</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>771</v>
+        <v>1186</v>
       </c>
       <c r="C356" s="0">
         <v>141</v>
@@ -17161,7 +18408,7 @@
         <v>100</v>
       </c>
       <c r="M356" s="0">
-        <v>420.21000000000004</v>
+        <v>502.07000000000005</v>
       </c>
     </row>
     <row r="357">
@@ -17169,7 +18416,7 @@
         <v>57.700000000000003</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>772</v>
+        <v>1187</v>
       </c>
       <c r="C357" s="0">
         <v>20</v>
@@ -17202,7 +18449,7 @@
         <v>40</v>
       </c>
       <c r="M357" s="0">
-        <v>502.07000000000005</v>
+        <v>420.21000000000004</v>
       </c>
     </row>
     <row r="358">
@@ -17210,7 +18457,7 @@
         <v>57.799999999999997</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>773</v>
+        <v>1188</v>
       </c>
       <c r="C358" s="0">
         <v>141</v>
@@ -17243,7 +18490,7 @@
         <v>100</v>
       </c>
       <c r="M358" s="0">
-        <v>421.83999999999992</v>
+        <v>503.38</v>
       </c>
     </row>
     <row r="359">
@@ -17251,7 +18498,7 @@
         <v>57.799999999999997</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>774</v>
+        <v>1189</v>
       </c>
       <c r="C359" s="0">
         <v>20</v>
@@ -17284,7 +18531,7 @@
         <v>40</v>
       </c>
       <c r="M359" s="0">
-        <v>503.38</v>
+        <v>421.83999999999992</v>
       </c>
     </row>
     <row r="360">
@@ -17292,7 +18539,7 @@
         <v>57.899999999999999</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>775</v>
+        <v>1190</v>
       </c>
       <c r="C360" s="0">
         <v>141</v>
@@ -17325,7 +18572,7 @@
         <v>100</v>
       </c>
       <c r="M360" s="0">
-        <v>423.47000000000014</v>
+        <v>502.68500000000006</v>
       </c>
     </row>
     <row r="361">
@@ -17333,7 +18580,7 @@
         <v>57.899999999999999</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>776</v>
+        <v>1191</v>
       </c>
       <c r="C361" s="0">
         <v>20</v>
@@ -17366,7 +18613,7 @@
         <v>40</v>
       </c>
       <c r="M361" s="0">
-        <v>502.68500000000006</v>
+        <v>423.47000000000014</v>
       </c>
     </row>
     <row r="362">
@@ -17374,7 +18621,7 @@
         <v>58</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>777</v>
+        <v>1192</v>
       </c>
       <c r="C362" s="0">
         <v>141</v>
@@ -17407,7 +18654,7 @@
         <v>100</v>
       </c>
       <c r="M362" s="0">
-        <v>425.10000000000002</v>
+        <v>504</v>
       </c>
     </row>
     <row r="363">
@@ -17415,7 +18662,7 @@
         <v>58</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>778</v>
+        <v>1193</v>
       </c>
       <c r="C363" s="0">
         <v>20</v>
@@ -17448,7 +18695,7 @@
         <v>40</v>
       </c>
       <c r="M363" s="0">
-        <v>504</v>
+        <v>425.10000000000002</v>
       </c>
     </row>
     <row r="364">
@@ -17456,7 +18703,7 @@
         <v>58.100000000000001</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>779</v>
+        <v>1194</v>
       </c>
       <c r="C364" s="0">
         <v>141</v>
@@ -17489,7 +18736,7 @@
         <v>100</v>
       </c>
       <c r="M364" s="0">
-        <v>426.69000000000005</v>
+        <v>505.31</v>
       </c>
     </row>
     <row r="365">
@@ -17497,7 +18744,7 @@
         <v>58.100000000000001</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>780</v>
+        <v>1195</v>
       </c>
       <c r="C365" s="0">
         <v>20</v>
@@ -17530,7 +18777,7 @@
         <v>40</v>
       </c>
       <c r="M365" s="0">
-        <v>505.31</v>
+        <v>426.69000000000005</v>
       </c>
     </row>
     <row r="366">
@@ -17538,7 +18785,7 @@
         <v>58.200000000000003</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>781</v>
+        <v>1196</v>
       </c>
       <c r="C366" s="0">
         <v>141</v>
@@ -17571,7 +18818,7 @@
         <v>100</v>
       </c>
       <c r="M366" s="0">
-        <v>428.28000000000009</v>
+        <v>506.62000000000006</v>
       </c>
     </row>
     <row r="367">
@@ -17579,7 +18826,7 @@
         <v>58.200000000000003</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>782</v>
+        <v>1197</v>
       </c>
       <c r="C367" s="0">
         <v>20</v>
@@ -17612,7 +18859,7 @@
         <v>40</v>
       </c>
       <c r="M367" s="0">
-        <v>506.62000000000006</v>
+        <v>428.28000000000009</v>
       </c>
     </row>
     <row r="368">
@@ -17620,7 +18867,7 @@
         <v>58.299999999999997</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>783</v>
+        <v>1198</v>
       </c>
       <c r="C368" s="0">
         <v>141</v>
@@ -17653,7 +18900,7 @@
         <v>100</v>
       </c>
       <c r="M368" s="0">
-        <v>429.87</v>
+        <v>505.95999999999992</v>
       </c>
     </row>
     <row r="369">
@@ -17661,7 +18908,7 @@
         <v>58.299999999999997</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>784</v>
+        <v>1199</v>
       </c>
       <c r="C369" s="0">
         <v>20</v>
@@ -17694,7 +18941,7 @@
         <v>40</v>
       </c>
       <c r="M369" s="0">
-        <v>505.95999999999992</v>
+        <v>429.87</v>
       </c>
     </row>
     <row r="370">
@@ -17702,7 +18949,7 @@
         <v>58.399999999999999</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>785</v>
+        <v>1200</v>
       </c>
       <c r="C370" s="0">
         <v>141</v>
@@ -17735,7 +18982,7 @@
         <v>100</v>
       </c>
       <c r="M370" s="0">
-        <v>431.46000000000015</v>
+        <v>507.28000000000009</v>
       </c>
     </row>
     <row r="371">
@@ -17743,7 +18990,7 @@
         <v>58.399999999999999</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>786</v>
+        <v>1201</v>
       </c>
       <c r="C371" s="0">
         <v>20</v>
@@ -17776,7 +19023,7 @@
         <v>40</v>
       </c>
       <c r="M371" s="0">
-        <v>507.28000000000009</v>
+        <v>431.46000000000015</v>
       </c>
     </row>
     <row r="372">
@@ -17784,7 +19031,7 @@
         <v>58.5</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>787</v>
+        <v>1202</v>
       </c>
       <c r="C372" s="0">
         <v>141</v>
@@ -17817,7 +19064,7 @@
         <v>100</v>
       </c>
       <c r="M372" s="0">
-        <v>433.05000000000007</v>
+        <v>508.60000000000002</v>
       </c>
     </row>
     <row r="373">
@@ -17825,7 +19072,7 @@
         <v>58.5</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>788</v>
+        <v>1203</v>
       </c>
       <c r="C373" s="0">
         <v>20</v>
@@ -17858,7 +19105,7 @@
         <v>40</v>
       </c>
       <c r="M373" s="0">
-        <v>508.60000000000002</v>
+        <v>433.05000000000007</v>
       </c>
     </row>
     <row r="374">
@@ -17866,7 +19113,7 @@
         <v>58.600000000000001</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>789</v>
+        <v>1204</v>
       </c>
       <c r="C374" s="0">
         <v>141</v>
@@ -17899,7 +19146,7 @@
         <v>100</v>
       </c>
       <c r="M374" s="0">
-        <v>434.63999999999999</v>
+        <v>509.92000000000007</v>
       </c>
     </row>
     <row r="375">
@@ -17907,7 +19154,7 @@
         <v>58.600000000000001</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>790</v>
+        <v>1205</v>
       </c>
       <c r="C375" s="0">
         <v>20</v>
@@ -17940,7 +19187,7 @@
         <v>40</v>
       </c>
       <c r="M375" s="0">
-        <v>509.92000000000007</v>
+        <v>434.63999999999999</v>
       </c>
     </row>
     <row r="376">
@@ -17948,7 +19195,7 @@
         <v>58.700000000000003</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>791</v>
+        <v>1206</v>
       </c>
       <c r="C376" s="0">
         <v>141</v>
@@ -17981,7 +19228,7 @@
         <v>100</v>
       </c>
       <c r="M376" s="0">
-        <v>436.23000000000002</v>
+        <v>509.24000000000012</v>
       </c>
     </row>
     <row r="377">
@@ -17989,7 +19236,7 @@
         <v>58.700000000000003</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>792</v>
+        <v>1207</v>
       </c>
       <c r="C377" s="0">
         <v>20</v>
@@ -18022,7 +19269,7 @@
         <v>40</v>
       </c>
       <c r="M377" s="0">
-        <v>509.24000000000012</v>
+        <v>436.23000000000002</v>
       </c>
     </row>
     <row r="378">
@@ -18030,7 +19277,7 @@
         <v>58.799999999999997</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>793</v>
+        <v>1208</v>
       </c>
       <c r="C378" s="0">
         <v>141</v>
@@ -18063,7 +19310,7 @@
         <v>100</v>
       </c>
       <c r="M378" s="0">
-        <v>437.81999999999994</v>
+        <v>510.55999999999995</v>
       </c>
     </row>
     <row r="379">
@@ -18071,7 +19318,7 @@
         <v>58.799999999999997</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>794</v>
+        <v>1209</v>
       </c>
       <c r="C379" s="0">
         <v>20</v>
@@ -18104,7 +19351,7 @@
         <v>40</v>
       </c>
       <c r="M379" s="0">
-        <v>510.55999999999995</v>
+        <v>437.81999999999994</v>
       </c>
     </row>
     <row r="380">
@@ -18112,7 +19359,7 @@
         <v>58.899999999999999</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>795</v>
+        <v>1210</v>
       </c>
       <c r="C380" s="0">
         <v>141</v>
@@ -18145,7 +19392,7 @@
         <v>100</v>
       </c>
       <c r="M380" s="0">
-        <v>439.41000000000008</v>
+        <v>511.88000000000011</v>
       </c>
     </row>
     <row r="381">
@@ -18153,7 +19400,7 @@
         <v>58.899999999999999</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>796</v>
+        <v>1211</v>
       </c>
       <c r="C381" s="0">
         <v>20</v>
@@ -18186,7 +19433,7 @@
         <v>40</v>
       </c>
       <c r="M381" s="0">
-        <v>511.88000000000011</v>
+        <v>439.41000000000008</v>
       </c>
     </row>
     <row r="382">
@@ -18194,7 +19441,7 @@
         <v>59</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>797</v>
+        <v>1212</v>
       </c>
       <c r="C382" s="0">
         <v>141</v>
@@ -18227,7 +19474,7 @@
         <v>100</v>
       </c>
       <c r="M382" s="0">
-        <v>441</v>
+        <v>513.19999999999993</v>
       </c>
     </row>
     <row r="383">
@@ -18235,7 +19482,7 @@
         <v>59</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>798</v>
+        <v>1213</v>
       </c>
       <c r="C383" s="0">
         <v>20</v>
@@ -18268,7 +19515,7 @@
         <v>40</v>
       </c>
       <c r="M383" s="0">
-        <v>513.19999999999993</v>
+        <v>441</v>
       </c>
     </row>
     <row r="384">
@@ -18276,7 +19523,7 @@
         <v>59.100000000000001</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>799</v>
+        <v>1214</v>
       </c>
       <c r="C384" s="0">
         <v>141</v>
@@ -18309,7 +19556,7 @@
         <v>100</v>
       </c>
       <c r="M384" s="0">
-        <v>442.55000000000007</v>
+        <v>512.50999999999999</v>
       </c>
     </row>
     <row r="385">
@@ -18317,7 +19564,7 @@
         <v>59.100000000000001</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>800</v>
+        <v>1215</v>
       </c>
       <c r="C385" s="0">
         <v>20</v>
@@ -18350,7 +19597,7 @@
         <v>40</v>
       </c>
       <c r="M385" s="0">
-        <v>512.50999999999999</v>
+        <v>442.55000000000007</v>
       </c>
     </row>
     <row r="386">
@@ -18358,7 +19605,7 @@
         <v>59.200000000000003</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>801</v>
+        <v>1216</v>
       </c>
       <c r="C386" s="0">
         <v>141</v>
@@ -18391,7 +19638,7 @@
         <v>100</v>
       </c>
       <c r="M386" s="0">
-        <v>444.10000000000002</v>
+        <v>513.81999999999994</v>
       </c>
     </row>
     <row r="387">
@@ -18399,7 +19646,7 @@
         <v>59.200000000000003</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>802</v>
+        <v>1217</v>
       </c>
       <c r="C387" s="0">
         <v>20</v>
@@ -18432,7 +19679,7 @@
         <v>40</v>
       </c>
       <c r="M387" s="0">
-        <v>513.81999999999994</v>
+        <v>444.10000000000002</v>
       </c>
     </row>
     <row r="388">
@@ -18440,7 +19687,7 @@
         <v>59.299999999999997</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>803</v>
+        <v>1218</v>
       </c>
       <c r="C388" s="0">
         <v>141</v>
@@ -18473,7 +19720,7 @@
         <v>100</v>
       </c>
       <c r="M388" s="0">
-        <v>445.65000000000009</v>
+        <v>515.12999999999988</v>
       </c>
     </row>
     <row r="389">
@@ -18481,7 +19728,7 @@
         <v>59.299999999999997</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>804</v>
+        <v>1219</v>
       </c>
       <c r="C389" s="0">
         <v>20</v>
@@ -18514,7 +19761,7 @@
         <v>40</v>
       </c>
       <c r="M389" s="0">
-        <v>515.12999999999988</v>
+        <v>445.65000000000009</v>
       </c>
     </row>
     <row r="390">
@@ -18522,7 +19769,7 @@
         <v>59.399999999999999</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>805</v>
+        <v>1220</v>
       </c>
       <c r="C390" s="0">
         <v>141</v>
@@ -18555,7 +19802,7 @@
         <v>100</v>
       </c>
       <c r="M390" s="0">
-        <v>447.20000000000005</v>
+        <v>516.44000000000005</v>
       </c>
     </row>
     <row r="391">
@@ -18563,7 +19810,7 @@
         <v>59.399999999999999</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>806</v>
+        <v>1221</v>
       </c>
       <c r="C391" s="0">
         <v>20</v>
@@ -18596,7 +19843,7 @@
         <v>40</v>
       </c>
       <c r="M391" s="0">
-        <v>516.44000000000005</v>
+        <v>447.20000000000005</v>
       </c>
     </row>
     <row r="392">
@@ -18604,7 +19851,7 @@
         <v>59.5</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>807</v>
+        <v>1222</v>
       </c>
       <c r="C392" s="0">
         <v>141</v>
@@ -18637,7 +19884,7 @@
         <v>100</v>
       </c>
       <c r="M392" s="0">
-        <v>448.75</v>
+        <v>515.85000000000002</v>
       </c>
     </row>
     <row r="393">
@@ -18645,7 +19892,7 @@
         <v>59.5</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>808</v>
+        <v>1223</v>
       </c>
       <c r="C393" s="0">
         <v>20</v>
@@ -18678,7 +19925,7 @@
         <v>40</v>
       </c>
       <c r="M393" s="0">
-        <v>515.85000000000002</v>
+        <v>448.75</v>
       </c>
     </row>
     <row r="394">
@@ -18686,7 +19933,7 @@
         <v>59.600000000000001</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>809</v>
+        <v>1224</v>
       </c>
       <c r="C394" s="0">
         <v>141</v>
@@ -18719,7 +19966,7 @@
         <v>100</v>
       </c>
       <c r="M394" s="0">
-        <v>450.30000000000007</v>
+        <v>517.16999999999996</v>
       </c>
     </row>
     <row r="395">
@@ -18727,7 +19974,7 @@
         <v>59.600000000000001</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>810</v>
+        <v>1225</v>
       </c>
       <c r="C395" s="0">
         <v>20</v>
@@ -18760,7 +20007,7 @@
         <v>40</v>
       </c>
       <c r="M395" s="0">
-        <v>517.16999999999996</v>
+        <v>450.30000000000007</v>
       </c>
     </row>
     <row r="396">
@@ -18768,7 +20015,7 @@
         <v>59.700000000000003</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>811</v>
+        <v>1226</v>
       </c>
       <c r="C396" s="0">
         <v>141</v>
@@ -18801,7 +20048,7 @@
         <v>100</v>
       </c>
       <c r="M396" s="0">
-        <v>451.85000000000002</v>
+        <v>518.49000000000001</v>
       </c>
     </row>
     <row r="397">
@@ -18809,7 +20056,7 @@
         <v>59.700000000000003</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>812</v>
+        <v>1227</v>
       </c>
       <c r="C397" s="0">
         <v>20</v>
@@ -18842,7 +20089,7 @@
         <v>40</v>
       </c>
       <c r="M397" s="0">
-        <v>518.49000000000001</v>
+        <v>451.85000000000002</v>
       </c>
     </row>
     <row r="398">
@@ -18850,7 +20097,7 @@
         <v>59.799999999999997</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>813</v>
+        <v>1228</v>
       </c>
       <c r="C398" s="0">
         <v>141</v>
@@ -18883,7 +20130,7 @@
         <v>100</v>
       </c>
       <c r="M398" s="0">
-        <v>453.40000000000009</v>
+        <v>519.81000000000006</v>
       </c>
     </row>
     <row r="399">
@@ -18891,7 +20138,7 @@
         <v>59.799999999999997</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>814</v>
+        <v>1229</v>
       </c>
       <c r="C399" s="0">
         <v>20</v>
@@ -18924,7 +20171,7 @@
         <v>40</v>
       </c>
       <c r="M399" s="0">
-        <v>519.81000000000006</v>
+        <v>453.40000000000009</v>
       </c>
     </row>
     <row r="400">
@@ -18932,7 +20179,7 @@
         <v>59.899999999999999</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>815</v>
+        <v>1230</v>
       </c>
       <c r="C400" s="0">
         <v>141</v>
@@ -18965,7 +20212,7 @@
         <v>100</v>
       </c>
       <c r="M400" s="0">
-        <v>454.95000000000005</v>
+        <v>519.26999999999998</v>
       </c>
     </row>
     <row r="401">
@@ -18973,7 +20220,7 @@
         <v>59.899999999999999</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>816</v>
+        <v>1231</v>
       </c>
       <c r="C401" s="0">
         <v>20</v>
@@ -19006,7 +20253,7 @@
         <v>40</v>
       </c>
       <c r="M401" s="0">
-        <v>519.26999999999998</v>
+        <v>454.95000000000005</v>
       </c>
     </row>
     <row r="402">
@@ -19014,7 +20261,7 @@
         <v>60</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>817</v>
+        <v>1232</v>
       </c>
       <c r="C402" s="0">
         <v>141</v>
@@ -19047,7 +20294,7 @@
         <v>100</v>
       </c>
       <c r="M402" s="0">
-        <v>456.5</v>
+        <v>520.60000000000002</v>
       </c>
     </row>
     <row r="403">
@@ -19055,7 +20302,7 @@
         <v>60</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>818</v>
+        <v>1233</v>
       </c>
       <c r="C403" s="0">
         <v>20</v>
@@ -19088,7 +20335,7 @@
         <v>40</v>
       </c>
       <c r="M403" s="0">
-        <v>520.60000000000002</v>
+        <v>456.5</v>
       </c>
     </row>
   </sheetData>

--- a/Tabelas/TabelaLimitesDinamicos.xlsx
+++ b/Tabelas/TabelaLimitesDinamicos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Frequencia</t>
   </si>
@@ -230,6 +230,42 @@
   <si>
     <t>VazaoOleo</t>
   </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -263,11 +299,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -275,6 +312,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,55 +326,55 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.046875" customWidth="true"/>
-    <col min="2" max="2" width="13.15625" customWidth="true"/>
-    <col min="3" max="3" width="23.046875" customWidth="true"/>
-    <col min="4" max="4" width="17.26953125" customWidth="true"/>
-    <col min="5" max="5" width="15.93359375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="5.15625" customWidth="true"/>
+    <col min="5" max="5" width="9.6015625" customWidth="true"/>
     <col min="6" max="6" width="7.37890625" customWidth="true"/>
-    <col min="7" max="7" width="13.046875" customWidth="true"/>
-    <col min="8" max="8" width="11.48828125" customWidth="true"/>
-    <col min="9" max="9" width="4.82421875" customWidth="true"/>
+    <col min="7" max="7" width="7.7109375" customWidth="true"/>
+    <col min="8" max="8" width="5.93359375" customWidth="true"/>
+    <col min="9" max="9" width="4.93359375" customWidth="true"/>
     <col min="10" max="10" width="8.37890625" customWidth="true"/>
-    <col min="11" max="11" width="26.7109375" customWidth="true"/>
+    <col min="11" max="11" width="9.15625" customWidth="true"/>
     <col min="12" max="12" width="10.046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">

--- a/Tabelas/TabelaLimitesDinamicos.xlsx
+++ b/Tabelas/TabelaLimitesDinamicos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Frequencia</t>
   </si>
@@ -266,6 +266,150 @@
   <si>
     <t>VazaoOleo</t>
   </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -300,11 +444,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -313,6 +461,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,7 +478,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.046875" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="4.93359375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="5.15625" customWidth="true"/>
     <col min="5" max="5" width="9.6015625" customWidth="true"/>
@@ -341,40 +493,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -382,7 +534,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="0">
-        <v>94.810712002165289</v>
+        <v>110</v>
       </c>
       <c r="C2" s="0">
         <v>37.265277783225912</v>
@@ -420,7 +572,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="0">
-        <v>86.749644018530645</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0">
         <v>10</v>
@@ -458,7 +610,7 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>94.678322199514369</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0">
         <v>37.265277783225912</v>
@@ -496,7 +648,7 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>86.650596832843661</v>
+        <v>55</v>
       </c>
       <c r="C5" s="0">
         <v>10</v>
@@ -534,7 +686,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="B6" s="0">
-        <v>94.545932396863435</v>
+        <v>110</v>
       </c>
       <c r="C6" s="0">
         <v>37.265277783225912</v>
@@ -572,7 +724,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="B7" s="0">
-        <v>86.551549647156662</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0">
         <v>10</v>
@@ -610,7 +762,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="B8" s="0">
-        <v>94.413542594212501</v>
+        <v>110</v>
       </c>
       <c r="C8" s="0">
         <v>37.265277783225912</v>
@@ -648,7 +800,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="B9" s="0">
-        <v>86.452502461469663</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0">
         <v>10</v>
@@ -686,7 +838,7 @@
         <v>40.399999999999999</v>
       </c>
       <c r="B10" s="0">
-        <v>94.281152791561581</v>
+        <v>110</v>
       </c>
       <c r="C10" s="0">
         <v>37.265277783225912</v>
@@ -724,7 +876,7 @@
         <v>40.399999999999999</v>
       </c>
       <c r="B11" s="0">
-        <v>86.353455275782679</v>
+        <v>55</v>
       </c>
       <c r="C11" s="0">
         <v>10</v>
@@ -762,7 +914,7 @@
         <v>40.5</v>
       </c>
       <c r="B12" s="0">
-        <v>94.761678741924229</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0">
         <v>39.226608192869385</v>
@@ -800,7 +952,7 @@
         <v>40.5</v>
       </c>
       <c r="B13" s="0">
-        <v>86.25440809009568</v>
+        <v>55</v>
       </c>
       <c r="C13" s="0">
         <v>10</v>
@@ -838,7 +990,7 @@
         <v>40.600000000000001</v>
       </c>
       <c r="B14" s="0">
-        <v>94.628308274068459</v>
+        <v>110</v>
       </c>
       <c r="C14" s="0">
         <v>39.226608192869385</v>
@@ -876,7 +1028,7 @@
         <v>40.600000000000001</v>
       </c>
       <c r="B15" s="0">
-        <v>86.155360904408681</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0">
         <v>10</v>
@@ -914,7 +1066,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="B16" s="0">
-        <v>94.494937806212704</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0">
         <v>39.226608192869385</v>
@@ -952,7 +1104,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="B17" s="0">
-        <v>86.056313718721682</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0">
         <v>10</v>
@@ -990,7 +1142,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="B18" s="0">
-        <v>94.361567338356963</v>
+        <v>110</v>
       </c>
       <c r="C18" s="0">
         <v>39.226608192869385</v>
@@ -1028,7 +1180,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="B19" s="0">
-        <v>85.957266533034698</v>
+        <v>55</v>
       </c>
       <c r="C19" s="0">
         <v>10</v>
@@ -1066,7 +1218,7 @@
         <v>40.899999999999999</v>
       </c>
       <c r="B20" s="0">
-        <v>94.228196870501208</v>
+        <v>110</v>
       </c>
       <c r="C20" s="0">
         <v>39.226608192869385</v>
@@ -1104,7 +1256,7 @@
         <v>40.899999999999999</v>
       </c>
       <c r="B21" s="0">
-        <v>85.858219347347685</v>
+        <v>55</v>
       </c>
       <c r="C21" s="0">
         <v>10</v>
@@ -1142,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="0">
-        <v>94.094826402645452</v>
+        <v>110</v>
       </c>
       <c r="C22" s="0">
         <v>39.226608192869385</v>
@@ -1180,7 +1332,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="0">
-        <v>85.7591721616607</v>
+        <v>55</v>
       </c>
       <c r="C23" s="0">
         <v>10</v>
@@ -1218,7 +1370,7 @@
         <v>41.100000000000001</v>
       </c>
       <c r="B24" s="0">
-        <v>94.558681044526125</v>
+        <v>110</v>
       </c>
       <c r="C24" s="0">
         <v>41.187938602512851</v>
@@ -1256,7 +1408,7 @@
         <v>41.100000000000001</v>
       </c>
       <c r="B25" s="0">
-        <v>85.657182980359252</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0">
         <v>10</v>
@@ -1294,7 +1446,7 @@
         <v>41.200000000000003</v>
       </c>
       <c r="B26" s="0">
-        <v>94.424329911465534</v>
+        <v>110</v>
       </c>
       <c r="C26" s="0">
         <v>41.187938602512851</v>
@@ -1332,7 +1484,7 @@
         <v>41.200000000000003</v>
       </c>
       <c r="B27" s="0">
-        <v>85.55519379905779</v>
+        <v>55</v>
       </c>
       <c r="C27" s="0">
         <v>10</v>
@@ -1370,7 +1522,7 @@
         <v>41.299999999999997</v>
       </c>
       <c r="B28" s="0">
-        <v>94.289978778404958</v>
+        <v>110</v>
       </c>
       <c r="C28" s="0">
         <v>41.187938602512851</v>
@@ -1408,7 +1560,7 @@
         <v>41.299999999999997</v>
       </c>
       <c r="B29" s="0">
-        <v>85.453204617756327</v>
+        <v>55</v>
       </c>
       <c r="C29" s="0">
         <v>10</v>
@@ -1446,7 +1598,7 @@
         <v>41.399999999999999</v>
       </c>
       <c r="B30" s="0">
-        <v>94.155627645344381</v>
+        <v>110</v>
       </c>
       <c r="C30" s="0">
         <v>41.187938602512851</v>
@@ -1484,7 +1636,7 @@
         <v>41.399999999999999</v>
       </c>
       <c r="B31" s="0">
-        <v>85.351215436454865</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0">
         <v>10</v>
@@ -1522,7 +1674,7 @@
         <v>41.5</v>
       </c>
       <c r="B32" s="0">
-        <v>94.021276512283805</v>
+        <v>110</v>
       </c>
       <c r="C32" s="0">
         <v>41.187938602512851</v>
@@ -1560,7 +1712,7 @@
         <v>41.5</v>
       </c>
       <c r="B33" s="0">
-        <v>85.249226255153417</v>
+        <v>55</v>
       </c>
       <c r="C33" s="0">
         <v>10</v>
@@ -1598,7 +1750,7 @@
         <v>41.600000000000001</v>
       </c>
       <c r="B34" s="0">
-        <v>94.48709248457412</v>
+        <v>110</v>
       </c>
       <c r="C34" s="0">
         <v>43.149269012156324</v>
@@ -1636,7 +1788,7 @@
         <v>41.600000000000001</v>
       </c>
       <c r="B35" s="0">
-        <v>85.147237073851954</v>
+        <v>55</v>
       </c>
       <c r="C35" s="0">
         <v>10</v>
@@ -1674,7 +1826,7 @@
         <v>41.700000000000003</v>
       </c>
       <c r="B36" s="0">
-        <v>94.349799355899066</v>
+        <v>110</v>
       </c>
       <c r="C36" s="0">
         <v>43.149269012156324</v>
@@ -1712,7 +1864,7 @@
         <v>41.700000000000003</v>
       </c>
       <c r="B37" s="0">
-        <v>85.045247892550492</v>
+        <v>55</v>
       </c>
       <c r="C37" s="0">
         <v>10</v>
@@ -1750,7 +1902,7 @@
         <v>41.799999999999997</v>
       </c>
       <c r="B38" s="0">
-        <v>94.21250622722404</v>
+        <v>110</v>
       </c>
       <c r="C38" s="0">
         <v>43.149269012156324</v>
@@ -1788,7 +1940,7 @@
         <v>41.799999999999997</v>
       </c>
       <c r="B39" s="0">
-        <v>84.94325871124903</v>
+        <v>55</v>
       </c>
       <c r="C39" s="0">
         <v>10</v>
@@ -1826,7 +1978,7 @@
         <v>41.899999999999999</v>
       </c>
       <c r="B40" s="0">
-        <v>94.075213098549</v>
+        <v>110</v>
       </c>
       <c r="C40" s="0">
         <v>43.149269012156324</v>
@@ -1864,7 +2016,7 @@
         <v>41.899999999999999</v>
       </c>
       <c r="B41" s="0">
-        <v>84.841269529947567</v>
+        <v>55</v>
       </c>
       <c r="C41" s="0">
         <v>10</v>
@@ -1902,7 +2054,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="0">
-        <v>93.93791996987396</v>
+        <v>110</v>
       </c>
       <c r="C42" s="0">
         <v>43.149269012156324</v>
@@ -1940,7 +2092,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>84.739280348646105</v>
+        <v>55</v>
       </c>
       <c r="C43" s="0">
         <v>10</v>
@@ -1978,7 +2130,7 @@
         <v>42.100000000000001</v>
       </c>
       <c r="B44" s="0">
-        <v>93.804549502018233</v>
+        <v>110</v>
       </c>
       <c r="C44" s="0">
         <v>43.149269012156324</v>
@@ -2016,7 +2168,7 @@
         <v>42.100000000000001</v>
       </c>
       <c r="B45" s="0">
-        <v>84.637291167344657</v>
+        <v>55</v>
       </c>
       <c r="C45" s="0">
         <v>10</v>
@@ -2054,7 +2206,7 @@
         <v>42.200000000000003</v>
       </c>
       <c r="B46" s="0">
-        <v>94.263500817874771</v>
+        <v>110</v>
       </c>
       <c r="C46" s="0">
         <v>45.11059942179979</v>
@@ -2092,7 +2244,7 @@
         <v>42.200000000000003</v>
       </c>
       <c r="B47" s="0">
-        <v>84.535301986043194</v>
+        <v>55</v>
       </c>
       <c r="C47" s="0">
         <v>10</v>
@@ -2130,7 +2282,7 @@
         <v>42.299999999999997</v>
       </c>
       <c r="B48" s="0">
-        <v>94.127188354404552</v>
+        <v>110</v>
       </c>
       <c r="C48" s="0">
         <v>45.11059942179979</v>
@@ -2168,7 +2320,7 @@
         <v>42.299999999999997</v>
       </c>
       <c r="B49" s="0">
-        <v>84.433312804741732</v>
+        <v>55</v>
       </c>
       <c r="C49" s="0">
         <v>10</v>
@@ -2206,7 +2358,7 @@
         <v>42.399999999999999</v>
       </c>
       <c r="B50" s="0">
-        <v>93.990875890934348</v>
+        <v>110</v>
       </c>
       <c r="C50" s="0">
         <v>45.11059942179979</v>
@@ -2244,7 +2396,7 @@
         <v>42.399999999999999</v>
       </c>
       <c r="B51" s="0">
-        <v>84.331323623440269</v>
+        <v>55</v>
       </c>
       <c r="C51" s="0">
         <v>10</v>
@@ -2282,7 +2434,7 @@
         <v>42.5</v>
       </c>
       <c r="B52" s="0">
-        <v>93.854563427464129</v>
+        <v>110</v>
       </c>
       <c r="C52" s="0">
         <v>45.11059942179979</v>
@@ -2320,7 +2472,7 @@
         <v>42.5</v>
       </c>
       <c r="B53" s="0">
-        <v>84.229334442138821</v>
+        <v>55</v>
       </c>
       <c r="C53" s="0">
         <v>10</v>
@@ -2358,7 +2510,7 @@
         <v>42.600000000000001</v>
       </c>
       <c r="B54" s="0">
-        <v>93.718250963993896</v>
+        <v>110</v>
       </c>
       <c r="C54" s="0">
         <v>45.11059942179979</v>
@@ -2396,7 +2548,7 @@
         <v>42.600000000000001</v>
       </c>
       <c r="B55" s="0">
-        <v>84.127345260837359</v>
+        <v>55</v>
       </c>
       <c r="C55" s="0">
         <v>10</v>
@@ -2434,7 +2586,7 @@
         <v>42.700000000000003</v>
       </c>
       <c r="B56" s="0">
-        <v>94.169356958211893</v>
+        <v>110</v>
       </c>
       <c r="C56" s="0">
         <v>47.071929831443263</v>
@@ -2472,7 +2624,7 @@
         <v>42.700000000000003</v>
       </c>
       <c r="B57" s="0">
-        <v>84.025356079535896</v>
+        <v>55</v>
       </c>
       <c r="C57" s="0">
         <v>10</v>
@@ -2510,7 +2662,7 @@
         <v>42.799999999999997</v>
       </c>
       <c r="B58" s="0">
-        <v>94.03010249912721</v>
+        <v>110</v>
       </c>
       <c r="C58" s="0">
         <v>47.071929831443263</v>
@@ -2548,7 +2700,7 @@
         <v>42.799999999999997</v>
       </c>
       <c r="B59" s="0">
-        <v>83.923366898234434</v>
+        <v>55</v>
       </c>
       <c r="C59" s="0">
         <v>10</v>
@@ -2586,7 +2738,7 @@
         <v>42.899999999999999</v>
       </c>
       <c r="B60" s="0">
-        <v>93.890848040042528</v>
+        <v>110</v>
       </c>
       <c r="C60" s="0">
         <v>47.071929831443263</v>
@@ -2624,7 +2776,7 @@
         <v>42.899999999999999</v>
       </c>
       <c r="B61" s="0">
-        <v>83.821377716932972</v>
+        <v>55</v>
       </c>
       <c r="C61" s="0">
         <v>10</v>
@@ -2662,7 +2814,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="0">
-        <v>93.751593580957817</v>
+        <v>110</v>
       </c>
       <c r="C62" s="0">
         <v>47.071929831443263</v>
@@ -2700,7 +2852,7 @@
         <v>43</v>
       </c>
       <c r="B63" s="0">
-        <v>83.719388535631509</v>
+        <v>55</v>
       </c>
       <c r="C63" s="0">
         <v>10</v>
@@ -2738,7 +2890,7 @@
         <v>43.100000000000001</v>
       </c>
       <c r="B64" s="0">
-        <v>93.616261782692419</v>
+        <v>110</v>
       </c>
       <c r="C64" s="0">
         <v>47.071929831443263</v>
@@ -2776,7 +2928,7 @@
         <v>43.100000000000001</v>
       </c>
       <c r="B65" s="0">
-        <v>83.615438023920419</v>
+        <v>55</v>
       </c>
       <c r="C65" s="0">
         <v>10</v>
@@ -2814,7 +2966,7 @@
         <v>43.200000000000003</v>
       </c>
       <c r="B66" s="0">
-        <v>94.061483785681489</v>
+        <v>110</v>
       </c>
       <c r="C66" s="0">
         <v>49.03326024108673</v>
@@ -2852,7 +3004,7 @@
         <v>43.200000000000003</v>
       </c>
       <c r="B67" s="0">
-        <v>83.511487512209285</v>
+        <v>55</v>
       </c>
       <c r="C67" s="0">
         <v>10</v>
@@ -2890,7 +3042,7 @@
         <v>43.299999999999997</v>
       </c>
       <c r="B68" s="0">
-        <v>93.922229326596806</v>
+        <v>110</v>
       </c>
       <c r="C68" s="0">
         <v>49.03326024108673</v>
@@ -2928,7 +3080,7 @@
         <v>43.299999999999997</v>
       </c>
       <c r="B69" s="0">
-        <v>83.407537000498195</v>
+        <v>55</v>
       </c>
       <c r="C69" s="0">
         <v>10</v>
@@ -2966,7 +3118,7 @@
         <v>43.399999999999999</v>
       </c>
       <c r="B70" s="0">
-        <v>93.782974867512124</v>
+        <v>110</v>
       </c>
       <c r="C70" s="0">
         <v>49.03326024108673</v>
@@ -3004,7 +3156,7 @@
         <v>43.399999999999999</v>
       </c>
       <c r="B71" s="0">
-        <v>83.30358648878709</v>
+        <v>55</v>
       </c>
       <c r="C71" s="0">
         <v>10</v>
@@ -3042,7 +3194,7 @@
         <v>43.5</v>
       </c>
       <c r="B72" s="0">
-        <v>93.643720408427441</v>
+        <v>110</v>
       </c>
       <c r="C72" s="0">
         <v>49.03326024108673</v>
@@ -3080,7 +3232,7 @@
         <v>43.5</v>
       </c>
       <c r="B73" s="0">
-        <v>83.199635977075985</v>
+        <v>55</v>
       </c>
       <c r="C73" s="0">
         <v>10</v>
@@ -3118,7 +3270,7 @@
         <v>43.600000000000001</v>
       </c>
       <c r="B74" s="0">
-        <v>93.504465949342745</v>
+        <v>110</v>
       </c>
       <c r="C74" s="0">
         <v>49.03326024108673</v>
@@ -3156,7 +3308,7 @@
         <v>43.600000000000001</v>
       </c>
       <c r="B75" s="0">
-        <v>83.095685465364866</v>
+        <v>55</v>
       </c>
       <c r="C75" s="0">
         <v>10</v>
@@ -3194,7 +3346,7 @@
         <v>43.700000000000003</v>
       </c>
       <c r="B76" s="0">
-        <v>93.946745956717365</v>
+        <v>110</v>
       </c>
       <c r="C76" s="0">
         <v>50.994590650730203</v>
@@ -3232,7 +3384,7 @@
         <v>43.700000000000003</v>
       </c>
       <c r="B77" s="0">
-        <v>82.991734953653776</v>
+        <v>55</v>
       </c>
       <c r="C77" s="0">
         <v>10</v>
@@ -3270,7 +3422,7 @@
         <v>43.799999999999997</v>
       </c>
       <c r="B78" s="0">
-        <v>93.806510832427847</v>
+        <v>110</v>
       </c>
       <c r="C78" s="0">
         <v>50.994590650730203</v>
@@ -3308,7 +3460,7 @@
         <v>43.799999999999997</v>
       </c>
       <c r="B79" s="0">
-        <v>82.887784441942671</v>
+        <v>55</v>
       </c>
       <c r="C79" s="0">
         <v>10</v>
@@ -3346,7 +3498,7 @@
         <v>43.899999999999999</v>
       </c>
       <c r="B80" s="0">
-        <v>93.666275708138343</v>
+        <v>110</v>
       </c>
       <c r="C80" s="0">
         <v>50.994590650730203</v>
@@ -3384,7 +3536,7 @@
         <v>43.899999999999999</v>
       </c>
       <c r="B81" s="0">
-        <v>82.783833930231552</v>
+        <v>55</v>
       </c>
       <c r="C81" s="0">
         <v>10</v>
@@ -3422,7 +3574,7 @@
         <v>44</v>
       </c>
       <c r="B82" s="0">
-        <v>93.52604058384884</v>
+        <v>110</v>
       </c>
       <c r="C82" s="0">
         <v>50.994590650730203</v>
@@ -3460,7 +3612,7 @@
         <v>44</v>
       </c>
       <c r="B83" s="0">
-        <v>82.679883418520433</v>
+        <v>55</v>
       </c>
       <c r="C83" s="0">
         <v>10</v>
@@ -3498,7 +3650,7 @@
         <v>44.100000000000001</v>
       </c>
       <c r="B84" s="0">
-        <v>93.386786124764157</v>
+        <v>110</v>
       </c>
       <c r="C84" s="0">
         <v>50.994590650730203</v>
@@ -3536,7 +3688,7 @@
         <v>44.100000000000001</v>
       </c>
       <c r="B85" s="0">
-        <v>82.575932906809342</v>
+        <v>55</v>
       </c>
       <c r="C85" s="0">
         <v>10</v>
@@ -3574,7 +3726,7 @@
         <v>44.200000000000003</v>
       </c>
       <c r="B86" s="0">
-        <v>93.81239482365676</v>
+        <v>110</v>
       </c>
       <c r="C86" s="0">
         <v>52.955921060373669</v>
@@ -3612,7 +3764,7 @@
         <v>44.200000000000003</v>
       </c>
       <c r="B87" s="0">
-        <v>82.471982395098237</v>
+        <v>55</v>
       </c>
       <c r="C87" s="0">
         <v>10</v>
@@ -3650,7 +3802,7 @@
         <v>44.299999999999997</v>
       </c>
       <c r="B88" s="0">
-        <v>93.671179034162449</v>
+        <v>110</v>
       </c>
       <c r="C88" s="0">
         <v>52.955921060373669</v>
@@ -3688,7 +3840,7 @@
         <v>44.299999999999997</v>
       </c>
       <c r="B89" s="0">
-        <v>82.368031883387133</v>
+        <v>55</v>
       </c>
       <c r="C89" s="0">
         <v>10</v>
@@ -3726,7 +3878,7 @@
         <v>44.399999999999999</v>
       </c>
       <c r="B90" s="0">
-        <v>93.52996324466811</v>
+        <v>110</v>
       </c>
       <c r="C90" s="0">
         <v>52.955921060373669</v>
@@ -3764,7 +3916,7 @@
         <v>44.399999999999999</v>
       </c>
       <c r="B91" s="0">
-        <v>82.264081371676028</v>
+        <v>55</v>
       </c>
       <c r="C91" s="0">
         <v>10</v>
@@ -3802,7 +3954,7 @@
         <v>44.5</v>
       </c>
       <c r="B92" s="0">
-        <v>93.388747455173771</v>
+        <v>110</v>
       </c>
       <c r="C92" s="0">
         <v>52.955921060373669</v>
@@ -3840,7 +3992,7 @@
         <v>44.5</v>
       </c>
       <c r="B93" s="0">
-        <v>82.160130859964923</v>
+        <v>55</v>
       </c>
       <c r="C93" s="0">
         <v>10</v>
@@ -3878,7 +4030,7 @@
         <v>44.600000000000001</v>
       </c>
       <c r="B94" s="0">
-        <v>93.247531665679446</v>
+        <v>110</v>
       </c>
       <c r="C94" s="0">
         <v>52.955921060373669</v>
@@ -3916,7 +4068,7 @@
         <v>44.600000000000001</v>
       </c>
       <c r="B95" s="0">
-        <v>82.056180348253832</v>
+        <v>55</v>
       </c>
       <c r="C95" s="0">
         <v>10</v>
@@ -3954,7 +4106,7 @@
         <v>44.700000000000003</v>
       </c>
       <c r="B96" s="0">
-        <v>93.106315876185121</v>
+        <v>110</v>
       </c>
       <c r="C96" s="0">
         <v>52.955921060373669</v>
@@ -3992,7 +4144,7 @@
         <v>44.700000000000003</v>
       </c>
       <c r="B97" s="0">
-        <v>81.952229836542713</v>
+        <v>55</v>
       </c>
       <c r="C97" s="0">
         <v>10</v>
@@ -4030,7 +4182,7 @@
         <v>44.799999999999997</v>
       </c>
       <c r="B98" s="0">
-        <v>93.529963244668124</v>
+        <v>110</v>
       </c>
       <c r="C98" s="0">
         <v>54.917251470017142</v>
@@ -4068,7 +4220,7 @@
         <v>44.799999999999997</v>
       </c>
       <c r="B99" s="0">
-        <v>81.848279324831623</v>
+        <v>55</v>
       </c>
       <c r="C99" s="0">
         <v>10</v>
@@ -4106,7 +4258,7 @@
         <v>44.899999999999999</v>
       </c>
       <c r="B100" s="0">
-        <v>93.385805459559336</v>
+        <v>110</v>
       </c>
       <c r="C100" s="0">
         <v>54.917251470017142</v>
@@ -4144,7 +4296,7 @@
         <v>44.899999999999999</v>
       </c>
       <c r="B101" s="0">
-        <v>81.744328813120504</v>
+        <v>55</v>
       </c>
       <c r="C101" s="0">
         <v>10</v>
@@ -4182,7 +4334,7 @@
         <v>45</v>
       </c>
       <c r="B102" s="0">
-        <v>93.241647674450533</v>
+        <v>110</v>
       </c>
       <c r="C102" s="0">
         <v>54.917251470017142</v>
@@ -4220,7 +4372,7 @@
         <v>45</v>
       </c>
       <c r="B103" s="0">
-        <v>81.640378301409399</v>
+        <v>55</v>
       </c>
       <c r="C103" s="0">
         <v>10</v>
@@ -4258,7 +4410,7 @@
         <v>45.100000000000001</v>
       </c>
       <c r="B104" s="0">
-        <v>93.102393215365836</v>
+        <v>110</v>
       </c>
       <c r="C104" s="0">
         <v>54.917251470017142</v>
@@ -4296,7 +4448,7 @@
         <v>45.100000000000001</v>
       </c>
       <c r="B105" s="0">
-        <v>81.535447124493473</v>
+        <v>55</v>
       </c>
       <c r="C105" s="0">
         <v>10</v>
@@ -4334,7 +4486,7 @@
         <v>45.200000000000003</v>
       </c>
       <c r="B106" s="0">
-        <v>93.533885905487409</v>
+        <v>110</v>
       </c>
       <c r="C106" s="0">
         <v>56.878581879660608</v>
@@ -4372,7 +4524,7 @@
         <v>45.200000000000003</v>
       </c>
       <c r="B107" s="0">
-        <v>81.430515947577547</v>
+        <v>55</v>
       </c>
       <c r="C107" s="0">
         <v>10</v>
@@ -4410,7 +4562,7 @@
         <v>45.299999999999997</v>
       </c>
       <c r="B108" s="0">
-        <v>93.390708785583442</v>
+        <v>110</v>
       </c>
       <c r="C108" s="0">
         <v>56.878581879660608</v>
@@ -4448,7 +4600,7 @@
         <v>45.299999999999997</v>
       </c>
       <c r="B109" s="0">
-        <v>81.325584770661635</v>
+        <v>55</v>
       </c>
       <c r="C109" s="0">
         <v>10</v>
@@ -4486,7 +4638,7 @@
         <v>45.399999999999999</v>
       </c>
       <c r="B110" s="0">
-        <v>93.247531665679475</v>
+        <v>110</v>
       </c>
       <c r="C110" s="0">
         <v>56.878581879660608</v>
@@ -4524,7 +4676,7 @@
         <v>45.399999999999999</v>
       </c>
       <c r="B111" s="0">
-        <v>81.220653593745709</v>
+        <v>55</v>
       </c>
       <c r="C111" s="0">
         <v>10</v>
@@ -4562,7 +4714,7 @@
         <v>45.5</v>
       </c>
       <c r="B112" s="0">
-        <v>93.104354545775479</v>
+        <v>110</v>
       </c>
       <c r="C112" s="0">
         <v>56.878581879660608</v>
@@ -4600,7 +4752,7 @@
         <v>45.5</v>
       </c>
       <c r="B113" s="0">
-        <v>81.115722416829783</v>
+        <v>55</v>
       </c>
       <c r="C113" s="0">
         <v>10</v>
@@ -4638,7 +4790,7 @@
         <v>45.600000000000001</v>
       </c>
       <c r="B114" s="0">
-        <v>92.961177425871512</v>
+        <v>110</v>
       </c>
       <c r="C114" s="0">
         <v>56.878581879660608</v>
@@ -4676,7 +4828,7 @@
         <v>45.600000000000001</v>
       </c>
       <c r="B115" s="0">
-        <v>81.010791239913857</v>
+        <v>55</v>
       </c>
       <c r="C115" s="0">
         <v>10</v>
@@ -4714,7 +4866,7 @@
         <v>45.700000000000003</v>
       </c>
       <c r="B116" s="0">
-        <v>93.382863463944844</v>
+        <v>110</v>
       </c>
       <c r="C116" s="0">
         <v>58.839912289304074</v>
@@ -4752,7 +4904,7 @@
         <v>45.700000000000003</v>
       </c>
       <c r="B117" s="0">
-        <v>80.905860062997931</v>
+        <v>55</v>
       </c>
       <c r="C117" s="0">
         <v>10</v>
@@ -4790,7 +4942,7 @@
         <v>45.799999999999997</v>
       </c>
       <c r="B118" s="0">
-        <v>93.237725013631248</v>
+        <v>110</v>
       </c>
       <c r="C118" s="0">
         <v>58.839912289304074</v>
@@ -4828,7 +4980,7 @@
         <v>45.799999999999997</v>
       </c>
       <c r="B119" s="0">
-        <v>80.800928886082005</v>
+        <v>55</v>
       </c>
       <c r="C119" s="0">
         <v>10</v>
@@ -4866,7 +5018,7 @@
         <v>45.899999999999999</v>
       </c>
       <c r="B120" s="0">
-        <v>93.092586563317624</v>
+        <v>110</v>
       </c>
       <c r="C120" s="0">
         <v>58.839912289304074</v>
@@ -4904,7 +5056,7 @@
         <v>45.899999999999999</v>
       </c>
       <c r="B121" s="0">
-        <v>80.695997709166079</v>
+        <v>55</v>
       </c>
       <c r="C121" s="0">
         <v>10</v>
@@ -4942,7 +5094,7 @@
         <v>46</v>
       </c>
       <c r="B122" s="0">
-        <v>92.947448113004015</v>
+        <v>110</v>
       </c>
       <c r="C122" s="0">
         <v>58.839912289304074</v>
@@ -4980,7 +5132,7 @@
         <v>46</v>
       </c>
       <c r="B123" s="0">
-        <v>80.591066532250153</v>
+        <v>55</v>
       </c>
       <c r="C123" s="0">
         <v>10</v>
@@ -5018,7 +5170,7 @@
         <v>46.100000000000001</v>
       </c>
       <c r="B124" s="0">
-        <v>92.805251658304854</v>
+        <v>110</v>
       </c>
       <c r="C124" s="0">
         <v>58.839912289304074</v>
@@ -5056,7 +5208,7 @@
         <v>46.100000000000001</v>
       </c>
       <c r="B125" s="0">
-        <v>80.478290033695643</v>
+        <v>55</v>
       </c>
       <c r="C125" s="0">
         <v>10</v>
@@ -5094,7 +5246,7 @@
         <v>46.200000000000003</v>
       </c>
       <c r="B126" s="0">
-        <v>93.208305057486569</v>
+        <v>110</v>
       </c>
       <c r="C126" s="0">
         <v>60.801242698947547</v>
@@ -5132,7 +5284,7 @@
         <v>46.200000000000003</v>
       </c>
       <c r="B127" s="0">
-        <v>80.365513535141147</v>
+        <v>55</v>
       </c>
       <c r="C127" s="0">
         <v>10</v>
@@ -5170,7 +5322,7 @@
         <v>46.299999999999997</v>
       </c>
       <c r="B128" s="0">
-        <v>93.064147272377767</v>
+        <v>110</v>
       </c>
       <c r="C128" s="0">
         <v>60.801242698947547</v>
@@ -5208,7 +5360,7 @@
         <v>46.299999999999997</v>
       </c>
       <c r="B129" s="0">
-        <v>80.252737036586666</v>
+        <v>55</v>
       </c>
       <c r="C129" s="0">
         <v>10</v>
@@ -5246,7 +5398,7 @@
         <v>46.399999999999999</v>
       </c>
       <c r="B130" s="0">
-        <v>92.919989487268978</v>
+        <v>110</v>
       </c>
       <c r="C130" s="0">
         <v>60.801242698947547</v>
@@ -5284,7 +5436,7 @@
         <v>46.399999999999999</v>
       </c>
       <c r="B131" s="0">
-        <v>80.139960538032156</v>
+        <v>55</v>
       </c>
       <c r="C131" s="0">
         <v>10</v>
@@ -5322,7 +5474,7 @@
         <v>46.5</v>
       </c>
       <c r="B132" s="0">
-        <v>92.775831702160175</v>
+        <v>110</v>
       </c>
       <c r="C132" s="0">
         <v>60.801242698947547</v>
@@ -5360,7 +5512,7 @@
         <v>46.5</v>
       </c>
       <c r="B133" s="0">
-        <v>80.027184039477646</v>
+        <v>55</v>
       </c>
       <c r="C133" s="0">
         <v>10</v>
@@ -5398,7 +5550,7 @@
         <v>46.600000000000001</v>
       </c>
       <c r="B134" s="0">
-        <v>92.631673917051373</v>
+        <v>110</v>
       </c>
       <c r="C134" s="0">
         <v>60.801242698947547</v>
@@ -5436,7 +5588,7 @@
         <v>46.600000000000001</v>
       </c>
       <c r="B135" s="0">
-        <v>79.91440754092315</v>
+        <v>55</v>
       </c>
       <c r="C135" s="0">
         <v>10</v>
@@ -5474,7 +5626,7 @@
         <v>46.700000000000003</v>
       </c>
       <c r="B136" s="0">
-        <v>93.035707981437952</v>
+        <v>110</v>
       </c>
       <c r="C136" s="0">
         <v>62.762573108591013</v>
@@ -5512,7 +5664,7 @@
         <v>46.700000000000003</v>
       </c>
       <c r="B137" s="0">
-        <v>79.801631042368655</v>
+        <v>55</v>
       </c>
       <c r="C137" s="0">
         <v>10</v>
@@ -5550,7 +5702,7 @@
         <v>46.799999999999997</v>
       </c>
       <c r="B138" s="0">
-        <v>92.8886082007147</v>
+        <v>110</v>
       </c>
       <c r="C138" s="0">
         <v>62.762573108591013</v>
@@ -5588,7 +5740,7 @@
         <v>46.799999999999997</v>
       </c>
       <c r="B139" s="0">
-        <v>79.688854543814145</v>
+        <v>55</v>
       </c>
       <c r="C139" s="0">
         <v>10</v>
@@ -5626,7 +5778,7 @@
         <v>46.899999999999999</v>
       </c>
       <c r="B140" s="0">
-        <v>92.741508419991447</v>
+        <v>110</v>
       </c>
       <c r="C140" s="0">
         <v>62.762573108591013</v>
@@ -5664,7 +5816,7 @@
         <v>46.899999999999999</v>
       </c>
       <c r="B141" s="0">
-        <v>79.576078045259635</v>
+        <v>55</v>
       </c>
       <c r="C141" s="0">
         <v>10</v>
@@ -5702,7 +5854,7 @@
         <v>47</v>
       </c>
       <c r="B142" s="0">
-        <v>92.594408639268195</v>
+        <v>110</v>
       </c>
       <c r="C142" s="0">
         <v>62.762573108591013</v>
@@ -5740,7 +5892,7 @@
         <v>47</v>
       </c>
       <c r="B143" s="0">
-        <v>79.463301546705139</v>
+        <v>55</v>
       </c>
       <c r="C143" s="0">
         <v>10</v>
@@ -5778,7 +5930,7 @@
         <v>47.100000000000001</v>
       </c>
       <c r="B144" s="0">
-        <v>92.451231519364228</v>
+        <v>110</v>
       </c>
       <c r="C144" s="0">
         <v>62.762573108591013</v>
@@ -5816,7 +5968,7 @@
         <v>47.100000000000001</v>
       </c>
       <c r="B145" s="0">
-        <v>79.351505713355465</v>
+        <v>55</v>
       </c>
       <c r="C145" s="0">
         <v>10</v>
@@ -5854,7 +6006,7 @@
         <v>47.200000000000003</v>
       </c>
       <c r="B146" s="0">
-        <v>92.861149574979692</v>
+        <v>110</v>
       </c>
       <c r="C146" s="0">
         <v>64.723903518234479</v>
@@ -5892,7 +6044,7 @@
         <v>47.200000000000003</v>
       </c>
       <c r="B147" s="0">
-        <v>79.23970988000579</v>
+        <v>55</v>
       </c>
       <c r="C147" s="0">
         <v>10</v>
@@ -5930,7 +6082,7 @@
         <v>47.299999999999997</v>
       </c>
       <c r="B148" s="0">
-        <v>92.715030459461261</v>
+        <v>110</v>
       </c>
       <c r="C148" s="0">
         <v>64.723903518234479</v>
@@ -5968,7 +6120,7 @@
         <v>47.299999999999997</v>
       </c>
       <c r="B149" s="0">
-        <v>79.127914046656116</v>
+        <v>55</v>
       </c>
       <c r="C149" s="0">
         <v>10</v>
@@ -6006,7 +6158,7 @@
         <v>47.399999999999999</v>
       </c>
       <c r="B150" s="0">
-        <v>92.568911343942816</v>
+        <v>110</v>
       </c>
       <c r="C150" s="0">
         <v>64.723903518234479</v>
@@ -6044,7 +6196,7 @@
         <v>47.399999999999999</v>
       </c>
       <c r="B151" s="0">
-        <v>79.443688242608729</v>
+        <v>55</v>
       </c>
       <c r="C151" s="0">
         <v>11.767982457860816</v>
@@ -6082,7 +6234,7 @@
         <v>47.5</v>
       </c>
       <c r="B152" s="0">
-        <v>92.422792228424385</v>
+        <v>110</v>
       </c>
       <c r="C152" s="0">
         <v>64.723903518234479</v>
@@ -6120,7 +6272,7 @@
         <v>47.5</v>
       </c>
       <c r="B153" s="0">
-        <v>79.330911744054234</v>
+        <v>55</v>
       </c>
       <c r="C153" s="0">
         <v>11.767982457860816</v>
@@ -6158,7 +6310,7 @@
         <v>47.600000000000001</v>
       </c>
       <c r="B154" s="0">
-        <v>92.818000305967544</v>
+        <v>110</v>
       </c>
       <c r="C154" s="0">
         <v>65</v>
@@ -6196,7 +6348,7 @@
         <v>47.600000000000001</v>
       </c>
       <c r="B155" s="0">
-        <v>79.218135245499724</v>
+        <v>55</v>
       </c>
       <c r="C155" s="0">
         <v>11.767982457860816</v>
@@ -6234,7 +6386,7 @@
         <v>47.700000000000003</v>
       </c>
       <c r="B156" s="0">
-        <v>92.66893919483465</v>
+        <v>110</v>
       </c>
       <c r="C156" s="0">
         <v>65</v>
@@ -6272,7 +6424,7 @@
         <v>47.700000000000003</v>
       </c>
       <c r="B157" s="0">
-        <v>79.105358746945214</v>
+        <v>55</v>
       </c>
       <c r="C157" s="0">
         <v>11.767982457860816</v>
@@ -6310,7 +6462,7 @@
         <v>47.799999999999997</v>
       </c>
       <c r="B158" s="0">
-        <v>92.519878083701755</v>
+        <v>110</v>
       </c>
       <c r="C158" s="0">
         <v>65</v>
@@ -6348,7 +6500,7 @@
         <v>47.799999999999997</v>
       </c>
       <c r="B159" s="0">
-        <v>78.992582248390718</v>
+        <v>55</v>
       </c>
       <c r="C159" s="0">
         <v>11.767982457860816</v>
@@ -6386,7 +6538,7 @@
         <v>47.899999999999999</v>
       </c>
       <c r="B160" s="0">
-        <v>92.370816972568846</v>
+        <v>110</v>
       </c>
       <c r="C160" s="0">
         <v>65</v>
@@ -6424,7 +6576,7 @@
         <v>47.899999999999999</v>
       </c>
       <c r="B161" s="0">
-        <v>78.879805749836223</v>
+        <v>55</v>
       </c>
       <c r="C161" s="0">
         <v>11.767982457860816</v>
@@ -6462,7 +6614,7 @@
         <v>48</v>
       </c>
       <c r="B162" s="0">
-        <v>92.221755861435923</v>
+        <v>110</v>
       </c>
       <c r="C162" s="0">
         <v>65</v>
@@ -6500,7 +6652,7 @@
         <v>48</v>
       </c>
       <c r="B163" s="0">
-        <v>78.767029251281713</v>
+        <v>55</v>
       </c>
       <c r="C163" s="0">
         <v>11.767982457860816</v>
@@ -6538,7 +6690,7 @@
         <v>48.100000000000001</v>
       </c>
       <c r="B164" s="0">
-        <v>92.622847930208025</v>
+        <v>110</v>
       </c>
       <c r="C164" s="0">
         <v>65</v>
@@ -6576,7 +6728,7 @@
         <v>48.100000000000001</v>
       </c>
       <c r="B165" s="0">
-        <v>78.651310757112753</v>
+        <v>55</v>
       </c>
       <c r="C165" s="0">
         <v>11.767982457860816</v>
@@ -6614,7 +6766,7 @@
         <v>48.200000000000003</v>
       </c>
       <c r="B166" s="0">
-        <v>92.474767484279951</v>
+        <v>110</v>
       </c>
       <c r="C166" s="0">
         <v>65</v>
@@ -6652,7 +6804,7 @@
         <v>48.200000000000003</v>
       </c>
       <c r="B167" s="0">
-        <v>78.53559226294378</v>
+        <v>55</v>
       </c>
       <c r="C167" s="0">
         <v>11.767982457860816</v>
@@ -6690,7 +6842,7 @@
         <v>48.299999999999997</v>
       </c>
       <c r="B168" s="0">
-        <v>92.326687038351864</v>
+        <v>110</v>
       </c>
       <c r="C168" s="0">
         <v>65</v>
@@ -6728,7 +6880,7 @@
         <v>48.299999999999997</v>
       </c>
       <c r="B169" s="0">
-        <v>78.419873768774835</v>
+        <v>55</v>
       </c>
       <c r="C169" s="0">
         <v>11.767982457860816</v>
@@ -6766,7 +6918,7 @@
         <v>48.399999999999999</v>
       </c>
       <c r="B170" s="0">
-        <v>92.17860659242379</v>
+        <v>110</v>
       </c>
       <c r="C170" s="0">
         <v>65</v>
@@ -6804,7 +6956,7 @@
         <v>48.399999999999999</v>
       </c>
       <c r="B171" s="0">
-        <v>78.304155274605861</v>
+        <v>55</v>
       </c>
       <c r="C171" s="0">
         <v>11.767982457860816</v>
@@ -6842,7 +6994,7 @@
         <v>48.5</v>
       </c>
       <c r="B172" s="0">
-        <v>92.030526146495703</v>
+        <v>110</v>
       </c>
       <c r="C172" s="0">
         <v>65</v>
@@ -6880,7 +7032,7 @@
         <v>48.5</v>
       </c>
       <c r="B173" s="0">
-        <v>78.59541284043793</v>
+        <v>55</v>
       </c>
       <c r="C173" s="0">
         <v>13.729312867504285</v>
@@ -6918,7 +7070,7 @@
         <v>48.600000000000001</v>
       </c>
       <c r="B174" s="0">
-        <v>91.882445700567601</v>
+        <v>110</v>
       </c>
       <c r="C174" s="0">
         <v>65</v>
@@ -6956,7 +7108,7 @@
         <v>48.600000000000001</v>
       </c>
       <c r="B175" s="0">
-        <v>78.480675011473778</v>
+        <v>55</v>
       </c>
       <c r="C175" s="0">
         <v>13.729312867504285</v>
@@ -6994,7 +7146,7 @@
         <v>48.700000000000003</v>
       </c>
       <c r="B176" s="0">
-        <v>91.734365254639528</v>
+        <v>110</v>
       </c>
       <c r="C176" s="0">
         <v>65</v>
@@ -7032,7 +7184,7 @@
         <v>48.700000000000003</v>
       </c>
       <c r="B177" s="0">
-        <v>78.36593718250964</v>
+        <v>55</v>
       </c>
       <c r="C177" s="0">
         <v>13.729312867504285</v>
@@ -7070,7 +7222,7 @@
         <v>48.799999999999997</v>
       </c>
       <c r="B178" s="0">
-        <v>91.586284808711454</v>
+        <v>110</v>
       </c>
       <c r="C178" s="0">
         <v>65</v>
@@ -7108,7 +7260,7 @@
         <v>48.799999999999997</v>
       </c>
       <c r="B179" s="0">
-        <v>78.251199353545502</v>
+        <v>55</v>
       </c>
       <c r="C179" s="0">
         <v>13.729312867504285</v>
@@ -7146,7 +7298,7 @@
         <v>48.899999999999999</v>
       </c>
       <c r="B180" s="0">
-        <v>91.438204362783367</v>
+        <v>110</v>
       </c>
       <c r="C180" s="0">
         <v>65</v>
@@ -7184,7 +7336,7 @@
         <v>48.899999999999999</v>
       </c>
       <c r="B181" s="0">
-        <v>78.136461524581364</v>
+        <v>55</v>
       </c>
       <c r="C181" s="0">
         <v>13.729312867504285</v>
@@ -7222,7 +7374,7 @@
         <v>49</v>
       </c>
       <c r="B182" s="0">
-        <v>91.290123916855265</v>
+        <v>110</v>
       </c>
       <c r="C182" s="0">
         <v>65</v>
@@ -7260,7 +7412,7 @@
         <v>49</v>
       </c>
       <c r="B183" s="0">
-        <v>78.021723695617226</v>
+        <v>55</v>
       </c>
       <c r="C183" s="0">
         <v>13.729312867504285</v>
@@ -7298,7 +7450,7 @@
         <v>49.100000000000001</v>
       </c>
       <c r="B184" s="0">
-        <v>91.144985466541655</v>
+        <v>110</v>
       </c>
       <c r="C184" s="0">
         <v>65</v>
@@ -7336,7 +7488,7 @@
         <v>49.100000000000001</v>
       </c>
       <c r="B185" s="0">
-        <v>77.90404387103861</v>
+        <v>55</v>
       </c>
       <c r="C185" s="0">
         <v>13.729312867504285</v>
@@ -7374,7 +7526,7 @@
         <v>49.200000000000003</v>
       </c>
       <c r="B186" s="0">
-        <v>90.999847016228046</v>
+        <v>110</v>
       </c>
       <c r="C186" s="0">
         <v>65</v>
@@ -7412,7 +7564,7 @@
         <v>49.200000000000003</v>
       </c>
       <c r="B187" s="0">
-        <v>77.786364046460008</v>
+        <v>55</v>
       </c>
       <c r="C187" s="0">
         <v>13.729312867504285</v>
@@ -7450,7 +7602,7 @@
         <v>49.299999999999997</v>
       </c>
       <c r="B188" s="0">
-        <v>90.854708565914422</v>
+        <v>110</v>
       </c>
       <c r="C188" s="0">
         <v>65</v>
@@ -7488,7 +7640,7 @@
         <v>49.299999999999997</v>
       </c>
       <c r="B189" s="0">
-        <v>77.668684221881392</v>
+        <v>55</v>
       </c>
       <c r="C189" s="0">
         <v>13.729312867504285</v>
@@ -7526,7 +7678,7 @@
         <v>49.399999999999999</v>
       </c>
       <c r="B190" s="0">
-        <v>90.709570115600812</v>
+        <v>110</v>
       </c>
       <c r="C190" s="0">
         <v>65</v>
@@ -7564,7 +7716,7 @@
         <v>49.399999999999999</v>
       </c>
       <c r="B191" s="0">
-        <v>77.55100439730279</v>
+        <v>55</v>
       </c>
       <c r="C191" s="0">
         <v>13.729312867504285</v>
@@ -7602,7 +7754,7 @@
         <v>49.5</v>
       </c>
       <c r="B192" s="0">
-        <v>90.564431665287188</v>
+        <v>110</v>
       </c>
       <c r="C192" s="0">
         <v>65</v>
@@ -7640,7 +7792,7 @@
         <v>49.5</v>
       </c>
       <c r="B193" s="0">
-        <v>77.820687328628765</v>
+        <v>55</v>
       </c>
       <c r="C193" s="0">
         <v>15.690643277147753</v>
@@ -7678,7 +7830,7 @@
         <v>49.600000000000001</v>
       </c>
       <c r="B194" s="0">
-        <v>90.419293214973578</v>
+        <v>110</v>
       </c>
       <c r="C194" s="0">
         <v>65</v>
@@ -7716,7 +7868,7 @@
         <v>49.600000000000001</v>
       </c>
       <c r="B195" s="0">
-        <v>77.703988169254984</v>
+        <v>55</v>
       </c>
       <c r="C195" s="0">
         <v>15.690643277147753</v>
@@ -7754,7 +7906,7 @@
         <v>49.700000000000003</v>
       </c>
       <c r="B196" s="0">
-        <v>90.274154764659954</v>
+        <v>110</v>
       </c>
       <c r="C196" s="0">
         <v>65</v>
@@ -7792,7 +7944,7 @@
         <v>49.700000000000003</v>
       </c>
       <c r="B197" s="0">
-        <v>77.587289009881189</v>
+        <v>55</v>
       </c>
       <c r="C197" s="0">
         <v>15.690643277147753</v>
@@ -7830,7 +7982,7 @@
         <v>49.799999999999997</v>
       </c>
       <c r="B198" s="0">
-        <v>90.129016314346345</v>
+        <v>110</v>
       </c>
       <c r="C198" s="0">
         <v>65</v>
@@ -7868,7 +8020,7 @@
         <v>49.799999999999997</v>
       </c>
       <c r="B199" s="0">
-        <v>77.470589850507409</v>
+        <v>55</v>
       </c>
       <c r="C199" s="0">
         <v>15.690643277147753</v>
@@ -7906,7 +8058,7 @@
         <v>49.899999999999999</v>
       </c>
       <c r="B200" s="0">
-        <v>89.983877864032735</v>
+        <v>110</v>
       </c>
       <c r="C200" s="0">
         <v>65</v>
@@ -7944,7 +8096,7 @@
         <v>49.899999999999999</v>
       </c>
       <c r="B201" s="0">
-        <v>77.353890691133628</v>
+        <v>55</v>
       </c>
       <c r="C201" s="0">
         <v>15.690643277147753</v>
@@ -7982,7 +8134,7 @@
         <v>50</v>
       </c>
       <c r="B202" s="0">
-        <v>89.838739413719125</v>
+        <v>110</v>
       </c>
       <c r="C202" s="0">
         <v>65</v>
@@ -8020,7 +8172,7 @@
         <v>50</v>
       </c>
       <c r="B203" s="0">
-        <v>77.237191531759819</v>
+        <v>55</v>
       </c>
       <c r="C203" s="0">
         <v>15.690643277147753</v>
@@ -8058,7 +8210,7 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B204" s="0">
-        <v>89.69262029820068</v>
+        <v>110</v>
       </c>
       <c r="C204" s="0">
         <v>65</v>
@@ -8096,7 +8248,7 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B205" s="0">
-        <v>77.118531041976397</v>
+        <v>55</v>
       </c>
       <c r="C205" s="0">
         <v>15.690643277147753</v>
@@ -8134,7 +8286,7 @@
         <v>50.200000000000003</v>
       </c>
       <c r="B206" s="0">
-        <v>89.546501182682249</v>
+        <v>110</v>
       </c>
       <c r="C206" s="0">
         <v>65</v>
@@ -8172,7 +8324,7 @@
         <v>50.200000000000003</v>
       </c>
       <c r="B207" s="0">
-        <v>76.999870552192974</v>
+        <v>55</v>
       </c>
       <c r="C207" s="0">
         <v>15.690643277147753</v>
@@ -8210,7 +8362,7 @@
         <v>50.299999999999997</v>
       </c>
       <c r="B208" s="0">
-        <v>89.400382067163804</v>
+        <v>110</v>
       </c>
       <c r="C208" s="0">
         <v>65</v>
@@ -8248,7 +8400,7 @@
         <v>50.299999999999997</v>
       </c>
       <c r="B209" s="0">
-        <v>76.881210062409551</v>
+        <v>55</v>
       </c>
       <c r="C209" s="0">
         <v>15.690643277147753</v>
@@ -8286,7 +8438,7 @@
         <v>50.399999999999999</v>
       </c>
       <c r="B210" s="0">
-        <v>89.254262951645359</v>
+        <v>110</v>
       </c>
       <c r="C210" s="0">
         <v>65</v>
@@ -8324,7 +8476,7 @@
         <v>50.399999999999999</v>
       </c>
       <c r="B211" s="0">
-        <v>77.135202350458343</v>
+        <v>55</v>
       </c>
       <c r="C211" s="0">
         <v>17.651973686791223</v>
@@ -8362,7 +8514,7 @@
         <v>50.5</v>
       </c>
       <c r="B212" s="0">
-        <v>89.108143836126928</v>
+        <v>110</v>
       </c>
       <c r="C212" s="0">
         <v>65</v>
@@ -8400,7 +8552,7 @@
         <v>50.5</v>
       </c>
       <c r="B213" s="0">
-        <v>77.016541860674906</v>
+        <v>55</v>
       </c>
       <c r="C213" s="0">
         <v>17.651973686791223</v>
@@ -8438,7 +8590,7 @@
         <v>50.600000000000001</v>
       </c>
       <c r="B214" s="0">
-        <v>88.962024720608483</v>
+        <v>110</v>
       </c>
       <c r="C214" s="0">
         <v>65</v>
@@ -8476,7 +8628,7 @@
         <v>50.600000000000001</v>
       </c>
       <c r="B215" s="0">
-        <v>76.897881370891483</v>
+        <v>55</v>
       </c>
       <c r="C215" s="0">
         <v>17.651973686791223</v>
@@ -8514,7 +8666,7 @@
         <v>50.700000000000003</v>
       </c>
       <c r="B216" s="0">
-        <v>88.815905605090052</v>
+        <v>110</v>
       </c>
       <c r="C216" s="0">
         <v>65</v>
@@ -8552,7 +8704,7 @@
         <v>50.700000000000003</v>
       </c>
       <c r="B217" s="0">
-        <v>76.779220881108046</v>
+        <v>55</v>
       </c>
       <c r="C217" s="0">
         <v>17.651973686791223</v>
@@ -8590,7 +8742,7 @@
         <v>50.799999999999997</v>
       </c>
       <c r="B218" s="0">
-        <v>88.669786489571607</v>
+        <v>110</v>
       </c>
       <c r="C218" s="0">
         <v>65</v>
@@ -8628,7 +8780,7 @@
         <v>50.799999999999997</v>
       </c>
       <c r="B219" s="0">
-        <v>76.660560391324623</v>
+        <v>55</v>
       </c>
       <c r="C219" s="0">
         <v>17.651973686791223</v>
@@ -8666,7 +8818,7 @@
         <v>50.899999999999999</v>
       </c>
       <c r="B220" s="0">
-        <v>88.523667374053161</v>
+        <v>110</v>
       </c>
       <c r="C220" s="0">
         <v>65</v>
@@ -8704,7 +8856,7 @@
         <v>50.899999999999999</v>
       </c>
       <c r="B221" s="0">
-        <v>76.5418999015412</v>
+        <v>55</v>
       </c>
       <c r="C221" s="0">
         <v>17.651973686791223</v>
@@ -8742,7 +8894,7 @@
         <v>51</v>
       </c>
       <c r="B222" s="0">
-        <v>88.377548258534731</v>
+        <v>110</v>
       </c>
       <c r="C222" s="0">
         <v>65</v>
@@ -8780,7 +8932,7 @@
         <v>51</v>
       </c>
       <c r="B223" s="0">
-        <v>76.423239411757777</v>
+        <v>55</v>
       </c>
       <c r="C223" s="0">
         <v>17.651973686791223</v>
@@ -8818,7 +8970,7 @@
         <v>51.100000000000001</v>
       </c>
       <c r="B224" s="0">
-        <v>88.232409808221121</v>
+        <v>110</v>
       </c>
       <c r="C224" s="0">
         <v>65</v>
@@ -8856,7 +9008,7 @@
         <v>51.100000000000001</v>
       </c>
       <c r="B225" s="0">
-        <v>76.303598256769504</v>
+        <v>55</v>
       </c>
       <c r="C225" s="0">
         <v>17.651973686791223</v>
@@ -8894,7 +9046,7 @@
         <v>51.200000000000003</v>
       </c>
       <c r="B226" s="0">
-        <v>88.087271357907483</v>
+        <v>110</v>
       </c>
       <c r="C226" s="0">
         <v>65</v>
@@ -8932,7 +9084,7 @@
         <v>51.200000000000003</v>
       </c>
       <c r="B227" s="0">
-        <v>76.18395710178126</v>
+        <v>55</v>
       </c>
       <c r="C227" s="0">
         <v>17.651973686791223</v>
@@ -8970,7 +9122,7 @@
         <v>51.299999999999997</v>
       </c>
       <c r="B228" s="0">
-        <v>87.942132907593887</v>
+        <v>110</v>
       </c>
       <c r="C228" s="0">
         <v>65</v>
@@ -9008,7 +9160,7 @@
         <v>51.299999999999997</v>
       </c>
       <c r="B229" s="0">
-        <v>76.508557284577265</v>
+        <v>55</v>
       </c>
       <c r="C229" s="0">
         <v>19.613304096434693</v>
@@ -9046,7 +9198,7 @@
         <v>51.399999999999999</v>
       </c>
       <c r="B230" s="0">
-        <v>87.796994457280263</v>
+        <v>110</v>
       </c>
       <c r="C230" s="0">
         <v>65</v>
@@ -9084,7 +9236,7 @@
         <v>51.399999999999999</v>
       </c>
       <c r="B231" s="0">
-        <v>76.389896794793856</v>
+        <v>55</v>
       </c>
       <c r="C231" s="0">
         <v>19.613304096434693</v>
@@ -9122,7 +9274,7 @@
         <v>51.5</v>
       </c>
       <c r="B232" s="0">
-        <v>87.651856006966653</v>
+        <v>110</v>
       </c>
       <c r="C232" s="0">
         <v>65</v>
@@ -9160,7 +9312,7 @@
         <v>51.5</v>
       </c>
       <c r="B233" s="0">
-        <v>76.271236305010419</v>
+        <v>55</v>
       </c>
       <c r="C233" s="0">
         <v>19.613304096434693</v>
@@ -9198,7 +9350,7 @@
         <v>51.600000000000001</v>
       </c>
       <c r="B234" s="0">
-        <v>87.50671755665303</v>
+        <v>110</v>
       </c>
       <c r="C234" s="0">
         <v>65</v>
@@ -9236,7 +9388,7 @@
         <v>51.600000000000001</v>
       </c>
       <c r="B235" s="0">
-        <v>76.152575815226982</v>
+        <v>55</v>
       </c>
       <c r="C235" s="0">
         <v>19.613304096434693</v>
@@ -9274,7 +9426,7 @@
         <v>51.700000000000003</v>
       </c>
       <c r="B236" s="0">
-        <v>87.361579106339406</v>
+        <v>110</v>
       </c>
       <c r="C236" s="0">
         <v>65</v>
@@ -9312,7 +9464,7 @@
         <v>51.700000000000003</v>
       </c>
       <c r="B237" s="0">
-        <v>76.033915325443559</v>
+        <v>55</v>
       </c>
       <c r="C237" s="0">
         <v>19.613304096434693</v>
@@ -9350,7 +9502,7 @@
         <v>51.799999999999997</v>
       </c>
       <c r="B238" s="0">
-        <v>87.21644065602581</v>
+        <v>110</v>
       </c>
       <c r="C238" s="0">
         <v>65</v>
@@ -9388,7 +9540,7 @@
         <v>51.799999999999997</v>
       </c>
       <c r="B239" s="0">
-        <v>75.915254835660122</v>
+        <v>55</v>
       </c>
       <c r="C239" s="0">
         <v>19.613304096434693</v>
@@ -9426,7 +9578,7 @@
         <v>51.899999999999999</v>
       </c>
       <c r="B240" s="0">
-        <v>87.071302205712186</v>
+        <v>110</v>
       </c>
       <c r="C240" s="0">
         <v>65</v>
@@ -9464,7 +9616,7 @@
         <v>51.899999999999999</v>
       </c>
       <c r="B241" s="0">
-        <v>75.796594345876713</v>
+        <v>55</v>
       </c>
       <c r="C241" s="0">
         <v>19.613304096434693</v>
@@ -9502,7 +9654,7 @@
         <v>52</v>
       </c>
       <c r="B242" s="0">
-        <v>86.926163755398576</v>
+        <v>110</v>
       </c>
       <c r="C242" s="0">
         <v>65</v>
@@ -9540,7 +9692,7 @@
         <v>52</v>
       </c>
       <c r="B243" s="0">
-        <v>75.677933856093262</v>
+        <v>55</v>
       </c>
       <c r="C243" s="0">
         <v>19.613304096434693</v>
@@ -9578,7 +9730,7 @@
         <v>52.100000000000001</v>
       </c>
       <c r="B244" s="0">
-        <v>86.780044639880131</v>
+        <v>110</v>
       </c>
       <c r="C244" s="0">
         <v>65</v>
@@ -9616,7 +9768,7 @@
         <v>52.100000000000001</v>
       </c>
       <c r="B245" s="0">
-        <v>75.557312035900196</v>
+        <v>55</v>
       </c>
       <c r="C245" s="0">
         <v>19.613304096434693</v>
@@ -9654,7 +9806,7 @@
         <v>52.200000000000003</v>
       </c>
       <c r="B246" s="0">
-        <v>86.633925524361686</v>
+        <v>110</v>
       </c>
       <c r="C246" s="0">
         <v>65</v>
@@ -9692,7 +9844,7 @@
         <v>52.200000000000003</v>
       </c>
       <c r="B247" s="0">
-        <v>75.436690215707117</v>
+        <v>55</v>
       </c>
       <c r="C247" s="0">
         <v>19.613304096434693</v>
@@ -9730,7 +9882,7 @@
         <v>52.299999999999997</v>
       </c>
       <c r="B248" s="0">
-        <v>86.487806408843255</v>
+        <v>110</v>
       </c>
       <c r="C248" s="0">
         <v>65</v>
@@ -9768,7 +9920,7 @@
         <v>52.299999999999997</v>
       </c>
       <c r="B249" s="0">
-        <v>75.316068395514051</v>
+        <v>55</v>
       </c>
       <c r="C249" s="0">
         <v>19.613304096434693</v>
@@ -9806,7 +9958,7 @@
         <v>52.399999999999999</v>
       </c>
       <c r="B250" s="0">
-        <v>86.34168729332481</v>
+        <v>110</v>
       </c>
       <c r="C250" s="0">
         <v>65</v>
@@ -9844,7 +9996,7 @@
         <v>52.399999999999999</v>
       </c>
       <c r="B251" s="0">
-        <v>75.646552569538954</v>
+        <v>55</v>
       </c>
       <c r="C251" s="0">
         <v>21.574634506078162</v>
@@ -9882,7 +10034,7 @@
         <v>52.5</v>
       </c>
       <c r="B252" s="0">
-        <v>86.195568177806379</v>
+        <v>110</v>
       </c>
       <c r="C252" s="0">
         <v>65</v>
@@ -9920,7 +10072,7 @@
         <v>52.5</v>
       </c>
       <c r="B253" s="0">
-        <v>75.525930749345875</v>
+        <v>55</v>
       </c>
       <c r="C253" s="0">
         <v>21.574634506078162</v>
@@ -9958,7 +10110,7 @@
         <v>52.600000000000001</v>
       </c>
       <c r="B254" s="0">
-        <v>86.049449062287934</v>
+        <v>110</v>
       </c>
       <c r="C254" s="0">
         <v>65</v>
@@ -9996,7 +10148,7 @@
         <v>52.600000000000001</v>
       </c>
       <c r="B255" s="0">
-        <v>75.40530892915281</v>
+        <v>55</v>
       </c>
       <c r="C255" s="0">
         <v>21.574634506078162</v>
@@ -10034,7 +10186,7 @@
         <v>52.700000000000003</v>
       </c>
       <c r="B256" s="0">
-        <v>85.903329946769489</v>
+        <v>110</v>
       </c>
       <c r="C256" s="0">
         <v>65</v>
@@ -10072,7 +10224,7 @@
         <v>52.700000000000003</v>
       </c>
       <c r="B257" s="0">
-        <v>75.28468710895973</v>
+        <v>55</v>
       </c>
       <c r="C257" s="0">
         <v>21.574634506078162</v>
@@ -10110,7 +10262,7 @@
         <v>52.799999999999997</v>
       </c>
       <c r="B258" s="0">
-        <v>85.757210831251058</v>
+        <v>110</v>
       </c>
       <c r="C258" s="0">
         <v>65</v>
@@ -10148,7 +10300,7 @@
         <v>52.799999999999997</v>
       </c>
       <c r="B259" s="0">
-        <v>75.164065288766679</v>
+        <v>55</v>
       </c>
       <c r="C259" s="0">
         <v>21.574634506078162</v>
@@ -10186,7 +10338,7 @@
         <v>52.899999999999999</v>
       </c>
       <c r="B260" s="0">
-        <v>85.611091715732613</v>
+        <v>110</v>
       </c>
       <c r="C260" s="0">
         <v>65</v>
@@ -10224,7 +10376,7 @@
         <v>52.899999999999999</v>
       </c>
       <c r="B261" s="0">
-        <v>75.043443468573599</v>
+        <v>55</v>
       </c>
       <c r="C261" s="0">
         <v>21.574634506078162</v>
@@ -10262,7 +10414,7 @@
         <v>53</v>
       </c>
       <c r="B262" s="0">
-        <v>85.464972600214182</v>
+        <v>110</v>
       </c>
       <c r="C262" s="0">
         <v>65</v>
@@ -10300,7 +10452,7 @@
         <v>53</v>
       </c>
       <c r="B263" s="0">
-        <v>74.92282164838052</v>
+        <v>55</v>
       </c>
       <c r="C263" s="0">
         <v>21.574634506078162</v>
@@ -10338,7 +10490,7 @@
         <v>53.100000000000001</v>
       </c>
       <c r="B264" s="0">
-        <v>85.320814815105379</v>
+        <v>110</v>
       </c>
       <c r="C264" s="0">
         <v>65</v>
@@ -10376,7 +10528,7 @@
         <v>53.100000000000001</v>
       </c>
       <c r="B265" s="0">
-        <v>74.800238497777784</v>
+        <v>55</v>
       </c>
       <c r="C265" s="0">
         <v>21.574634506078162</v>
@@ -10414,7 +10566,7 @@
         <v>53.200000000000003</v>
       </c>
       <c r="B266" s="0">
-        <v>85.176657029996576</v>
+        <v>110</v>
       </c>
       <c r="C266" s="0">
         <v>65</v>
@@ -10452,7 +10604,7 @@
         <v>53.200000000000003</v>
       </c>
       <c r="B267" s="0">
-        <v>74.677655347175062</v>
+        <v>55</v>
       </c>
       <c r="C267" s="0">
         <v>21.574634506078162</v>
@@ -10490,7 +10642,7 @@
         <v>53.299999999999997</v>
       </c>
       <c r="B268" s="0">
-        <v>85.032499244887788</v>
+        <v>110</v>
       </c>
       <c r="C268" s="0">
         <v>65</v>
@@ -10528,7 +10680,7 @@
         <v>53.299999999999997</v>
       </c>
       <c r="B269" s="0">
-        <v>74.555072196572354</v>
+        <v>55</v>
       </c>
       <c r="C269" s="0">
         <v>21.574634506078162</v>
@@ -10566,7 +10718,7 @@
         <v>53.399999999999999</v>
       </c>
       <c r="B270" s="0">
-        <v>84.888341459778985</v>
+        <v>110</v>
       </c>
       <c r="C270" s="0">
         <v>65</v>
@@ -10604,7 +10756,7 @@
         <v>53.399999999999999</v>
       </c>
       <c r="B271" s="0">
-        <v>74.86005907527192</v>
+        <v>55</v>
       </c>
       <c r="C271" s="0">
         <v>23.535964915721632</v>
@@ -10642,7 +10794,7 @@
         <v>53.5</v>
       </c>
       <c r="B272" s="0">
-        <v>84.744183674670182</v>
+        <v>110</v>
       </c>
       <c r="C272" s="0">
         <v>65</v>
@@ -10680,7 +10832,7 @@
         <v>53.5</v>
       </c>
       <c r="B273" s="0">
-        <v>74.736495259464377</v>
+        <v>55</v>
       </c>
       <c r="C273" s="0">
         <v>23.535964915721632</v>
@@ -10718,7 +10870,7 @@
         <v>53.600000000000001</v>
       </c>
       <c r="B274" s="0">
-        <v>84.600025889561394</v>
+        <v>110</v>
       </c>
       <c r="C274" s="0">
         <v>65</v>
@@ -10756,7 +10908,7 @@
         <v>53.600000000000001</v>
       </c>
       <c r="B275" s="0">
-        <v>74.612931443656834</v>
+        <v>55</v>
       </c>
       <c r="C275" s="0">
         <v>23.535964915721632</v>
@@ -10794,7 +10946,7 @@
         <v>53.700000000000003</v>
       </c>
       <c r="B276" s="0">
-        <v>84.455868104452591</v>
+        <v>110</v>
       </c>
       <c r="C276" s="0">
         <v>65</v>
@@ -10832,7 +10984,7 @@
         <v>53.700000000000003</v>
       </c>
       <c r="B277" s="0">
-        <v>74.489367627849305</v>
+        <v>55</v>
       </c>
       <c r="C277" s="0">
         <v>23.535964915721632</v>
@@ -10870,7 +11022,7 @@
         <v>53.799999999999997</v>
       </c>
       <c r="B278" s="0">
-        <v>84.311710319343803</v>
+        <v>110</v>
       </c>
       <c r="C278" s="0">
         <v>65</v>
@@ -10908,7 +11060,7 @@
         <v>53.799999999999997</v>
       </c>
       <c r="B279" s="0">
-        <v>74.365803812041761</v>
+        <v>55</v>
       </c>
       <c r="C279" s="0">
         <v>23.535964915721632</v>
@@ -10946,7 +11098,7 @@
         <v>53.899999999999999</v>
       </c>
       <c r="B280" s="0">
-        <v>84.167552534235</v>
+        <v>110</v>
       </c>
       <c r="C280" s="0">
         <v>65</v>
@@ -10984,7 +11136,7 @@
         <v>53.899999999999999</v>
       </c>
       <c r="B281" s="0">
-        <v>74.242239996234233</v>
+        <v>55</v>
       </c>
       <c r="C281" s="0">
         <v>23.535964915721632</v>
@@ -11022,7 +11174,7 @@
         <v>54</v>
       </c>
       <c r="B282" s="0">
-        <v>84.023394749126197</v>
+        <v>110</v>
       </c>
       <c r="C282" s="0">
         <v>65</v>
@@ -11060,7 +11212,7 @@
         <v>54</v>
       </c>
       <c r="B283" s="0">
-        <v>74.118676180426704</v>
+        <v>55</v>
       </c>
       <c r="C283" s="0">
         <v>23.535964915721632</v>
@@ -11098,7 +11250,7 @@
         <v>54.100000000000001</v>
       </c>
       <c r="B284" s="0">
-        <v>83.881198294427051</v>
+        <v>110</v>
       </c>
       <c r="C284" s="0">
         <v>65</v>
@@ -11136,7 +11288,7 @@
         <v>54.100000000000001</v>
       </c>
       <c r="B285" s="0">
-        <v>73.994131699414311</v>
+        <v>55</v>
       </c>
       <c r="C285" s="0">
         <v>23.535964915721632</v>
@@ -11174,7 +11326,7 @@
         <v>54.200000000000003</v>
       </c>
       <c r="B286" s="0">
-        <v>83.739001839727891</v>
+        <v>110</v>
       </c>
       <c r="C286" s="0">
         <v>65</v>
@@ -11212,7 +11364,7 @@
         <v>54.200000000000003</v>
       </c>
       <c r="B287" s="0">
-        <v>73.869587218401961</v>
+        <v>55</v>
       </c>
       <c r="C287" s="0">
         <v>23.535964915721632</v>
@@ -11250,7 +11402,7 @@
         <v>54.299999999999997</v>
       </c>
       <c r="B288" s="0">
-        <v>83.596805385028759</v>
+        <v>110</v>
       </c>
       <c r="C288" s="0">
         <v>65</v>
@@ -11288,7 +11440,7 @@
         <v>54.299999999999997</v>
       </c>
       <c r="B289" s="0">
-        <v>73.74504273738961</v>
+        <v>55</v>
       </c>
       <c r="C289" s="0">
         <v>23.535964915721632</v>
@@ -11326,7 +11478,7 @@
         <v>54.399999999999999</v>
       </c>
       <c r="B290" s="0">
-        <v>83.454608930329599</v>
+        <v>110</v>
       </c>
       <c r="C290" s="0">
         <v>65</v>
@@ -11364,7 +11516,7 @@
         <v>54.399999999999999</v>
       </c>
       <c r="B291" s="0">
-        <v>74.051990946498819</v>
+        <v>55</v>
       </c>
       <c r="C291" s="0">
         <v>25.497295325365101</v>
@@ -11402,7 +11554,7 @@
         <v>54.5</v>
       </c>
       <c r="B292" s="0">
-        <v>83.312412475630452</v>
+        <v>110</v>
       </c>
       <c r="C292" s="0">
         <v>65</v>
@@ -11440,7 +11592,7 @@
         <v>54.5</v>
       </c>
       <c r="B293" s="0">
-        <v>73.927446465486454</v>
+        <v>55</v>
       </c>
       <c r="C293" s="0">
         <v>25.497295325365101</v>
@@ -11478,7 +11630,7 @@
         <v>54.600000000000001</v>
       </c>
       <c r="B294" s="0">
-        <v>83.170216020931306</v>
+        <v>110</v>
       </c>
       <c r="C294" s="0">
         <v>65</v>
@@ -11516,7 +11668,7 @@
         <v>54.600000000000001</v>
       </c>
       <c r="B295" s="0">
-        <v>73.802901984474104</v>
+        <v>55</v>
       </c>
       <c r="C295" s="0">
         <v>25.497295325365101</v>
@@ -11554,7 +11706,7 @@
         <v>54.700000000000003</v>
       </c>
       <c r="B296" s="0">
-        <v>83.028019566232146</v>
+        <v>110</v>
       </c>
       <c r="C296" s="0">
         <v>65</v>
@@ -11592,7 +11744,7 @@
         <v>54.700000000000003</v>
       </c>
       <c r="B297" s="0">
-        <v>73.678357503461726</v>
+        <v>55</v>
       </c>
       <c r="C297" s="0">
         <v>25.497295325365101</v>
@@ -11630,7 +11782,7 @@
         <v>54.799999999999997</v>
       </c>
       <c r="B298" s="0">
-        <v>82.885823111533</v>
+        <v>110</v>
       </c>
       <c r="C298" s="0">
         <v>65</v>
@@ -11668,7 +11820,7 @@
         <v>54.799999999999997</v>
       </c>
       <c r="B299" s="0">
-        <v>73.553813022449376</v>
+        <v>55</v>
       </c>
       <c r="C299" s="0">
         <v>25.497295325365101</v>
@@ -11706,7 +11858,7 @@
         <v>54.899999999999999</v>
       </c>
       <c r="B300" s="0">
-        <v>82.74362665683384</v>
+        <v>110</v>
       </c>
       <c r="C300" s="0">
         <v>65</v>
@@ -11744,7 +11896,7 @@
         <v>54.899999999999999</v>
       </c>
       <c r="B301" s="0">
-        <v>73.429268541437011</v>
+        <v>55</v>
       </c>
       <c r="C301" s="0">
         <v>25.497295325365101</v>
@@ -11782,7 +11934,7 @@
         <v>55</v>
       </c>
       <c r="B302" s="0">
-        <v>82.601430202134694</v>
+        <v>110</v>
       </c>
       <c r="C302" s="0">
         <v>65</v>
@@ -11820,7 +11972,7 @@
         <v>55</v>
       </c>
       <c r="B303" s="0">
-        <v>73.304724060424647</v>
+        <v>55</v>
       </c>
       <c r="C303" s="0">
         <v>25.497295325365101</v>
@@ -11858,7 +12010,7 @@
         <v>55.100000000000001</v>
       </c>
       <c r="B304" s="0">
-        <v>82.459233747435547</v>
+        <v>110</v>
       </c>
       <c r="C304" s="0">
         <v>65</v>
@@ -11896,7 +12048,7 @@
         <v>55.100000000000001</v>
       </c>
       <c r="B305" s="0">
-        <v>73.178218249002626</v>
+        <v>55</v>
       </c>
       <c r="C305" s="0">
         <v>25.497295325365101</v>
@@ -11934,7 +12086,7 @@
         <v>55.200000000000003</v>
       </c>
       <c r="B306" s="0">
-        <v>82.317037292736387</v>
+        <v>110</v>
       </c>
       <c r="C306" s="0">
         <v>65</v>
@@ -11972,7 +12124,7 @@
         <v>55.200000000000003</v>
       </c>
       <c r="B307" s="0">
-        <v>73.051712437580633</v>
+        <v>55</v>
       </c>
       <c r="C307" s="0">
         <v>25.497295325365101</v>
@@ -12010,7 +12162,7 @@
         <v>55.299999999999997</v>
       </c>
       <c r="B308" s="0">
-        <v>82.174840838037255</v>
+        <v>110</v>
       </c>
       <c r="C308" s="0">
         <v>65</v>
@@ -12048,7 +12200,7 @@
         <v>55.299999999999997</v>
       </c>
       <c r="B309" s="0">
-        <v>73.346892664231987</v>
+        <v>55</v>
       </c>
       <c r="C309" s="0">
         <v>27.458625735008571</v>
@@ -12086,7 +12238,7 @@
         <v>55.399999999999999</v>
       </c>
       <c r="B310" s="0">
-        <v>82.032644383338095</v>
+        <v>110</v>
       </c>
       <c r="C310" s="0">
         <v>65</v>
@@ -12124,7 +12276,7 @@
         <v>55.399999999999999</v>
       </c>
       <c r="B311" s="0">
-        <v>73.22038685280998</v>
+        <v>55</v>
       </c>
       <c r="C311" s="0">
         <v>27.458625735008571</v>
@@ -12162,7 +12314,7 @@
         <v>55.5</v>
       </c>
       <c r="B312" s="0">
-        <v>81.890447928638949</v>
+        <v>110</v>
       </c>
       <c r="C312" s="0">
         <v>65</v>
@@ -12200,7 +12352,7 @@
         <v>55.5</v>
       </c>
       <c r="B313" s="0">
-        <v>73.093881041387988</v>
+        <v>55</v>
       </c>
       <c r="C313" s="0">
         <v>27.458625735008571</v>
@@ -12238,7 +12390,7 @@
         <v>55.600000000000001</v>
       </c>
       <c r="B314" s="0">
-        <v>81.748251473939803</v>
+        <v>110</v>
       </c>
       <c r="C314" s="0">
         <v>65</v>
@@ -12276,7 +12428,7 @@
         <v>55.600000000000001</v>
       </c>
       <c r="B315" s="0">
-        <v>72.967375229965981</v>
+        <v>55</v>
       </c>
       <c r="C315" s="0">
         <v>27.458625735008571</v>
@@ -12314,7 +12466,7 @@
         <v>55.700000000000003</v>
       </c>
       <c r="B316" s="0">
-        <v>81.606055019240642</v>
+        <v>110</v>
       </c>
       <c r="C316" s="0">
         <v>65</v>
@@ -12352,7 +12504,7 @@
         <v>55.700000000000003</v>
       </c>
       <c r="B317" s="0">
-        <v>72.840869418543974</v>
+        <v>55</v>
       </c>
       <c r="C317" s="0">
         <v>27.458625735008571</v>
@@ -12390,7 +12542,7 @@
         <v>55.799999999999997</v>
       </c>
       <c r="B318" s="0">
-        <v>81.463858564541496</v>
+        <v>110</v>
       </c>
       <c r="C318" s="0">
         <v>65</v>
@@ -12428,7 +12580,7 @@
         <v>55.799999999999997</v>
       </c>
       <c r="B319" s="0">
-        <v>72.714363607121967</v>
+        <v>55</v>
       </c>
       <c r="C319" s="0">
         <v>27.458625735008571</v>
@@ -12466,7 +12618,7 @@
         <v>55.899999999999999</v>
       </c>
       <c r="B320" s="0">
-        <v>81.321662109842336</v>
+        <v>110</v>
       </c>
       <c r="C320" s="0">
         <v>65</v>
@@ -12504,7 +12656,7 @@
         <v>55.899999999999999</v>
       </c>
       <c r="B321" s="0">
-        <v>72.587857795699961</v>
+        <v>55</v>
       </c>
       <c r="C321" s="0">
         <v>27.458625735008571</v>
@@ -12542,7 +12694,7 @@
         <v>56</v>
       </c>
       <c r="B322" s="0">
-        <v>81.17946565514319</v>
+        <v>110</v>
       </c>
       <c r="C322" s="0">
         <v>65</v>
@@ -12580,7 +12732,7 @@
         <v>56</v>
       </c>
       <c r="B323" s="0">
-        <v>72.461351984277954</v>
+        <v>55</v>
       </c>
       <c r="C323" s="0">
         <v>27.458625735008571</v>
@@ -12618,7 +12770,7 @@
         <v>56.100000000000001</v>
       </c>
       <c r="B324" s="0">
-        <v>81.03726920044403</v>
+        <v>110</v>
       </c>
       <c r="C324" s="0">
         <v>65</v>
@@ -12656,7 +12808,7 @@
         <v>56.100000000000001</v>
       </c>
       <c r="B325" s="0">
-        <v>72.331904177241483</v>
+        <v>55</v>
       </c>
       <c r="C325" s="0">
         <v>27.458625735008571</v>
@@ -12694,7 +12846,7 @@
         <v>56.200000000000003</v>
       </c>
       <c r="B326" s="0">
-        <v>80.895072745744883</v>
+        <v>110</v>
       </c>
       <c r="C326" s="0">
         <v>65</v>
@@ -12732,7 +12884,7 @@
         <v>56.200000000000003</v>
       </c>
       <c r="B327" s="0">
-        <v>72.614335756230147</v>
+        <v>55</v>
       </c>
       <c r="C327" s="0">
         <v>29.419956144652037</v>
@@ -12770,7 +12922,7 @@
         <v>56.299999999999997</v>
       </c>
       <c r="B328" s="0">
-        <v>80.752876291045737</v>
+        <v>110</v>
       </c>
       <c r="C328" s="0">
         <v>65</v>
@@ -12808,7 +12960,7 @@
         <v>56.299999999999997</v>
       </c>
       <c r="B329" s="0">
-        <v>72.484887949193691</v>
+        <v>55</v>
       </c>
       <c r="C329" s="0">
         <v>29.419956144652037</v>
@@ -12846,7 +12998,7 @@
         <v>56.399999999999999</v>
       </c>
       <c r="B330" s="0">
-        <v>80.610679836346577</v>
+        <v>110</v>
       </c>
       <c r="C330" s="0">
         <v>65</v>
@@ -12884,7 +13036,7 @@
         <v>56.399999999999999</v>
       </c>
       <c r="B331" s="0">
-        <v>72.355440142157221</v>
+        <v>55</v>
       </c>
       <c r="C331" s="0">
         <v>29.419956144652037</v>
@@ -12922,7 +13074,7 @@
         <v>56.5</v>
       </c>
       <c r="B332" s="0">
-        <v>80.468483381647431</v>
+        <v>110</v>
       </c>
       <c r="C332" s="0">
         <v>65</v>
@@ -12960,7 +13112,7 @@
         <v>56.5</v>
       </c>
       <c r="B333" s="0">
-        <v>72.225992335120765</v>
+        <v>55</v>
       </c>
       <c r="C333" s="0">
         <v>29.419956144652037</v>
@@ -12998,7 +13150,7 @@
         <v>56.600000000000001</v>
       </c>
       <c r="B334" s="0">
-        <v>80.326286926948271</v>
+        <v>110</v>
       </c>
       <c r="C334" s="0">
         <v>65</v>
@@ -13036,7 +13188,7 @@
         <v>56.600000000000001</v>
       </c>
       <c r="B335" s="0">
-        <v>72.09654452808428</v>
+        <v>55</v>
       </c>
       <c r="C335" s="0">
         <v>29.419956144652037</v>
@@ -13074,7 +13226,7 @@
         <v>56.700000000000003</v>
       </c>
       <c r="B336" s="0">
-        <v>80.18409047224911</v>
+        <v>110</v>
       </c>
       <c r="C336" s="0">
         <v>65</v>
@@ -13112,7 +13264,7 @@
         <v>56.700000000000003</v>
       </c>
       <c r="B337" s="0">
-        <v>71.96709672104781</v>
+        <v>55</v>
       </c>
       <c r="C337" s="0">
         <v>29.419956144652037</v>
@@ -13150,7 +13302,7 @@
         <v>56.799999999999997</v>
       </c>
       <c r="B338" s="0">
-        <v>80.041894017549964</v>
+        <v>110</v>
       </c>
       <c r="C338" s="0">
         <v>65</v>
@@ -13188,7 +13340,7 @@
         <v>56.799999999999997</v>
       </c>
       <c r="B339" s="0">
-        <v>71.837648914011353</v>
+        <v>55</v>
       </c>
       <c r="C339" s="0">
         <v>29.419956144652037</v>
@@ -13226,7 +13378,7 @@
         <v>56.899999999999999</v>
       </c>
       <c r="B340" s="0">
-        <v>79.899697562850804</v>
+        <v>110</v>
       </c>
       <c r="C340" s="0">
         <v>65</v>
@@ -13264,7 +13416,7 @@
         <v>56.899999999999999</v>
       </c>
       <c r="B341" s="0">
-        <v>71.708201106974869</v>
+        <v>55</v>
       </c>
       <c r="C341" s="0">
         <v>29.419956144652037</v>
@@ -13302,7 +13454,7 @@
         <v>57</v>
       </c>
       <c r="B342" s="0">
-        <v>79.757501108151658</v>
+        <v>110</v>
       </c>
       <c r="C342" s="0">
         <v>65</v>
@@ -13340,7 +13492,7 @@
         <v>57</v>
       </c>
       <c r="B343" s="0">
-        <v>71.578753299938398</v>
+        <v>55</v>
       </c>
       <c r="C343" s="0">
         <v>29.419956144652037</v>
@@ -13378,7 +13530,7 @@
         <v>57.100000000000001</v>
       </c>
       <c r="B344" s="0">
-        <v>79.615304653452512</v>
+        <v>110</v>
       </c>
       <c r="C344" s="0">
         <v>65</v>
@@ -13416,7 +13568,7 @@
         <v>57.100000000000001</v>
       </c>
       <c r="B345" s="0">
-        <v>71.860204213722255</v>
+        <v>55</v>
       </c>
       <c r="C345" s="0">
         <v>31.381286554295507</v>
@@ -13454,7 +13606,7 @@
         <v>57.200000000000003</v>
       </c>
       <c r="B346" s="0">
-        <v>79.473108198753366</v>
+        <v>110</v>
       </c>
       <c r="C346" s="0">
         <v>65</v>
@@ -13492,7 +13644,7 @@
         <v>57.200000000000003</v>
       </c>
       <c r="B347" s="0">
-        <v>71.729775741480964</v>
+        <v>55</v>
       </c>
       <c r="C347" s="0">
         <v>31.381286554295507</v>
@@ -13530,7 +13682,7 @@
         <v>57.299999999999997</v>
       </c>
       <c r="B348" s="0">
-        <v>79.33091174405422</v>
+        <v>110</v>
       </c>
       <c r="C348" s="0">
         <v>65</v>
@@ -13568,7 +13720,7 @@
         <v>57.299999999999997</v>
       </c>
       <c r="B349" s="0">
-        <v>71.599347269239672</v>
+        <v>55</v>
       </c>
       <c r="C349" s="0">
         <v>31.381286554295507</v>
@@ -13606,7 +13758,7 @@
         <v>57.399999999999999</v>
       </c>
       <c r="B350" s="0">
-        <v>79.188715289355059</v>
+        <v>110</v>
       </c>
       <c r="C350" s="0">
         <v>65</v>
@@ -13644,7 +13796,7 @@
         <v>57.399999999999999</v>
       </c>
       <c r="B351" s="0">
-        <v>71.468918796998381</v>
+        <v>55</v>
       </c>
       <c r="C351" s="0">
         <v>31.381286554295507</v>
@@ -13682,7 +13834,7 @@
         <v>57.5</v>
       </c>
       <c r="B352" s="0">
-        <v>79.046518834655927</v>
+        <v>110</v>
       </c>
       <c r="C352" s="0">
         <v>65</v>
@@ -13720,7 +13872,7 @@
         <v>57.5</v>
       </c>
       <c r="B353" s="0">
-        <v>71.338490324757089</v>
+        <v>55</v>
       </c>
       <c r="C353" s="0">
         <v>31.381286554295507</v>
@@ -13758,7 +13910,7 @@
         <v>57.600000000000001</v>
       </c>
       <c r="B354" s="0">
-        <v>78.904322379956781</v>
+        <v>110</v>
       </c>
       <c r="C354" s="0">
         <v>65</v>
@@ -13796,7 +13948,7 @@
         <v>57.600000000000001</v>
       </c>
       <c r="B355" s="0">
-        <v>71.208061852515797</v>
+        <v>55</v>
       </c>
       <c r="C355" s="0">
         <v>31.381286554295507</v>
@@ -13834,7 +13986,7 @@
         <v>57.700000000000003</v>
       </c>
       <c r="B356" s="0">
-        <v>78.762125925257621</v>
+        <v>110</v>
       </c>
       <c r="C356" s="0">
         <v>65</v>
@@ -13872,7 +14024,7 @@
         <v>57.700000000000003</v>
       </c>
       <c r="B357" s="0">
-        <v>71.07763338027452</v>
+        <v>55</v>
       </c>
       <c r="C357" s="0">
         <v>31.381286554295507</v>
@@ -13910,7 +14062,7 @@
         <v>57.799999999999997</v>
       </c>
       <c r="B358" s="0">
-        <v>78.619929470558475</v>
+        <v>110</v>
       </c>
       <c r="C358" s="0">
         <v>65</v>
@@ -13948,7 +14100,7 @@
         <v>57.799999999999997</v>
       </c>
       <c r="B359" s="0">
-        <v>70.947204908033228</v>
+        <v>55</v>
       </c>
       <c r="C359" s="0">
         <v>31.381286554295507</v>
@@ -13986,7 +14138,7 @@
         <v>57.899999999999999</v>
       </c>
       <c r="B360" s="0">
-        <v>78.477733015859314</v>
+        <v>110</v>
       </c>
       <c r="C360" s="0">
         <v>65</v>
@@ -14024,7 +14176,7 @@
         <v>57.899999999999999</v>
       </c>
       <c r="B361" s="0">
-        <v>71.218849169768831</v>
+        <v>55</v>
       </c>
       <c r="C361" s="0">
         <v>33.34261696393898</v>
@@ -14062,7 +14214,7 @@
         <v>58</v>
       </c>
       <c r="B362" s="0">
-        <v>78.335536561160183</v>
+        <v>110</v>
       </c>
       <c r="C362" s="0">
         <v>65</v>
@@ -14100,7 +14252,7 @@
         <v>58</v>
       </c>
       <c r="B363" s="0">
-        <v>71.088420697527539</v>
+        <v>55</v>
       </c>
       <c r="C363" s="0">
         <v>33.34261696393898</v>
@@ -14138,7 +14290,7 @@
         <v>58.100000000000001</v>
       </c>
       <c r="B364" s="0">
-        <v>78.192359441256215</v>
+        <v>110</v>
       </c>
       <c r="C364" s="0">
         <v>65</v>
@@ -14176,7 +14328,7 @@
         <v>58.100000000000001</v>
       </c>
       <c r="B365" s="0">
-        <v>70.957011560081412</v>
+        <v>55</v>
       </c>
       <c r="C365" s="0">
         <v>33.34261696393898</v>
@@ -14214,7 +14366,7 @@
         <v>58.200000000000003</v>
       </c>
       <c r="B366" s="0">
-        <v>78.049182321352234</v>
+        <v>110</v>
       </c>
       <c r="C366" s="0">
         <v>65</v>
@@ -14252,7 +14404,7 @@
         <v>58.200000000000003</v>
       </c>
       <c r="B367" s="0">
-        <v>70.825602422635299</v>
+        <v>55</v>
       </c>
       <c r="C367" s="0">
         <v>33.34261696393898</v>
@@ -14290,7 +14442,7 @@
         <v>58.299999999999997</v>
       </c>
       <c r="B368" s="0">
-        <v>77.906005201448266</v>
+        <v>110</v>
       </c>
       <c r="C368" s="0">
         <v>65</v>
@@ -14328,7 +14480,7 @@
         <v>58.299999999999997</v>
       </c>
       <c r="B369" s="0">
-        <v>70.694193285189201</v>
+        <v>55</v>
       </c>
       <c r="C369" s="0">
         <v>33.34261696393898</v>
@@ -14366,7 +14518,7 @@
         <v>58.399999999999999</v>
       </c>
       <c r="B370" s="0">
-        <v>77.762828081544271</v>
+        <v>110</v>
       </c>
       <c r="C370" s="0">
         <v>65</v>
@@ -14404,7 +14556,7 @@
         <v>58.399999999999999</v>
       </c>
       <c r="B371" s="0">
-        <v>70.562784147743074</v>
+        <v>55</v>
       </c>
       <c r="C371" s="0">
         <v>33.34261696393898</v>
@@ -14442,7 +14594,7 @@
         <v>58.5</v>
       </c>
       <c r="B372" s="0">
-        <v>77.619650961640318</v>
+        <v>110</v>
       </c>
       <c r="C372" s="0">
         <v>65</v>
@@ -14480,7 +14632,7 @@
         <v>58.5</v>
       </c>
       <c r="B373" s="0">
-        <v>70.431375010296975</v>
+        <v>55</v>
       </c>
       <c r="C373" s="0">
         <v>33.34261696393898</v>
@@ -14518,7 +14670,7 @@
         <v>58.600000000000001</v>
       </c>
       <c r="B374" s="0">
-        <v>77.476473841736336</v>
+        <v>110</v>
       </c>
       <c r="C374" s="0">
         <v>65</v>
@@ -14556,7 +14708,7 @@
         <v>58.600000000000001</v>
       </c>
       <c r="B375" s="0">
-        <v>70.299965872850848</v>
+        <v>55</v>
       </c>
       <c r="C375" s="0">
         <v>33.34261696393898</v>
@@ -14594,7 +14746,7 @@
         <v>58.700000000000003</v>
       </c>
       <c r="B376" s="0">
-        <v>77.333296721832369</v>
+        <v>110</v>
       </c>
       <c r="C376" s="0">
         <v>65</v>
@@ -14632,7 +14784,7 @@
         <v>58.700000000000003</v>
       </c>
       <c r="B377" s="0">
-        <v>70.570629469381672</v>
+        <v>55</v>
       </c>
       <c r="C377" s="0">
         <v>35.303947373582446</v>
@@ -14670,7 +14822,7 @@
         <v>58.799999999999997</v>
       </c>
       <c r="B378" s="0">
-        <v>77.190119601928387</v>
+        <v>110</v>
       </c>
       <c r="C378" s="0">
         <v>65</v>
@@ -14708,7 +14860,7 @@
         <v>58.799999999999997</v>
       </c>
       <c r="B379" s="0">
-        <v>70.439220331935573</v>
+        <v>55</v>
       </c>
       <c r="C379" s="0">
         <v>35.303947373582446</v>
@@ -14746,7 +14898,7 @@
         <v>58.899999999999999</v>
       </c>
       <c r="B380" s="0">
-        <v>77.046942482024406</v>
+        <v>110</v>
       </c>
       <c r="C380" s="0">
         <v>65</v>
@@ -14784,7 +14936,7 @@
         <v>58.899999999999999</v>
       </c>
       <c r="B381" s="0">
-        <v>70.307811194489446</v>
+        <v>55</v>
       </c>
       <c r="C381" s="0">
         <v>35.303947373582446</v>
@@ -14822,7 +14974,7 @@
         <v>59</v>
       </c>
       <c r="B382" s="0">
-        <v>76.903765362120438</v>
+        <v>110</v>
       </c>
       <c r="C382" s="0">
         <v>65</v>
@@ -14860,7 +15012,7 @@
         <v>59</v>
       </c>
       <c r="B383" s="0">
-        <v>70.176402057043333</v>
+        <v>55</v>
       </c>
       <c r="C383" s="0">
         <v>35.303947373582446</v>
@@ -14898,7 +15050,7 @@
         <v>59.100000000000001</v>
       </c>
       <c r="B384" s="0">
-        <v>76.761568907421278</v>
+        <v>110</v>
       </c>
       <c r="C384" s="0">
         <v>65</v>
@@ -14936,7 +15088,7 @@
         <v>59.100000000000001</v>
       </c>
       <c r="B385" s="0">
-        <v>70.042050923982757</v>
+        <v>55</v>
       </c>
       <c r="C385" s="0">
         <v>35.303947373582446</v>
@@ -14974,7 +15126,7 @@
         <v>59.200000000000003</v>
       </c>
       <c r="B386" s="0">
-        <v>76.619372452722132</v>
+        <v>110</v>
       </c>
       <c r="C386" s="0">
         <v>65</v>
@@ -15012,7 +15164,7 @@
         <v>59.200000000000003</v>
       </c>
       <c r="B387" s="0">
-        <v>69.90769979092218</v>
+        <v>55</v>
       </c>
       <c r="C387" s="0">
         <v>35.303947373582446</v>
@@ -15050,7 +15202,7 @@
         <v>59.299999999999997</v>
       </c>
       <c r="B388" s="0">
-        <v>76.477175998022986</v>
+        <v>110</v>
       </c>
       <c r="C388" s="0">
         <v>65</v>
@@ -15088,7 +15240,7 @@
         <v>59.299999999999997</v>
       </c>
       <c r="B389" s="0">
-        <v>69.773348657861604</v>
+        <v>55</v>
       </c>
       <c r="C389" s="0">
         <v>35.303947373582446</v>
@@ -15126,7 +15278,7 @@
         <v>59.399999999999999</v>
       </c>
       <c r="B390" s="0">
-        <v>76.334979543323826</v>
+        <v>110</v>
       </c>
       <c r="C390" s="0">
         <v>65</v>
@@ -15164,7 +15316,7 @@
         <v>59.399999999999999</v>
       </c>
       <c r="B391" s="0">
-        <v>69.638997524800999</v>
+        <v>55</v>
       </c>
       <c r="C391" s="0">
         <v>35.303947373582446</v>
@@ -15202,7 +15354,7 @@
         <v>59.5</v>
       </c>
       <c r="B392" s="0">
-        <v>76.19278308862468</v>
+        <v>110</v>
       </c>
       <c r="C392" s="0">
         <v>65</v>
@@ -15240,7 +15392,7 @@
         <v>59.5</v>
       </c>
       <c r="B393" s="0">
-        <v>69.892009147645041</v>
+        <v>55</v>
       </c>
       <c r="C393" s="0">
         <v>37.265277783225912</v>
@@ -15278,7 +15430,7 @@
         <v>59.600000000000001</v>
       </c>
       <c r="B394" s="0">
-        <v>76.050586633925519</v>
+        <v>110</v>
       </c>
       <c r="C394" s="0">
         <v>65</v>
@@ -15316,7 +15468,7 @@
         <v>59.600000000000001</v>
       </c>
       <c r="B395" s="0">
-        <v>69.758638679789271</v>
+        <v>55</v>
       </c>
       <c r="C395" s="0">
         <v>37.265277783225912</v>
@@ -15354,7 +15506,7 @@
         <v>59.700000000000003</v>
       </c>
       <c r="B396" s="0">
-        <v>75.908390179226373</v>
+        <v>110</v>
       </c>
       <c r="C396" s="0">
         <v>65</v>
@@ -15392,7 +15544,7 @@
         <v>59.700000000000003</v>
       </c>
       <c r="B397" s="0">
-        <v>69.625268211933516</v>
+        <v>55</v>
       </c>
       <c r="C397" s="0">
         <v>37.265277783225912</v>
@@ -15430,7 +15582,7 @@
         <v>59.799999999999997</v>
       </c>
       <c r="B398" s="0">
-        <v>75.766193724527227</v>
+        <v>110</v>
       </c>
       <c r="C398" s="0">
         <v>65</v>
@@ -15468,7 +15620,7 @@
         <v>59.799999999999997</v>
       </c>
       <c r="B399" s="0">
-        <v>69.491897744077761</v>
+        <v>55</v>
       </c>
       <c r="C399" s="0">
         <v>37.265277783225912</v>
@@ -15506,7 +15658,7 @@
         <v>59.899999999999999</v>
       </c>
       <c r="B400" s="0">
-        <v>75.623997269828067</v>
+        <v>110</v>
       </c>
       <c r="C400" s="0">
         <v>65</v>
@@ -15544,7 +15696,7 @@
         <v>59.899999999999999</v>
       </c>
       <c r="B401" s="0">
-        <v>69.358527276222006</v>
+        <v>55</v>
       </c>
       <c r="C401" s="0">
         <v>37.265277783225912</v>
@@ -15582,7 +15734,7 @@
         <v>60</v>
       </c>
       <c r="B402" s="0">
-        <v>75.481800815128906</v>
+        <v>110</v>
       </c>
       <c r="C402" s="0">
         <v>65</v>
@@ -15620,7 +15772,7 @@
         <v>60</v>
       </c>
       <c r="B403" s="0">
-        <v>69.225156808366251</v>
+        <v>55</v>
       </c>
       <c r="C403" s="0">
         <v>37.265277783225912</v>

--- a/Tabelas/TabelaLimitesDinamicos.xlsx
+++ b/Tabelas/TabelaLimitesDinamicos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Frequencia</t>
   </si>
@@ -410,6 +410,78 @@
   <si>
     <t>VazaoOleo</t>
   </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
 </sst>
 </file>
 
@@ -429,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -448,11 +520,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -465,6 +539,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,40 +569,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
@@ -537,7 +613,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="0">
-        <v>37.265277783225912</v>
+        <v>33.34261696393898</v>
       </c>
       <c r="D2" s="0">
         <v>150</v>
@@ -564,7 +640,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="0">
-        <v>321.39999999999998</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="3">
@@ -602,7 +678,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="0">
-        <v>196.59999999999999</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="4">
@@ -613,7 +689,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="0">
-        <v>37.265277783225912</v>
+        <v>33.34261696393898</v>
       </c>
       <c r="D4" s="0">
         <v>150</v>
@@ -640,7 +716,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="0">
-        <v>322.72000000000003</v>
+        <v>305.88</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +754,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="0">
-        <v>198.92000000000007</v>
+        <v>201.67000000000007</v>
       </c>
     </row>
     <row r="6">
@@ -689,7 +765,7 @@
         <v>110</v>
       </c>
       <c r="C6" s="0">
-        <v>37.265277783225912</v>
+        <v>33.34261696393898</v>
       </c>
       <c r="D6" s="0">
         <v>150</v>
@@ -716,7 +792,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="0">
-        <v>324.04000000000008</v>
+        <v>307.25999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -754,7 +830,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="0">
-        <v>201.24000000000012</v>
+        <v>203.84000000000003</v>
       </c>
     </row>
     <row r="8">
@@ -765,7 +841,7 @@
         <v>110</v>
       </c>
       <c r="C8" s="0">
-        <v>37.265277783225912</v>
+        <v>35.303947373582446</v>
       </c>
       <c r="D8" s="0">
         <v>150</v>
@@ -792,7 +868,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="0">
-        <v>325.3599999999999</v>
+        <v>308.63999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -830,7 +906,7 @@
         <v>40</v>
       </c>
       <c r="L9" s="0">
-        <v>203.55999999999995</v>
+        <v>195.43999999999994</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +917,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="0">
-        <v>37.265277783225912</v>
+        <v>35.303947373582446</v>
       </c>
       <c r="D10" s="0">
         <v>150</v>
@@ -868,7 +944,7 @@
         <v>100</v>
       </c>
       <c r="L10" s="0">
-        <v>326.67999999999995</v>
+        <v>310.01999999999998</v>
       </c>
     </row>
     <row r="11">
@@ -906,7 +982,7 @@
         <v>40</v>
       </c>
       <c r="L11" s="0">
-        <v>205.88</v>
+        <v>197.72000000000003</v>
       </c>
     </row>
     <row r="12">
@@ -917,7 +993,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="0">
-        <v>39.226608192869385</v>
+        <v>35.303947373582446</v>
       </c>
       <c r="D12" s="0">
         <v>150</v>
@@ -944,7 +1020,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="0">
-        <v>328</v>
+        <v>311.39999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +1058,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="0">
-        <v>197.25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -993,7 +1069,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="0">
-        <v>39.226608192869385</v>
+        <v>35.303947373582446</v>
       </c>
       <c r="D14" s="0">
         <v>150</v>
@@ -1020,7 +1096,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="0">
-        <v>329.32000000000005</v>
+        <v>312.77999999999997</v>
       </c>
     </row>
     <row r="15">
@@ -1058,7 +1134,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="0">
-        <v>199.70000000000005</v>
+        <v>202.28000000000009</v>
       </c>
     </row>
     <row r="16">
@@ -1069,7 +1145,7 @@
         <v>110</v>
       </c>
       <c r="C16" s="0">
-        <v>39.226608192869385</v>
+        <v>35.303947373582446</v>
       </c>
       <c r="D16" s="0">
         <v>150</v>
@@ -1096,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="0">
-        <v>330.6400000000001</v>
+        <v>314.16000000000008</v>
       </c>
     </row>
     <row r="17">
@@ -1134,7 +1210,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="0">
-        <v>202.15000000000009</v>
+        <v>204.56000000000006</v>
       </c>
     </row>
     <row r="18">
@@ -1145,7 +1221,7 @@
         <v>110</v>
       </c>
       <c r="C18" s="0">
-        <v>39.226608192869385</v>
+        <v>35.303947373582446</v>
       </c>
       <c r="D18" s="0">
         <v>150</v>
@@ -1172,7 +1248,7 @@
         <v>100</v>
       </c>
       <c r="L18" s="0">
-        <v>331.95999999999992</v>
+        <v>315.53999999999996</v>
       </c>
     </row>
     <row r="19">
@@ -1210,7 +1286,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="0">
-        <v>204.59999999999991</v>
+        <v>206.83999999999992</v>
       </c>
     </row>
     <row r="20">
@@ -1221,7 +1297,7 @@
         <v>110</v>
       </c>
       <c r="C20" s="0">
-        <v>39.226608192869385</v>
+        <v>37.265277783225912</v>
       </c>
       <c r="D20" s="0">
         <v>150</v>
@@ -1248,7 +1324,7 @@
         <v>100</v>
       </c>
       <c r="L20" s="0">
-        <v>333.27999999999997</v>
+        <v>316.91999999999996</v>
       </c>
     </row>
     <row r="21">
@@ -1286,7 +1362,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="0">
-        <v>207.04999999999995</v>
+        <v>198.78999999999996</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1373,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="0">
-        <v>39.226608192869385</v>
+        <v>37.265277783225912</v>
       </c>
       <c r="D22" s="0">
         <v>150</v>
@@ -1324,7 +1400,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="0">
-        <v>334.60000000000002</v>
+        <v>318.30000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1362,7 +1438,7 @@
         <v>40</v>
       </c>
       <c r="L23" s="0">
-        <v>209.5</v>
+        <v>201.19999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1373,7 +1449,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="0">
-        <v>41.187938602512851</v>
+        <v>37.265277783225912</v>
       </c>
       <c r="D24" s="0">
         <v>150</v>
@@ -1400,7 +1476,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="0">
-        <v>335.91999999999996</v>
+        <v>319.66000000000014</v>
       </c>
     </row>
     <row r="25">
@@ -1438,7 +1514,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="0">
-        <v>200.95000000000005</v>
+        <v>203.40000000000009</v>
       </c>
     </row>
     <row r="26">
@@ -1449,7 +1525,7 @@
         <v>110</v>
       </c>
       <c r="C26" s="0">
-        <v>41.187938602512851</v>
+        <v>37.265277783225912</v>
       </c>
       <c r="D26" s="0">
         <v>150</v>
@@ -1476,7 +1552,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="0">
-        <v>337.24000000000001</v>
+        <v>321.02000000000015</v>
       </c>
     </row>
     <row r="27">
@@ -1514,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="0">
-        <v>203.30000000000007</v>
+        <v>205.60000000000014</v>
       </c>
     </row>
     <row r="28">
@@ -1525,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="0">
-        <v>41.187938602512851</v>
+        <v>37.265277783225912</v>
       </c>
       <c r="D28" s="0">
         <v>150</v>
@@ -1552,7 +1628,7 @@
         <v>100</v>
       </c>
       <c r="L28" s="0">
-        <v>338.55999999999995</v>
+        <v>322.38000000000005</v>
       </c>
     </row>
     <row r="29">
@@ -1590,7 +1666,7 @@
         <v>40</v>
       </c>
       <c r="L29" s="0">
-        <v>205.64999999999998</v>
+        <v>207.79999999999995</v>
       </c>
     </row>
     <row r="30">
@@ -1601,7 +1677,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="0">
-        <v>41.187938602512851</v>
+        <v>37.265277783225912</v>
       </c>
       <c r="D30" s="0">
         <v>150</v>
@@ -1628,7 +1704,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="0">
-        <v>339.88</v>
+        <v>323.74000000000007</v>
       </c>
     </row>
     <row r="31">
@@ -1666,7 +1742,7 @@
         <v>40</v>
       </c>
       <c r="L31" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32">
@@ -1677,7 +1753,7 @@
         <v>110</v>
       </c>
       <c r="C32" s="0">
-        <v>41.187938602512851</v>
+        <v>39.226608192869385</v>
       </c>
       <c r="D32" s="0">
         <v>150</v>
@@ -1704,7 +1780,7 @@
         <v>100</v>
       </c>
       <c r="L32" s="0">
-        <v>341.19999999999993</v>
+        <v>325.10000000000008</v>
       </c>
     </row>
     <row r="33">
@@ -1742,7 +1818,7 @@
         <v>40</v>
       </c>
       <c r="L33" s="0">
-        <v>210.35000000000002</v>
+        <v>202.14999999999998</v>
       </c>
     </row>
     <row r="34">
@@ -1753,7 +1829,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="0">
-        <v>43.149269012156324</v>
+        <v>39.226608192869385</v>
       </c>
       <c r="D34" s="0">
         <v>150</v>
@@ -1780,7 +1856,7 @@
         <v>100</v>
       </c>
       <c r="L34" s="0">
-        <v>342.51999999999998</v>
+        <v>326.46000000000009</v>
       </c>
     </row>
     <row r="35">
@@ -1818,7 +1894,7 @@
         <v>40</v>
       </c>
       <c r="L35" s="0">
-        <v>202.11999999999989</v>
+        <v>204.46000000000004</v>
       </c>
     </row>
     <row r="36">
@@ -1829,7 +1905,7 @@
         <v>110</v>
       </c>
       <c r="C36" s="0">
-        <v>43.149269012156324</v>
+        <v>39.226608192869385</v>
       </c>
       <c r="D36" s="0">
         <v>150</v>
@@ -1856,7 +1932,7 @@
         <v>100</v>
       </c>
       <c r="L36" s="0">
-        <v>343.84000000000003</v>
+        <v>327.82000000000011</v>
       </c>
     </row>
     <row r="37">
@@ -1894,7 +1970,7 @@
         <v>40</v>
       </c>
       <c r="L37" s="0">
-        <v>204.58999999999992</v>
+        <v>206.7700000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1905,7 +1981,7 @@
         <v>110</v>
       </c>
       <c r="C38" s="0">
-        <v>43.149269012156324</v>
+        <v>39.226608192869385</v>
       </c>
       <c r="D38" s="0">
         <v>150</v>
@@ -1932,7 +2008,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="0">
-        <v>345.15999999999997</v>
+        <v>329.18000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1970,7 +2046,7 @@
         <v>40</v>
       </c>
       <c r="L39" s="0">
-        <v>207.05999999999972</v>
+        <v>209.07999999999993</v>
       </c>
     </row>
     <row r="40">
@@ -1981,7 +2057,7 @@
         <v>110</v>
       </c>
       <c r="C40" s="0">
-        <v>43.149269012156324</v>
+        <v>39.226608192869385</v>
       </c>
       <c r="D40" s="0">
         <v>150</v>
@@ -2008,7 +2084,7 @@
         <v>100</v>
       </c>
       <c r="L40" s="0">
-        <v>346.4799999999999</v>
+        <v>330.54000000000002</v>
       </c>
     </row>
     <row r="41">
@@ -2046,7 +2122,7 @@
         <v>40</v>
       </c>
       <c r="L41" s="0">
-        <v>209.52999999999975</v>
+        <v>211.38999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2057,7 +2133,7 @@
         <v>110</v>
       </c>
       <c r="C42" s="0">
-        <v>43.149269012156324</v>
+        <v>41.187938602512851</v>
       </c>
       <c r="D42" s="0">
         <v>150</v>
@@ -2084,7 +2160,7 @@
         <v>100</v>
       </c>
       <c r="L42" s="0">
-        <v>347.80000000000001</v>
+        <v>331.89999999999998</v>
       </c>
     </row>
     <row r="43">
@@ -2122,7 +2198,7 @@
         <v>40</v>
       </c>
       <c r="L43" s="0">
-        <v>212</v>
+        <v>203.69999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -2133,7 +2209,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="0">
-        <v>43.149269012156324</v>
+        <v>41.187938602512851</v>
       </c>
       <c r="D44" s="0">
         <v>150</v>
@@ -2160,7 +2236,7 @@
         <v>100</v>
       </c>
       <c r="L44" s="0">
-        <v>349.10000000000008</v>
+        <v>333.24000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2198,7 +2274,7 @@
         <v>40</v>
       </c>
       <c r="L45" s="0">
-        <v>214.26999999999998</v>
+        <v>205.92999999999995</v>
       </c>
     </row>
     <row r="46">
@@ -2209,7 +2285,7 @@
         <v>110</v>
       </c>
       <c r="C46" s="0">
-        <v>45.11059942179979</v>
+        <v>41.187938602512851</v>
       </c>
       <c r="D46" s="0">
         <v>150</v>
@@ -2236,7 +2312,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="0">
-        <v>350.40000000000003</v>
+        <v>334.58000000000004</v>
       </c>
     </row>
     <row r="47">
@@ -2274,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="L47" s="0">
-        <v>206.24000000000001</v>
+        <v>208.15999999999997</v>
       </c>
     </row>
     <row r="48">
@@ -2285,7 +2361,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="0">
-        <v>45.11059942179979</v>
+        <v>41.187938602512851</v>
       </c>
       <c r="D48" s="0">
         <v>150</v>
@@ -2312,7 +2388,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="0">
-        <v>351.69999999999999</v>
+        <v>335.91999999999996</v>
       </c>
     </row>
     <row r="49">
@@ -2350,7 +2426,7 @@
         <v>40</v>
       </c>
       <c r="L49" s="0">
-        <v>208.6099999999999</v>
+        <v>210.38999999999987</v>
       </c>
     </row>
     <row r="50">
@@ -2361,7 +2437,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="0">
-        <v>45.11059942179979</v>
+        <v>41.187938602512851</v>
       </c>
       <c r="D50" s="0">
         <v>150</v>
@@ -2388,7 +2464,7 @@
         <v>100</v>
       </c>
       <c r="L50" s="0">
-        <v>352.99999999999994</v>
+        <v>337.25999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2426,7 +2502,7 @@
         <v>40</v>
       </c>
       <c r="L51" s="0">
-        <v>210.98000000000002</v>
+        <v>212.61999999999989</v>
       </c>
     </row>
     <row r="52">
@@ -2437,7 +2513,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="0">
-        <v>45.11059942179979</v>
+        <v>41.187938602512851</v>
       </c>
       <c r="D52" s="0">
         <v>150</v>
@@ -2464,7 +2540,7 @@
         <v>100</v>
       </c>
       <c r="L52" s="0">
-        <v>354.30000000000001</v>
+        <v>338.60000000000002</v>
       </c>
     </row>
     <row r="53">
@@ -2502,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="L53" s="0">
-        <v>213.35000000000002</v>
+        <v>214.84999999999991</v>
       </c>
     </row>
     <row r="54">
@@ -2513,7 +2589,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="0">
-        <v>45.11059942179979</v>
+        <v>43.149269012156324</v>
       </c>
       <c r="D54" s="0">
         <v>150</v>
@@ -2540,7 +2616,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="0">
-        <v>355.60000000000008</v>
+        <v>339.94000000000005</v>
       </c>
     </row>
     <row r="55">
@@ -2578,7 +2654,7 @@
         <v>40</v>
       </c>
       <c r="L55" s="0">
-        <v>215.72000000000003</v>
+        <v>207.33999999999992</v>
       </c>
     </row>
     <row r="56">
@@ -2589,7 +2665,7 @@
         <v>110</v>
       </c>
       <c r="C56" s="0">
-        <v>47.071929831443263</v>
+        <v>43.149269012156324</v>
       </c>
       <c r="D56" s="0">
         <v>150</v>
@@ -2616,7 +2692,7 @@
         <v>100</v>
       </c>
       <c r="L56" s="0">
-        <v>356.90000000000003</v>
+        <v>341.28000000000009</v>
       </c>
     </row>
     <row r="57">
@@ -2654,7 +2730,7 @@
         <v>40</v>
       </c>
       <c r="L57" s="0">
-        <v>207.89999999999998</v>
+        <v>209.67999999999995</v>
       </c>
     </row>
     <row r="58">
@@ -2665,7 +2741,7 @@
         <v>110</v>
       </c>
       <c r="C58" s="0">
-        <v>47.071929831443263</v>
+        <v>43.149269012156324</v>
       </c>
       <c r="D58" s="0">
         <v>150</v>
@@ -2692,7 +2768,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="0">
-        <v>358.19999999999999</v>
+        <v>342.62</v>
       </c>
     </row>
     <row r="59">
@@ -2730,7 +2806,7 @@
         <v>40</v>
       </c>
       <c r="L59" s="0">
-        <v>210.39999999999998</v>
+        <v>212.01999999999987</v>
       </c>
     </row>
     <row r="60">
@@ -2741,7 +2817,7 @@
         <v>110</v>
       </c>
       <c r="C60" s="0">
-        <v>47.071929831443263</v>
+        <v>43.149269012156324</v>
       </c>
       <c r="D60" s="0">
         <v>150</v>
@@ -2768,7 +2844,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="0">
-        <v>359.49999999999994</v>
+        <v>343.96000000000004</v>
       </c>
     </row>
     <row r="61">
@@ -2806,7 +2882,7 @@
         <v>40</v>
       </c>
       <c r="L61" s="0">
-        <v>212.89999999999998</v>
+        <v>214.3599999999999</v>
       </c>
     </row>
     <row r="62">
@@ -2817,7 +2893,7 @@
         <v>110</v>
       </c>
       <c r="C62" s="0">
-        <v>47.071929831443263</v>
+        <v>43.149269012156324</v>
       </c>
       <c r="D62" s="0">
         <v>150</v>
@@ -2844,7 +2920,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="0">
-        <v>360.80000000000001</v>
+        <v>345.30000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2882,7 +2958,7 @@
         <v>40</v>
       </c>
       <c r="L63" s="0">
-        <v>215.40000000000001</v>
+        <v>216.69999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -2893,7 +2969,7 @@
         <v>110</v>
       </c>
       <c r="C64" s="0">
-        <v>47.071929831443263</v>
+        <v>45.11059942179979</v>
       </c>
       <c r="D64" s="0">
         <v>150</v>
@@ -2920,7 +2996,7 @@
         <v>100</v>
       </c>
       <c r="L64" s="0">
-        <v>362.08999999999997</v>
+        <v>346.62999999999994</v>
       </c>
     </row>
     <row r="65">
@@ -2958,7 +3034,7 @@
         <v>40</v>
       </c>
       <c r="L65" s="0">
-        <v>217.67999999999995</v>
+        <v>209.25</v>
       </c>
     </row>
     <row r="66">
@@ -2969,7 +3045,7 @@
         <v>110</v>
       </c>
       <c r="C66" s="0">
-        <v>49.03326024108673</v>
+        <v>45.11059942179979</v>
       </c>
       <c r="D66" s="0">
         <v>150</v>
@@ -2996,7 +3072,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="0">
-        <v>363.38000000000005</v>
+        <v>347.95999999999998</v>
       </c>
     </row>
     <row r="67">
@@ -3034,7 +3110,7 @@
         <v>40</v>
       </c>
       <c r="L67" s="0">
-        <v>209.80000000000018</v>
+        <v>211.50000000000011</v>
       </c>
     </row>
     <row r="68">
@@ -3045,7 +3121,7 @@
         <v>110</v>
       </c>
       <c r="C68" s="0">
-        <v>49.03326024108673</v>
+        <v>45.11059942179979</v>
       </c>
       <c r="D68" s="0">
         <v>150</v>
@@ -3072,7 +3148,7 @@
         <v>100</v>
       </c>
       <c r="L68" s="0">
-        <v>364.67000000000002</v>
+        <v>349.28999999999991</v>
       </c>
     </row>
     <row r="69">
@@ -3110,7 +3186,7 @@
         <v>40</v>
       </c>
       <c r="L69" s="0">
-        <v>212.19999999999982</v>
+        <v>213.74999999999989</v>
       </c>
     </row>
     <row r="70">
@@ -3121,7 +3197,7 @@
         <v>110</v>
       </c>
       <c r="C70" s="0">
-        <v>49.03326024108673</v>
+        <v>45.11059942179979</v>
       </c>
       <c r="D70" s="0">
         <v>150</v>
@@ -3148,7 +3224,7 @@
         <v>100</v>
       </c>
       <c r="L70" s="0">
-        <v>365.95999999999998</v>
+        <v>350.61999999999995</v>
       </c>
     </row>
     <row r="71">
@@ -3186,7 +3262,7 @@
         <v>40</v>
       </c>
       <c r="L71" s="0">
-        <v>214.59999999999991</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72">
@@ -3197,7 +3273,7 @@
         <v>110</v>
       </c>
       <c r="C72" s="0">
-        <v>49.03326024108673</v>
+        <v>45.11059942179979</v>
       </c>
       <c r="D72" s="0">
         <v>150</v>
@@ -3224,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="L72" s="0">
-        <v>367.24999999999994</v>
+        <v>351.94999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -3262,7 +3338,7 @@
         <v>40</v>
       </c>
       <c r="L73" s="0">
-        <v>217</v>
+        <v>218.25</v>
       </c>
     </row>
     <row r="74">
@@ -3273,7 +3349,7 @@
         <v>110</v>
       </c>
       <c r="C74" s="0">
-        <v>49.03326024108673</v>
+        <v>45.11059942179979</v>
       </c>
       <c r="D74" s="0">
         <v>150</v>
@@ -3300,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="0">
-        <v>368.54000000000002</v>
+        <v>353.28000000000003</v>
       </c>
     </row>
     <row r="75">
@@ -3338,7 +3414,7 @@
         <v>40</v>
       </c>
       <c r="L75" s="0">
-        <v>219.40000000000009</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="76">
@@ -3349,7 +3425,7 @@
         <v>110</v>
       </c>
       <c r="C76" s="0">
-        <v>50.994590650730203</v>
+        <v>47.071929831443263</v>
       </c>
       <c r="D76" s="0">
         <v>150</v>
@@ -3376,7 +3452,7 @@
         <v>100</v>
       </c>
       <c r="L76" s="0">
-        <v>369.82999999999998</v>
+        <v>354.60999999999996</v>
       </c>
     </row>
     <row r="77">
@@ -3414,7 +3490,7 @@
         <v>40</v>
       </c>
       <c r="L77" s="0">
-        <v>211.79999999999995</v>
+        <v>213.25</v>
       </c>
     </row>
     <row r="78">
@@ -3425,7 +3501,7 @@
         <v>110</v>
       </c>
       <c r="C78" s="0">
-        <v>50.994590650730203</v>
+        <v>47.071929831443263</v>
       </c>
       <c r="D78" s="0">
         <v>150</v>
@@ -3452,7 +3528,7 @@
         <v>100</v>
       </c>
       <c r="L78" s="0">
-        <v>371.11999999999995</v>
+        <v>355.93999999999988</v>
       </c>
     </row>
     <row r="79">
@@ -3490,7 +3566,7 @@
         <v>40</v>
       </c>
       <c r="L79" s="0">
-        <v>214.29999999999995</v>
+        <v>215.59999999999991</v>
       </c>
     </row>
     <row r="80">
@@ -3501,7 +3577,7 @@
         <v>110</v>
       </c>
       <c r="C80" s="0">
-        <v>50.994590650730203</v>
+        <v>47.071929831443263</v>
       </c>
       <c r="D80" s="0">
         <v>150</v>
@@ -3528,7 +3604,7 @@
         <v>100</v>
       </c>
       <c r="L80" s="0">
-        <v>372.41000000000003</v>
+        <v>357.26999999999992</v>
       </c>
     </row>
     <row r="81">
@@ -3566,7 +3642,7 @@
         <v>40</v>
       </c>
       <c r="L81" s="0">
-        <v>216.79999999999995</v>
+        <v>217.94999999999982</v>
       </c>
     </row>
     <row r="82">
@@ -3577,7 +3653,7 @@
         <v>110</v>
       </c>
       <c r="C82" s="0">
-        <v>50.994590650730203</v>
+        <v>47.071929831443263</v>
       </c>
       <c r="D82" s="0">
         <v>150</v>
@@ -3604,7 +3680,7 @@
         <v>100</v>
       </c>
       <c r="L82" s="0">
-        <v>373.69999999999999</v>
+        <v>358.60000000000002</v>
       </c>
     </row>
     <row r="83">
@@ -3642,7 +3718,7 @@
         <v>40</v>
       </c>
       <c r="L83" s="0">
-        <v>219.30000000000001</v>
+        <v>220.30000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -3653,7 +3729,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="0">
-        <v>50.994590650730203</v>
+        <v>47.071929831443263</v>
       </c>
       <c r="D84" s="0">
         <v>150</v>
@@ -3680,7 +3756,7 @@
         <v>100</v>
       </c>
       <c r="L84" s="0">
-        <v>374.96999999999997</v>
+        <v>359.91000000000008</v>
       </c>
     </row>
     <row r="85">
@@ -3718,7 +3794,7 @@
         <v>40</v>
       </c>
       <c r="L85" s="0">
-        <v>221.61000000000013</v>
+        <v>222.48000000000013</v>
       </c>
     </row>
     <row r="86">
@@ -3729,7 +3805,7 @@
         <v>110</v>
       </c>
       <c r="C86" s="0">
-        <v>52.955921060373669</v>
+        <v>49.03326024108673</v>
       </c>
       <c r="D86" s="0">
         <v>150</v>
@@ -3756,7 +3832,7 @@
         <v>100</v>
       </c>
       <c r="L86" s="0">
-        <v>376.24000000000007</v>
+        <v>361.22000000000003</v>
       </c>
     </row>
     <row r="87">
@@ -3794,7 +3870,7 @@
         <v>40</v>
       </c>
       <c r="L87" s="0">
-        <v>214.10000000000014</v>
+        <v>215.42000000000007</v>
       </c>
     </row>
     <row r="88">
@@ -3805,7 +3881,7 @@
         <v>110</v>
       </c>
       <c r="C88" s="0">
-        <v>52.955921060373669</v>
+        <v>49.03326024108673</v>
       </c>
       <c r="D88" s="0">
         <v>150</v>
@@ -3832,7 +3908,7 @@
         <v>100</v>
       </c>
       <c r="L88" s="0">
-        <v>377.50999999999993</v>
+        <v>362.52999999999997</v>
       </c>
     </row>
     <row r="89">
@@ -3870,7 +3946,7 @@
         <v>40</v>
       </c>
       <c r="L89" s="0">
-        <v>216.49999999999977</v>
+        <v>217.67999999999995</v>
       </c>
     </row>
     <row r="90">
@@ -3881,7 +3957,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="0">
-        <v>52.955921060373669</v>
+        <v>49.03326024108673</v>
       </c>
       <c r="D90" s="0">
         <v>150</v>
@@ -3908,7 +3984,7 @@
         <v>100</v>
       </c>
       <c r="L90" s="0">
-        <v>378.77999999999992</v>
+        <v>363.84000000000003</v>
       </c>
     </row>
     <row r="91">
@@ -3946,7 +4022,7 @@
         <v>40</v>
       </c>
       <c r="L91" s="0">
-        <v>218.89999999999986</v>
+        <v>219.93999999999994</v>
       </c>
     </row>
     <row r="92">
@@ -3957,7 +4033,7 @@
         <v>110</v>
       </c>
       <c r="C92" s="0">
-        <v>52.955921060373669</v>
+        <v>49.03326024108673</v>
       </c>
       <c r="D92" s="0">
         <v>150</v>
@@ -3984,7 +4060,7 @@
         <v>100</v>
       </c>
       <c r="L92" s="0">
-        <v>380.05000000000001</v>
+        <v>365.14999999999998</v>
       </c>
     </row>
     <row r="93">
@@ -4022,7 +4098,7 @@
         <v>40</v>
       </c>
       <c r="L93" s="0">
-        <v>221.29999999999995</v>
+        <v>222.19999999999993</v>
       </c>
     </row>
     <row r="94">
@@ -4033,7 +4109,7 @@
         <v>110</v>
       </c>
       <c r="C94" s="0">
-        <v>52.955921060373669</v>
+        <v>49.03326024108673</v>
       </c>
       <c r="D94" s="0">
         <v>150</v>
@@ -4060,7 +4136,7 @@
         <v>100</v>
       </c>
       <c r="L94" s="0">
-        <v>381.31999999999999</v>
+        <v>366.46000000000004</v>
       </c>
     </row>
     <row r="95">
@@ -4098,7 +4174,7 @@
         <v>40</v>
       </c>
       <c r="L95" s="0">
-        <v>223.70000000000005</v>
+        <v>224.46000000000004</v>
       </c>
     </row>
     <row r="96">
@@ -4109,7 +4185,7 @@
         <v>110</v>
       </c>
       <c r="C96" s="0">
-        <v>52.955921060373669</v>
+        <v>50.994590650730203</v>
       </c>
       <c r="D96" s="0">
         <v>150</v>
@@ -4136,7 +4212,7 @@
         <v>100</v>
       </c>
       <c r="L96" s="0">
-        <v>382.58999999999997</v>
+        <v>367.76999999999998</v>
       </c>
     </row>
     <row r="97">
@@ -4174,7 +4250,7 @@
         <v>40</v>
       </c>
       <c r="L97" s="0">
-        <v>226.10000000000014</v>
+        <v>217.52000000000021</v>
       </c>
     </row>
     <row r="98">
@@ -4185,7 +4261,7 @@
         <v>110</v>
       </c>
       <c r="C98" s="0">
-        <v>54.917251470017142</v>
+        <v>50.994590650730203</v>
       </c>
       <c r="D98" s="0">
         <v>150</v>
@@ -4212,7 +4288,7 @@
         <v>100</v>
       </c>
       <c r="L98" s="0">
-        <v>383.85999999999996</v>
+        <v>369.07999999999993</v>
       </c>
     </row>
     <row r="99">
@@ -4250,7 +4326,7 @@
         <v>40</v>
       </c>
       <c r="L99" s="0">
-        <v>218.87999999999988</v>
+        <v>219.88000000000011</v>
       </c>
     </row>
     <row r="100">
@@ -4261,7 +4337,7 @@
         <v>110</v>
       </c>
       <c r="C100" s="0">
-        <v>54.917251470017142</v>
+        <v>50.994590650730203</v>
       </c>
       <c r="D100" s="0">
         <v>150</v>
@@ -4288,7 +4364,7 @@
         <v>100</v>
       </c>
       <c r="L100" s="0">
-        <v>385.12999999999994</v>
+        <v>370.38999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4326,7 +4402,7 @@
         <v>40</v>
       </c>
       <c r="L101" s="0">
-        <v>221.3900000000001</v>
+        <v>222.24000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4337,7 +4413,7 @@
         <v>110</v>
       </c>
       <c r="C102" s="0">
-        <v>54.917251470017142</v>
+        <v>50.994590650730203</v>
       </c>
       <c r="D102" s="0">
         <v>150</v>
@@ -4364,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="L102" s="0">
-        <v>386.39999999999998</v>
+        <v>371.69999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4402,7 +4478,7 @@
         <v>40</v>
       </c>
       <c r="L103" s="0">
-        <v>223.90000000000001</v>
+        <v>224.59999999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4413,7 +4489,7 @@
         <v>110</v>
       </c>
       <c r="C104" s="0">
-        <v>54.917251470017142</v>
+        <v>50.994590650730203</v>
       </c>
       <c r="D104" s="0">
         <v>150</v>
@@ -4440,7 +4516,7 @@
         <v>100</v>
       </c>
       <c r="L104" s="0">
-        <v>387.65999999999997</v>
+        <v>372.98999999999995</v>
       </c>
     </row>
     <row r="105">
@@ -4478,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="L105" s="0">
-        <v>226.21999999999991</v>
+        <v>226.79000000000008</v>
       </c>
     </row>
     <row r="106">
@@ -4489,7 +4565,7 @@
         <v>110</v>
       </c>
       <c r="C106" s="0">
-        <v>56.878581879660608</v>
+        <v>52.955921060373669</v>
       </c>
       <c r="D106" s="0">
         <v>150</v>
@@ -4516,7 +4592,7 @@
         <v>100</v>
       </c>
       <c r="L106" s="0">
-        <v>388.92000000000007</v>
+        <v>374.28000000000003</v>
       </c>
     </row>
     <row r="107">
@@ -4554,7 +4630,7 @@
         <v>40</v>
       </c>
       <c r="L107" s="0">
-        <v>219.00000000000023</v>
+        <v>219.93999999999994</v>
       </c>
     </row>
     <row r="108">
@@ -4565,7 +4641,7 @@
         <v>110</v>
       </c>
       <c r="C108" s="0">
-        <v>56.878581879660608</v>
+        <v>52.955921060373669</v>
       </c>
       <c r="D108" s="0">
         <v>150</v>
@@ -4592,7 +4668,7 @@
         <v>100</v>
       </c>
       <c r="L108" s="0">
-        <v>390.17999999999995</v>
+        <v>375.56999999999988</v>
       </c>
     </row>
     <row r="109">
@@ -4630,7 +4706,7 @@
         <v>40</v>
       </c>
       <c r="L109" s="0">
-        <v>221.39999999999986</v>
+        <v>222.20999999999992</v>
       </c>
     </row>
     <row r="110">
@@ -4641,7 +4717,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="0">
-        <v>56.878581879660608</v>
+        <v>52.955921060373669</v>
       </c>
       <c r="D110" s="0">
         <v>150</v>
@@ -4668,7 +4744,7 @@
         <v>100</v>
       </c>
       <c r="L110" s="0">
-        <v>391.43999999999994</v>
+        <v>376.85999999999996</v>
       </c>
     </row>
     <row r="111">
@@ -4706,7 +4782,7 @@
         <v>40</v>
       </c>
       <c r="L111" s="0">
-        <v>223.79999999999995</v>
+        <v>224.4799999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4717,7 +4793,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="0">
-        <v>56.878581879660608</v>
+        <v>52.955921060373669</v>
       </c>
       <c r="D112" s="0">
         <v>150</v>
@@ -4744,7 +4820,7 @@
         <v>100</v>
       </c>
       <c r="L112" s="0">
-        <v>392.70000000000005</v>
+        <v>378.14999999999992</v>
       </c>
     </row>
     <row r="113">
@@ -4782,7 +4858,7 @@
         <v>40</v>
       </c>
       <c r="L113" s="0">
-        <v>226.20000000000005</v>
+        <v>226.74999999999989</v>
       </c>
     </row>
     <row r="114">
@@ -4793,7 +4869,7 @@
         <v>110</v>
       </c>
       <c r="C114" s="0">
-        <v>56.878581879660608</v>
+        <v>52.955921060373669</v>
       </c>
       <c r="D114" s="0">
         <v>150</v>
@@ -4820,7 +4896,7 @@
         <v>100</v>
       </c>
       <c r="L114" s="0">
-        <v>393.96000000000004</v>
+        <v>379.44</v>
       </c>
     </row>
     <row r="115">
@@ -4858,7 +4934,7 @@
         <v>40</v>
       </c>
       <c r="L115" s="0">
-        <v>228.60000000000014</v>
+        <v>229.01999999999987</v>
       </c>
     </row>
     <row r="116">
@@ -4869,7 +4945,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="0">
-        <v>58.839912289304074</v>
+        <v>54.917251470017142</v>
       </c>
       <c r="D116" s="0">
         <v>150</v>
@@ -4896,7 +4972,7 @@
         <v>100</v>
       </c>
       <c r="L116" s="0">
-        <v>395.22000000000003</v>
+        <v>380.72999999999996</v>
       </c>
     </row>
     <row r="117">
@@ -4934,7 +5010,7 @@
         <v>40</v>
       </c>
       <c r="L117" s="0">
-        <v>221.56999999999994</v>
+        <v>222.31999999999994</v>
       </c>
     </row>
     <row r="118">
@@ -4945,7 +5021,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="0">
-        <v>58.839912289304074</v>
+        <v>54.917251470017142</v>
       </c>
       <c r="D118" s="0">
         <v>150</v>
@@ -4972,7 +5048,7 @@
         <v>100</v>
       </c>
       <c r="L118" s="0">
-        <v>396.4799999999999</v>
+        <v>382.01999999999992</v>
       </c>
     </row>
     <row r="119">
@@ -5010,7 +5086,7 @@
         <v>40</v>
       </c>
       <c r="L119" s="0">
-        <v>224.07999999999993</v>
+        <v>224.67999999999984</v>
       </c>
     </row>
     <row r="120">
@@ -5021,7 +5097,7 @@
         <v>110</v>
       </c>
       <c r="C120" s="0">
-        <v>58.839912289304074</v>
+        <v>54.917251470017142</v>
       </c>
       <c r="D120" s="0">
         <v>150</v>
@@ -5048,7 +5124,7 @@
         <v>100</v>
       </c>
       <c r="L120" s="0">
-        <v>397.74000000000001</v>
+        <v>383.30999999999989</v>
       </c>
     </row>
     <row r="121">
@@ -5086,7 +5162,7 @@
         <v>40</v>
       </c>
       <c r="L121" s="0">
-        <v>226.58999999999992</v>
+        <v>227.03999999999996</v>
       </c>
     </row>
     <row r="122">
@@ -5097,7 +5173,7 @@
         <v>110</v>
       </c>
       <c r="C122" s="0">
-        <v>58.839912289304074</v>
+        <v>54.917251470017142</v>
       </c>
       <c r="D122" s="0">
         <v>150</v>
@@ -5124,7 +5200,7 @@
         <v>100</v>
       </c>
       <c r="L122" s="0">
-        <v>399</v>
+        <v>384.60000000000002</v>
       </c>
     </row>
     <row r="123">
@@ -5162,7 +5238,7 @@
         <v>40</v>
       </c>
       <c r="L123" s="0">
-        <v>229.09999999999999</v>
+        <v>229.40000000000001</v>
       </c>
     </row>
     <row r="124">
@@ -5173,7 +5249,7 @@
         <v>110</v>
       </c>
       <c r="C124" s="0">
-        <v>58.839912289304074</v>
+        <v>54.917251470017142</v>
       </c>
       <c r="D124" s="0">
         <v>150</v>
@@ -5200,7 +5276,7 @@
         <v>100</v>
       </c>
       <c r="L124" s="0">
-        <v>400.31000000000006</v>
+        <v>385.88</v>
       </c>
     </row>
     <row r="125">
@@ -5238,7 +5314,7 @@
         <v>40</v>
       </c>
       <c r="L125" s="0">
-        <v>231.4100000000002</v>
+        <v>231.58999999999992</v>
       </c>
     </row>
     <row r="126">
@@ -5249,7 +5325,7 @@
         <v>110</v>
       </c>
       <c r="C126" s="0">
-        <v>60.801242698947547</v>
+        <v>56.878581879660608</v>
       </c>
       <c r="D126" s="0">
         <v>150</v>
@@ -5276,7 +5352,7 @@
         <v>100</v>
       </c>
       <c r="L126" s="0">
-        <v>401.62</v>
+        <v>387.16000000000008</v>
       </c>
     </row>
     <row r="127">
@@ -5314,7 +5390,7 @@
         <v>40</v>
       </c>
       <c r="L127" s="0">
-        <v>224.4000000000002</v>
+        <v>224.94000000000017</v>
       </c>
     </row>
     <row r="128">
@@ -5325,7 +5401,7 @@
         <v>110</v>
       </c>
       <c r="C128" s="0">
-        <v>60.801242698947547</v>
+        <v>56.878581879660608</v>
       </c>
       <c r="D128" s="0">
         <v>150</v>
@@ -5352,7 +5428,7 @@
         <v>100</v>
       </c>
       <c r="L128" s="0">
-        <v>402.92999999999995</v>
+        <v>388.43999999999994</v>
       </c>
     </row>
     <row r="129">
@@ -5390,7 +5466,7 @@
         <v>40</v>
       </c>
       <c r="L129" s="0">
-        <v>226.79999999999984</v>
+        <v>227.20999999999992</v>
       </c>
     </row>
     <row r="130">
@@ -5401,7 +5477,7 @@
         <v>110</v>
       </c>
       <c r="C130" s="0">
-        <v>60.801242698947547</v>
+        <v>56.878581879660608</v>
       </c>
       <c r="D130" s="0">
         <v>150</v>
@@ -5428,7 +5504,7 @@
         <v>100</v>
       </c>
       <c r="L130" s="0">
-        <v>404.24000000000001</v>
+        <v>389.72000000000003</v>
       </c>
     </row>
     <row r="131">
@@ -5466,7 +5542,7 @@
         <v>40</v>
       </c>
       <c r="L131" s="0">
-        <v>229.19999999999993</v>
+        <v>229.48000000000013</v>
       </c>
     </row>
     <row r="132">
@@ -5477,7 +5553,7 @@
         <v>110</v>
       </c>
       <c r="C132" s="0">
-        <v>60.801242698947547</v>
+        <v>56.878581879660608</v>
       </c>
       <c r="D132" s="0">
         <v>150</v>
@@ -5504,7 +5580,7 @@
         <v>100</v>
       </c>
       <c r="L132" s="0">
-        <v>405.54999999999995</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133">
@@ -5542,7 +5618,7 @@
         <v>40</v>
       </c>
       <c r="L133" s="0">
-        <v>231.60000000000002</v>
+        <v>231.75000000000011</v>
       </c>
     </row>
     <row r="134">
@@ -5553,7 +5629,7 @@
         <v>110</v>
       </c>
       <c r="C134" s="0">
-        <v>60.801242698947547</v>
+        <v>56.878581879660608</v>
       </c>
       <c r="D134" s="0">
         <v>150</v>
@@ -5580,7 +5656,7 @@
         <v>100</v>
       </c>
       <c r="L134" s="0">
-        <v>406.86000000000001</v>
+        <v>392.27999999999997</v>
       </c>
     </row>
     <row r="135">
@@ -5618,7 +5694,7 @@
         <v>40</v>
       </c>
       <c r="L135" s="0">
-        <v>234.00000000000011</v>
+        <v>234.0200000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5629,7 +5705,7 @@
         <v>110</v>
       </c>
       <c r="C136" s="0">
-        <v>62.762573108591013</v>
+        <v>58.839912289304074</v>
       </c>
       <c r="D136" s="0">
         <v>150</v>
@@ -5656,7 +5732,7 @@
         <v>100</v>
       </c>
       <c r="L136" s="0">
-        <v>408.17000000000007</v>
+        <v>393.56000000000006</v>
       </c>
     </row>
     <row r="137">
@@ -5694,7 +5770,7 @@
         <v>40</v>
       </c>
       <c r="L137" s="0">
-        <v>227.29999999999995</v>
+        <v>227.62000000000023</v>
       </c>
     </row>
     <row r="138">
@@ -5705,7 +5781,7 @@
         <v>110</v>
       </c>
       <c r="C138" s="0">
-        <v>62.762573108591013</v>
+        <v>58.839912289304074</v>
       </c>
       <c r="D138" s="0">
         <v>150</v>
@@ -5732,7 +5808,7 @@
         <v>100</v>
       </c>
       <c r="L138" s="0">
-        <v>409.48000000000002</v>
+        <v>394.83999999999992</v>
       </c>
     </row>
     <row r="139">
@@ -5770,7 +5846,7 @@
         <v>40</v>
       </c>
       <c r="L139" s="0">
-        <v>229.79999999999995</v>
+        <v>229.9799999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5781,7 +5857,7 @@
         <v>110</v>
       </c>
       <c r="C140" s="0">
-        <v>62.762573108591013</v>
+        <v>58.839912289304074</v>
       </c>
       <c r="D140" s="0">
         <v>150</v>
@@ -5808,7 +5884,7 @@
         <v>100</v>
       </c>
       <c r="L140" s="0">
-        <v>410.78999999999996</v>
+        <v>396.12</v>
       </c>
     </row>
     <row r="141">
@@ -5846,7 +5922,7 @@
         <v>40</v>
       </c>
       <c r="L141" s="0">
-        <v>232.29999999999995</v>
+        <v>232.34000000000003</v>
       </c>
     </row>
     <row r="142">
@@ -5857,7 +5933,7 @@
         <v>110</v>
       </c>
       <c r="C142" s="0">
-        <v>62.762573108591013</v>
+        <v>58.839912289304074</v>
       </c>
       <c r="D142" s="0">
         <v>150</v>
@@ -5884,7 +5960,7 @@
         <v>100</v>
       </c>
       <c r="L142" s="0">
-        <v>412.10000000000002</v>
+        <v>397.39999999999998</v>
       </c>
     </row>
     <row r="143">
@@ -5922,7 +5998,7 @@
         <v>40</v>
       </c>
       <c r="L143" s="0">
-        <v>234.80000000000001</v>
+        <v>234.69999999999999</v>
       </c>
     </row>
     <row r="144">
@@ -5933,7 +6009,7 @@
         <v>110</v>
       </c>
       <c r="C144" s="0">
-        <v>62.762573108591013</v>
+        <v>60.801242698947547</v>
       </c>
       <c r="D144" s="0">
         <v>150</v>
@@ -5960,7 +6036,7 @@
         <v>100</v>
       </c>
       <c r="L144" s="0">
-        <v>413.38</v>
+        <v>398.65999999999997</v>
       </c>
     </row>
     <row r="145">
@@ -5998,7 +6074,7 @@
         <v>40</v>
       </c>
       <c r="L145" s="0">
-        <v>237.1099999999999</v>
+        <v>228.26999999999998</v>
       </c>
     </row>
     <row r="146">
@@ -6009,7 +6085,7 @@
         <v>110</v>
       </c>
       <c r="C146" s="0">
-        <v>64.723903518234479</v>
+        <v>60.801242698947547</v>
       </c>
       <c r="D146" s="0">
         <v>150</v>
@@ -6036,7 +6112,7 @@
         <v>100</v>
       </c>
       <c r="L146" s="0">
-        <v>414.66000000000008</v>
+        <v>399.92000000000007</v>
       </c>
     </row>
     <row r="147">
@@ -6074,7 +6150,7 @@
         <v>40</v>
       </c>
       <c r="L147" s="0">
-        <v>230.30000000000018</v>
+        <v>230.54000000000019</v>
       </c>
     </row>
     <row r="148">
@@ -6085,7 +6161,7 @@
         <v>110</v>
       </c>
       <c r="C148" s="0">
-        <v>64.723903518234479</v>
+        <v>60.801242698947547</v>
       </c>
       <c r="D148" s="0">
         <v>150</v>
@@ -6112,7 +6188,7 @@
         <v>100</v>
       </c>
       <c r="L148" s="0">
-        <v>415.93999999999994</v>
+        <v>401.17999999999995</v>
       </c>
     </row>
     <row r="149">
@@ -6150,7 +6226,7 @@
         <v>40</v>
       </c>
       <c r="L149" s="0">
-        <v>232.69999999999982</v>
+        <v>232.80999999999995</v>
       </c>
     </row>
     <row r="150">
@@ -6161,7 +6237,7 @@
         <v>110</v>
       </c>
       <c r="C150" s="0">
-        <v>64.723903518234479</v>
+        <v>60.801242698947547</v>
       </c>
       <c r="D150" s="0">
         <v>150</v>
@@ -6188,7 +6264,7 @@
         <v>100</v>
       </c>
       <c r="L150" s="0">
-        <v>412.29999999999995</v>
+        <v>402.43999999999994</v>
       </c>
     </row>
     <row r="151">
@@ -6199,7 +6275,7 @@
         <v>55</v>
       </c>
       <c r="C151" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D151" s="0">
         <v>49.999999999999986</v>
@@ -6226,7 +6302,7 @@
         <v>40</v>
       </c>
       <c r="L151" s="0">
-        <v>235.09999999999991</v>
+        <v>235.07999999999993</v>
       </c>
     </row>
     <row r="152">
@@ -6237,7 +6313,7 @@
         <v>110</v>
       </c>
       <c r="C152" s="0">
-        <v>64.723903518234479</v>
+        <v>60.801242698947547</v>
       </c>
       <c r="D152" s="0">
         <v>150</v>
@@ -6264,7 +6340,7 @@
         <v>100</v>
       </c>
       <c r="L152" s="0">
-        <v>413.60000000000002</v>
+        <v>403.70000000000005</v>
       </c>
     </row>
     <row r="153">
@@ -6275,7 +6351,7 @@
         <v>55</v>
       </c>
       <c r="C153" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D153" s="0">
         <v>49.999999999999986</v>
@@ -6302,7 +6378,7 @@
         <v>40</v>
       </c>
       <c r="L153" s="0">
-        <v>237.5</v>
+        <v>237.35000000000014</v>
       </c>
     </row>
     <row r="154">
@@ -6313,7 +6389,7 @@
         <v>110</v>
       </c>
       <c r="C154" s="0">
-        <v>65</v>
+        <v>62.762573108591013</v>
       </c>
       <c r="D154" s="0">
         <v>150</v>
@@ -6340,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="L154" s="0">
-        <v>414.90000000000009</v>
+        <v>404.96000000000004</v>
       </c>
     </row>
     <row r="155">
@@ -6351,7 +6427,7 @@
         <v>55</v>
       </c>
       <c r="C155" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D155" s="0">
         <v>49.999999999999986</v>
@@ -6378,7 +6454,7 @@
         <v>40</v>
       </c>
       <c r="L155" s="0">
-        <v>230.94000000000005</v>
+        <v>231.05999999999983</v>
       </c>
     </row>
     <row r="156">
@@ -6389,7 +6465,7 @@
         <v>110</v>
       </c>
       <c r="C156" s="0">
-        <v>65</v>
+        <v>62.762573108591013</v>
       </c>
       <c r="D156" s="0">
         <v>150</v>
@@ -6416,7 +6492,7 @@
         <v>100</v>
       </c>
       <c r="L156" s="0">
-        <v>416.20000000000005</v>
+        <v>406.22000000000003</v>
       </c>
     </row>
     <row r="157">
@@ -6427,7 +6503,7 @@
         <v>55</v>
       </c>
       <c r="C157" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D157" s="0">
         <v>49.999999999999986</v>
@@ -6454,7 +6530,7 @@
         <v>40</v>
       </c>
       <c r="L157" s="0">
-        <v>233.43000000000006</v>
+        <v>233.41999999999996</v>
       </c>
     </row>
     <row r="158">
@@ -6465,7 +6541,7 @@
         <v>110</v>
       </c>
       <c r="C158" s="0">
-        <v>65</v>
+        <v>62.762573108591013</v>
       </c>
       <c r="D158" s="0">
         <v>150</v>
@@ -6492,7 +6568,7 @@
         <v>100</v>
       </c>
       <c r="L158" s="0">
-        <v>417.5</v>
+        <v>407.4799999999999</v>
       </c>
     </row>
     <row r="159">
@@ -6503,7 +6579,7 @@
         <v>55</v>
       </c>
       <c r="C159" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D159" s="0">
         <v>49.999999999999986</v>
@@ -6530,7 +6606,7 @@
         <v>40</v>
       </c>
       <c r="L159" s="0">
-        <v>235.92000000000007</v>
+        <v>235.77999999999986</v>
       </c>
     </row>
     <row r="160">
@@ -6541,7 +6617,7 @@
         <v>110</v>
       </c>
       <c r="C160" s="0">
-        <v>65</v>
+        <v>62.762573108591013</v>
       </c>
       <c r="D160" s="0">
         <v>150</v>
@@ -6568,7 +6644,7 @@
         <v>100</v>
       </c>
       <c r="L160" s="0">
-        <v>418.79999999999995</v>
+        <v>408.74000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -6579,7 +6655,7 @@
         <v>55</v>
       </c>
       <c r="C161" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D161" s="0">
         <v>49.999999999999986</v>
@@ -6606,7 +6682,7 @@
         <v>40</v>
       </c>
       <c r="L161" s="0">
-        <v>238.41000000000008</v>
+        <v>238.13999999999976</v>
       </c>
     </row>
     <row r="162">
@@ -6617,7 +6693,7 @@
         <v>110</v>
       </c>
       <c r="C162" s="0">
-        <v>65</v>
+        <v>62.762573108591013</v>
       </c>
       <c r="D162" s="0">
         <v>150</v>
@@ -6644,7 +6720,7 @@
         <v>100</v>
       </c>
       <c r="L162" s="0">
-        <v>420.10000000000002</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163">
@@ -6655,7 +6731,7 @@
         <v>55</v>
       </c>
       <c r="C163" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D163" s="0">
         <v>49.999999999999986</v>
@@ -6682,7 +6758,7 @@
         <v>40</v>
       </c>
       <c r="L163" s="0">
-        <v>240.90000000000001</v>
+        <v>240.5</v>
       </c>
     </row>
     <row r="164">
@@ -6693,7 +6769,7 @@
         <v>110</v>
       </c>
       <c r="C164" s="0">
-        <v>65</v>
+        <v>64.723903518234479</v>
       </c>
       <c r="D164" s="0">
         <v>150</v>
@@ -6720,7 +6796,7 @@
         <v>100</v>
       </c>
       <c r="L164" s="0">
-        <v>421.40000000000009</v>
+        <v>411.25999999999999</v>
       </c>
     </row>
     <row r="165">
@@ -6731,7 +6807,7 @@
         <v>55</v>
       </c>
       <c r="C165" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D165" s="0">
         <v>49.999999999999986</v>
@@ -6758,7 +6834,7 @@
         <v>40</v>
       </c>
       <c r="L165" s="0">
-        <v>234.29000000000008</v>
+        <v>234.25999999999999</v>
       </c>
     </row>
     <row r="166">
@@ -6769,7 +6845,7 @@
         <v>110</v>
       </c>
       <c r="C166" s="0">
-        <v>65</v>
+        <v>64.723903518234479</v>
       </c>
       <c r="D166" s="0">
         <v>150</v>
@@ -6796,7 +6872,7 @@
         <v>100</v>
       </c>
       <c r="L166" s="0">
-        <v>422.70000000000005</v>
+        <v>412.5200000000001</v>
       </c>
     </row>
     <row r="167">
@@ -6807,7 +6883,7 @@
         <v>55</v>
       </c>
       <c r="C167" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D167" s="0">
         <v>49.999999999999986</v>
@@ -6834,7 +6910,7 @@
         <v>40</v>
       </c>
       <c r="L167" s="0">
-        <v>236.67999999999995</v>
+        <v>236.51999999999998</v>
       </c>
     </row>
     <row r="168">
@@ -6845,7 +6921,7 @@
         <v>110</v>
       </c>
       <c r="C168" s="0">
-        <v>65</v>
+        <v>64.723903518234479</v>
       </c>
       <c r="D168" s="0">
         <v>150</v>
@@ -6872,7 +6948,7 @@
         <v>100</v>
       </c>
       <c r="L168" s="0">
-        <v>424</v>
+        <v>413.77999999999997</v>
       </c>
     </row>
     <row r="169">
@@ -6883,7 +6959,7 @@
         <v>55</v>
       </c>
       <c r="C169" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D169" s="0">
         <v>49.999999999999986</v>
@@ -6910,7 +6986,7 @@
         <v>40</v>
       </c>
       <c r="L169" s="0">
-        <v>239.06999999999982</v>
+        <v>238.77999999999997</v>
       </c>
     </row>
     <row r="170">
@@ -6921,7 +6997,7 @@
         <v>110</v>
       </c>
       <c r="C170" s="0">
-        <v>65</v>
+        <v>64.723903518234479</v>
       </c>
       <c r="D170" s="0">
         <v>150</v>
@@ -6948,7 +7024,7 @@
         <v>100</v>
       </c>
       <c r="L170" s="0">
-        <v>425.29999999999995</v>
+        <v>415.03999999999996</v>
       </c>
     </row>
     <row r="171">
@@ -6959,7 +7035,7 @@
         <v>55</v>
       </c>
       <c r="C171" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D171" s="0">
         <v>49.999999999999986</v>
@@ -6986,7 +7062,7 @@
         <v>40</v>
       </c>
       <c r="L171" s="0">
-        <v>241.45999999999992</v>
+        <v>241.03999999999996</v>
       </c>
     </row>
     <row r="172">
@@ -7024,7 +7100,7 @@
         <v>100</v>
       </c>
       <c r="L172" s="0">
-        <v>422.04999999999995</v>
+        <v>416.29999999999995</v>
       </c>
     </row>
     <row r="173">
@@ -7035,7 +7111,7 @@
         <v>55</v>
       </c>
       <c r="C173" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D173" s="0">
         <v>49.999999999999986</v>
@@ -7062,7 +7138,7 @@
         <v>40</v>
       </c>
       <c r="L173" s="0">
-        <v>243.85000000000002</v>
+        <v>234.90000000000009</v>
       </c>
     </row>
     <row r="174">
@@ -7100,7 +7176,7 @@
         <v>100</v>
       </c>
       <c r="L174" s="0">
-        <v>423.36000000000001</v>
+        <v>417.56000000000006</v>
       </c>
     </row>
     <row r="175">
@@ -7111,7 +7187,7 @@
         <v>55</v>
       </c>
       <c r="C175" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D175" s="0">
         <v>49.999999999999986</v>
@@ -7138,7 +7214,7 @@
         <v>40</v>
       </c>
       <c r="L175" s="0">
-        <v>246.24000000000012</v>
+        <v>237.24000000000001</v>
       </c>
     </row>
     <row r="176">
@@ -7176,7 +7252,7 @@
         <v>100</v>
       </c>
       <c r="L176" s="0">
-        <v>424.67000000000007</v>
+        <v>418.82000000000005</v>
       </c>
     </row>
     <row r="177">
@@ -7187,7 +7263,7 @@
         <v>55</v>
       </c>
       <c r="C177" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D177" s="0">
         <v>49.999999999999986</v>
@@ -7214,7 +7290,7 @@
         <v>40</v>
       </c>
       <c r="L177" s="0">
-        <v>248.63</v>
+        <v>239.58000000000015</v>
       </c>
     </row>
     <row r="178">
@@ -7252,7 +7328,7 @@
         <v>100</v>
       </c>
       <c r="L178" s="0">
-        <v>425.98000000000002</v>
+        <v>420.07999999999993</v>
       </c>
     </row>
     <row r="179">
@@ -7263,7 +7339,7 @@
         <v>55</v>
       </c>
       <c r="C179" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D179" s="0">
         <v>49.999999999999986</v>
@@ -7290,7 +7366,7 @@
         <v>40</v>
       </c>
       <c r="L179" s="0">
-        <v>251.01999999999987</v>
+        <v>241.92000000000007</v>
       </c>
     </row>
     <row r="180">
@@ -7328,7 +7404,7 @@
         <v>100</v>
       </c>
       <c r="L180" s="0">
-        <v>427.28999999999996</v>
+        <v>421.34000000000003</v>
       </c>
     </row>
     <row r="181">
@@ -7339,7 +7415,7 @@
         <v>55</v>
       </c>
       <c r="C181" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D181" s="0">
         <v>49.999999999999986</v>
@@ -7366,7 +7442,7 @@
         <v>40</v>
       </c>
       <c r="L181" s="0">
-        <v>253.40999999999997</v>
+        <v>244.25999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -7404,7 +7480,7 @@
         <v>100</v>
       </c>
       <c r="L182" s="0">
-        <v>428.60000000000002</v>
+        <v>422.60000000000002</v>
       </c>
     </row>
     <row r="183">
@@ -7415,7 +7491,7 @@
         <v>55</v>
       </c>
       <c r="C183" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D183" s="0">
         <v>49.999999999999986</v>
@@ -7442,7 +7518,7 @@
         <v>40</v>
       </c>
       <c r="L183" s="0">
-        <v>255.80000000000001</v>
+        <v>238.40000000000001</v>
       </c>
     </row>
     <row r="184">
@@ -7480,7 +7556,7 @@
         <v>100</v>
       </c>
       <c r="L184" s="0">
-        <v>429.90000000000009</v>
+        <v>423.84000000000003</v>
       </c>
     </row>
     <row r="185">
@@ -7491,7 +7567,7 @@
         <v>55</v>
       </c>
       <c r="C185" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D185" s="0">
         <v>49.999999999999986</v>
@@ -7518,7 +7594,7 @@
         <v>40</v>
       </c>
       <c r="L185" s="0">
-        <v>258.02999999999997</v>
+        <v>240.6600000000002</v>
       </c>
     </row>
     <row r="186">
@@ -7556,7 +7632,7 @@
         <v>100</v>
       </c>
       <c r="L186" s="0">
-        <v>431.20000000000005</v>
+        <v>425.08000000000004</v>
       </c>
     </row>
     <row r="187">
@@ -7567,7 +7643,7 @@
         <v>55</v>
       </c>
       <c r="C187" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D187" s="0">
         <v>49.999999999999986</v>
@@ -7594,7 +7670,7 @@
         <v>40</v>
       </c>
       <c r="L187" s="0">
-        <v>260.25999999999999</v>
+        <v>242.92000000000019</v>
       </c>
     </row>
     <row r="188">
@@ -7632,7 +7708,7 @@
         <v>100</v>
       </c>
       <c r="L188" s="0">
-        <v>432.5</v>
+        <v>426.31999999999994</v>
       </c>
     </row>
     <row r="189">
@@ -7643,7 +7719,7 @@
         <v>55</v>
       </c>
       <c r="C189" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D189" s="0">
         <v>49.999999999999986</v>
@@ -7670,7 +7746,7 @@
         <v>40</v>
       </c>
       <c r="L189" s="0">
-        <v>262.49000000000001</v>
+        <v>245.17999999999995</v>
       </c>
     </row>
     <row r="190">
@@ -7708,7 +7784,7 @@
         <v>100</v>
       </c>
       <c r="L190" s="0">
-        <v>433.79999999999995</v>
+        <v>427.55999999999995</v>
       </c>
     </row>
     <row r="191">
@@ -7719,7 +7795,7 @@
         <v>55</v>
       </c>
       <c r="C191" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D191" s="0">
         <v>49.999999999999986</v>
@@ -7746,7 +7822,7 @@
         <v>40</v>
       </c>
       <c r="L191" s="0">
-        <v>264.72000000000003</v>
+        <v>247.43999999999994</v>
       </c>
     </row>
     <row r="192">
@@ -7784,7 +7860,7 @@
         <v>100</v>
       </c>
       <c r="L192" s="0">
-        <v>430.7999999999999</v>
+        <v>428.79999999999995</v>
       </c>
     </row>
     <row r="193">
@@ -7795,7 +7871,7 @@
         <v>55</v>
       </c>
       <c r="C193" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D193" s="0">
         <v>49.999999999999986</v>
@@ -7822,7 +7898,7 @@
         <v>40</v>
       </c>
       <c r="L193" s="0">
-        <v>266.95000000000005</v>
+        <v>249.70000000000016</v>
       </c>
     </row>
     <row r="194">
@@ -7860,7 +7936,7 @@
         <v>100</v>
       </c>
       <c r="L194" s="0">
-        <v>432.11999999999995</v>
+        <v>430.04000000000008</v>
       </c>
     </row>
     <row r="195">
@@ -7871,7 +7947,7 @@
         <v>55</v>
       </c>
       <c r="C195" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D195" s="0">
         <v>49.999999999999986</v>
@@ -7898,7 +7974,7 @@
         <v>40</v>
       </c>
       <c r="L195" s="0">
-        <v>269.18000000000006</v>
+        <v>251.96000000000015</v>
       </c>
     </row>
     <row r="196">
@@ -7936,7 +8012,7 @@
         <v>100</v>
       </c>
       <c r="L196" s="0">
-        <v>433.44</v>
+        <v>431.28000000000009</v>
       </c>
     </row>
     <row r="197">
@@ -7947,7 +8023,7 @@
         <v>55</v>
       </c>
       <c r="C197" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D197" s="0">
         <v>49.999999999999986</v>
@@ -7974,7 +8050,7 @@
         <v>40</v>
       </c>
       <c r="L197" s="0">
-        <v>271.41000000000008</v>
+        <v>254.22000000000014</v>
       </c>
     </row>
     <row r="198">
@@ -8012,7 +8088,7 @@
         <v>100</v>
       </c>
       <c r="L198" s="0">
-        <v>434.75999999999993</v>
+        <v>432.51999999999998</v>
       </c>
     </row>
     <row r="199">
@@ -8023,7 +8099,7 @@
         <v>55</v>
       </c>
       <c r="C199" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D199" s="0">
         <v>49.999999999999986</v>
@@ -8050,7 +8126,7 @@
         <v>40</v>
       </c>
       <c r="L199" s="0">
-        <v>273.63999999999987</v>
+        <v>256.4799999999999</v>
       </c>
     </row>
     <row r="200">
@@ -8088,7 +8164,7 @@
         <v>100</v>
       </c>
       <c r="L200" s="0">
-        <v>436.07999999999987</v>
+        <v>433.75999999999999</v>
       </c>
     </row>
     <row r="201">
@@ -8099,7 +8175,7 @@
         <v>55</v>
       </c>
       <c r="C201" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D201" s="0">
         <v>49.999999999999986</v>
@@ -8126,7 +8202,7 @@
         <v>40</v>
       </c>
       <c r="L201" s="0">
-        <v>275.86999999999989</v>
+        <v>258.74000000000012</v>
       </c>
     </row>
     <row r="202">
@@ -8164,7 +8240,7 @@
         <v>100</v>
       </c>
       <c r="L202" s="0">
-        <v>437.39999999999998</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203">
@@ -8175,7 +8251,7 @@
         <v>55</v>
       </c>
       <c r="C203" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D203" s="0">
         <v>49.999999999999986</v>
@@ -8202,7 +8278,7 @@
         <v>40</v>
       </c>
       <c r="L203" s="0">
-        <v>278.10000000000002</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204">
@@ -8240,7 +8316,7 @@
         <v>100</v>
       </c>
       <c r="L204" s="0">
-        <v>438.70000000000005</v>
+        <v>436.24000000000001</v>
       </c>
     </row>
     <row r="205">
@@ -8251,7 +8327,7 @@
         <v>55</v>
       </c>
       <c r="C205" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D205" s="0">
         <v>49.999999999999986</v>
@@ -8278,7 +8354,7 @@
         <v>40</v>
       </c>
       <c r="L205" s="0">
-        <v>280.21000000000015</v>
+        <v>263.11000000000013</v>
       </c>
     </row>
     <row r="206">
@@ -8316,7 +8392,7 @@
         <v>100</v>
       </c>
       <c r="L206" s="0">
-        <v>440</v>
+        <v>437.48000000000002</v>
       </c>
     </row>
     <row r="207">
@@ -8327,7 +8403,7 @@
         <v>55</v>
       </c>
       <c r="C207" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D207" s="0">
         <v>49.999999999999986</v>
@@ -8354,7 +8430,7 @@
         <v>40</v>
       </c>
       <c r="L207" s="0">
-        <v>282.32000000000028</v>
+        <v>265.22000000000003</v>
       </c>
     </row>
     <row r="208">
@@ -8392,7 +8468,7 @@
         <v>100</v>
       </c>
       <c r="L208" s="0">
-        <v>441.29999999999995</v>
+        <v>438.71999999999991</v>
       </c>
     </row>
     <row r="209">
@@ -8403,7 +8479,7 @@
         <v>55</v>
       </c>
       <c r="C209" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D209" s="0">
         <v>49.999999999999986</v>
@@ -8430,7 +8506,7 @@
         <v>40</v>
       </c>
       <c r="L209" s="0">
-        <v>284.43000000000018</v>
+        <v>267.32999999999993</v>
       </c>
     </row>
     <row r="210">
@@ -8468,7 +8544,7 @@
         <v>100</v>
       </c>
       <c r="L210" s="0">
-        <v>438.38</v>
+        <v>439.95999999999992</v>
       </c>
     </row>
     <row r="211">
@@ -8479,7 +8555,7 @@
         <v>55</v>
       </c>
       <c r="C211" s="0">
-        <v>17.651973686791223</v>
+        <v>10</v>
       </c>
       <c r="D211" s="0">
         <v>49.999999999999986</v>
@@ -8506,7 +8582,7 @@
         <v>40</v>
       </c>
       <c r="L211" s="0">
-        <v>286.54000000000008</v>
+        <v>269.44000000000005</v>
       </c>
     </row>
     <row r="212">
@@ -8544,7 +8620,7 @@
         <v>100</v>
       </c>
       <c r="L212" s="0">
-        <v>439.70000000000005</v>
+        <v>441.20000000000005</v>
       </c>
     </row>
     <row r="213">
@@ -8555,7 +8631,7 @@
         <v>55</v>
       </c>
       <c r="C213" s="0">
-        <v>17.651973686791223</v>
+        <v>10</v>
       </c>
       <c r="D213" s="0">
         <v>49.999999999999986</v>
@@ -8582,7 +8658,7 @@
         <v>40</v>
       </c>
       <c r="L213" s="0">
-        <v>288.6500000000002</v>
+        <v>271.54999999999995</v>
       </c>
     </row>
     <row r="214">
@@ -8620,7 +8696,7 @@
         <v>100</v>
       </c>
       <c r="L214" s="0">
-        <v>441.01999999999998</v>
+        <v>442.44000000000005</v>
       </c>
     </row>
     <row r="215">
@@ -8631,7 +8707,7 @@
         <v>55</v>
       </c>
       <c r="C215" s="0">
-        <v>17.651973686791223</v>
+        <v>10</v>
       </c>
       <c r="D215" s="0">
         <v>49.999999999999986</v>
@@ -8658,7 +8734,7 @@
         <v>40</v>
       </c>
       <c r="L215" s="0">
-        <v>290.7600000000001</v>
+        <v>273.66000000000008</v>
       </c>
     </row>
     <row r="216">
@@ -8696,7 +8772,7 @@
         <v>100</v>
       </c>
       <c r="L216" s="0">
-        <v>442.34000000000003</v>
+        <v>439.42000000000007</v>
       </c>
     </row>
     <row r="217">
@@ -8707,7 +8783,7 @@
         <v>55</v>
       </c>
       <c r="C217" s="0">
-        <v>17.651973686791223</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D217" s="0">
         <v>49.999999999999986</v>
@@ -8734,7 +8810,7 @@
         <v>40</v>
       </c>
       <c r="L217" s="0">
-        <v>292.87000000000023</v>
+        <v>275.76999999999998</v>
       </c>
     </row>
     <row r="218">
@@ -8772,7 +8848,7 @@
         <v>100</v>
       </c>
       <c r="L218" s="0">
-        <v>443.65999999999997</v>
+        <v>440.67999999999995</v>
       </c>
     </row>
     <row r="219">
@@ -8783,7 +8859,7 @@
         <v>55</v>
       </c>
       <c r="C219" s="0">
-        <v>17.651973686791223</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D219" s="0">
         <v>49.999999999999986</v>
@@ -8810,7 +8886,7 @@
         <v>40</v>
       </c>
       <c r="L219" s="0">
-        <v>294.98000000000013</v>
+        <v>277.87999999999988</v>
       </c>
     </row>
     <row r="220">
@@ -8848,7 +8924,7 @@
         <v>100</v>
       </c>
       <c r="L220" s="0">
-        <v>444.98000000000002</v>
+        <v>441.93999999999994</v>
       </c>
     </row>
     <row r="221">
@@ -8859,7 +8935,7 @@
         <v>55</v>
       </c>
       <c r="C221" s="0">
-        <v>17.651973686791223</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D221" s="0">
         <v>49.999999999999986</v>
@@ -8886,7 +8962,7 @@
         <v>40</v>
       </c>
       <c r="L221" s="0">
-        <v>297.09000000000003</v>
+        <v>279.99000000000001</v>
       </c>
     </row>
     <row r="222">
@@ -8924,7 +9000,7 @@
         <v>100</v>
       </c>
       <c r="L222" s="0">
-        <v>446.30000000000001</v>
+        <v>443.19999999999999</v>
       </c>
     </row>
     <row r="223">
@@ -8935,7 +9011,7 @@
         <v>55</v>
       </c>
       <c r="C223" s="0">
-        <v>17.651973686791223</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D223" s="0">
         <v>49.999999999999986</v>
@@ -8962,7 +9038,7 @@
         <v>40</v>
       </c>
       <c r="L223" s="0">
-        <v>299.19999999999999</v>
+        <v>282.10000000000002</v>
       </c>
     </row>
     <row r="224">
@@ -9000,7 +9076,7 @@
         <v>100</v>
       </c>
       <c r="L224" s="0">
-        <v>447.58999999999997</v>
+        <v>444.44000000000011</v>
       </c>
     </row>
     <row r="225">
@@ -9011,7 +9087,7 @@
         <v>55</v>
       </c>
       <c r="C225" s="0">
-        <v>17.651973686791223</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D225" s="0">
         <v>49.999999999999986</v>
@@ -9038,7 +9114,7 @@
         <v>40</v>
       </c>
       <c r="L225" s="0">
-        <v>301.20000000000005</v>
+        <v>284.11000000000001</v>
       </c>
     </row>
     <row r="226">
@@ -9076,7 +9152,7 @@
         <v>100</v>
       </c>
       <c r="L226" s="0">
-        <v>448.88000000000005</v>
+        <v>445.68000000000012</v>
       </c>
     </row>
     <row r="227">
@@ -9087,7 +9163,7 @@
         <v>55</v>
       </c>
       <c r="C227" s="0">
-        <v>17.651973686791223</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D227" s="0">
         <v>49.999999999999986</v>
@@ -9114,7 +9190,7 @@
         <v>40</v>
       </c>
       <c r="L227" s="0">
-        <v>303.20000000000005</v>
+        <v>286.12</v>
       </c>
     </row>
     <row r="228">
@@ -9152,7 +9228,7 @@
         <v>100</v>
       </c>
       <c r="L228" s="0">
-        <v>445.22999999999996</v>
+        <v>446.92000000000002</v>
       </c>
     </row>
     <row r="229">
@@ -9163,7 +9239,7 @@
         <v>55</v>
       </c>
       <c r="C229" s="0">
-        <v>19.613304096434693</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D229" s="0">
         <v>49.999999999999986</v>
@@ -9190,7 +9266,7 @@
         <v>40</v>
       </c>
       <c r="L229" s="0">
-        <v>305.20000000000005</v>
+        <v>288.13</v>
       </c>
     </row>
     <row r="230">
@@ -9228,7 +9304,7 @@
         <v>100</v>
       </c>
       <c r="L230" s="0">
-        <v>446.53999999999991</v>
+        <v>448.16000000000003</v>
       </c>
     </row>
     <row r="231">
@@ -9239,7 +9315,7 @@
         <v>55</v>
       </c>
       <c r="C231" s="0">
-        <v>19.613304096434693</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D231" s="0">
         <v>49.999999999999986</v>
@@ -9266,7 +9342,7 @@
         <v>40</v>
       </c>
       <c r="L231" s="0">
-        <v>307.20000000000005</v>
+        <v>290.13999999999999</v>
       </c>
     </row>
     <row r="232">
@@ -9304,7 +9380,7 @@
         <v>100</v>
       </c>
       <c r="L232" s="0">
-        <v>447.84999999999997</v>
+        <v>449.40000000000003</v>
       </c>
     </row>
     <row r="233">
@@ -9315,7 +9391,7 @@
         <v>55</v>
       </c>
       <c r="C233" s="0">
-        <v>19.613304096434693</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D233" s="0">
         <v>49.999999999999986</v>
@@ -9342,7 +9418,7 @@
         <v>40</v>
       </c>
       <c r="L233" s="0">
-        <v>309.20000000000005</v>
+        <v>292.14999999999998</v>
       </c>
     </row>
     <row r="234">
@@ -9380,7 +9456,7 @@
         <v>100</v>
       </c>
       <c r="L234" s="0">
-        <v>449.15999999999991</v>
+        <v>450.64000000000004</v>
       </c>
     </row>
     <row r="235">
@@ -9391,7 +9467,7 @@
         <v>55</v>
       </c>
       <c r="C235" s="0">
-        <v>19.613304096434693</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D235" s="0">
         <v>49.999999999999986</v>
@@ -9418,7 +9494,7 @@
         <v>40</v>
       </c>
       <c r="L235" s="0">
-        <v>311.20000000000005</v>
+        <v>294.15999999999997</v>
       </c>
     </row>
     <row r="236">
@@ -9456,7 +9532,7 @@
         <v>100</v>
       </c>
       <c r="L236" s="0">
-        <v>450.46999999999997</v>
+        <v>451.88000000000005</v>
       </c>
     </row>
     <row r="237">
@@ -9467,7 +9543,7 @@
         <v>55</v>
       </c>
       <c r="C237" s="0">
-        <v>19.613304096434693</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D237" s="0">
         <v>49.999999999999986</v>
@@ -9494,7 +9570,7 @@
         <v>40</v>
       </c>
       <c r="L237" s="0">
-        <v>313.20000000000005</v>
+        <v>296.16999999999996</v>
       </c>
     </row>
     <row r="238">
@@ -9532,7 +9608,7 @@
         <v>100</v>
       </c>
       <c r="L238" s="0">
-        <v>451.77999999999992</v>
+        <v>448.32000000000005</v>
       </c>
     </row>
     <row r="239">
@@ -9543,7 +9619,7 @@
         <v>55</v>
       </c>
       <c r="C239" s="0">
-        <v>19.613304096434693</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D239" s="0">
         <v>49.999999999999986</v>
@@ -9570,7 +9646,7 @@
         <v>40</v>
       </c>
       <c r="L239" s="0">
-        <v>315.20000000000005</v>
+        <v>298.17999999999995</v>
       </c>
     </row>
     <row r="240">
@@ -9608,7 +9684,7 @@
         <v>100</v>
       </c>
       <c r="L240" s="0">
-        <v>453.08999999999986</v>
+        <v>449.56000000000006</v>
       </c>
     </row>
     <row r="241">
@@ -9619,7 +9695,7 @@
         <v>55</v>
       </c>
       <c r="C241" s="0">
-        <v>19.613304096434693</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D241" s="0">
         <v>49.999999999999986</v>
@@ -9646,7 +9722,7 @@
         <v>40</v>
       </c>
       <c r="L241" s="0">
-        <v>317.20000000000005</v>
+        <v>300.18999999999994</v>
       </c>
     </row>
     <row r="242">
@@ -9684,7 +9760,7 @@
         <v>100</v>
       </c>
       <c r="L242" s="0">
-        <v>454.39999999999998</v>
+        <v>450.80000000000001</v>
       </c>
     </row>
     <row r="243">
@@ -9695,7 +9771,7 @@
         <v>55</v>
       </c>
       <c r="C243" s="0">
-        <v>19.613304096434693</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D243" s="0">
         <v>49.999999999999986</v>
@@ -9722,7 +9798,7 @@
         <v>40</v>
       </c>
       <c r="L243" s="0">
-        <v>319.19999999999999</v>
+        <v>302.19999999999999</v>
       </c>
     </row>
     <row r="244">
@@ -9760,7 +9836,7 @@
         <v>100</v>
       </c>
       <c r="L244" s="0">
-        <v>455.69000000000005</v>
+        <v>452.03000000000003</v>
       </c>
     </row>
     <row r="245">
@@ -9771,7 +9847,7 @@
         <v>55</v>
       </c>
       <c r="C245" s="0">
-        <v>19.613304096434693</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D245" s="0">
         <v>49.999999999999986</v>
@@ -9798,7 +9874,7 @@
         <v>40</v>
       </c>
       <c r="L245" s="0">
-        <v>321.12000000000012</v>
+        <v>304.11000000000013</v>
       </c>
     </row>
     <row r="246">
@@ -9836,7 +9912,7 @@
         <v>100</v>
       </c>
       <c r="L246" s="0">
-        <v>456.98000000000002</v>
+        <v>453.26000000000005</v>
       </c>
     </row>
     <row r="247">
@@ -9847,7 +9923,7 @@
         <v>55</v>
       </c>
       <c r="C247" s="0">
-        <v>19.613304096434693</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D247" s="0">
         <v>49.999999999999986</v>
@@ -9874,7 +9950,7 @@
         <v>40</v>
       </c>
       <c r="L247" s="0">
-        <v>323.04000000000008</v>
+        <v>306.0200000000001</v>
       </c>
     </row>
     <row r="248">
@@ -9912,7 +9988,7 @@
         <v>100</v>
       </c>
       <c r="L248" s="0">
-        <v>458.26999999999998</v>
+        <v>454.48999999999995</v>
       </c>
     </row>
     <row r="249">
@@ -9923,7 +9999,7 @@
         <v>55</v>
       </c>
       <c r="C249" s="0">
-        <v>19.613304096434693</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D249" s="0">
         <v>49.999999999999986</v>
@@ -9950,7 +10026,7 @@
         <v>40</v>
       </c>
       <c r="L249" s="0">
-        <v>324.96000000000004</v>
+        <v>307.92999999999995</v>
       </c>
     </row>
     <row r="250">
@@ -9988,7 +10064,7 @@
         <v>100</v>
       </c>
       <c r="L250" s="0">
-        <v>454.69999999999993</v>
+        <v>455.71999999999997</v>
       </c>
     </row>
     <row r="251">
@@ -9999,7 +10075,7 @@
         <v>55</v>
       </c>
       <c r="C251" s="0">
-        <v>21.574634506078162</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D251" s="0">
         <v>49.999999999999986</v>
@@ -10026,7 +10102,7 @@
         <v>40</v>
       </c>
       <c r="L251" s="0">
-        <v>326.88</v>
+        <v>309.84000000000003</v>
       </c>
     </row>
     <row r="252">
@@ -10064,7 +10140,7 @@
         <v>100</v>
       </c>
       <c r="L252" s="0">
-        <v>456</v>
+        <v>456.94999999999999</v>
       </c>
     </row>
     <row r="253">
@@ -10075,7 +10151,7 @@
         <v>55</v>
       </c>
       <c r="C253" s="0">
-        <v>21.574634506078162</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D253" s="0">
         <v>49.999999999999986</v>
@@ -10102,7 +10178,7 @@
         <v>40</v>
       </c>
       <c r="L253" s="0">
-        <v>328.80000000000007</v>
+        <v>311.75</v>
       </c>
     </row>
     <row r="254">
@@ -10140,7 +10216,7 @@
         <v>100</v>
       </c>
       <c r="L254" s="0">
-        <v>457.30000000000007</v>
+        <v>458.18000000000001</v>
       </c>
     </row>
     <row r="255">
@@ -10151,7 +10227,7 @@
         <v>55</v>
       </c>
       <c r="C255" s="0">
-        <v>21.574634506078162</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D255" s="0">
         <v>49.999999999999986</v>
@@ -10178,7 +10254,7 @@
         <v>40</v>
       </c>
       <c r="L255" s="0">
-        <v>330.72000000000003</v>
+        <v>313.66000000000008</v>
       </c>
     </row>
     <row r="256">
@@ -10216,7 +10292,7 @@
         <v>100</v>
       </c>
       <c r="L256" s="0">
-        <v>458.60000000000002</v>
+        <v>459.41000000000003</v>
       </c>
     </row>
     <row r="257">
@@ -10227,7 +10303,7 @@
         <v>55</v>
       </c>
       <c r="C257" s="0">
-        <v>21.574634506078162</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D257" s="0">
         <v>49.999999999999986</v>
@@ -10254,7 +10330,7 @@
         <v>40</v>
       </c>
       <c r="L257" s="0">
-        <v>332.6400000000001</v>
+        <v>315.57000000000016</v>
       </c>
     </row>
     <row r="258">
@@ -10292,7 +10368,7 @@
         <v>100</v>
       </c>
       <c r="L258" s="0">
-        <v>459.89999999999998</v>
+        <v>460.63999999999993</v>
       </c>
     </row>
     <row r="259">
@@ -10303,7 +10379,7 @@
         <v>55</v>
       </c>
       <c r="C259" s="0">
-        <v>21.574634506078162</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D259" s="0">
         <v>49.999999999999986</v>
@@ -10330,7 +10406,7 @@
         <v>40</v>
       </c>
       <c r="L259" s="0">
-        <v>334.55999999999995</v>
+        <v>317.48000000000002</v>
       </c>
     </row>
     <row r="260">
@@ -10368,7 +10444,7 @@
         <v>100</v>
       </c>
       <c r="L260" s="0">
-        <v>461.19999999999993</v>
+        <v>457.05999999999995</v>
       </c>
     </row>
     <row r="261">
@@ -10379,7 +10455,7 @@
         <v>55</v>
       </c>
       <c r="C261" s="0">
-        <v>21.574634506078162</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D261" s="0">
         <v>49.999999999999986</v>
@@ -10406,7 +10482,7 @@
         <v>40</v>
       </c>
       <c r="L261" s="0">
-        <v>336.48000000000002</v>
+        <v>319.38999999999999</v>
       </c>
     </row>
     <row r="262">
@@ -10444,7 +10520,7 @@
         <v>100</v>
       </c>
       <c r="L262" s="0">
-        <v>462.5</v>
+        <v>458.30000000000001</v>
       </c>
     </row>
     <row r="263">
@@ -10455,7 +10531,7 @@
         <v>55</v>
       </c>
       <c r="C263" s="0">
-        <v>21.574634506078162</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D263" s="0">
         <v>49.999999999999986</v>
@@ -10482,7 +10558,7 @@
         <v>40</v>
       </c>
       <c r="L263" s="0">
-        <v>338.39999999999998</v>
+        <v>321.30000000000001</v>
       </c>
     </row>
     <row r="264">
@@ -10520,7 +10596,7 @@
         <v>100</v>
       </c>
       <c r="L264" s="0">
-        <v>463.80000000000007</v>
+        <v>459.53000000000014</v>
       </c>
     </row>
     <row r="265">
@@ -10531,7 +10607,7 @@
         <v>55</v>
       </c>
       <c r="C265" s="0">
-        <v>21.574634506078162</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D265" s="0">
         <v>49.999999999999986</v>
@@ -10558,7 +10634,7 @@
         <v>40</v>
       </c>
       <c r="L265" s="0">
-        <v>340.2399999999999</v>
+        <v>323.1400000000001</v>
       </c>
     </row>
     <row r="266">
@@ -10596,7 +10672,7 @@
         <v>100</v>
       </c>
       <c r="L266" s="0">
-        <v>465.10000000000002</v>
+        <v>460.76000000000016</v>
       </c>
     </row>
     <row r="267">
@@ -10607,7 +10683,7 @@
         <v>55</v>
       </c>
       <c r="C267" s="0">
-        <v>21.574634506078162</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D267" s="0">
         <v>49.999999999999986</v>
@@ -10634,7 +10710,7 @@
         <v>40</v>
       </c>
       <c r="L267" s="0">
-        <v>342.07999999999993</v>
+        <v>324.98000000000013</v>
       </c>
     </row>
     <row r="268">
@@ -10672,7 +10748,7 @@
         <v>100</v>
       </c>
       <c r="L268" s="0">
-        <v>466.39999999999998</v>
+        <v>461.99000000000007</v>
       </c>
     </row>
     <row r="269">
@@ -10683,7 +10759,7 @@
         <v>55</v>
       </c>
       <c r="C269" s="0">
-        <v>21.574634506078162</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D269" s="0">
         <v>49.999999999999986</v>
@@ -10710,7 +10786,7 @@
         <v>40</v>
       </c>
       <c r="L269" s="0">
-        <v>343.91999999999985</v>
+        <v>326.82000000000005</v>
       </c>
     </row>
     <row r="270">
@@ -10748,7 +10824,7 @@
         <v>100</v>
       </c>
       <c r="L270" s="0">
-        <v>463.09999999999991</v>
+        <v>463.22000000000008</v>
       </c>
     </row>
     <row r="271">
@@ -10759,7 +10835,7 @@
         <v>55</v>
       </c>
       <c r="C271" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D271" s="0">
         <v>49.999999999999986</v>
@@ -10786,7 +10862,7 @@
         <v>40</v>
       </c>
       <c r="L271" s="0">
-        <v>345.75999999999988</v>
+        <v>328.66000000000008</v>
       </c>
     </row>
     <row r="272">
@@ -10824,7 +10900,7 @@
         <v>100</v>
       </c>
       <c r="L272" s="0">
-        <v>464.39999999999998</v>
+        <v>464.4500000000001</v>
       </c>
     </row>
     <row r="273">
@@ -10835,7 +10911,7 @@
         <v>55</v>
       </c>
       <c r="C273" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D273" s="0">
         <v>49.999999999999986</v>
@@ -10862,7 +10938,7 @@
         <v>40</v>
       </c>
       <c r="L273" s="0">
-        <v>347.59999999999991</v>
+        <v>330.5</v>
       </c>
     </row>
     <row r="274">
@@ -10900,7 +10976,7 @@
         <v>100</v>
       </c>
       <c r="L274" s="0">
-        <v>465.70000000000005</v>
+        <v>465.68000000000012</v>
       </c>
     </row>
     <row r="275">
@@ -10911,7 +10987,7 @@
         <v>55</v>
       </c>
       <c r="C275" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D275" s="0">
         <v>49.999999999999986</v>
@@ -10938,7 +11014,7 @@
         <v>40</v>
       </c>
       <c r="L275" s="0">
-        <v>349.43999999999994</v>
+        <v>332.34000000000003</v>
       </c>
     </row>
     <row r="276">
@@ -10976,7 +11052,7 @@
         <v>100</v>
       </c>
       <c r="L276" s="0">
-        <v>467</v>
+        <v>466.91000000000014</v>
       </c>
     </row>
     <row r="277">
@@ -10987,7 +11063,7 @@
         <v>55</v>
       </c>
       <c r="C277" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D277" s="0">
         <v>49.999999999999986</v>
@@ -11014,7 +11090,7 @@
         <v>40</v>
       </c>
       <c r="L277" s="0">
-        <v>351.27999999999997</v>
+        <v>334.18000000000006</v>
       </c>
     </row>
     <row r="278">
@@ -11052,7 +11128,7 @@
         <v>100</v>
       </c>
       <c r="L278" s="0">
-        <v>468.29999999999995</v>
+        <v>468.14000000000004</v>
       </c>
     </row>
     <row r="279">
@@ -11063,7 +11139,7 @@
         <v>55</v>
       </c>
       <c r="C279" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D279" s="0">
         <v>49.999999999999986</v>
@@ -11090,7 +11166,7 @@
         <v>40</v>
       </c>
       <c r="L279" s="0">
-        <v>353.11999999999989</v>
+        <v>336.01999999999998</v>
       </c>
     </row>
     <row r="280">
@@ -11128,7 +11204,7 @@
         <v>100</v>
       </c>
       <c r="L280" s="0">
-        <v>469.59999999999991</v>
+        <v>469.37000000000006</v>
       </c>
     </row>
     <row r="281">
@@ -11139,7 +11215,7 @@
         <v>55</v>
       </c>
       <c r="C281" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D281" s="0">
         <v>49.999999999999986</v>
@@ -11166,7 +11242,7 @@
         <v>40</v>
       </c>
       <c r="L281" s="0">
-        <v>354.95999999999992</v>
+        <v>337.86000000000001</v>
       </c>
     </row>
     <row r="282">
@@ -11204,7 +11280,7 @@
         <v>100</v>
       </c>
       <c r="L282" s="0">
-        <v>470.89999999999998</v>
+        <v>470.60000000000002</v>
       </c>
     </row>
     <row r="283">
@@ -11215,7 +11291,7 @@
         <v>55</v>
       </c>
       <c r="C283" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D283" s="0">
         <v>49.999999999999986</v>
@@ -11242,7 +11318,7 @@
         <v>40</v>
       </c>
       <c r="L283" s="0">
-        <v>356.80000000000001</v>
+        <v>339.69999999999999</v>
       </c>
     </row>
     <row r="284">
@@ -11280,7 +11356,7 @@
         <v>100</v>
       </c>
       <c r="L284" s="0">
-        <v>472.20000000000005</v>
+        <v>467.34000000000003</v>
       </c>
     </row>
     <row r="285">
@@ -11291,7 +11367,7 @@
         <v>55</v>
       </c>
       <c r="C285" s="0">
-        <v>23.535964915721632</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D285" s="0">
         <v>49.999999999999986</v>
@@ -11318,7 +11394,7 @@
         <v>40</v>
       </c>
       <c r="L285" s="0">
-        <v>358.59000000000003</v>
+        <v>341.4799999999999</v>
       </c>
     </row>
     <row r="286">
@@ -11356,7 +11432,7 @@
         <v>100</v>
       </c>
       <c r="L286" s="0">
-        <v>473.5</v>
+        <v>468.58000000000004</v>
       </c>
     </row>
     <row r="287">
@@ -11367,7 +11443,7 @@
         <v>55</v>
       </c>
       <c r="C287" s="0">
-        <v>23.535964915721632</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D287" s="0">
         <v>49.999999999999986</v>
@@ -11394,7 +11470,7 @@
         <v>40</v>
       </c>
       <c r="L287" s="0">
-        <v>360.38</v>
+        <v>343.25999999999999</v>
       </c>
     </row>
     <row r="288">
@@ -11432,7 +11508,7 @@
         <v>100</v>
       </c>
       <c r="L288" s="0">
-        <v>474.79999999999995</v>
+        <v>469.81999999999994</v>
       </c>
     </row>
     <row r="289">
@@ -11443,7 +11519,7 @@
         <v>55</v>
       </c>
       <c r="C289" s="0">
-        <v>23.535964915721632</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D289" s="0">
         <v>49.999999999999986</v>
@@ -11470,7 +11546,7 @@
         <v>40</v>
       </c>
       <c r="L289" s="0">
-        <v>362.16999999999985</v>
+        <v>345.03999999999985</v>
       </c>
     </row>
     <row r="290">
@@ -11508,7 +11584,7 @@
         <v>100</v>
       </c>
       <c r="L290" s="0">
-        <v>471.63999999999999</v>
+        <v>471.05999999999995</v>
       </c>
     </row>
     <row r="291">
@@ -11519,7 +11595,7 @@
         <v>55</v>
       </c>
       <c r="C291" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D291" s="0">
         <v>49.999999999999986</v>
@@ -11546,7 +11622,7 @@
         <v>40</v>
       </c>
       <c r="L291" s="0">
-        <v>363.95999999999992</v>
+        <v>346.81999999999994</v>
       </c>
     </row>
     <row r="292">
@@ -11584,7 +11660,7 @@
         <v>100</v>
       </c>
       <c r="L292" s="0">
-        <v>472.94999999999993</v>
+        <v>472.30000000000007</v>
       </c>
     </row>
     <row r="293">
@@ -11595,7 +11671,7 @@
         <v>55</v>
       </c>
       <c r="C293" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D293" s="0">
         <v>49.999999999999986</v>
@@ -11622,7 +11698,7 @@
         <v>40</v>
       </c>
       <c r="L293" s="0">
-        <v>365.75</v>
+        <v>348.59999999999991</v>
       </c>
     </row>
     <row r="294">
@@ -11660,7 +11736,7 @@
         <v>100</v>
       </c>
       <c r="L294" s="0">
-        <v>474.25999999999999</v>
+        <v>473.54000000000008</v>
       </c>
     </row>
     <row r="295">
@@ -11671,7 +11747,7 @@
         <v>55</v>
       </c>
       <c r="C295" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D295" s="0">
         <v>49.999999999999986</v>
@@ -11698,7 +11774,7 @@
         <v>40</v>
       </c>
       <c r="L295" s="0">
-        <v>367.53999999999996</v>
+        <v>350.38</v>
       </c>
     </row>
     <row r="296">
@@ -11736,7 +11812,7 @@
         <v>100</v>
       </c>
       <c r="L296" s="0">
-        <v>475.57000000000005</v>
+        <v>474.78000000000009</v>
       </c>
     </row>
     <row r="297">
@@ -11747,7 +11823,7 @@
         <v>55</v>
       </c>
       <c r="C297" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D297" s="0">
         <v>49.999999999999986</v>
@@ -11774,7 +11850,7 @@
         <v>40</v>
       </c>
       <c r="L297" s="0">
-        <v>369.33000000000004</v>
+        <v>352.15999999999997</v>
       </c>
     </row>
     <row r="298">
@@ -11812,7 +11888,7 @@
         <v>100</v>
       </c>
       <c r="L298" s="0">
-        <v>476.88</v>
+        <v>476.01999999999998</v>
       </c>
     </row>
     <row r="299">
@@ -11823,7 +11899,7 @@
         <v>55</v>
       </c>
       <c r="C299" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D299" s="0">
         <v>49.999999999999986</v>
@@ -11850,7 +11926,7 @@
         <v>40</v>
       </c>
       <c r="L299" s="0">
-        <v>371.11999999999989</v>
+        <v>353.93999999999994</v>
       </c>
     </row>
     <row r="300">
@@ -11888,7 +11964,7 @@
         <v>100</v>
       </c>
       <c r="L300" s="0">
-        <v>478.18999999999994</v>
+        <v>477.25999999999999</v>
       </c>
     </row>
     <row r="301">
@@ -11899,7 +11975,7 @@
         <v>55</v>
       </c>
       <c r="C301" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D301" s="0">
         <v>49.999999999999986</v>
@@ -11926,7 +12002,7 @@
         <v>40</v>
       </c>
       <c r="L301" s="0">
-        <v>372.90999999999985</v>
+        <v>355.71999999999991</v>
       </c>
     </row>
     <row r="302">
@@ -11964,7 +12040,7 @@
         <v>100</v>
       </c>
       <c r="L302" s="0">
-        <v>479.5</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="303">
@@ -11975,7 +12051,7 @@
         <v>55</v>
       </c>
       <c r="C303" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D303" s="0">
         <v>49.999999999999986</v>
@@ -12002,7 +12078,7 @@
         <v>40</v>
       </c>
       <c r="L303" s="0">
-        <v>374.69999999999999</v>
+        <v>357.5</v>
       </c>
     </row>
     <row r="304">
@@ -12040,7 +12116,7 @@
         <v>100</v>
       </c>
       <c r="L304" s="0">
-        <v>480.78999999999996</v>
+        <v>479.72000000000003</v>
       </c>
     </row>
     <row r="305">
@@ -12051,7 +12127,7 @@
         <v>55</v>
       </c>
       <c r="C305" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D305" s="0">
         <v>49.999999999999986</v>
@@ -12078,7 +12154,7 @@
         <v>40</v>
       </c>
       <c r="L305" s="0">
-        <v>376.43000000000006</v>
+        <v>359.21000000000004</v>
       </c>
     </row>
     <row r="306">
@@ -12116,7 +12192,7 @@
         <v>100</v>
       </c>
       <c r="L306" s="0">
-        <v>482.08000000000004</v>
+        <v>476.58000000000004</v>
       </c>
     </row>
     <row r="307">
@@ -12127,7 +12203,7 @@
         <v>55</v>
       </c>
       <c r="C307" s="0">
-        <v>25.497295325365101</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D307" s="0">
         <v>49.999999999999986</v>
@@ -12154,7 +12230,7 @@
         <v>40</v>
       </c>
       <c r="L307" s="0">
-        <v>378.16000000000008</v>
+        <v>360.92000000000007</v>
       </c>
     </row>
     <row r="308">
@@ -12192,7 +12268,7 @@
         <v>100</v>
       </c>
       <c r="L308" s="0">
-        <v>479.02999999999997</v>
+        <v>477.81999999999994</v>
       </c>
     </row>
     <row r="309">
@@ -12203,7 +12279,7 @@
         <v>55</v>
       </c>
       <c r="C309" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D309" s="0">
         <v>49.999999999999986</v>
@@ -12230,7 +12306,7 @@
         <v>40</v>
       </c>
       <c r="L309" s="0">
-        <v>379.88999999999999</v>
+        <v>362.63</v>
       </c>
     </row>
     <row r="310">
@@ -12268,7 +12344,7 @@
         <v>100</v>
       </c>
       <c r="L310" s="0">
-        <v>480.33999999999992</v>
+        <v>479.05999999999995</v>
       </c>
     </row>
     <row r="311">
@@ -12279,7 +12355,7 @@
         <v>55</v>
       </c>
       <c r="C311" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D311" s="0">
         <v>49.999999999999986</v>
@@ -12306,7 +12382,7 @@
         <v>40</v>
       </c>
       <c r="L311" s="0">
-        <v>381.62</v>
+        <v>364.34000000000003</v>
       </c>
     </row>
     <row r="312">
@@ -12344,7 +12420,7 @@
         <v>100</v>
       </c>
       <c r="L312" s="0">
-        <v>481.64999999999998</v>
+        <v>480.29999999999995</v>
       </c>
     </row>
     <row r="313">
@@ -12355,7 +12431,7 @@
         <v>55</v>
       </c>
       <c r="C313" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D313" s="0">
         <v>49.999999999999986</v>
@@ -12382,7 +12458,7 @@
         <v>40</v>
       </c>
       <c r="L313" s="0">
-        <v>383.35000000000002</v>
+        <v>366.05000000000007</v>
       </c>
     </row>
     <row r="314">
@@ -12420,7 +12496,7 @@
         <v>100</v>
       </c>
       <c r="L314" s="0">
-        <v>482.95999999999992</v>
+        <v>481.54000000000008</v>
       </c>
     </row>
     <row r="315">
@@ -12431,7 +12507,7 @@
         <v>55</v>
       </c>
       <c r="C315" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D315" s="0">
         <v>49.999999999999986</v>
@@ -12458,7 +12534,7 @@
         <v>40</v>
       </c>
       <c r="L315" s="0">
-        <v>385.08000000000004</v>
+        <v>367.75999999999999</v>
       </c>
     </row>
     <row r="316">
@@ -12496,7 +12572,7 @@
         <v>100</v>
       </c>
       <c r="L316" s="0">
-        <v>484.26999999999998</v>
+        <v>482.78000000000009</v>
       </c>
     </row>
     <row r="317">
@@ -12507,7 +12583,7 @@
         <v>55</v>
       </c>
       <c r="C317" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D317" s="0">
         <v>49.999999999999986</v>
@@ -12534,7 +12610,7 @@
         <v>40</v>
       </c>
       <c r="L317" s="0">
-        <v>386.81000000000006</v>
+        <v>369.47000000000003</v>
       </c>
     </row>
     <row r="318">
@@ -12572,7 +12648,7 @@
         <v>100</v>
       </c>
       <c r="L318" s="0">
-        <v>485.57999999999993</v>
+        <v>484.01999999999998</v>
       </c>
     </row>
     <row r="319">
@@ -12583,7 +12659,7 @@
         <v>55</v>
       </c>
       <c r="C319" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D319" s="0">
         <v>49.999999999999986</v>
@@ -12610,7 +12686,7 @@
         <v>40</v>
       </c>
       <c r="L319" s="0">
-        <v>388.53999999999996</v>
+        <v>371.17999999999995</v>
       </c>
     </row>
     <row r="320">
@@ -12648,7 +12724,7 @@
         <v>100</v>
       </c>
       <c r="L320" s="0">
-        <v>486.88999999999987</v>
+        <v>485.25999999999999</v>
       </c>
     </row>
     <row r="321">
@@ -12659,7 +12735,7 @@
         <v>55</v>
       </c>
       <c r="C321" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D321" s="0">
         <v>49.999999999999986</v>
@@ -12686,7 +12762,7 @@
         <v>40</v>
       </c>
       <c r="L321" s="0">
-        <v>390.26999999999998</v>
+        <v>372.88999999999999</v>
       </c>
     </row>
     <row r="322">
@@ -12724,7 +12800,7 @@
         <v>100</v>
       </c>
       <c r="L322" s="0">
-        <v>488.19999999999999</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="323">
@@ -12735,7 +12811,7 @@
         <v>55</v>
       </c>
       <c r="C323" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D323" s="0">
         <v>49.999999999999986</v>
@@ -12762,7 +12838,7 @@
         <v>40</v>
       </c>
       <c r="L323" s="0">
-        <v>392</v>
+        <v>374.60000000000002</v>
       </c>
     </row>
     <row r="324">
@@ -12800,7 +12876,7 @@
         <v>100</v>
       </c>
       <c r="L324" s="0">
-        <v>489.50000000000006</v>
+        <v>487.72000000000003</v>
       </c>
     </row>
     <row r="325">
@@ -12811,7 +12887,7 @@
         <v>55</v>
       </c>
       <c r="C325" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D325" s="0">
         <v>49.999999999999986</v>
@@ -12838,7 +12914,7 @@
         <v>40</v>
       </c>
       <c r="L325" s="0">
-        <v>393.68000000000006</v>
+        <v>376.2700000000001</v>
       </c>
     </row>
     <row r="326">
@@ -12876,7 +12952,7 @@
         <v>100</v>
       </c>
       <c r="L326" s="0">
-        <v>486.62</v>
+        <v>484.78000000000003</v>
       </c>
     </row>
     <row r="327">
@@ -12887,7 +12963,7 @@
         <v>55</v>
       </c>
       <c r="C327" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D327" s="0">
         <v>49.999999999999986</v>
@@ -12914,7 +12990,7 @@
         <v>40</v>
       </c>
       <c r="L327" s="0">
-        <v>395.36000000000001</v>
+        <v>377.94000000000005</v>
       </c>
     </row>
     <row r="328">
@@ -12952,7 +13028,7 @@
         <v>100</v>
       </c>
       <c r="L328" s="0">
-        <v>487.92999999999995</v>
+        <v>486.01999999999992</v>
       </c>
     </row>
     <row r="329">
@@ -12963,7 +13039,7 @@
         <v>55</v>
       </c>
       <c r="C329" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D329" s="0">
         <v>49.999999999999986</v>
@@ -12990,7 +13066,7 @@
         <v>40</v>
       </c>
       <c r="L329" s="0">
-        <v>397.03999999999996</v>
+        <v>379.61000000000001</v>
       </c>
     </row>
     <row r="330">
@@ -13028,7 +13104,7 @@
         <v>100</v>
       </c>
       <c r="L330" s="0">
-        <v>489.24000000000012</v>
+        <v>487.26000000000005</v>
       </c>
     </row>
     <row r="331">
@@ -13039,7 +13115,7 @@
         <v>55</v>
       </c>
       <c r="C331" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D331" s="0">
         <v>49.999999999999986</v>
@@ -13066,7 +13142,7 @@
         <v>40</v>
       </c>
       <c r="L331" s="0">
-        <v>398.72000000000014</v>
+        <v>381.28000000000009</v>
       </c>
     </row>
     <row r="332">
@@ -13104,7 +13180,7 @@
         <v>100</v>
       </c>
       <c r="L332" s="0">
-        <v>490.54999999999995</v>
+        <v>488.50000000000006</v>
       </c>
     </row>
     <row r="333">
@@ -13115,7 +13191,7 @@
         <v>55</v>
       </c>
       <c r="C333" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D333" s="0">
         <v>49.999999999999986</v>
@@ -13142,7 +13218,7 @@
         <v>40</v>
       </c>
       <c r="L333" s="0">
-        <v>400.39999999999998</v>
+        <v>382.95000000000005</v>
       </c>
     </row>
     <row r="334">
@@ -13180,7 +13256,7 @@
         <v>100</v>
       </c>
       <c r="L334" s="0">
-        <v>491.86000000000001</v>
+        <v>489.74000000000007</v>
       </c>
     </row>
     <row r="335">
@@ -13191,7 +13267,7 @@
         <v>55</v>
       </c>
       <c r="C335" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D335" s="0">
         <v>49.999999999999986</v>
@@ -13218,7 +13294,7 @@
         <v>40</v>
       </c>
       <c r="L335" s="0">
-        <v>402.08000000000004</v>
+        <v>384.62</v>
       </c>
     </row>
     <row r="336">
@@ -13256,7 +13332,7 @@
         <v>100</v>
       </c>
       <c r="L336" s="0">
-        <v>493.17000000000007</v>
+        <v>490.98000000000008</v>
       </c>
     </row>
     <row r="337">
@@ -13267,7 +13343,7 @@
         <v>55</v>
       </c>
       <c r="C337" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D337" s="0">
         <v>49.999999999999986</v>
@@ -13294,7 +13370,7 @@
         <v>40</v>
       </c>
       <c r="L337" s="0">
-        <v>403.7600000000001</v>
+        <v>386.29000000000008</v>
       </c>
     </row>
     <row r="338">
@@ -13332,7 +13408,7 @@
         <v>100</v>
       </c>
       <c r="L338" s="0">
-        <v>494.48000000000002</v>
+        <v>492.21999999999997</v>
       </c>
     </row>
     <row r="339">
@@ -13343,7 +13419,7 @@
         <v>55</v>
       </c>
       <c r="C339" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D339" s="0">
         <v>49.999999999999986</v>
@@ -13370,7 +13446,7 @@
         <v>40</v>
       </c>
       <c r="L339" s="0">
-        <v>405.43999999999994</v>
+        <v>387.95999999999992</v>
       </c>
     </row>
     <row r="340">
@@ -13408,7 +13484,7 @@
         <v>100</v>
       </c>
       <c r="L340" s="0">
-        <v>495.79000000000008</v>
+        <v>493.46000000000009</v>
       </c>
     </row>
     <row r="341">
@@ -13419,7 +13495,7 @@
         <v>55</v>
       </c>
       <c r="C341" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D341" s="0">
         <v>49.999999999999986</v>
@@ -13446,7 +13522,7 @@
         <v>40</v>
       </c>
       <c r="L341" s="0">
-        <v>407.12000000000012</v>
+        <v>389.63000000000011</v>
       </c>
     </row>
     <row r="342">
@@ -13484,7 +13560,7 @@
         <v>100</v>
       </c>
       <c r="L342" s="0">
-        <v>497.10000000000002</v>
+        <v>494.69999999999999</v>
       </c>
     </row>
     <row r="343">
@@ -13495,7 +13571,7 @@
         <v>55</v>
       </c>
       <c r="C343" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D343" s="0">
         <v>49.999999999999986</v>
@@ -13522,7 +13598,7 @@
         <v>40</v>
       </c>
       <c r="L343" s="0">
-        <v>408.80000000000001</v>
+        <v>391.30000000000001</v>
       </c>
     </row>
     <row r="344">
@@ -13560,7 +13636,7 @@
         <v>100</v>
       </c>
       <c r="L344" s="0">
-        <v>494.21000000000004</v>
+        <v>495.93000000000012</v>
       </c>
     </row>
     <row r="345">
@@ -13571,7 +13647,7 @@
         <v>55</v>
       </c>
       <c r="C345" s="0">
-        <v>31.381286554295507</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D345" s="0">
         <v>49.999999999999986</v>
@@ -13598,7 +13674,7 @@
         <v>40</v>
       </c>
       <c r="L345" s="0">
-        <v>410.43000000000006</v>
+        <v>392.91000000000008</v>
       </c>
     </row>
     <row r="346">
@@ -13636,7 +13712,7 @@
         <v>100</v>
       </c>
       <c r="L346" s="0">
-        <v>495.51999999999998</v>
+        <v>493.08000000000004</v>
       </c>
     </row>
     <row r="347">
@@ -13647,7 +13723,7 @@
         <v>55</v>
       </c>
       <c r="C347" s="0">
-        <v>31.381286554295507</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D347" s="0">
         <v>49.999999999999986</v>
@@ -13674,7 +13750,7 @@
         <v>40</v>
       </c>
       <c r="L347" s="0">
-        <v>412.06000000000006</v>
+        <v>394.5200000000001</v>
       </c>
     </row>
     <row r="348">
@@ -13712,7 +13788,7 @@
         <v>100</v>
       </c>
       <c r="L348" s="0">
-        <v>496.82999999999993</v>
+        <v>494.31999999999994</v>
       </c>
     </row>
     <row r="349">
@@ -13723,7 +13799,7 @@
         <v>55</v>
       </c>
       <c r="C349" s="0">
-        <v>31.381286554295507</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D349" s="0">
         <v>49.999999999999986</v>
@@ -13750,7 +13826,7 @@
         <v>40</v>
       </c>
       <c r="L349" s="0">
-        <v>413.68999999999994</v>
+        <v>396.13</v>
       </c>
     </row>
     <row r="350">
@@ -13788,7 +13864,7 @@
         <v>100</v>
       </c>
       <c r="L350" s="0">
-        <v>498.1400000000001</v>
+        <v>495.56000000000006</v>
       </c>
     </row>
     <row r="351">
@@ -13799,7 +13875,7 @@
         <v>55</v>
       </c>
       <c r="C351" s="0">
-        <v>31.381286554295507</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D351" s="0">
         <v>49.999999999999986</v>
@@ -13826,7 +13902,7 @@
         <v>40</v>
       </c>
       <c r="L351" s="0">
-        <v>415.32000000000016</v>
+        <v>397.74000000000012</v>
       </c>
     </row>
     <row r="352">
@@ -13864,7 +13940,7 @@
         <v>100</v>
       </c>
       <c r="L352" s="0">
-        <v>499.45000000000005</v>
+        <v>496.79999999999995</v>
       </c>
     </row>
     <row r="353">
@@ -13875,7 +13951,7 @@
         <v>55</v>
       </c>
       <c r="C353" s="0">
-        <v>31.381286554295507</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D353" s="0">
         <v>49.999999999999986</v>
@@ -13902,7 +13978,7 @@
         <v>40</v>
       </c>
       <c r="L353" s="0">
-        <v>416.95000000000005</v>
+        <v>399.35000000000002</v>
       </c>
     </row>
     <row r="354">
@@ -13940,7 +14016,7 @@
         <v>100</v>
       </c>
       <c r="L354" s="0">
-        <v>500.75999999999999</v>
+        <v>498.04000000000008</v>
       </c>
     </row>
     <row r="355">
@@ -13951,7 +14027,7 @@
         <v>55</v>
       </c>
       <c r="C355" s="0">
-        <v>31.381286554295507</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D355" s="0">
         <v>49.999999999999986</v>
@@ -13978,7 +14054,7 @@
         <v>40</v>
       </c>
       <c r="L355" s="0">
-        <v>418.58000000000004</v>
+        <v>400.96000000000004</v>
       </c>
     </row>
     <row r="356">
@@ -14016,7 +14092,7 @@
         <v>100</v>
       </c>
       <c r="L356" s="0">
-        <v>502.07000000000005</v>
+        <v>499.28000000000009</v>
       </c>
     </row>
     <row r="357">
@@ -14027,7 +14103,7 @@
         <v>55</v>
       </c>
       <c r="C357" s="0">
-        <v>31.381286554295507</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D357" s="0">
         <v>49.999999999999986</v>
@@ -14054,7 +14130,7 @@
         <v>40</v>
       </c>
       <c r="L357" s="0">
-        <v>420.21000000000004</v>
+        <v>402.57000000000005</v>
       </c>
     </row>
     <row r="358">
@@ -14092,7 +14168,7 @@
         <v>100</v>
       </c>
       <c r="L358" s="0">
-        <v>503.38</v>
+        <v>500.51999999999998</v>
       </c>
     </row>
     <row r="359">
@@ -14103,7 +14179,7 @@
         <v>55</v>
       </c>
       <c r="C359" s="0">
-        <v>31.381286554295507</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D359" s="0">
         <v>49.999999999999986</v>
@@ -14130,7 +14206,7 @@
         <v>40</v>
       </c>
       <c r="L359" s="0">
-        <v>421.83999999999992</v>
+        <v>404.17999999999995</v>
       </c>
     </row>
     <row r="360">
@@ -14168,7 +14244,7 @@
         <v>100</v>
       </c>
       <c r="L360" s="0">
-        <v>500.68000000000001</v>
+        <v>501.7600000000001</v>
       </c>
     </row>
     <row r="361">
@@ -14179,7 +14255,7 @@
         <v>55</v>
       </c>
       <c r="C361" s="0">
-        <v>33.34261696393898</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D361" s="0">
         <v>49.999999999999986</v>
@@ -14206,7 +14282,7 @@
         <v>40</v>
       </c>
       <c r="L361" s="0">
-        <v>423.47000000000014</v>
+        <v>405.79000000000008</v>
       </c>
     </row>
     <row r="362">
@@ -14244,7 +14320,7 @@
         <v>100</v>
       </c>
       <c r="L362" s="0">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="363">
@@ -14255,7 +14331,7 @@
         <v>55</v>
       </c>
       <c r="C363" s="0">
-        <v>33.34261696393898</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D363" s="0">
         <v>49.999999999999986</v>
@@ -14282,7 +14358,7 @@
         <v>40</v>
       </c>
       <c r="L363" s="0">
-        <v>425.10000000000002</v>
+        <v>407.39999999999998</v>
       </c>
     </row>
     <row r="364">
@@ -14320,7 +14396,7 @@
         <v>100</v>
       </c>
       <c r="L364" s="0">
-        <v>503.32000000000005</v>
+        <v>504.23000000000002</v>
       </c>
     </row>
     <row r="365">
@@ -14331,7 +14407,7 @@
         <v>55</v>
       </c>
       <c r="C365" s="0">
-        <v>33.34261696393898</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D365" s="0">
         <v>49.999999999999986</v>
@@ -14358,7 +14434,7 @@
         <v>40</v>
       </c>
       <c r="L365" s="0">
-        <v>426.69000000000005</v>
+        <v>408.98000000000002</v>
       </c>
     </row>
     <row r="366">
@@ -14396,7 +14472,7 @@
         <v>100</v>
       </c>
       <c r="L366" s="0">
-        <v>504.6400000000001</v>
+        <v>501.60000000000002</v>
       </c>
     </row>
     <row r="367">
@@ -14407,7 +14483,7 @@
         <v>55</v>
       </c>
       <c r="C367" s="0">
-        <v>33.34261696393898</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D367" s="0">
         <v>49.999999999999986</v>
@@ -14434,7 +14510,7 @@
         <v>40</v>
       </c>
       <c r="L367" s="0">
-        <v>428.28000000000009</v>
+        <v>410.56000000000006</v>
       </c>
     </row>
     <row r="368">
@@ -14472,7 +14548,7 @@
         <v>100</v>
       </c>
       <c r="L368" s="0">
-        <v>505.95999999999992</v>
+        <v>502.85000000000002</v>
       </c>
     </row>
     <row r="369">
@@ -14483,7 +14559,7 @@
         <v>55</v>
       </c>
       <c r="C369" s="0">
-        <v>33.34261696393898</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D369" s="0">
         <v>49.999999999999986</v>
@@ -14510,7 +14586,7 @@
         <v>40</v>
       </c>
       <c r="L369" s="0">
-        <v>429.87</v>
+        <v>412.13999999999999</v>
       </c>
     </row>
     <row r="370">
@@ -14548,7 +14624,7 @@
         <v>100</v>
       </c>
       <c r="L370" s="0">
-        <v>507.28000000000009</v>
+        <v>504.10000000000014</v>
       </c>
     </row>
     <row r="371">
@@ -14559,7 +14635,7 @@
         <v>55</v>
       </c>
       <c r="C371" s="0">
-        <v>33.34261696393898</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D371" s="0">
         <v>49.999999999999986</v>
@@ -14586,7 +14662,7 @@
         <v>40</v>
       </c>
       <c r="L371" s="0">
-        <v>431.46000000000015</v>
+        <v>413.72000000000003</v>
       </c>
     </row>
     <row r="372">
@@ -14624,7 +14700,7 @@
         <v>100</v>
       </c>
       <c r="L372" s="0">
-        <v>508.60000000000002</v>
+        <v>505.35000000000002</v>
       </c>
     </row>
     <row r="373">
@@ -14635,7 +14711,7 @@
         <v>55</v>
       </c>
       <c r="C373" s="0">
-        <v>33.34261696393898</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D373" s="0">
         <v>49.999999999999986</v>
@@ -14662,7 +14738,7 @@
         <v>40</v>
       </c>
       <c r="L373" s="0">
-        <v>433.05000000000007</v>
+        <v>415.29999999999995</v>
       </c>
     </row>
     <row r="374">
@@ -14700,7 +14776,7 @@
         <v>100</v>
       </c>
       <c r="L374" s="0">
-        <v>509.92000000000007</v>
+        <v>506.60000000000002</v>
       </c>
     </row>
     <row r="375">
@@ -14711,7 +14787,7 @@
         <v>55</v>
       </c>
       <c r="C375" s="0">
-        <v>33.34261696393898</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D375" s="0">
         <v>49.999999999999986</v>
@@ -14738,7 +14814,7 @@
         <v>40</v>
       </c>
       <c r="L375" s="0">
-        <v>434.63999999999999</v>
+        <v>416.88</v>
       </c>
     </row>
     <row r="376">
@@ -14776,7 +14852,7 @@
         <v>100</v>
       </c>
       <c r="L376" s="0">
-        <v>507.24000000000001</v>
+        <v>507.85000000000002</v>
       </c>
     </row>
     <row r="377">
@@ -14787,7 +14863,7 @@
         <v>55</v>
       </c>
       <c r="C377" s="0">
-        <v>35.303947373582446</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D377" s="0">
         <v>49.999999999999986</v>
@@ -14814,7 +14890,7 @@
         <v>40</v>
       </c>
       <c r="L377" s="0">
-        <v>436.23000000000002</v>
+        <v>418.46000000000004</v>
       </c>
     </row>
     <row r="378">
@@ -14852,7 +14928,7 @@
         <v>100</v>
       </c>
       <c r="L378" s="0">
-        <v>508.55999999999995</v>
+        <v>509.10000000000002</v>
       </c>
     </row>
     <row r="379">
@@ -14863,7 +14939,7 @@
         <v>55</v>
       </c>
       <c r="C379" s="0">
-        <v>35.303947373582446</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D379" s="0">
         <v>49.999999999999986</v>
@@ -14890,7 +14966,7 @@
         <v>40</v>
       </c>
       <c r="L379" s="0">
-        <v>437.81999999999994</v>
+        <v>420.03999999999996</v>
       </c>
     </row>
     <row r="380">
@@ -14928,7 +15004,7 @@
         <v>100</v>
       </c>
       <c r="L380" s="0">
-        <v>509.88000000000011</v>
+        <v>510.35000000000014</v>
       </c>
     </row>
     <row r="381">
@@ -14939,7 +15015,7 @@
         <v>55</v>
       </c>
       <c r="C381" s="0">
-        <v>35.303947373582446</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D381" s="0">
         <v>49.999999999999986</v>
@@ -14966,7 +15042,7 @@
         <v>40</v>
       </c>
       <c r="L381" s="0">
-        <v>439.41000000000008</v>
+        <v>421.62000000000012</v>
       </c>
     </row>
     <row r="382">
@@ -15004,7 +15080,7 @@
         <v>100</v>
       </c>
       <c r="L382" s="0">
-        <v>511.19999999999999</v>
+        <v>507.80000000000001</v>
       </c>
     </row>
     <row r="383">
@@ -15015,7 +15091,7 @@
         <v>55</v>
       </c>
       <c r="C383" s="0">
-        <v>35.303947373582446</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D383" s="0">
         <v>49.999999999999986</v>
@@ -15042,7 +15118,7 @@
         <v>40</v>
       </c>
       <c r="L383" s="0">
-        <v>441</v>
+        <v>423.19999999999999</v>
       </c>
     </row>
     <row r="384">
@@ -15080,7 +15156,7 @@
         <v>100</v>
       </c>
       <c r="L384" s="0">
-        <v>512.50999999999999</v>
+        <v>509.04000000000013</v>
       </c>
     </row>
     <row r="385">
@@ -15091,7 +15167,7 @@
         <v>55</v>
       </c>
       <c r="C385" s="0">
-        <v>35.303947373582446</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D385" s="0">
         <v>49.999999999999986</v>
@@ -15118,7 +15194,7 @@
         <v>40</v>
       </c>
       <c r="L385" s="0">
-        <v>442.55000000000007</v>
+        <v>424.72999999999996</v>
       </c>
     </row>
     <row r="386">
@@ -15156,7 +15232,7 @@
         <v>100</v>
       </c>
       <c r="L386" s="0">
-        <v>513.81999999999994</v>
+        <v>510.28000000000014</v>
       </c>
     </row>
     <row r="387">
@@ -15167,7 +15243,7 @@
         <v>55</v>
       </c>
       <c r="C387" s="0">
-        <v>35.303947373582446</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D387" s="0">
         <v>49.999999999999986</v>
@@ -15194,7 +15270,7 @@
         <v>40</v>
       </c>
       <c r="L387" s="0">
-        <v>444.10000000000002</v>
+        <v>426.25999999999993</v>
       </c>
     </row>
     <row r="388">
@@ -15232,7 +15308,7 @@
         <v>100</v>
       </c>
       <c r="L388" s="0">
-        <v>515.12999999999988</v>
+        <v>511.52000000000004</v>
       </c>
     </row>
     <row r="389">
@@ -15243,7 +15319,7 @@
         <v>55</v>
       </c>
       <c r="C389" s="0">
-        <v>35.303947373582446</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D389" s="0">
         <v>49.999999999999986</v>
@@ -15270,7 +15346,7 @@
         <v>40</v>
       </c>
       <c r="L389" s="0">
-        <v>445.64999999999998</v>
+        <v>427.78999999999991</v>
       </c>
     </row>
     <row r="390">
@@ -15308,7 +15384,7 @@
         <v>100</v>
       </c>
       <c r="L390" s="0">
-        <v>516.44000000000005</v>
+        <v>512.76000000000022</v>
       </c>
     </row>
     <row r="391">
@@ -15319,7 +15395,7 @@
         <v>55</v>
       </c>
       <c r="C391" s="0">
-        <v>35.303947373582446</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D391" s="0">
         <v>49.999999999999986</v>
@@ -15346,7 +15422,7 @@
         <v>40</v>
       </c>
       <c r="L391" s="0">
-        <v>447.20000000000005</v>
+        <v>429.31999999999999</v>
       </c>
     </row>
     <row r="392">
@@ -15384,7 +15460,7 @@
         <v>100</v>
       </c>
       <c r="L392" s="0">
-        <v>513.95000000000005</v>
+        <v>514</v>
       </c>
     </row>
     <row r="393">
@@ -15395,7 +15471,7 @@
         <v>55</v>
       </c>
       <c r="C393" s="0">
-        <v>37.265277783225912</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D393" s="0">
         <v>49.999999999999986</v>
@@ -15422,7 +15498,7 @@
         <v>40</v>
       </c>
       <c r="L393" s="0">
-        <v>448.75</v>
+        <v>430.84999999999997</v>
       </c>
     </row>
     <row r="394">
@@ -15460,7 +15536,7 @@
         <v>100</v>
       </c>
       <c r="L394" s="0">
-        <v>515.27999999999997</v>
+        <v>515.24000000000001</v>
       </c>
     </row>
     <row r="395">
@@ -15471,7 +15547,7 @@
         <v>55</v>
       </c>
       <c r="C395" s="0">
-        <v>37.265277783225912</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D395" s="0">
         <v>49.999999999999986</v>
@@ -15498,7 +15574,7 @@
         <v>40</v>
       </c>
       <c r="L395" s="0">
-        <v>450.30000000000007</v>
+        <v>432.37999999999994</v>
       </c>
     </row>
     <row r="396">
@@ -15536,7 +15612,7 @@
         <v>100</v>
       </c>
       <c r="L396" s="0">
-        <v>516.6099999999999</v>
+        <v>516.48000000000002</v>
       </c>
     </row>
     <row r="397">
@@ -15547,7 +15623,7 @@
         <v>55</v>
       </c>
       <c r="C397" s="0">
-        <v>37.265277783225912</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D397" s="0">
         <v>49.999999999999986</v>
@@ -15574,7 +15650,7 @@
         <v>40</v>
       </c>
       <c r="L397" s="0">
-        <v>451.85000000000002</v>
+        <v>433.91000000000003</v>
       </c>
     </row>
     <row r="398">
@@ -15612,7 +15688,7 @@
         <v>100</v>
       </c>
       <c r="L398" s="0">
-        <v>517.93999999999983</v>
+        <v>517.72000000000003</v>
       </c>
     </row>
     <row r="399">
@@ -15623,7 +15699,7 @@
         <v>55</v>
       </c>
       <c r="C399" s="0">
-        <v>37.265277783225912</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D399" s="0">
         <v>49.999999999999986</v>
@@ -15650,7 +15726,7 @@
         <v>40</v>
       </c>
       <c r="L399" s="0">
-        <v>453.39999999999998</v>
+        <v>435.43999999999988</v>
       </c>
     </row>
     <row r="400">
@@ -15688,7 +15764,7 @@
         <v>100</v>
       </c>
       <c r="L400" s="0">
-        <v>519.26999999999998</v>
+        <v>515.15000000000009</v>
       </c>
     </row>
     <row r="401">
@@ -15699,7 +15775,7 @@
         <v>55</v>
       </c>
       <c r="C401" s="0">
-        <v>37.265277783225912</v>
+        <v>29.419956144652037</v>
       </c>
       <c r="D401" s="0">
         <v>49.999999999999986</v>
@@ -15726,7 +15802,7 @@
         <v>40</v>
       </c>
       <c r="L401" s="0">
-        <v>454.95000000000005</v>
+        <v>436.97000000000008</v>
       </c>
     </row>
     <row r="402">
@@ -15764,7 +15840,7 @@
         <v>100</v>
       </c>
       <c r="L402" s="0">
-        <v>520.60000000000002</v>
+        <v>516.39999999999998</v>
       </c>
     </row>
     <row r="403">
@@ -15775,7 +15851,7 @@
         <v>55</v>
       </c>
       <c r="C403" s="0">
-        <v>37.265277783225912</v>
+        <v>29.419956144652037</v>
       </c>
       <c r="D403" s="0">
         <v>49.999999999999986</v>
@@ -15802,7 +15878,7 @@
         <v>40</v>
       </c>
       <c r="L403" s="0">
-        <v>456.5</v>
+        <v>438.5</v>
       </c>
     </row>
   </sheetData>

--- a/Tabelas/TabelaLimitesDinamicos.xlsx
+++ b/Tabelas/TabelaLimitesDinamicos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Frequencia</t>
   </si>
@@ -226,6 +226,42 @@
   </si>
   <si>
     <t>ProductionSurfaceTemperature</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
   </si>
   <si>
     <t>VazaoOleo</t>
@@ -501,7 +537,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -522,11 +558,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -541,6 +578,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,40 +607,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
@@ -613,7 +651,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="0">
-        <v>33.34261696393898</v>
+        <v>34.323282168760713</v>
       </c>
       <c r="D2" s="0">
         <v>150</v>
@@ -678,7 +716,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="0">
-        <v>199.5</v>
+        <v>194.04999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -689,7 +727,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="0">
-        <v>33.34261696393898</v>
+        <v>34.323282168760713</v>
       </c>
       <c r="D4" s="0">
         <v>150</v>
@@ -754,7 +792,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="0">
-        <v>201.67000000000007</v>
+        <v>196.27499999999998</v>
       </c>
     </row>
     <row r="6">
@@ -765,7 +803,7 @@
         <v>110</v>
       </c>
       <c r="C6" s="0">
-        <v>33.34261696393898</v>
+        <v>34.813614771171579</v>
       </c>
       <c r="D6" s="0">
         <v>150</v>
@@ -830,7 +868,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="0">
-        <v>203.84000000000003</v>
+        <v>195.83000000000004</v>
       </c>
     </row>
     <row r="8">
@@ -993,7 +1031,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="0">
-        <v>35.303947373582446</v>
+        <v>35.794279975993312</v>
       </c>
       <c r="D12" s="0">
         <v>150</v>
@@ -1058,7 +1096,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="0">
-        <v>200</v>
+        <v>197.28749999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1069,7 +1107,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="0">
-        <v>35.303947373582446</v>
+        <v>36.284612578404179</v>
       </c>
       <c r="D14" s="0">
         <v>150</v>
@@ -1134,7 +1172,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="0">
-        <v>202.28000000000009</v>
+        <v>196.91999999999996</v>
       </c>
     </row>
     <row r="16">
@@ -1145,7 +1183,7 @@
         <v>110</v>
       </c>
       <c r="C16" s="0">
-        <v>35.303947373582446</v>
+        <v>36.284612578404179</v>
       </c>
       <c r="D16" s="0">
         <v>150</v>
@@ -1172,7 +1210,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="0">
-        <v>314.16000000000008</v>
+        <v>314.15999999999997</v>
       </c>
     </row>
     <row r="17">
@@ -1210,7 +1248,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="0">
-        <v>204.56000000000006</v>
+        <v>199.26499999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1221,7 +1259,7 @@
         <v>110</v>
       </c>
       <c r="C18" s="0">
-        <v>35.303947373582446</v>
+        <v>36.774945180815045</v>
       </c>
       <c r="D18" s="0">
         <v>150</v>
@@ -1248,7 +1286,7 @@
         <v>100</v>
       </c>
       <c r="L18" s="0">
-        <v>315.53999999999996</v>
+        <v>315.53999999999985</v>
       </c>
     </row>
     <row r="19">
@@ -1286,7 +1324,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="0">
-        <v>206.83999999999992</v>
+        <v>198.99499999999989</v>
       </c>
     </row>
     <row r="20">
@@ -1449,7 +1487,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="0">
-        <v>37.265277783225912</v>
+        <v>37.755610385636786</v>
       </c>
       <c r="D24" s="0">
         <v>150</v>
@@ -1476,7 +1514,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="0">
-        <v>319.66000000000014</v>
+        <v>319.66000000000003</v>
       </c>
     </row>
     <row r="25">
@@ -1514,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="0">
-        <v>203.40000000000009</v>
+        <v>200.77750000000003</v>
       </c>
     </row>
     <row r="26">
@@ -1525,7 +1563,7 @@
         <v>110</v>
       </c>
       <c r="C26" s="0">
-        <v>37.265277783225912</v>
+        <v>38.245942988047652</v>
       </c>
       <c r="D26" s="0">
         <v>150</v>
@@ -1552,7 +1590,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="0">
-        <v>321.02000000000015</v>
+        <v>321.02000000000004</v>
       </c>
     </row>
     <row r="27">
@@ -1590,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="0">
-        <v>205.60000000000014</v>
+        <v>200.4100000000002</v>
       </c>
     </row>
     <row r="28">
@@ -1601,7 +1639,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="0">
-        <v>37.265277783225912</v>
+        <v>38.736275590458519</v>
       </c>
       <c r="D28" s="0">
         <v>150</v>
@@ -1666,7 +1704,7 @@
         <v>40</v>
       </c>
       <c r="L29" s="0">
-        <v>207.79999999999995</v>
+        <v>200.09749999999997</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1715,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="0">
-        <v>37.265277783225912</v>
+        <v>38.736275590458519</v>
       </c>
       <c r="D30" s="0">
         <v>150</v>
@@ -1742,7 +1780,7 @@
         <v>40</v>
       </c>
       <c r="L31" s="0">
-        <v>210</v>
+        <v>202.38</v>
       </c>
     </row>
     <row r="32">
@@ -1829,7 +1867,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="0">
-        <v>39.226608192869385</v>
+        <v>39.716940795280252</v>
       </c>
       <c r="D34" s="0">
         <v>150</v>
@@ -1894,7 +1932,7 @@
         <v>40</v>
       </c>
       <c r="L35" s="0">
-        <v>204.46000000000004</v>
+        <v>201.82999999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1905,7 +1943,7 @@
         <v>110</v>
       </c>
       <c r="C36" s="0">
-        <v>39.226608192869385</v>
+        <v>39.716940795280252</v>
       </c>
       <c r="D36" s="0">
         <v>150</v>
@@ -1970,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="L37" s="0">
-        <v>206.7700000000001</v>
+        <v>204.17250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1981,7 +2019,7 @@
         <v>110</v>
       </c>
       <c r="C38" s="0">
-        <v>39.226608192869385</v>
+        <v>40.207273397691118</v>
       </c>
       <c r="D38" s="0">
         <v>150</v>
@@ -2046,7 +2084,7 @@
         <v>40</v>
       </c>
       <c r="L39" s="0">
-        <v>209.07999999999993</v>
+        <v>203.94999999999993</v>
       </c>
     </row>
     <row r="40">
@@ -2057,7 +2095,7 @@
         <v>110</v>
       </c>
       <c r="C40" s="0">
-        <v>39.226608192869385</v>
+        <v>40.697606000101985</v>
       </c>
       <c r="D40" s="0">
         <v>150</v>
@@ -2122,7 +2160,7 @@
         <v>40</v>
       </c>
       <c r="L41" s="0">
-        <v>211.38999999999999</v>
+        <v>203.79250000000002</v>
       </c>
     </row>
     <row r="42">
@@ -2274,7 +2312,7 @@
         <v>40</v>
       </c>
       <c r="L45" s="0">
-        <v>205.92999999999995</v>
+        <v>205.93000000000006</v>
       </c>
     </row>
     <row r="46">
@@ -2285,7 +2323,7 @@
         <v>110</v>
       </c>
       <c r="C46" s="0">
-        <v>41.187938602512851</v>
+        <v>41.678271204923718</v>
       </c>
       <c r="D46" s="0">
         <v>150</v>
@@ -2350,7 +2388,7 @@
         <v>40</v>
       </c>
       <c r="L47" s="0">
-        <v>208.15999999999997</v>
+        <v>205.61500000000012</v>
       </c>
     </row>
     <row r="48">
@@ -2361,7 +2399,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="0">
-        <v>41.187938602512851</v>
+        <v>42.168603807334591</v>
       </c>
       <c r="D48" s="0">
         <v>150</v>
@@ -2426,7 +2464,7 @@
         <v>40</v>
       </c>
       <c r="L49" s="0">
-        <v>210.38999999999987</v>
+        <v>205.3549999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2437,7 +2475,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="0">
-        <v>41.187938602512851</v>
+        <v>42.168603807334591</v>
       </c>
       <c r="D50" s="0">
         <v>150</v>
@@ -2502,7 +2540,7 @@
         <v>40</v>
       </c>
       <c r="L51" s="0">
-        <v>212.61999999999989</v>
+        <v>207.63999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -2513,7 +2551,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="0">
-        <v>41.187938602512851</v>
+        <v>42.658936409745458</v>
       </c>
       <c r="D52" s="0">
         <v>150</v>
@@ -2578,7 +2616,7 @@
         <v>40</v>
       </c>
       <c r="L53" s="0">
-        <v>214.84999999999991</v>
+        <v>207.46250000000001</v>
       </c>
     </row>
     <row r="54">
@@ -2616,7 +2654,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="0">
-        <v>339.94000000000005</v>
+        <v>339.93999999999994</v>
       </c>
     </row>
     <row r="55">
@@ -2665,7 +2703,7 @@
         <v>110</v>
       </c>
       <c r="C56" s="0">
-        <v>43.149269012156324</v>
+        <v>43.639601614567191</v>
       </c>
       <c r="D56" s="0">
         <v>150</v>
@@ -2692,7 +2730,7 @@
         <v>100</v>
       </c>
       <c r="L56" s="0">
-        <v>341.28000000000009</v>
+        <v>341.27999999999997</v>
       </c>
     </row>
     <row r="57">
@@ -2730,7 +2768,7 @@
         <v>40</v>
       </c>
       <c r="L57" s="0">
-        <v>209.67999999999995</v>
+        <v>207.16500000000008</v>
       </c>
     </row>
     <row r="58">
@@ -2741,7 +2779,7 @@
         <v>110</v>
       </c>
       <c r="C58" s="0">
-        <v>43.149269012156324</v>
+        <v>43.639601614567191</v>
       </c>
       <c r="D58" s="0">
         <v>150</v>
@@ -2768,7 +2806,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="0">
-        <v>342.62</v>
+        <v>342.61999999999989</v>
       </c>
     </row>
     <row r="59">
@@ -2806,7 +2844,7 @@
         <v>40</v>
       </c>
       <c r="L59" s="0">
-        <v>212.01999999999987</v>
+        <v>209.53499999999997</v>
       </c>
     </row>
     <row r="60">
@@ -2817,7 +2855,7 @@
         <v>110</v>
       </c>
       <c r="C60" s="0">
-        <v>43.149269012156324</v>
+        <v>44.129934216978057</v>
       </c>
       <c r="D60" s="0">
         <v>150</v>
@@ -2844,7 +2882,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="0">
-        <v>343.96000000000004</v>
+        <v>343.95999999999992</v>
       </c>
     </row>
     <row r="61">
@@ -2882,7 +2920,7 @@
         <v>40</v>
       </c>
       <c r="L61" s="0">
-        <v>214.3599999999999</v>
+        <v>209.44999999999993</v>
       </c>
     </row>
     <row r="62">
@@ -2893,7 +2931,7 @@
         <v>110</v>
       </c>
       <c r="C62" s="0">
-        <v>43.149269012156324</v>
+        <v>44.620266819388924</v>
       </c>
       <c r="D62" s="0">
         <v>150</v>
@@ -2958,7 +2996,7 @@
         <v>40</v>
       </c>
       <c r="L63" s="0">
-        <v>216.69999999999999</v>
+        <v>209.42500000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2996,7 +3034,7 @@
         <v>100</v>
       </c>
       <c r="L64" s="0">
-        <v>346.62999999999994</v>
+        <v>346.63000000000005</v>
       </c>
     </row>
     <row r="65">
@@ -3072,7 +3110,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="0">
-        <v>347.95999999999998</v>
+        <v>347.96000000000009</v>
       </c>
     </row>
     <row r="67">
@@ -3121,7 +3159,7 @@
         <v>110</v>
       </c>
       <c r="C68" s="0">
-        <v>45.11059942179979</v>
+        <v>45.600932024210657</v>
       </c>
       <c r="D68" s="0">
         <v>150</v>
@@ -3186,7 +3224,7 @@
         <v>40</v>
       </c>
       <c r="L69" s="0">
-        <v>213.74999999999989</v>
+        <v>211.27499999999998</v>
       </c>
     </row>
     <row r="70">
@@ -3197,7 +3235,7 @@
         <v>110</v>
       </c>
       <c r="C70" s="0">
-        <v>45.11059942179979</v>
+        <v>46.091264626621523</v>
       </c>
       <c r="D70" s="0">
         <v>150</v>
@@ -3262,7 +3300,7 @@
         <v>40</v>
       </c>
       <c r="L71" s="0">
-        <v>216</v>
+        <v>211.10000000000002</v>
       </c>
     </row>
     <row r="72">
@@ -3273,7 +3311,7 @@
         <v>110</v>
       </c>
       <c r="C72" s="0">
-        <v>45.11059942179979</v>
+        <v>46.581597229032397</v>
       </c>
       <c r="D72" s="0">
         <v>150</v>
@@ -3338,7 +3376,7 @@
         <v>40</v>
       </c>
       <c r="L73" s="0">
-        <v>218.25</v>
+        <v>210.97500000000002</v>
       </c>
     </row>
     <row r="74">
@@ -3349,7 +3387,7 @@
         <v>110</v>
       </c>
       <c r="C74" s="0">
-        <v>45.11059942179979</v>
+        <v>46.581597229032397</v>
       </c>
       <c r="D74" s="0">
         <v>150</v>
@@ -3414,7 +3452,7 @@
         <v>40</v>
       </c>
       <c r="L75" s="0">
-        <v>220.5</v>
+        <v>213.30000000000007</v>
       </c>
     </row>
     <row r="76">
@@ -3452,7 +3490,7 @@
         <v>100</v>
       </c>
       <c r="L76" s="0">
-        <v>354.60999999999996</v>
+        <v>354.61000000000007</v>
       </c>
     </row>
     <row r="77">
@@ -3501,7 +3539,7 @@
         <v>110</v>
       </c>
       <c r="C78" s="0">
-        <v>47.071929831443263</v>
+        <v>47.56226243385413</v>
       </c>
       <c r="D78" s="0">
         <v>150</v>
@@ -3528,7 +3566,7 @@
         <v>100</v>
       </c>
       <c r="L78" s="0">
-        <v>355.93999999999988</v>
+        <v>355.94</v>
       </c>
     </row>
     <row r="79">
@@ -3566,7 +3604,7 @@
         <v>40</v>
       </c>
       <c r="L79" s="0">
-        <v>215.59999999999991</v>
+        <v>213.19000000000017</v>
       </c>
     </row>
     <row r="80">
@@ -3577,7 +3615,7 @@
         <v>110</v>
       </c>
       <c r="C80" s="0">
-        <v>47.071929831443263</v>
+        <v>48.052595036264997</v>
       </c>
       <c r="D80" s="0">
         <v>150</v>
@@ -3604,7 +3642,7 @@
         <v>100</v>
       </c>
       <c r="L80" s="0">
-        <v>357.26999999999992</v>
+        <v>357.27000000000004</v>
       </c>
     </row>
     <row r="81">
@@ -3642,7 +3680,7 @@
         <v>40</v>
       </c>
       <c r="L81" s="0">
-        <v>217.94999999999982</v>
+        <v>213.18999999999983</v>
       </c>
     </row>
     <row r="82">
@@ -3653,7 +3691,7 @@
         <v>110</v>
       </c>
       <c r="C82" s="0">
-        <v>47.071929831443263</v>
+        <v>48.542927638675863</v>
       </c>
       <c r="D82" s="0">
         <v>150</v>
@@ -3718,7 +3756,7 @@
         <v>40</v>
       </c>
       <c r="L83" s="0">
-        <v>220.30000000000001</v>
+        <v>213.25</v>
       </c>
     </row>
     <row r="84">
@@ -3729,7 +3767,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="0">
-        <v>47.071929831443263</v>
+        <v>48.542927638675863</v>
       </c>
       <c r="D84" s="0">
         <v>150</v>
@@ -3794,7 +3832,7 @@
         <v>40</v>
       </c>
       <c r="L85" s="0">
-        <v>222.48000000000013</v>
+        <v>215.49000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -3870,7 +3908,7 @@
         <v>40</v>
       </c>
       <c r="L87" s="0">
-        <v>215.42000000000007</v>
+        <v>215.41999999999996</v>
       </c>
     </row>
     <row r="88">
@@ -3881,7 +3919,7 @@
         <v>110</v>
       </c>
       <c r="C88" s="0">
-        <v>49.03326024108673</v>
+        <v>49.523592843497596</v>
       </c>
       <c r="D88" s="0">
         <v>150</v>
@@ -3946,7 +3984,7 @@
         <v>40</v>
       </c>
       <c r="L89" s="0">
-        <v>217.67999999999995</v>
+        <v>215.27999999999986</v>
       </c>
     </row>
     <row r="90">
@@ -3957,7 +3995,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="0">
-        <v>49.03326024108673</v>
+        <v>50.013925445908463</v>
       </c>
       <c r="D90" s="0">
         <v>150</v>
@@ -3984,7 +4022,7 @@
         <v>100</v>
       </c>
       <c r="L90" s="0">
-        <v>363.84000000000003</v>
+        <v>363.83999999999992</v>
       </c>
     </row>
     <row r="91">
@@ -4022,7 +4060,7 @@
         <v>40</v>
       </c>
       <c r="L91" s="0">
-        <v>219.93999999999994</v>
+        <v>215.19000000000005</v>
       </c>
     </row>
     <row r="92">
@@ -4033,7 +4071,7 @@
         <v>110</v>
       </c>
       <c r="C92" s="0">
-        <v>49.03326024108673</v>
+        <v>50.013925445908463</v>
       </c>
       <c r="D92" s="0">
         <v>150</v>
@@ -4098,7 +4136,7 @@
         <v>40</v>
       </c>
       <c r="L93" s="0">
-        <v>222.19999999999993</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="94">
@@ -4109,7 +4147,7 @@
         <v>110</v>
       </c>
       <c r="C94" s="0">
-        <v>49.03326024108673</v>
+        <v>50.504258048319336</v>
       </c>
       <c r="D94" s="0">
         <v>150</v>
@@ -4174,7 +4212,7 @@
         <v>40</v>
       </c>
       <c r="L95" s="0">
-        <v>224.46000000000004</v>
+        <v>217.48500000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4212,7 +4250,7 @@
         <v>100</v>
       </c>
       <c r="L96" s="0">
-        <v>367.76999999999998</v>
+        <v>367.7700000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4261,7 +4299,7 @@
         <v>110</v>
       </c>
       <c r="C98" s="0">
-        <v>50.994590650730203</v>
+        <v>51.484923253141069</v>
       </c>
       <c r="D98" s="0">
         <v>150</v>
@@ -4288,7 +4326,7 @@
         <v>100</v>
       </c>
       <c r="L98" s="0">
-        <v>369.07999999999993</v>
+        <v>369.08000000000004</v>
       </c>
     </row>
     <row r="99">
@@ -4326,7 +4364,7 @@
         <v>40</v>
       </c>
       <c r="L99" s="0">
-        <v>219.88000000000011</v>
+        <v>217.52499999999986</v>
       </c>
     </row>
     <row r="100">
@@ -4337,7 +4375,7 @@
         <v>110</v>
       </c>
       <c r="C100" s="0">
-        <v>50.994590650730203</v>
+        <v>51.975255855551936</v>
       </c>
       <c r="D100" s="0">
         <v>150</v>
@@ -4402,7 +4440,7 @@
         <v>40</v>
       </c>
       <c r="L101" s="0">
-        <v>222.24000000000001</v>
+        <v>217.58500000000004</v>
       </c>
     </row>
     <row r="102">
@@ -4413,7 +4451,7 @@
         <v>110</v>
       </c>
       <c r="C102" s="0">
-        <v>50.994590650730203</v>
+        <v>51.975255855551936</v>
       </c>
       <c r="D102" s="0">
         <v>150</v>
@@ -4478,7 +4516,7 @@
         <v>40</v>
       </c>
       <c r="L103" s="0">
-        <v>224.59999999999999</v>
+        <v>220.00000000000003</v>
       </c>
     </row>
     <row r="104">
@@ -4489,7 +4527,7 @@
         <v>110</v>
       </c>
       <c r="C104" s="0">
-        <v>50.994590650730203</v>
+        <v>52.465588457962802</v>
       </c>
       <c r="D104" s="0">
         <v>150</v>
@@ -4554,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="L105" s="0">
-        <v>226.79000000000008</v>
+        <v>219.95000000000005</v>
       </c>
     </row>
     <row r="106">
@@ -4641,7 +4679,7 @@
         <v>110</v>
       </c>
       <c r="C108" s="0">
-        <v>52.955921060373669</v>
+        <v>53.446253662784535</v>
       </c>
       <c r="D108" s="0">
         <v>150</v>
@@ -4706,7 +4744,7 @@
         <v>40</v>
       </c>
       <c r="L109" s="0">
-        <v>222.20999999999992</v>
+        <v>219.87749999999983</v>
       </c>
     </row>
     <row r="110">
@@ -4717,7 +4755,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="0">
-        <v>52.955921060373669</v>
+        <v>53.936586265195402</v>
       </c>
       <c r="D110" s="0">
         <v>150</v>
@@ -4782,7 +4820,7 @@
         <v>40</v>
       </c>
       <c r="L111" s="0">
-        <v>224.4799999999999</v>
+        <v>219.8599999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4793,7 +4831,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="0">
-        <v>52.955921060373669</v>
+        <v>53.936586265195402</v>
       </c>
       <c r="D112" s="0">
         <v>150</v>
@@ -4858,7 +4896,7 @@
         <v>40</v>
       </c>
       <c r="L113" s="0">
-        <v>226.74999999999989</v>
+        <v>222.17499999999998</v>
       </c>
     </row>
     <row r="114">
@@ -4869,7 +4907,7 @@
         <v>110</v>
       </c>
       <c r="C114" s="0">
-        <v>52.955921060373669</v>
+        <v>54.426918867606268</v>
       </c>
       <c r="D114" s="0">
         <v>150</v>
@@ -4896,7 +4934,7 @@
         <v>100</v>
       </c>
       <c r="L114" s="0">
-        <v>379.44</v>
+        <v>379.43999999999988</v>
       </c>
     </row>
     <row r="115">
@@ -4934,7 +4972,7 @@
         <v>40</v>
       </c>
       <c r="L115" s="0">
-        <v>229.01999999999987</v>
+        <v>222.22499999999991</v>
       </c>
     </row>
     <row r="116">
@@ -5021,7 +5059,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="0">
-        <v>54.917251470017142</v>
+        <v>55.407584072428008</v>
       </c>
       <c r="D118" s="0">
         <v>150</v>
@@ -5086,7 +5124,7 @@
         <v>40</v>
       </c>
       <c r="L119" s="0">
-        <v>224.67999999999984</v>
+        <v>222.38</v>
       </c>
     </row>
     <row r="120">
@@ -5097,7 +5135,7 @@
         <v>110</v>
       </c>
       <c r="C120" s="0">
-        <v>54.917251470017142</v>
+        <v>55.897916674838875</v>
       </c>
       <c r="D120" s="0">
         <v>150</v>
@@ -5162,7 +5200,7 @@
         <v>40</v>
       </c>
       <c r="L121" s="0">
-        <v>227.03999999999996</v>
+        <v>222.49000000000012</v>
       </c>
     </row>
     <row r="122">
@@ -5173,7 +5211,7 @@
         <v>110</v>
       </c>
       <c r="C122" s="0">
-        <v>54.917251470017142</v>
+        <v>56.388249277249741</v>
       </c>
       <c r="D122" s="0">
         <v>150</v>
@@ -5238,7 +5276,7 @@
         <v>40</v>
       </c>
       <c r="L123" s="0">
-        <v>229.40000000000001</v>
+        <v>222.64999999999998</v>
       </c>
     </row>
     <row r="124">
@@ -5249,7 +5287,7 @@
         <v>110</v>
       </c>
       <c r="C124" s="0">
-        <v>54.917251470017142</v>
+        <v>56.388249277249741</v>
       </c>
       <c r="D124" s="0">
         <v>150</v>
@@ -5314,7 +5352,7 @@
         <v>40</v>
       </c>
       <c r="L125" s="0">
-        <v>231.58999999999992</v>
+        <v>224.89999999999998</v>
       </c>
     </row>
     <row r="126">
@@ -5401,7 +5439,7 @@
         <v>110</v>
       </c>
       <c r="C128" s="0">
-        <v>56.878581879660608</v>
+        <v>57.368914482071474</v>
       </c>
       <c r="D128" s="0">
         <v>150</v>
@@ -5466,7 +5504,7 @@
         <v>40</v>
       </c>
       <c r="L129" s="0">
-        <v>227.20999999999992</v>
+        <v>224.9525000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5477,7 +5515,7 @@
         <v>110</v>
       </c>
       <c r="C130" s="0">
-        <v>56.878581879660608</v>
+        <v>57.859247084482341</v>
       </c>
       <c r="D130" s="0">
         <v>150</v>
@@ -5542,7 +5580,7 @@
         <v>40</v>
       </c>
       <c r="L131" s="0">
-        <v>229.48000000000013</v>
+        <v>225.00999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5553,7 +5591,7 @@
         <v>110</v>
       </c>
       <c r="C132" s="0">
-        <v>56.878581879660608</v>
+        <v>58.349579686893208</v>
       </c>
       <c r="D132" s="0">
         <v>150</v>
@@ -5618,7 +5656,7 @@
         <v>40</v>
       </c>
       <c r="L133" s="0">
-        <v>231.75000000000011</v>
+        <v>225.11249999999998</v>
       </c>
     </row>
     <row r="134">
@@ -5629,7 +5667,7 @@
         <v>110</v>
       </c>
       <c r="C134" s="0">
-        <v>56.878581879660608</v>
+        <v>58.349579686893208</v>
       </c>
       <c r="D134" s="0">
         <v>150</v>
@@ -5694,7 +5732,7 @@
         <v>40</v>
       </c>
       <c r="L135" s="0">
-        <v>234.0200000000001</v>
+        <v>227.45000000000005</v>
       </c>
     </row>
     <row r="136">
@@ -5770,7 +5808,7 @@
         <v>40</v>
       </c>
       <c r="L137" s="0">
-        <v>227.62000000000023</v>
+        <v>227.62</v>
       </c>
     </row>
     <row r="138">
@@ -5781,7 +5819,7 @@
         <v>110</v>
       </c>
       <c r="C138" s="0">
-        <v>58.839912289304074</v>
+        <v>59.330244891714948</v>
       </c>
       <c r="D138" s="0">
         <v>150</v>
@@ -5846,7 +5884,7 @@
         <v>40</v>
       </c>
       <c r="L139" s="0">
-        <v>229.9799999999999</v>
+        <v>227.75499999999977</v>
       </c>
     </row>
     <row r="140">
@@ -5857,7 +5895,7 @@
         <v>110</v>
       </c>
       <c r="C140" s="0">
-        <v>58.839912289304074</v>
+        <v>59.820577494125814</v>
       </c>
       <c r="D140" s="0">
         <v>150</v>
@@ -5922,7 +5960,7 @@
         <v>40</v>
       </c>
       <c r="L141" s="0">
-        <v>232.34000000000003</v>
+        <v>227.93999999999983</v>
       </c>
     </row>
     <row r="142">
@@ -5933,7 +5971,7 @@
         <v>110</v>
       </c>
       <c r="C142" s="0">
-        <v>58.839912289304074</v>
+        <v>60.310910096536681</v>
       </c>
       <c r="D142" s="0">
         <v>150</v>
@@ -5998,7 +6036,7 @@
         <v>40</v>
       </c>
       <c r="L143" s="0">
-        <v>234.69999999999999</v>
+        <v>228.17500000000001</v>
       </c>
     </row>
     <row r="144">
@@ -6085,7 +6123,7 @@
         <v>110</v>
       </c>
       <c r="C146" s="0">
-        <v>60.801242698947547</v>
+        <v>61.291575301358414</v>
       </c>
       <c r="D146" s="0">
         <v>150</v>
@@ -6150,7 +6188,7 @@
         <v>40</v>
       </c>
       <c r="L147" s="0">
-        <v>230.54000000000019</v>
+        <v>228.31000000000017</v>
       </c>
     </row>
     <row r="148">
@@ -6161,7 +6199,7 @@
         <v>110</v>
       </c>
       <c r="C148" s="0">
-        <v>60.801242698947547</v>
+        <v>61.291575301358414</v>
       </c>
       <c r="D148" s="0">
         <v>150</v>
@@ -6226,7 +6264,7 @@
         <v>40</v>
       </c>
       <c r="L149" s="0">
-        <v>232.80999999999995</v>
+        <v>230.60249999999996</v>
       </c>
     </row>
     <row r="150">
@@ -6237,7 +6275,7 @@
         <v>110</v>
       </c>
       <c r="C150" s="0">
-        <v>60.801242698947547</v>
+        <v>61.78190790376928</v>
       </c>
       <c r="D150" s="0">
         <v>150</v>
@@ -6264,7 +6302,7 @@
         <v>100</v>
       </c>
       <c r="L150" s="0">
-        <v>402.43999999999994</v>
+        <v>402.44000000000005</v>
       </c>
     </row>
     <row r="151">
@@ -6302,7 +6340,7 @@
         <v>40</v>
       </c>
       <c r="L151" s="0">
-        <v>235.07999999999993</v>
+        <v>230.71000000000004</v>
       </c>
     </row>
     <row r="152">
@@ -6313,7 +6351,7 @@
         <v>110</v>
       </c>
       <c r="C152" s="0">
-        <v>60.801242698947547</v>
+        <v>62.272240506180147</v>
       </c>
       <c r="D152" s="0">
         <v>150</v>
@@ -6378,7 +6416,7 @@
         <v>40</v>
       </c>
       <c r="L153" s="0">
-        <v>237.35000000000014</v>
+        <v>230.86250000000001</v>
       </c>
     </row>
     <row r="154">
@@ -6454,7 +6492,7 @@
         <v>40</v>
       </c>
       <c r="L155" s="0">
-        <v>231.05999999999983</v>
+        <v>231.06000000000006</v>
       </c>
     </row>
     <row r="156">
@@ -6465,7 +6503,7 @@
         <v>110</v>
       </c>
       <c r="C156" s="0">
-        <v>62.762573108591013</v>
+        <v>63.25290571100188</v>
       </c>
       <c r="D156" s="0">
         <v>150</v>
@@ -6530,7 +6568,7 @@
         <v>40</v>
       </c>
       <c r="L157" s="0">
-        <v>233.41999999999996</v>
+        <v>231.22749999999985</v>
       </c>
     </row>
     <row r="158">
@@ -6541,7 +6579,7 @@
         <v>110</v>
       </c>
       <c r="C158" s="0">
-        <v>62.762573108591013</v>
+        <v>63.743238313412753</v>
       </c>
       <c r="D158" s="0">
         <v>150</v>
@@ -6568,7 +6606,7 @@
         <v>100</v>
       </c>
       <c r="L158" s="0">
-        <v>407.4799999999999</v>
+        <v>407.48000000000002</v>
       </c>
     </row>
     <row r="159">
@@ -6606,7 +6644,7 @@
         <v>40</v>
       </c>
       <c r="L159" s="0">
-        <v>235.77999999999986</v>
+        <v>231.43999999999994</v>
       </c>
     </row>
     <row r="160">
@@ -6617,7 +6655,7 @@
         <v>110</v>
       </c>
       <c r="C160" s="0">
-        <v>62.762573108591013</v>
+        <v>64.23357091582362</v>
       </c>
       <c r="D160" s="0">
         <v>150</v>
@@ -6682,7 +6720,7 @@
         <v>40</v>
       </c>
       <c r="L161" s="0">
-        <v>238.13999999999976</v>
+        <v>231.69749999999999</v>
       </c>
     </row>
     <row r="162">
@@ -6693,7 +6731,7 @@
         <v>110</v>
       </c>
       <c r="C162" s="0">
-        <v>62.762573108591013</v>
+        <v>64.23357091582362</v>
       </c>
       <c r="D162" s="0">
         <v>150</v>
@@ -6758,7 +6796,7 @@
         <v>40</v>
       </c>
       <c r="L163" s="0">
-        <v>240.5</v>
+        <v>234.125</v>
       </c>
     </row>
     <row r="164">
@@ -6845,7 +6883,7 @@
         <v>110</v>
       </c>
       <c r="C166" s="0">
-        <v>64.723903518234479</v>
+        <v>65</v>
       </c>
       <c r="D166" s="0">
         <v>150</v>
@@ -6872,7 +6910,7 @@
         <v>100</v>
       </c>
       <c r="L166" s="0">
-        <v>412.5200000000001</v>
+        <v>412.51999999999998</v>
       </c>
     </row>
     <row r="167">
@@ -6910,7 +6948,7 @@
         <v>40</v>
       </c>
       <c r="L167" s="0">
-        <v>236.51999999999998</v>
+        <v>234.36000000000013</v>
       </c>
     </row>
     <row r="168">
@@ -6921,7 +6959,7 @@
         <v>110</v>
       </c>
       <c r="C168" s="0">
-        <v>64.723903518234479</v>
+        <v>65</v>
       </c>
       <c r="D168" s="0">
         <v>150</v>
@@ -6986,7 +7024,7 @@
         <v>40</v>
       </c>
       <c r="L169" s="0">
-        <v>238.77999999999997</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="170">
@@ -6997,7 +7035,7 @@
         <v>110</v>
       </c>
       <c r="C170" s="0">
-        <v>64.723903518234479</v>
+        <v>65</v>
       </c>
       <c r="D170" s="0">
         <v>150</v>
@@ -7062,7 +7100,7 @@
         <v>40</v>
       </c>
       <c r="L171" s="0">
-        <v>241.03999999999996</v>
+        <v>234.67999999999984</v>
       </c>
     </row>
     <row r="172">
@@ -7176,7 +7214,7 @@
         <v>100</v>
       </c>
       <c r="L174" s="0">
-        <v>417.56000000000006</v>
+        <v>417.55999999999995</v>
       </c>
     </row>
     <row r="175">
@@ -7214,7 +7252,7 @@
         <v>40</v>
       </c>
       <c r="L175" s="0">
-        <v>237.24000000000001</v>
+        <v>235.09999999999991</v>
       </c>
     </row>
     <row r="176">
@@ -7290,7 +7328,7 @@
         <v>40</v>
       </c>
       <c r="L177" s="0">
-        <v>239.58000000000015</v>
+        <v>237.46250000000009</v>
       </c>
     </row>
     <row r="178">
@@ -7366,7 +7404,7 @@
         <v>40</v>
       </c>
       <c r="L179" s="0">
-        <v>241.92000000000007</v>
+        <v>237.73000000000002</v>
       </c>
     </row>
     <row r="180">
@@ -7442,7 +7480,7 @@
         <v>40</v>
       </c>
       <c r="L181" s="0">
-        <v>244.25999999999999</v>
+        <v>238.0424999999999</v>
       </c>
     </row>
     <row r="182">
@@ -7594,7 +7632,7 @@
         <v>40</v>
       </c>
       <c r="L185" s="0">
-        <v>240.6600000000002</v>
+        <v>240.65999999999997</v>
       </c>
     </row>
     <row r="186">
@@ -7670,7 +7708,7 @@
         <v>40</v>
       </c>
       <c r="L187" s="0">
-        <v>242.92000000000019</v>
+        <v>242.91999999999996</v>
       </c>
     </row>
     <row r="188">
@@ -7936,7 +7974,7 @@
         <v>100</v>
       </c>
       <c r="L194" s="0">
-        <v>430.04000000000008</v>
+        <v>430.03999999999996</v>
       </c>
     </row>
     <row r="195">
@@ -8012,7 +8050,7 @@
         <v>100</v>
       </c>
       <c r="L196" s="0">
-        <v>431.28000000000009</v>
+        <v>431.27999999999997</v>
       </c>
     </row>
     <row r="197">
@@ -8202,7 +8240,7 @@
         <v>40</v>
       </c>
       <c r="L201" s="0">
-        <v>258.74000000000012</v>
+        <v>258.7399999999999</v>
       </c>
     </row>
     <row r="202">
@@ -8468,7 +8506,7 @@
         <v>100</v>
       </c>
       <c r="L208" s="0">
-        <v>438.71999999999991</v>
+        <v>438.72000000000003</v>
       </c>
     </row>
     <row r="209">
@@ -8544,7 +8582,7 @@
         <v>100</v>
       </c>
       <c r="L210" s="0">
-        <v>439.95999999999992</v>
+        <v>439.96000000000004</v>
       </c>
     </row>
     <row r="211">
@@ -8582,7 +8620,7 @@
         <v>40</v>
       </c>
       <c r="L211" s="0">
-        <v>269.44000000000005</v>
+        <v>269.43999999999983</v>
       </c>
     </row>
     <row r="212">
@@ -8734,7 +8772,7 @@
         <v>40</v>
       </c>
       <c r="L215" s="0">
-        <v>273.66000000000008</v>
+        <v>273.65999999999985</v>
       </c>
     </row>
     <row r="216">
@@ -8772,7 +8810,7 @@
         <v>100</v>
       </c>
       <c r="L216" s="0">
-        <v>439.42000000000007</v>
+        <v>442.61499999999995</v>
       </c>
     </row>
     <row r="217">
@@ -8783,7 +8821,7 @@
         <v>55</v>
       </c>
       <c r="C217" s="0">
-        <v>11.767982457860816</v>
+        <v>10.296984650628213</v>
       </c>
       <c r="D217" s="0">
         <v>49.999999999999986</v>
@@ -8848,7 +8886,7 @@
         <v>100</v>
       </c>
       <c r="L218" s="0">
-        <v>440.67999999999995</v>
+        <v>443.85999999999996</v>
       </c>
     </row>
     <row r="219">
@@ -8859,7 +8897,7 @@
         <v>55</v>
       </c>
       <c r="C219" s="0">
-        <v>11.767982457860816</v>
+        <v>10.296984650628213</v>
       </c>
       <c r="D219" s="0">
         <v>49.999999999999986</v>
@@ -8924,7 +8962,7 @@
         <v>100</v>
       </c>
       <c r="L220" s="0">
-        <v>441.93999999999994</v>
+        <v>445.10499999999996</v>
       </c>
     </row>
     <row r="221">
@@ -8935,7 +8973,7 @@
         <v>55</v>
       </c>
       <c r="C221" s="0">
-        <v>11.767982457860816</v>
+        <v>10.296984650628213</v>
       </c>
       <c r="D221" s="0">
         <v>49.999999999999986</v>
@@ -8962,7 +9000,7 @@
         <v>40</v>
       </c>
       <c r="L221" s="0">
-        <v>279.99000000000001</v>
+        <v>279.98999999999978</v>
       </c>
     </row>
     <row r="222">
@@ -9000,7 +9038,7 @@
         <v>100</v>
       </c>
       <c r="L222" s="0">
-        <v>443.19999999999999</v>
+        <v>445.29999999999995</v>
       </c>
     </row>
     <row r="223">
@@ -9011,7 +9049,7 @@
         <v>55</v>
       </c>
       <c r="C223" s="0">
-        <v>11.767982457860816</v>
+        <v>10.787317253039081</v>
       </c>
       <c r="D223" s="0">
         <v>49.999999999999986</v>
@@ -9076,7 +9114,7 @@
         <v>100</v>
       </c>
       <c r="L224" s="0">
-        <v>444.44000000000011</v>
+        <v>446.53499999999997</v>
       </c>
     </row>
     <row r="225">
@@ -9087,7 +9125,7 @@
         <v>55</v>
       </c>
       <c r="C225" s="0">
-        <v>11.767982457860816</v>
+        <v>10.787317253039081</v>
       </c>
       <c r="D225" s="0">
         <v>49.999999999999986</v>
@@ -9152,7 +9190,7 @@
         <v>100</v>
       </c>
       <c r="L226" s="0">
-        <v>445.68000000000012</v>
+        <v>447.76999999999998</v>
       </c>
     </row>
     <row r="227">
@@ -9163,7 +9201,7 @@
         <v>55</v>
       </c>
       <c r="C227" s="0">
-        <v>11.767982457860816</v>
+        <v>10.787317253039081</v>
       </c>
       <c r="D227" s="0">
         <v>49.999999999999986</v>
@@ -9228,7 +9266,7 @@
         <v>100</v>
       </c>
       <c r="L228" s="0">
-        <v>446.92000000000002</v>
+        <v>447.96249999999998</v>
       </c>
     </row>
     <row r="229">
@@ -9239,7 +9277,7 @@
         <v>55</v>
       </c>
       <c r="C229" s="0">
-        <v>11.767982457860816</v>
+        <v>11.277649855449948</v>
       </c>
       <c r="D229" s="0">
         <v>49.999999999999986</v>
@@ -9304,7 +9342,7 @@
         <v>100</v>
       </c>
       <c r="L230" s="0">
-        <v>448.16000000000003</v>
+        <v>449.19999999999993</v>
       </c>
     </row>
     <row r="231">
@@ -9315,7 +9353,7 @@
         <v>55</v>
       </c>
       <c r="C231" s="0">
-        <v>11.767982457860816</v>
+        <v>11.277649855449948</v>
       </c>
       <c r="D231" s="0">
         <v>49.999999999999986</v>
@@ -9456,7 +9494,7 @@
         <v>100</v>
       </c>
       <c r="L234" s="0">
-        <v>450.64000000000004</v>
+        <v>450.64000000000016</v>
       </c>
     </row>
     <row r="235">
@@ -9532,7 +9570,7 @@
         <v>100</v>
       </c>
       <c r="L236" s="0">
-        <v>451.88000000000005</v>
+        <v>451.88000000000017</v>
       </c>
     </row>
     <row r="237">
@@ -9608,7 +9646,7 @@
         <v>100</v>
       </c>
       <c r="L238" s="0">
-        <v>448.32000000000005</v>
+        <v>451.92000000000007</v>
       </c>
     </row>
     <row r="239">
@@ -9619,7 +9657,7 @@
         <v>55</v>
       </c>
       <c r="C239" s="0">
-        <v>13.729312867504285</v>
+        <v>12.258315060271682</v>
       </c>
       <c r="D239" s="0">
         <v>49.999999999999986</v>
@@ -9684,7 +9722,7 @@
         <v>100</v>
       </c>
       <c r="L240" s="0">
-        <v>449.56000000000006</v>
+        <v>453.16000000000008</v>
       </c>
     </row>
     <row r="241">
@@ -9695,7 +9733,7 @@
         <v>55</v>
       </c>
       <c r="C241" s="0">
-        <v>13.729312867504285</v>
+        <v>12.258315060271682</v>
       </c>
       <c r="D241" s="0">
         <v>49.999999999999986</v>
@@ -9760,7 +9798,7 @@
         <v>100</v>
       </c>
       <c r="L242" s="0">
-        <v>450.80000000000001</v>
+        <v>454.40000000000003</v>
       </c>
     </row>
     <row r="243">
@@ -9771,7 +9809,7 @@
         <v>55</v>
       </c>
       <c r="C243" s="0">
-        <v>13.729312867504285</v>
+        <v>12.258315060271682</v>
       </c>
       <c r="D243" s="0">
         <v>49.999999999999986</v>
@@ -9836,7 +9874,7 @@
         <v>100</v>
       </c>
       <c r="L244" s="0">
-        <v>452.03000000000003</v>
+        <v>454.42000000000007</v>
       </c>
     </row>
     <row r="245">
@@ -9847,7 +9885,7 @@
         <v>55</v>
       </c>
       <c r="C245" s="0">
-        <v>13.729312867504285</v>
+        <v>12.748647662682551</v>
       </c>
       <c r="D245" s="0">
         <v>49.999999999999986</v>
@@ -9912,7 +9950,7 @@
         <v>100</v>
       </c>
       <c r="L246" s="0">
-        <v>453.26000000000005</v>
+        <v>455.6400000000001</v>
       </c>
     </row>
     <row r="247">
@@ -9923,7 +9961,7 @@
         <v>55</v>
       </c>
       <c r="C247" s="0">
-        <v>13.729312867504285</v>
+        <v>12.748647662682551</v>
       </c>
       <c r="D247" s="0">
         <v>49.999999999999986</v>
@@ -9988,7 +10026,7 @@
         <v>100</v>
       </c>
       <c r="L248" s="0">
-        <v>454.48999999999995</v>
+        <v>456.8599999999999</v>
       </c>
     </row>
     <row r="249">
@@ -9999,7 +10037,7 @@
         <v>55</v>
       </c>
       <c r="C249" s="0">
-        <v>13.729312867504285</v>
+        <v>12.748647662682551</v>
       </c>
       <c r="D249" s="0">
         <v>49.999999999999986</v>
@@ -10064,7 +10102,7 @@
         <v>100</v>
       </c>
       <c r="L250" s="0">
-        <v>455.71999999999997</v>
+        <v>456.89999999999998</v>
       </c>
     </row>
     <row r="251">
@@ -10075,7 +10113,7 @@
         <v>55</v>
       </c>
       <c r="C251" s="0">
-        <v>13.729312867504285</v>
+        <v>13.238980265093417</v>
       </c>
       <c r="D251" s="0">
         <v>49.999999999999986</v>
@@ -10140,7 +10178,7 @@
         <v>100</v>
       </c>
       <c r="L252" s="0">
-        <v>456.94999999999999</v>
+        <v>458.125</v>
       </c>
     </row>
     <row r="253">
@@ -10151,7 +10189,7 @@
         <v>55</v>
       </c>
       <c r="C253" s="0">
-        <v>13.729312867504285</v>
+        <v>13.238980265093417</v>
       </c>
       <c r="D253" s="0">
         <v>49.999999999999986</v>
@@ -10216,7 +10254,7 @@
         <v>100</v>
       </c>
       <c r="L254" s="0">
-        <v>458.18000000000001</v>
+        <v>459.35000000000002</v>
       </c>
     </row>
     <row r="255">
@@ -10227,7 +10265,7 @@
         <v>55</v>
       </c>
       <c r="C255" s="0">
-        <v>13.729312867504285</v>
+        <v>13.238980265093417</v>
       </c>
       <c r="D255" s="0">
         <v>49.999999999999986</v>
@@ -10444,7 +10482,7 @@
         <v>100</v>
       </c>
       <c r="L260" s="0">
-        <v>457.05999999999995</v>
+        <v>460.66750000000013</v>
       </c>
     </row>
     <row r="261">
@@ -10455,7 +10493,7 @@
         <v>55</v>
       </c>
       <c r="C261" s="0">
-        <v>15.690643277147753</v>
+        <v>14.219645469915152</v>
       </c>
       <c r="D261" s="0">
         <v>49.999999999999986</v>
@@ -10520,7 +10558,7 @@
         <v>100</v>
       </c>
       <c r="L262" s="0">
-        <v>458.30000000000001</v>
+        <v>461.90000000000003</v>
       </c>
     </row>
     <row r="263">
@@ -10531,7 +10569,7 @@
         <v>55</v>
       </c>
       <c r="C263" s="0">
-        <v>15.690643277147753</v>
+        <v>14.219645469915152</v>
       </c>
       <c r="D263" s="0">
         <v>49.999999999999986</v>
@@ -10596,7 +10634,7 @@
         <v>100</v>
       </c>
       <c r="L264" s="0">
-        <v>459.53000000000014</v>
+        <v>463.1225</v>
       </c>
     </row>
     <row r="265">
@@ -10607,7 +10645,7 @@
         <v>55</v>
       </c>
       <c r="C265" s="0">
-        <v>15.690643277147753</v>
+        <v>14.219645469915152</v>
       </c>
       <c r="D265" s="0">
         <v>49.999999999999986</v>
@@ -10672,7 +10710,7 @@
         <v>100</v>
       </c>
       <c r="L266" s="0">
-        <v>460.76000000000016</v>
+        <v>463.15000000000009</v>
       </c>
     </row>
     <row r="267">
@@ -10683,7 +10721,7 @@
         <v>55</v>
       </c>
       <c r="C267" s="0">
-        <v>15.690643277147753</v>
+        <v>14.709978072326019</v>
       </c>
       <c r="D267" s="0">
         <v>49.999999999999986</v>
@@ -10748,7 +10786,7 @@
         <v>100</v>
       </c>
       <c r="L268" s="0">
-        <v>461.99000000000007</v>
+        <v>464.375</v>
       </c>
     </row>
     <row r="269">
@@ -10759,7 +10797,7 @@
         <v>55</v>
       </c>
       <c r="C269" s="0">
-        <v>15.690643277147753</v>
+        <v>14.709978072326019</v>
       </c>
       <c r="D269" s="0">
         <v>49.999999999999986</v>
@@ -10824,7 +10862,7 @@
         <v>100</v>
       </c>
       <c r="L270" s="0">
-        <v>463.22000000000008</v>
+        <v>465.60000000000002</v>
       </c>
     </row>
     <row r="271">
@@ -10835,7 +10873,7 @@
         <v>55</v>
       </c>
       <c r="C271" s="0">
-        <v>15.690643277147753</v>
+        <v>14.709978072326019</v>
       </c>
       <c r="D271" s="0">
         <v>49.999999999999986</v>
@@ -10900,7 +10938,7 @@
         <v>100</v>
       </c>
       <c r="L272" s="0">
-        <v>464.4500000000001</v>
+        <v>465.63750000000005</v>
       </c>
     </row>
     <row r="273">
@@ -10911,7 +10949,7 @@
         <v>55</v>
       </c>
       <c r="C273" s="0">
-        <v>15.690643277147753</v>
+        <v>15.200310674736887</v>
       </c>
       <c r="D273" s="0">
         <v>49.999999999999986</v>
@@ -10976,7 +11014,7 @@
         <v>100</v>
       </c>
       <c r="L274" s="0">
-        <v>465.68000000000012</v>
+        <v>466.86500000000012</v>
       </c>
     </row>
     <row r="275">
@@ -10987,7 +11025,7 @@
         <v>55</v>
       </c>
       <c r="C275" s="0">
-        <v>15.690643277147753</v>
+        <v>15.200310674736887</v>
       </c>
       <c r="D275" s="0">
         <v>49.999999999999986</v>
@@ -11052,7 +11090,7 @@
         <v>100</v>
       </c>
       <c r="L276" s="0">
-        <v>466.91000000000014</v>
+        <v>468.09250000000009</v>
       </c>
     </row>
     <row r="277">
@@ -11063,7 +11101,7 @@
         <v>55</v>
       </c>
       <c r="C277" s="0">
-        <v>15.690643277147753</v>
+        <v>15.200310674736887</v>
       </c>
       <c r="D277" s="0">
         <v>49.999999999999986</v>
@@ -11128,7 +11166,7 @@
         <v>100</v>
       </c>
       <c r="L278" s="0">
-        <v>468.14000000000004</v>
+        <v>468.13999999999993</v>
       </c>
     </row>
     <row r="279">
@@ -11204,7 +11242,7 @@
         <v>100</v>
       </c>
       <c r="L280" s="0">
-        <v>469.37000000000006</v>
+        <v>469.36999999999995</v>
       </c>
     </row>
     <row r="281">
@@ -11356,7 +11394,7 @@
         <v>100</v>
       </c>
       <c r="L284" s="0">
-        <v>467.34000000000003</v>
+        <v>470.70749999999998</v>
       </c>
     </row>
     <row r="285">
@@ -11367,7 +11405,7 @@
         <v>55</v>
       </c>
       <c r="C285" s="0">
-        <v>17.651973686791223</v>
+        <v>16.18097587955862</v>
       </c>
       <c r="D285" s="0">
         <v>49.999999999999986</v>
@@ -11394,7 +11432,7 @@
         <v>40</v>
       </c>
       <c r="L285" s="0">
-        <v>341.4799999999999</v>
+        <v>341.48000000000002</v>
       </c>
     </row>
     <row r="286">
@@ -11432,7 +11470,7 @@
         <v>100</v>
       </c>
       <c r="L286" s="0">
-        <v>468.58000000000004</v>
+        <v>471.94000000000005</v>
       </c>
     </row>
     <row r="287">
@@ -11443,7 +11481,7 @@
         <v>55</v>
       </c>
       <c r="C287" s="0">
-        <v>17.651973686791223</v>
+        <v>16.18097587955862</v>
       </c>
       <c r="D287" s="0">
         <v>49.999999999999986</v>
@@ -11470,7 +11508,7 @@
         <v>40</v>
       </c>
       <c r="L287" s="0">
-        <v>343.25999999999999</v>
+        <v>343.2600000000001</v>
       </c>
     </row>
     <row r="288">
@@ -11508,7 +11546,7 @@
         <v>100</v>
       </c>
       <c r="L288" s="0">
-        <v>469.81999999999994</v>
+        <v>473.17250000000001</v>
       </c>
     </row>
     <row r="289">
@@ -11519,7 +11557,7 @@
         <v>55</v>
       </c>
       <c r="C289" s="0">
-        <v>17.651973686791223</v>
+        <v>16.18097587955862</v>
       </c>
       <c r="D289" s="0">
         <v>49.999999999999986</v>
@@ -11546,7 +11584,7 @@
         <v>40</v>
       </c>
       <c r="L289" s="0">
-        <v>345.03999999999985</v>
+        <v>345.03999999999996</v>
       </c>
     </row>
     <row r="290">
@@ -11584,7 +11622,7 @@
         <v>100</v>
       </c>
       <c r="L290" s="0">
-        <v>471.05999999999995</v>
+        <v>473.28999999999996</v>
       </c>
     </row>
     <row r="291">
@@ -11595,7 +11633,7 @@
         <v>55</v>
       </c>
       <c r="C291" s="0">
-        <v>17.651973686791223</v>
+        <v>16.67130848196949</v>
       </c>
       <c r="D291" s="0">
         <v>49.999999999999986</v>
@@ -11660,7 +11698,7 @@
         <v>100</v>
       </c>
       <c r="L292" s="0">
-        <v>472.30000000000007</v>
+        <v>474.52499999999998</v>
       </c>
     </row>
     <row r="293">
@@ -11671,7 +11709,7 @@
         <v>55</v>
       </c>
       <c r="C293" s="0">
-        <v>17.651973686791223</v>
+        <v>16.67130848196949</v>
       </c>
       <c r="D293" s="0">
         <v>49.999999999999986</v>
@@ -11736,7 +11774,7 @@
         <v>100</v>
       </c>
       <c r="L294" s="0">
-        <v>473.54000000000008</v>
+        <v>475.7600000000001</v>
       </c>
     </row>
     <row r="295">
@@ -11747,7 +11785,7 @@
         <v>55</v>
       </c>
       <c r="C295" s="0">
-        <v>17.651973686791223</v>
+        <v>16.67130848196949</v>
       </c>
       <c r="D295" s="0">
         <v>49.999999999999986</v>
@@ -11812,7 +11850,7 @@
         <v>100</v>
       </c>
       <c r="L296" s="0">
-        <v>474.78000000000009</v>
+        <v>475.88750000000005</v>
       </c>
     </row>
     <row r="297">
@@ -11823,7 +11861,7 @@
         <v>55</v>
       </c>
       <c r="C297" s="0">
-        <v>17.651973686791223</v>
+        <v>17.161641084380356</v>
       </c>
       <c r="D297" s="0">
         <v>49.999999999999986</v>
@@ -11888,7 +11926,7 @@
         <v>100</v>
       </c>
       <c r="L298" s="0">
-        <v>476.01999999999998</v>
+        <v>477.125</v>
       </c>
     </row>
     <row r="299">
@@ -11899,7 +11937,7 @@
         <v>55</v>
       </c>
       <c r="C299" s="0">
-        <v>17.651973686791223</v>
+        <v>17.161641084380356</v>
       </c>
       <c r="D299" s="0">
         <v>49.999999999999986</v>
@@ -12192,7 +12230,7 @@
         <v>100</v>
       </c>
       <c r="L306" s="0">
-        <v>476.58000000000004</v>
+        <v>479.85000000000002</v>
       </c>
     </row>
     <row r="307">
@@ -12203,7 +12241,7 @@
         <v>55</v>
       </c>
       <c r="C307" s="0">
-        <v>19.613304096434693</v>
+        <v>18.142306289202089</v>
       </c>
       <c r="D307" s="0">
         <v>49.999999999999986</v>
@@ -12268,7 +12306,7 @@
         <v>100</v>
       </c>
       <c r="L308" s="0">
-        <v>477.81999999999994</v>
+        <v>481.07499999999993</v>
       </c>
     </row>
     <row r="309">
@@ -12279,7 +12317,7 @@
         <v>55</v>
       </c>
       <c r="C309" s="0">
-        <v>19.613304096434693</v>
+        <v>18.142306289202089</v>
       </c>
       <c r="D309" s="0">
         <v>49.999999999999986</v>
@@ -12344,7 +12382,7 @@
         <v>100</v>
       </c>
       <c r="L310" s="0">
-        <v>479.05999999999995</v>
+        <v>482.29999999999995</v>
       </c>
     </row>
     <row r="311">
@@ -12355,7 +12393,7 @@
         <v>55</v>
       </c>
       <c r="C311" s="0">
-        <v>19.613304096434693</v>
+        <v>18.142306289202089</v>
       </c>
       <c r="D311" s="0">
         <v>49.999999999999986</v>
@@ -12420,7 +12458,7 @@
         <v>100</v>
       </c>
       <c r="L312" s="0">
-        <v>480.29999999999995</v>
+        <v>482.45000000000005</v>
       </c>
     </row>
     <row r="313">
@@ -12431,7 +12469,7 @@
         <v>55</v>
       </c>
       <c r="C313" s="0">
-        <v>19.613304096434693</v>
+        <v>18.632638891612956</v>
       </c>
       <c r="D313" s="0">
         <v>49.999999999999986</v>
@@ -12496,7 +12534,7 @@
         <v>100</v>
       </c>
       <c r="L314" s="0">
-        <v>481.54000000000008</v>
+        <v>483.68000000000006</v>
       </c>
     </row>
     <row r="315">
@@ -12507,7 +12545,7 @@
         <v>55</v>
       </c>
       <c r="C315" s="0">
-        <v>19.613304096434693</v>
+        <v>18.632638891612956</v>
       </c>
       <c r="D315" s="0">
         <v>49.999999999999986</v>
@@ -12534,7 +12572,7 @@
         <v>40</v>
       </c>
       <c r="L315" s="0">
-        <v>367.75999999999999</v>
+        <v>367.7600000000001</v>
       </c>
     </row>
     <row r="316">
@@ -12572,7 +12610,7 @@
         <v>100</v>
       </c>
       <c r="L316" s="0">
-        <v>482.78000000000009</v>
+        <v>483.84500000000003</v>
       </c>
     </row>
     <row r="317">
@@ -12583,7 +12621,7 @@
         <v>55</v>
       </c>
       <c r="C317" s="0">
-        <v>19.613304096434693</v>
+        <v>19.122971494023826</v>
       </c>
       <c r="D317" s="0">
         <v>49.999999999999986</v>
@@ -12610,7 +12648,7 @@
         <v>40</v>
       </c>
       <c r="L317" s="0">
-        <v>369.47000000000003</v>
+        <v>369.47000000000014</v>
       </c>
     </row>
     <row r="318">
@@ -12648,7 +12686,7 @@
         <v>100</v>
       </c>
       <c r="L318" s="0">
-        <v>484.01999999999998</v>
+        <v>485.07999999999993</v>
       </c>
     </row>
     <row r="319">
@@ -12659,7 +12697,7 @@
         <v>55</v>
       </c>
       <c r="C319" s="0">
-        <v>19.613304096434693</v>
+        <v>19.122971494023826</v>
       </c>
       <c r="D319" s="0">
         <v>49.999999999999986</v>
@@ -12724,7 +12762,7 @@
         <v>100</v>
       </c>
       <c r="L320" s="0">
-        <v>485.25999999999999</v>
+        <v>486.31499999999994</v>
       </c>
     </row>
     <row r="321">
@@ -12735,7 +12773,7 @@
         <v>55</v>
       </c>
       <c r="C321" s="0">
-        <v>19.613304096434693</v>
+        <v>19.122971494023826</v>
       </c>
       <c r="D321" s="0">
         <v>49.999999999999986</v>
@@ -12952,7 +12990,7 @@
         <v>100</v>
       </c>
       <c r="L326" s="0">
-        <v>484.78000000000003</v>
+        <v>487.90000000000003</v>
       </c>
     </row>
     <row r="327">
@@ -12963,7 +13001,7 @@
         <v>55</v>
       </c>
       <c r="C327" s="0">
-        <v>21.574634506078162</v>
+        <v>20.103636698845559</v>
       </c>
       <c r="D327" s="0">
         <v>49.999999999999986</v>
@@ -13028,7 +13066,7 @@
         <v>100</v>
       </c>
       <c r="L328" s="0">
-        <v>486.01999999999992</v>
+        <v>489.12499999999994</v>
       </c>
     </row>
     <row r="329">
@@ -13039,7 +13077,7 @@
         <v>55</v>
       </c>
       <c r="C329" s="0">
-        <v>21.574634506078162</v>
+        <v>20.103636698845559</v>
       </c>
       <c r="D329" s="0">
         <v>49.999999999999986</v>
@@ -13104,7 +13142,7 @@
         <v>100</v>
       </c>
       <c r="L330" s="0">
-        <v>487.26000000000005</v>
+        <v>490.35000000000008</v>
       </c>
     </row>
     <row r="331">
@@ -13115,7 +13153,7 @@
         <v>55</v>
       </c>
       <c r="C331" s="0">
-        <v>21.574634506078162</v>
+        <v>20.103636698845559</v>
       </c>
       <c r="D331" s="0">
         <v>49.999999999999986</v>
@@ -13180,7 +13218,7 @@
         <v>100</v>
       </c>
       <c r="L332" s="0">
-        <v>488.50000000000006</v>
+        <v>490.55000000000001</v>
       </c>
     </row>
     <row r="333">
@@ -13191,7 +13229,7 @@
         <v>55</v>
       </c>
       <c r="C333" s="0">
-        <v>21.574634506078162</v>
+        <v>20.593969301256426</v>
       </c>
       <c r="D333" s="0">
         <v>49.999999999999986</v>
@@ -13256,7 +13294,7 @@
         <v>100</v>
       </c>
       <c r="L334" s="0">
-        <v>489.74000000000007</v>
+        <v>491.78000000000003</v>
       </c>
     </row>
     <row r="335">
@@ -13267,7 +13305,7 @@
         <v>55</v>
       </c>
       <c r="C335" s="0">
-        <v>21.574634506078162</v>
+        <v>20.593969301256426</v>
       </c>
       <c r="D335" s="0">
         <v>49.999999999999986</v>
@@ -13294,7 +13332,7 @@
         <v>40</v>
       </c>
       <c r="L335" s="0">
-        <v>384.62</v>
+        <v>384.62000000000012</v>
       </c>
     </row>
     <row r="336">
@@ -13332,7 +13370,7 @@
         <v>100</v>
       </c>
       <c r="L336" s="0">
-        <v>490.98000000000008</v>
+        <v>491.99500000000018</v>
       </c>
     </row>
     <row r="337">
@@ -13343,7 +13381,7 @@
         <v>55</v>
       </c>
       <c r="C337" s="0">
-        <v>21.574634506078162</v>
+        <v>21.084301903667296</v>
       </c>
       <c r="D337" s="0">
         <v>49.999999999999986</v>
@@ -13370,7 +13408,7 @@
         <v>40</v>
       </c>
       <c r="L337" s="0">
-        <v>386.29000000000008</v>
+        <v>386.29000000000019</v>
       </c>
     </row>
     <row r="338">
@@ -13408,7 +13446,7 @@
         <v>100</v>
       </c>
       <c r="L338" s="0">
-        <v>492.21999999999997</v>
+        <v>493.23000000000008</v>
       </c>
     </row>
     <row r="339">
@@ -13419,7 +13457,7 @@
         <v>55</v>
       </c>
       <c r="C339" s="0">
-        <v>21.574634506078162</v>
+        <v>21.084301903667296</v>
       </c>
       <c r="D339" s="0">
         <v>49.999999999999986</v>
@@ -13446,7 +13484,7 @@
         <v>40</v>
       </c>
       <c r="L339" s="0">
-        <v>387.95999999999992</v>
+        <v>387.96000000000004</v>
       </c>
     </row>
     <row r="340">
@@ -13484,7 +13522,7 @@
         <v>100</v>
       </c>
       <c r="L340" s="0">
-        <v>493.46000000000009</v>
+        <v>494.4650000000002</v>
       </c>
     </row>
     <row r="341">
@@ -13495,7 +13533,7 @@
         <v>55</v>
       </c>
       <c r="C341" s="0">
-        <v>21.574634506078162</v>
+        <v>21.084301903667296</v>
       </c>
       <c r="D341" s="0">
         <v>49.999999999999986</v>
@@ -13522,7 +13560,7 @@
         <v>40</v>
       </c>
       <c r="L341" s="0">
-        <v>389.63000000000011</v>
+        <v>389.63000000000022</v>
       </c>
     </row>
     <row r="342">
@@ -13636,7 +13674,7 @@
         <v>100</v>
       </c>
       <c r="L344" s="0">
-        <v>495.93000000000012</v>
+        <v>495.93000000000001</v>
       </c>
     </row>
     <row r="345">
@@ -13712,7 +13750,7 @@
         <v>100</v>
       </c>
       <c r="L346" s="0">
-        <v>493.08000000000004</v>
+        <v>496.14000000000004</v>
       </c>
     </row>
     <row r="347">
@@ -13723,7 +13761,7 @@
         <v>55</v>
       </c>
       <c r="C347" s="0">
-        <v>23.535964915721632</v>
+        <v>22.064967108489029</v>
       </c>
       <c r="D347" s="0">
         <v>49.999999999999986</v>
@@ -13788,7 +13826,7 @@
         <v>100</v>
       </c>
       <c r="L348" s="0">
-        <v>494.31999999999994</v>
+        <v>497.3725</v>
       </c>
     </row>
     <row r="349">
@@ -13799,7 +13837,7 @@
         <v>55</v>
       </c>
       <c r="C349" s="0">
-        <v>23.535964915721632</v>
+        <v>22.064967108489029</v>
       </c>
       <c r="D349" s="0">
         <v>49.999999999999986</v>
@@ -13864,7 +13902,7 @@
         <v>100</v>
       </c>
       <c r="L350" s="0">
-        <v>495.56000000000006</v>
+        <v>497.59000000000015</v>
       </c>
     </row>
     <row r="351">
@@ -13875,7 +13913,7 @@
         <v>55</v>
       </c>
       <c r="C351" s="0">
-        <v>23.535964915721632</v>
+        <v>22.555299710899895</v>
       </c>
       <c r="D351" s="0">
         <v>49.999999999999986</v>
@@ -13940,7 +13978,7 @@
         <v>100</v>
       </c>
       <c r="L352" s="0">
-        <v>496.79999999999995</v>
+        <v>498.82500000000005</v>
       </c>
     </row>
     <row r="353">
@@ -13951,7 +13989,7 @@
         <v>55</v>
       </c>
       <c r="C353" s="0">
-        <v>23.535964915721632</v>
+        <v>22.555299710899895</v>
       </c>
       <c r="D353" s="0">
         <v>49.999999999999986</v>
@@ -14016,7 +14054,7 @@
         <v>100</v>
       </c>
       <c r="L354" s="0">
-        <v>498.04000000000008</v>
+        <v>500.06000000000006</v>
       </c>
     </row>
     <row r="355">
@@ -14027,7 +14065,7 @@
         <v>55</v>
       </c>
       <c r="C355" s="0">
-        <v>23.535964915721632</v>
+        <v>22.555299710899895</v>
       </c>
       <c r="D355" s="0">
         <v>49.999999999999986</v>
@@ -14092,7 +14130,7 @@
         <v>100</v>
       </c>
       <c r="L356" s="0">
-        <v>499.28000000000009</v>
+        <v>500.28750000000002</v>
       </c>
     </row>
     <row r="357">
@@ -14103,7 +14141,7 @@
         <v>55</v>
       </c>
       <c r="C357" s="0">
-        <v>23.535964915721632</v>
+        <v>23.045632313310762</v>
       </c>
       <c r="D357" s="0">
         <v>49.999999999999986</v>
@@ -14168,7 +14206,7 @@
         <v>100</v>
       </c>
       <c r="L358" s="0">
-        <v>500.51999999999998</v>
+        <v>501.52499999999998</v>
       </c>
     </row>
     <row r="359">
@@ -14179,7 +14217,7 @@
         <v>55</v>
       </c>
       <c r="C359" s="0">
-        <v>23.535964915721632</v>
+        <v>23.045632313310762</v>
       </c>
       <c r="D359" s="0">
         <v>49.999999999999986</v>
@@ -14472,7 +14510,7 @@
         <v>100</v>
       </c>
       <c r="L366" s="0">
-        <v>501.60000000000002</v>
+        <v>504.495</v>
       </c>
     </row>
     <row r="367">
@@ -14483,7 +14521,7 @@
         <v>55</v>
       </c>
       <c r="C367" s="0">
-        <v>25.497295325365101</v>
+        <v>24.026297518132498</v>
       </c>
       <c r="D367" s="0">
         <v>49.999999999999986</v>
@@ -14548,7 +14586,7 @@
         <v>100</v>
       </c>
       <c r="L368" s="0">
-        <v>502.85000000000002</v>
+        <v>505.7299999999999</v>
       </c>
     </row>
     <row r="369">
@@ -14559,7 +14597,7 @@
         <v>55</v>
       </c>
       <c r="C369" s="0">
-        <v>25.497295325365101</v>
+        <v>24.026297518132498</v>
       </c>
       <c r="D369" s="0">
         <v>49.999999999999986</v>
@@ -14586,7 +14624,7 @@
         <v>40</v>
       </c>
       <c r="L369" s="0">
-        <v>412.13999999999999</v>
+        <v>412.13999999999987</v>
       </c>
     </row>
     <row r="370">
@@ -14624,7 +14662,7 @@
         <v>100</v>
       </c>
       <c r="L370" s="0">
-        <v>504.10000000000014</v>
+        <v>506.01000000000005</v>
       </c>
     </row>
     <row r="371">
@@ -14635,7 +14673,7 @@
         <v>55</v>
       </c>
       <c r="C371" s="0">
-        <v>25.497295325365101</v>
+        <v>24.516630120543365</v>
       </c>
       <c r="D371" s="0">
         <v>49.999999999999986</v>
@@ -14700,7 +14738,7 @@
         <v>100</v>
       </c>
       <c r="L372" s="0">
-        <v>505.35000000000002</v>
+        <v>507.25</v>
       </c>
     </row>
     <row r="373">
@@ -14711,7 +14749,7 @@
         <v>55</v>
       </c>
       <c r="C373" s="0">
-        <v>25.497295325365101</v>
+        <v>24.516630120543365</v>
       </c>
       <c r="D373" s="0">
         <v>49.999999999999986</v>
@@ -14776,7 +14814,7 @@
         <v>100</v>
       </c>
       <c r="L374" s="0">
-        <v>506.60000000000002</v>
+        <v>507.54500000000007</v>
       </c>
     </row>
     <row r="375">
@@ -14787,7 +14825,7 @@
         <v>55</v>
       </c>
       <c r="C375" s="0">
-        <v>25.497295325365101</v>
+        <v>25.006962722954231</v>
       </c>
       <c r="D375" s="0">
         <v>49.999999999999986</v>
@@ -14814,7 +14852,7 @@
         <v>40</v>
       </c>
       <c r="L375" s="0">
-        <v>416.88</v>
+        <v>416.87999999999988</v>
       </c>
     </row>
     <row r="376">
@@ -14852,7 +14890,7 @@
         <v>100</v>
       </c>
       <c r="L376" s="0">
-        <v>507.85000000000002</v>
+        <v>508.79000000000008</v>
       </c>
     </row>
     <row r="377">
@@ -14863,7 +14901,7 @@
         <v>55</v>
       </c>
       <c r="C377" s="0">
-        <v>25.497295325365101</v>
+        <v>25.006962722954231</v>
       </c>
       <c r="D377" s="0">
         <v>49.999999999999986</v>
@@ -14890,7 +14928,7 @@
         <v>40</v>
       </c>
       <c r="L377" s="0">
-        <v>418.46000000000004</v>
+        <v>418.45999999999992</v>
       </c>
     </row>
     <row r="378">
@@ -14966,7 +15004,7 @@
         <v>40</v>
       </c>
       <c r="L379" s="0">
-        <v>420.03999999999996</v>
+        <v>420.03999999999985</v>
       </c>
     </row>
     <row r="380">
@@ -15042,7 +15080,7 @@
         <v>40</v>
       </c>
       <c r="L381" s="0">
-        <v>421.62000000000012</v>
+        <v>421.62</v>
       </c>
     </row>
     <row r="382">
@@ -15080,7 +15118,7 @@
         <v>100</v>
       </c>
       <c r="L382" s="0">
-        <v>507.80000000000001</v>
+        <v>510.65000000000009</v>
       </c>
     </row>
     <row r="383">
@@ -15091,7 +15129,7 @@
         <v>55</v>
       </c>
       <c r="C383" s="0">
-        <v>27.458625735008571</v>
+        <v>25.987627927775968</v>
       </c>
       <c r="D383" s="0">
         <v>49.999999999999986</v>
@@ -15156,7 +15194,7 @@
         <v>100</v>
       </c>
       <c r="L384" s="0">
-        <v>509.04000000000013</v>
+        <v>511.88250000000005</v>
       </c>
     </row>
     <row r="385">
@@ -15167,7 +15205,7 @@
         <v>55</v>
       </c>
       <c r="C385" s="0">
-        <v>27.458625735008571</v>
+        <v>25.987627927775968</v>
       </c>
       <c r="D385" s="0">
         <v>49.999999999999986</v>
@@ -15232,7 +15270,7 @@
         <v>100</v>
       </c>
       <c r="L386" s="0">
-        <v>510.28000000000014</v>
+        <v>512.17000000000007</v>
       </c>
     </row>
     <row r="387">
@@ -15243,7 +15281,7 @@
         <v>55</v>
       </c>
       <c r="C387" s="0">
-        <v>27.458625735008571</v>
+        <v>26.477960530186834</v>
       </c>
       <c r="D387" s="0">
         <v>49.999999999999986</v>
@@ -15270,7 +15308,7 @@
         <v>40</v>
       </c>
       <c r="L387" s="0">
-        <v>426.25999999999993</v>
+        <v>426.26000000000005</v>
       </c>
     </row>
     <row r="388">
@@ -15308,7 +15346,7 @@
         <v>100</v>
       </c>
       <c r="L388" s="0">
-        <v>511.52000000000004</v>
+        <v>513.40499999999997</v>
       </c>
     </row>
     <row r="389">
@@ -15319,7 +15357,7 @@
         <v>55</v>
       </c>
       <c r="C389" s="0">
-        <v>27.458625735008571</v>
+        <v>26.477960530186834</v>
       </c>
       <c r="D389" s="0">
         <v>49.999999999999986</v>
@@ -15384,7 +15422,7 @@
         <v>100</v>
       </c>
       <c r="L390" s="0">
-        <v>512.76000000000022</v>
+        <v>514.6400000000001</v>
       </c>
     </row>
     <row r="391">
@@ -15395,7 +15433,7 @@
         <v>55</v>
       </c>
       <c r="C391" s="0">
-        <v>27.458625735008571</v>
+        <v>26.477960530186834</v>
       </c>
       <c r="D391" s="0">
         <v>49.999999999999986</v>
@@ -15422,7 +15460,7 @@
         <v>40</v>
       </c>
       <c r="L391" s="0">
-        <v>429.31999999999999</v>
+        <v>429.32000000000011</v>
       </c>
     </row>
     <row r="392">
@@ -15460,7 +15498,7 @@
         <v>100</v>
       </c>
       <c r="L392" s="0">
-        <v>514</v>
+        <v>514.9375</v>
       </c>
     </row>
     <row r="393">
@@ -15471,7 +15509,7 @@
         <v>55</v>
       </c>
       <c r="C393" s="0">
-        <v>27.458625735008571</v>
+        <v>26.968293132597701</v>
       </c>
       <c r="D393" s="0">
         <v>49.999999999999986</v>
@@ -15536,7 +15574,7 @@
         <v>100</v>
       </c>
       <c r="L394" s="0">
-        <v>515.24000000000001</v>
+        <v>516.17500000000007</v>
       </c>
     </row>
     <row r="395">
@@ -15547,7 +15585,7 @@
         <v>55</v>
       </c>
       <c r="C395" s="0">
-        <v>27.458625735008571</v>
+        <v>26.968293132597701</v>
       </c>
       <c r="D395" s="0">
         <v>49.999999999999986</v>
@@ -15574,7 +15612,7 @@
         <v>40</v>
       </c>
       <c r="L395" s="0">
-        <v>432.37999999999994</v>
+        <v>432.38000000000005</v>
       </c>
     </row>
     <row r="396">
@@ -15726,7 +15764,7 @@
         <v>40</v>
       </c>
       <c r="L399" s="0">
-        <v>435.43999999999988</v>
+        <v>435.44</v>
       </c>
     </row>
     <row r="400">
@@ -15764,7 +15802,7 @@
         <v>100</v>
       </c>
       <c r="L400" s="0">
-        <v>515.15000000000009</v>
+        <v>518.00750000000005</v>
       </c>
     </row>
     <row r="401">
@@ -15775,7 +15813,7 @@
         <v>55</v>
       </c>
       <c r="C401" s="0">
-        <v>29.419956144652037</v>
+        <v>27.948958337419437</v>
       </c>
       <c r="D401" s="0">
         <v>49.999999999999986</v>
@@ -15840,7 +15878,7 @@
         <v>100</v>
       </c>
       <c r="L402" s="0">
-        <v>516.39999999999998</v>
+        <v>519.25</v>
       </c>
     </row>
     <row r="403">
@@ -15851,7 +15889,7 @@
         <v>55</v>
       </c>
       <c r="C403" s="0">
-        <v>29.419956144652037</v>
+        <v>27.948958337419437</v>
       </c>
       <c r="D403" s="0">
         <v>49.999999999999986</v>

--- a/Tabelas/TabelaLimitesDinamicos.xlsx
+++ b/Tabelas/TabelaLimitesDinamicos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Frequencia</t>
   </si>
@@ -226,6 +226,78 @@
   </si>
   <si>
     <t>ProductionSurfaceTemperature</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
   </si>
   <si>
     <t>VazaoOleo</t>
@@ -537,7 +609,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -559,11 +631,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -579,6 +653,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,40 +683,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">

--- a/Tabelas/TabelaLimitesDinamicos.xlsx
+++ b/Tabelas/TabelaLimitesDinamicos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Frequencia</t>
   </si>
@@ -226,6 +226,114 @@
   </si>
   <si>
     <t>ProductionSurfaceTemperature</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
+  </si>
+  <si>
+    <t>VazaoOleo</t>
+  </si>
+  <si>
+    <t>Frequencia</t>
+  </si>
+  <si>
+    <t>PSuc</t>
+  </si>
+  <si>
+    <t>PChegada</t>
+  </si>
+  <si>
+    <t>PDiff</t>
+  </si>
+  <si>
+    <t>PDescarga</t>
+  </si>
+  <si>
+    <t>TMotor</t>
+  </si>
+  <si>
+    <t>ITorque</t>
+  </si>
+  <si>
+    <t>ITotal</t>
+  </si>
+  <si>
+    <t>TSuc</t>
+  </si>
+  <si>
+    <t>Vibracao</t>
+  </si>
+  <si>
+    <t>TChegada</t>
   </si>
   <si>
     <t>VazaoOleo</t>
@@ -429,7 +537,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -448,11 +556,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -465,6 +576,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,40 +607,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
@@ -537,7 +651,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="0">
-        <v>37.265277783225912</v>
+        <v>34.323282168760713</v>
       </c>
       <c r="D2" s="0">
         <v>150</v>
@@ -564,7 +678,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="0">
-        <v>321.39999999999998</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="3">
@@ -602,7 +716,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="0">
-        <v>196.59999999999999</v>
+        <v>194.04999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -613,7 +727,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="0">
-        <v>37.265277783225912</v>
+        <v>34.323282168760713</v>
       </c>
       <c r="D4" s="0">
         <v>150</v>
@@ -640,7 +754,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="0">
-        <v>322.72000000000003</v>
+        <v>305.88</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +792,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="0">
-        <v>198.92000000000007</v>
+        <v>196.27499999999998</v>
       </c>
     </row>
     <row r="6">
@@ -689,7 +803,7 @@
         <v>110</v>
       </c>
       <c r="C6" s="0">
-        <v>37.265277783225912</v>
+        <v>34.813614771171579</v>
       </c>
       <c r="D6" s="0">
         <v>150</v>
@@ -716,7 +830,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="0">
-        <v>324.04000000000008</v>
+        <v>307.25999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -754,7 +868,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="0">
-        <v>201.24000000000012</v>
+        <v>195.83000000000004</v>
       </c>
     </row>
     <row r="8">
@@ -765,7 +879,7 @@
         <v>110</v>
       </c>
       <c r="C8" s="0">
-        <v>37.265277783225912</v>
+        <v>35.303947373582446</v>
       </c>
       <c r="D8" s="0">
         <v>150</v>
@@ -792,7 +906,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="0">
-        <v>325.3599999999999</v>
+        <v>308.63999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -830,7 +944,7 @@
         <v>40</v>
       </c>
       <c r="L9" s="0">
-        <v>203.55999999999995</v>
+        <v>195.43999999999994</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +955,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="0">
-        <v>37.265277783225912</v>
+        <v>35.303947373582446</v>
       </c>
       <c r="D10" s="0">
         <v>150</v>
@@ -868,7 +982,7 @@
         <v>100</v>
       </c>
       <c r="L10" s="0">
-        <v>326.67999999999995</v>
+        <v>310.01999999999998</v>
       </c>
     </row>
     <row r="11">
@@ -906,7 +1020,7 @@
         <v>40</v>
       </c>
       <c r="L11" s="0">
-        <v>205.88</v>
+        <v>197.72000000000003</v>
       </c>
     </row>
     <row r="12">
@@ -917,7 +1031,7 @@
         <v>110</v>
       </c>
       <c r="C12" s="0">
-        <v>39.226608192869385</v>
+        <v>35.794279975993312</v>
       </c>
       <c r="D12" s="0">
         <v>150</v>
@@ -944,7 +1058,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="0">
-        <v>328</v>
+        <v>311.39999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +1096,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="0">
-        <v>197.25</v>
+        <v>197.28749999999999</v>
       </c>
     </row>
     <row r="14">
@@ -993,7 +1107,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="0">
-        <v>39.226608192869385</v>
+        <v>36.284612578404179</v>
       </c>
       <c r="D14" s="0">
         <v>150</v>
@@ -1020,7 +1134,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="0">
-        <v>329.32000000000005</v>
+        <v>312.77999999999997</v>
       </c>
     </row>
     <row r="15">
@@ -1058,7 +1172,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="0">
-        <v>199.70000000000005</v>
+        <v>196.91999999999996</v>
       </c>
     </row>
     <row r="16">
@@ -1069,7 +1183,7 @@
         <v>110</v>
       </c>
       <c r="C16" s="0">
-        <v>39.226608192869385</v>
+        <v>36.284612578404179</v>
       </c>
       <c r="D16" s="0">
         <v>150</v>
@@ -1096,7 +1210,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="0">
-        <v>330.6400000000001</v>
+        <v>314.15999999999997</v>
       </c>
     </row>
     <row r="17">
@@ -1134,7 +1248,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="0">
-        <v>202.15000000000009</v>
+        <v>199.26499999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1145,7 +1259,7 @@
         <v>110</v>
       </c>
       <c r="C18" s="0">
-        <v>39.226608192869385</v>
+        <v>36.774945180815045</v>
       </c>
       <c r="D18" s="0">
         <v>150</v>
@@ -1172,7 +1286,7 @@
         <v>100</v>
       </c>
       <c r="L18" s="0">
-        <v>331.95999999999992</v>
+        <v>315.53999999999985</v>
       </c>
     </row>
     <row r="19">
@@ -1210,7 +1324,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="0">
-        <v>204.59999999999991</v>
+        <v>198.99499999999989</v>
       </c>
     </row>
     <row r="20">
@@ -1221,7 +1335,7 @@
         <v>110</v>
       </c>
       <c r="C20" s="0">
-        <v>39.226608192869385</v>
+        <v>37.265277783225912</v>
       </c>
       <c r="D20" s="0">
         <v>150</v>
@@ -1248,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="L20" s="0">
-        <v>333.27999999999997</v>
+        <v>316.91999999999996</v>
       </c>
     </row>
     <row r="21">
@@ -1286,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="0">
-        <v>207.04999999999995</v>
+        <v>198.78999999999996</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1411,7 @@
         <v>110</v>
       </c>
       <c r="C22" s="0">
-        <v>39.226608192869385</v>
+        <v>37.265277783225912</v>
       </c>
       <c r="D22" s="0">
         <v>150</v>
@@ -1324,7 +1438,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="0">
-        <v>334.60000000000002</v>
+        <v>318.30000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1362,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="L23" s="0">
-        <v>209.5</v>
+        <v>201.19999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1373,7 +1487,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="0">
-        <v>41.187938602512851</v>
+        <v>37.755610385636786</v>
       </c>
       <c r="D24" s="0">
         <v>150</v>
@@ -1400,7 +1514,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="0">
-        <v>335.91999999999996</v>
+        <v>319.66000000000003</v>
       </c>
     </row>
     <row r="25">
@@ -1438,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="0">
-        <v>200.95000000000005</v>
+        <v>200.77750000000003</v>
       </c>
     </row>
     <row r="26">
@@ -1449,7 +1563,7 @@
         <v>110</v>
       </c>
       <c r="C26" s="0">
-        <v>41.187938602512851</v>
+        <v>38.245942988047652</v>
       </c>
       <c r="D26" s="0">
         <v>150</v>
@@ -1476,7 +1590,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="0">
-        <v>337.24000000000001</v>
+        <v>321.02000000000004</v>
       </c>
     </row>
     <row r="27">
@@ -1514,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="0">
-        <v>203.30000000000007</v>
+        <v>200.4100000000002</v>
       </c>
     </row>
     <row r="28">
@@ -1525,7 +1639,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="0">
-        <v>41.187938602512851</v>
+        <v>38.736275590458519</v>
       </c>
       <c r="D28" s="0">
         <v>150</v>
@@ -1552,7 +1666,7 @@
         <v>100</v>
       </c>
       <c r="L28" s="0">
-        <v>338.55999999999995</v>
+        <v>322.38000000000005</v>
       </c>
     </row>
     <row r="29">
@@ -1590,7 +1704,7 @@
         <v>40</v>
       </c>
       <c r="L29" s="0">
-        <v>205.64999999999998</v>
+        <v>200.09749999999997</v>
       </c>
     </row>
     <row r="30">
@@ -1601,7 +1715,7 @@
         <v>110</v>
       </c>
       <c r="C30" s="0">
-        <v>41.187938602512851</v>
+        <v>38.736275590458519</v>
       </c>
       <c r="D30" s="0">
         <v>150</v>
@@ -1628,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="0">
-        <v>339.88</v>
+        <v>323.74000000000007</v>
       </c>
     </row>
     <row r="31">
@@ -1666,7 +1780,7 @@
         <v>40</v>
       </c>
       <c r="L31" s="0">
-        <v>208</v>
+        <v>202.38</v>
       </c>
     </row>
     <row r="32">
@@ -1677,7 +1791,7 @@
         <v>110</v>
       </c>
       <c r="C32" s="0">
-        <v>41.187938602512851</v>
+        <v>39.226608192869385</v>
       </c>
       <c r="D32" s="0">
         <v>150</v>
@@ -1704,7 +1818,7 @@
         <v>100</v>
       </c>
       <c r="L32" s="0">
-        <v>341.19999999999993</v>
+        <v>325.10000000000008</v>
       </c>
     </row>
     <row r="33">
@@ -1742,7 +1856,7 @@
         <v>40</v>
       </c>
       <c r="L33" s="0">
-        <v>210.35000000000002</v>
+        <v>202.14999999999998</v>
       </c>
     </row>
     <row r="34">
@@ -1753,7 +1867,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="0">
-        <v>43.149269012156324</v>
+        <v>39.716940795280252</v>
       </c>
       <c r="D34" s="0">
         <v>150</v>
@@ -1780,7 +1894,7 @@
         <v>100</v>
       </c>
       <c r="L34" s="0">
-        <v>342.51999999999998</v>
+        <v>326.46000000000009</v>
       </c>
     </row>
     <row r="35">
@@ -1818,7 +1932,7 @@
         <v>40</v>
       </c>
       <c r="L35" s="0">
-        <v>202.11999999999989</v>
+        <v>201.82999999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1829,7 +1943,7 @@
         <v>110</v>
       </c>
       <c r="C36" s="0">
-        <v>43.149269012156324</v>
+        <v>39.716940795280252</v>
       </c>
       <c r="D36" s="0">
         <v>150</v>
@@ -1856,7 +1970,7 @@
         <v>100</v>
       </c>
       <c r="L36" s="0">
-        <v>343.84000000000003</v>
+        <v>327.82000000000011</v>
       </c>
     </row>
     <row r="37">
@@ -1894,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="L37" s="0">
-        <v>204.58999999999992</v>
+        <v>204.17250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1905,7 +2019,7 @@
         <v>110</v>
       </c>
       <c r="C38" s="0">
-        <v>43.149269012156324</v>
+        <v>40.207273397691118</v>
       </c>
       <c r="D38" s="0">
         <v>150</v>
@@ -1932,7 +2046,7 @@
         <v>100</v>
       </c>
       <c r="L38" s="0">
-        <v>345.15999999999997</v>
+        <v>329.18000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1970,7 +2084,7 @@
         <v>40</v>
       </c>
       <c r="L39" s="0">
-        <v>207.05999999999972</v>
+        <v>203.94999999999993</v>
       </c>
     </row>
     <row r="40">
@@ -1981,7 +2095,7 @@
         <v>110</v>
       </c>
       <c r="C40" s="0">
-        <v>43.149269012156324</v>
+        <v>40.697606000101985</v>
       </c>
       <c r="D40" s="0">
         <v>150</v>
@@ -2008,7 +2122,7 @@
         <v>100</v>
       </c>
       <c r="L40" s="0">
-        <v>346.4799999999999</v>
+        <v>330.54000000000002</v>
       </c>
     </row>
     <row r="41">
@@ -2046,7 +2160,7 @@
         <v>40</v>
       </c>
       <c r="L41" s="0">
-        <v>209.52999999999975</v>
+        <v>203.79250000000002</v>
       </c>
     </row>
     <row r="42">
@@ -2057,7 +2171,7 @@
         <v>110</v>
       </c>
       <c r="C42" s="0">
-        <v>43.149269012156324</v>
+        <v>41.187938602512851</v>
       </c>
       <c r="D42" s="0">
         <v>150</v>
@@ -2084,7 +2198,7 @@
         <v>100</v>
       </c>
       <c r="L42" s="0">
-        <v>347.80000000000001</v>
+        <v>331.89999999999998</v>
       </c>
     </row>
     <row r="43">
@@ -2122,7 +2236,7 @@
         <v>40</v>
       </c>
       <c r="L43" s="0">
-        <v>212</v>
+        <v>203.69999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -2133,7 +2247,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="0">
-        <v>43.149269012156324</v>
+        <v>41.187938602512851</v>
       </c>
       <c r="D44" s="0">
         <v>150</v>
@@ -2160,7 +2274,7 @@
         <v>100</v>
       </c>
       <c r="L44" s="0">
-        <v>349.10000000000008</v>
+        <v>333.24000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2198,7 +2312,7 @@
         <v>40</v>
       </c>
       <c r="L45" s="0">
-        <v>214.26999999999998</v>
+        <v>205.93000000000006</v>
       </c>
     </row>
     <row r="46">
@@ -2209,7 +2323,7 @@
         <v>110</v>
       </c>
       <c r="C46" s="0">
-        <v>45.11059942179979</v>
+        <v>41.678271204923718</v>
       </c>
       <c r="D46" s="0">
         <v>150</v>
@@ -2236,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="L46" s="0">
-        <v>350.40000000000003</v>
+        <v>334.58000000000004</v>
       </c>
     </row>
     <row r="47">
@@ -2274,7 +2388,7 @@
         <v>40</v>
       </c>
       <c r="L47" s="0">
-        <v>206.24000000000001</v>
+        <v>205.61500000000012</v>
       </c>
     </row>
     <row r="48">
@@ -2285,7 +2399,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="0">
-        <v>45.11059942179979</v>
+        <v>42.168603807334591</v>
       </c>
       <c r="D48" s="0">
         <v>150</v>
@@ -2312,7 +2426,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="0">
-        <v>351.69999999999999</v>
+        <v>335.91999999999996</v>
       </c>
     </row>
     <row r="49">
@@ -2350,7 +2464,7 @@
         <v>40</v>
       </c>
       <c r="L49" s="0">
-        <v>208.6099999999999</v>
+        <v>205.3549999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2361,7 +2475,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="0">
-        <v>45.11059942179979</v>
+        <v>42.168603807334591</v>
       </c>
       <c r="D50" s="0">
         <v>150</v>
@@ -2388,7 +2502,7 @@
         <v>100</v>
       </c>
       <c r="L50" s="0">
-        <v>352.99999999999994</v>
+        <v>337.25999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2426,7 +2540,7 @@
         <v>40</v>
       </c>
       <c r="L51" s="0">
-        <v>210.98000000000002</v>
+        <v>207.63999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -2437,7 +2551,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="0">
-        <v>45.11059942179979</v>
+        <v>42.658936409745458</v>
       </c>
       <c r="D52" s="0">
         <v>150</v>
@@ -2464,7 +2578,7 @@
         <v>100</v>
       </c>
       <c r="L52" s="0">
-        <v>354.30000000000001</v>
+        <v>338.60000000000002</v>
       </c>
     </row>
     <row r="53">
@@ -2502,7 +2616,7 @@
         <v>40</v>
       </c>
       <c r="L53" s="0">
-        <v>213.35000000000002</v>
+        <v>207.46250000000001</v>
       </c>
     </row>
     <row r="54">
@@ -2513,7 +2627,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="0">
-        <v>45.11059942179979</v>
+        <v>43.149269012156324</v>
       </c>
       <c r="D54" s="0">
         <v>150</v>
@@ -2540,7 +2654,7 @@
         <v>100</v>
       </c>
       <c r="L54" s="0">
-        <v>355.60000000000008</v>
+        <v>339.93999999999994</v>
       </c>
     </row>
     <row r="55">
@@ -2578,7 +2692,7 @@
         <v>40</v>
       </c>
       <c r="L55" s="0">
-        <v>215.72000000000003</v>
+        <v>207.33999999999992</v>
       </c>
     </row>
     <row r="56">
@@ -2589,7 +2703,7 @@
         <v>110</v>
       </c>
       <c r="C56" s="0">
-        <v>47.071929831443263</v>
+        <v>43.639601614567191</v>
       </c>
       <c r="D56" s="0">
         <v>150</v>
@@ -2616,7 +2730,7 @@
         <v>100</v>
       </c>
       <c r="L56" s="0">
-        <v>356.90000000000003</v>
+        <v>341.27999999999997</v>
       </c>
     </row>
     <row r="57">
@@ -2654,7 +2768,7 @@
         <v>40</v>
       </c>
       <c r="L57" s="0">
-        <v>207.89999999999998</v>
+        <v>207.16500000000008</v>
       </c>
     </row>
     <row r="58">
@@ -2665,7 +2779,7 @@
         <v>110</v>
       </c>
       <c r="C58" s="0">
-        <v>47.071929831443263</v>
+        <v>43.639601614567191</v>
       </c>
       <c r="D58" s="0">
         <v>150</v>
@@ -2692,7 +2806,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="0">
-        <v>358.19999999999999</v>
+        <v>342.61999999999989</v>
       </c>
     </row>
     <row r="59">
@@ -2730,7 +2844,7 @@
         <v>40</v>
       </c>
       <c r="L59" s="0">
-        <v>210.39999999999998</v>
+        <v>209.53499999999997</v>
       </c>
     </row>
     <row r="60">
@@ -2741,7 +2855,7 @@
         <v>110</v>
       </c>
       <c r="C60" s="0">
-        <v>47.071929831443263</v>
+        <v>44.129934216978057</v>
       </c>
       <c r="D60" s="0">
         <v>150</v>
@@ -2768,7 +2882,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="0">
-        <v>359.49999999999994</v>
+        <v>343.95999999999992</v>
       </c>
     </row>
     <row r="61">
@@ -2806,7 +2920,7 @@
         <v>40</v>
       </c>
       <c r="L61" s="0">
-        <v>212.89999999999998</v>
+        <v>209.44999999999993</v>
       </c>
     </row>
     <row r="62">
@@ -2817,7 +2931,7 @@
         <v>110</v>
       </c>
       <c r="C62" s="0">
-        <v>47.071929831443263</v>
+        <v>44.620266819388924</v>
       </c>
       <c r="D62" s="0">
         <v>150</v>
@@ -2844,7 +2958,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="0">
-        <v>360.80000000000001</v>
+        <v>345.30000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2882,7 +2996,7 @@
         <v>40</v>
       </c>
       <c r="L63" s="0">
-        <v>215.40000000000001</v>
+        <v>209.42500000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2893,7 +3007,7 @@
         <v>110</v>
       </c>
       <c r="C64" s="0">
-        <v>47.071929831443263</v>
+        <v>45.11059942179979</v>
       </c>
       <c r="D64" s="0">
         <v>150</v>
@@ -2920,7 +3034,7 @@
         <v>100</v>
       </c>
       <c r="L64" s="0">
-        <v>362.08999999999997</v>
+        <v>346.63000000000005</v>
       </c>
     </row>
     <row r="65">
@@ -2958,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="L65" s="0">
-        <v>217.67999999999995</v>
+        <v>209.25</v>
       </c>
     </row>
     <row r="66">
@@ -2969,7 +3083,7 @@
         <v>110</v>
       </c>
       <c r="C66" s="0">
-        <v>49.03326024108673</v>
+        <v>45.11059942179979</v>
       </c>
       <c r="D66" s="0">
         <v>150</v>
@@ -2996,7 +3110,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="0">
-        <v>363.38000000000005</v>
+        <v>347.96000000000009</v>
       </c>
     </row>
     <row r="67">
@@ -3034,7 +3148,7 @@
         <v>40</v>
       </c>
       <c r="L67" s="0">
-        <v>209.80000000000018</v>
+        <v>211.50000000000011</v>
       </c>
     </row>
     <row r="68">
@@ -3045,7 +3159,7 @@
         <v>110</v>
       </c>
       <c r="C68" s="0">
-        <v>49.03326024108673</v>
+        <v>45.600932024210657</v>
       </c>
       <c r="D68" s="0">
         <v>150</v>
@@ -3072,7 +3186,7 @@
         <v>100</v>
       </c>
       <c r="L68" s="0">
-        <v>364.67000000000002</v>
+        <v>349.28999999999991</v>
       </c>
     </row>
     <row r="69">
@@ -3110,7 +3224,7 @@
         <v>40</v>
       </c>
       <c r="L69" s="0">
-        <v>212.19999999999982</v>
+        <v>211.27499999999998</v>
       </c>
     </row>
     <row r="70">
@@ -3121,7 +3235,7 @@
         <v>110</v>
       </c>
       <c r="C70" s="0">
-        <v>49.03326024108673</v>
+        <v>46.091264626621523</v>
       </c>
       <c r="D70" s="0">
         <v>150</v>
@@ -3148,7 +3262,7 @@
         <v>100</v>
       </c>
       <c r="L70" s="0">
-        <v>365.95999999999998</v>
+        <v>350.61999999999995</v>
       </c>
     </row>
     <row r="71">
@@ -3186,7 +3300,7 @@
         <v>40</v>
       </c>
       <c r="L71" s="0">
-        <v>214.59999999999991</v>
+        <v>211.10000000000002</v>
       </c>
     </row>
     <row r="72">
@@ -3197,7 +3311,7 @@
         <v>110</v>
       </c>
       <c r="C72" s="0">
-        <v>49.03326024108673</v>
+        <v>46.581597229032397</v>
       </c>
       <c r="D72" s="0">
         <v>150</v>
@@ -3224,7 +3338,7 @@
         <v>100</v>
       </c>
       <c r="L72" s="0">
-        <v>367.24999999999994</v>
+        <v>351.94999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -3262,7 +3376,7 @@
         <v>40</v>
       </c>
       <c r="L73" s="0">
-        <v>217</v>
+        <v>210.97500000000002</v>
       </c>
     </row>
     <row r="74">
@@ -3273,7 +3387,7 @@
         <v>110</v>
       </c>
       <c r="C74" s="0">
-        <v>49.03326024108673</v>
+        <v>46.581597229032397</v>
       </c>
       <c r="D74" s="0">
         <v>150</v>
@@ -3300,7 +3414,7 @@
         <v>100</v>
       </c>
       <c r="L74" s="0">
-        <v>368.54000000000002</v>
+        <v>353.28000000000003</v>
       </c>
     </row>
     <row r="75">
@@ -3338,7 +3452,7 @@
         <v>40</v>
       </c>
       <c r="L75" s="0">
-        <v>219.40000000000009</v>
+        <v>213.30000000000007</v>
       </c>
     </row>
     <row r="76">
@@ -3349,7 +3463,7 @@
         <v>110</v>
       </c>
       <c r="C76" s="0">
-        <v>50.994590650730203</v>
+        <v>47.071929831443263</v>
       </c>
       <c r="D76" s="0">
         <v>150</v>
@@ -3376,7 +3490,7 @@
         <v>100</v>
       </c>
       <c r="L76" s="0">
-        <v>369.82999999999998</v>
+        <v>354.61000000000007</v>
       </c>
     </row>
     <row r="77">
@@ -3414,7 +3528,7 @@
         <v>40</v>
       </c>
       <c r="L77" s="0">
-        <v>211.79999999999995</v>
+        <v>213.25</v>
       </c>
     </row>
     <row r="78">
@@ -3425,7 +3539,7 @@
         <v>110</v>
       </c>
       <c r="C78" s="0">
-        <v>50.994590650730203</v>
+        <v>47.56226243385413</v>
       </c>
       <c r="D78" s="0">
         <v>150</v>
@@ -3452,7 +3566,7 @@
         <v>100</v>
       </c>
       <c r="L78" s="0">
-        <v>371.11999999999995</v>
+        <v>355.94</v>
       </c>
     </row>
     <row r="79">
@@ -3490,7 +3604,7 @@
         <v>40</v>
       </c>
       <c r="L79" s="0">
-        <v>214.29999999999995</v>
+        <v>213.19000000000017</v>
       </c>
     </row>
     <row r="80">
@@ -3501,7 +3615,7 @@
         <v>110</v>
       </c>
       <c r="C80" s="0">
-        <v>50.994590650730203</v>
+        <v>48.052595036264997</v>
       </c>
       <c r="D80" s="0">
         <v>150</v>
@@ -3528,7 +3642,7 @@
         <v>100</v>
       </c>
       <c r="L80" s="0">
-        <v>372.41000000000003</v>
+        <v>357.27000000000004</v>
       </c>
     </row>
     <row r="81">
@@ -3566,7 +3680,7 @@
         <v>40</v>
       </c>
       <c r="L81" s="0">
-        <v>216.79999999999995</v>
+        <v>213.18999999999983</v>
       </c>
     </row>
     <row r="82">
@@ -3577,7 +3691,7 @@
         <v>110</v>
       </c>
       <c r="C82" s="0">
-        <v>50.994590650730203</v>
+        <v>48.542927638675863</v>
       </c>
       <c r="D82" s="0">
         <v>150</v>
@@ -3604,7 +3718,7 @@
         <v>100</v>
       </c>
       <c r="L82" s="0">
-        <v>373.69999999999999</v>
+        <v>358.60000000000002</v>
       </c>
     </row>
     <row r="83">
@@ -3642,7 +3756,7 @@
         <v>40</v>
       </c>
       <c r="L83" s="0">
-        <v>219.30000000000001</v>
+        <v>213.25</v>
       </c>
     </row>
     <row r="84">
@@ -3653,7 +3767,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="0">
-        <v>50.994590650730203</v>
+        <v>48.542927638675863</v>
       </c>
       <c r="D84" s="0">
         <v>150</v>
@@ -3680,7 +3794,7 @@
         <v>100</v>
       </c>
       <c r="L84" s="0">
-        <v>374.96999999999997</v>
+        <v>359.91000000000008</v>
       </c>
     </row>
     <row r="85">
@@ -3718,7 +3832,7 @@
         <v>40</v>
       </c>
       <c r="L85" s="0">
-        <v>221.61000000000013</v>
+        <v>215.49000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -3729,7 +3843,7 @@
         <v>110</v>
       </c>
       <c r="C86" s="0">
-        <v>52.955921060373669</v>
+        <v>49.03326024108673</v>
       </c>
       <c r="D86" s="0">
         <v>150</v>
@@ -3756,7 +3870,7 @@
         <v>100</v>
       </c>
       <c r="L86" s="0">
-        <v>376.24000000000007</v>
+        <v>361.22000000000003</v>
       </c>
     </row>
     <row r="87">
@@ -3794,7 +3908,7 @@
         <v>40</v>
       </c>
       <c r="L87" s="0">
-        <v>214.10000000000014</v>
+        <v>215.41999999999996</v>
       </c>
     </row>
     <row r="88">
@@ -3805,7 +3919,7 @@
         <v>110</v>
       </c>
       <c r="C88" s="0">
-        <v>52.955921060373669</v>
+        <v>49.523592843497596</v>
       </c>
       <c r="D88" s="0">
         <v>150</v>
@@ -3832,7 +3946,7 @@
         <v>100</v>
       </c>
       <c r="L88" s="0">
-        <v>377.50999999999993</v>
+        <v>362.52999999999997</v>
       </c>
     </row>
     <row r="89">
@@ -3870,7 +3984,7 @@
         <v>40</v>
       </c>
       <c r="L89" s="0">
-        <v>216.49999999999977</v>
+        <v>215.27999999999986</v>
       </c>
     </row>
     <row r="90">
@@ -3881,7 +3995,7 @@
         <v>110</v>
       </c>
       <c r="C90" s="0">
-        <v>52.955921060373669</v>
+        <v>50.013925445908463</v>
       </c>
       <c r="D90" s="0">
         <v>150</v>
@@ -3908,7 +4022,7 @@
         <v>100</v>
       </c>
       <c r="L90" s="0">
-        <v>378.77999999999992</v>
+        <v>363.83999999999992</v>
       </c>
     </row>
     <row r="91">
@@ -3946,7 +4060,7 @@
         <v>40</v>
       </c>
       <c r="L91" s="0">
-        <v>218.89999999999986</v>
+        <v>215.19000000000005</v>
       </c>
     </row>
     <row r="92">
@@ -3957,7 +4071,7 @@
         <v>110</v>
       </c>
       <c r="C92" s="0">
-        <v>52.955921060373669</v>
+        <v>50.013925445908463</v>
       </c>
       <c r="D92" s="0">
         <v>150</v>
@@ -3984,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="L92" s="0">
-        <v>380.05000000000001</v>
+        <v>365.14999999999998</v>
       </c>
     </row>
     <row r="93">
@@ -4022,7 +4136,7 @@
         <v>40</v>
       </c>
       <c r="L93" s="0">
-        <v>221.29999999999995</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="94">
@@ -4033,7 +4147,7 @@
         <v>110</v>
       </c>
       <c r="C94" s="0">
-        <v>52.955921060373669</v>
+        <v>50.504258048319336</v>
       </c>
       <c r="D94" s="0">
         <v>150</v>
@@ -4060,7 +4174,7 @@
         <v>100</v>
       </c>
       <c r="L94" s="0">
-        <v>381.31999999999999</v>
+        <v>366.46000000000004</v>
       </c>
     </row>
     <row r="95">
@@ -4098,7 +4212,7 @@
         <v>40</v>
       </c>
       <c r="L95" s="0">
-        <v>223.70000000000005</v>
+        <v>217.48500000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4109,7 +4223,7 @@
         <v>110</v>
       </c>
       <c r="C96" s="0">
-        <v>52.955921060373669</v>
+        <v>50.994590650730203</v>
       </c>
       <c r="D96" s="0">
         <v>150</v>
@@ -4136,7 +4250,7 @@
         <v>100</v>
       </c>
       <c r="L96" s="0">
-        <v>382.58999999999997</v>
+        <v>367.7700000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4174,7 +4288,7 @@
         <v>40</v>
       </c>
       <c r="L97" s="0">
-        <v>226.10000000000014</v>
+        <v>217.52000000000021</v>
       </c>
     </row>
     <row r="98">
@@ -4185,7 +4299,7 @@
         <v>110</v>
       </c>
       <c r="C98" s="0">
-        <v>54.917251470017142</v>
+        <v>51.484923253141069</v>
       </c>
       <c r="D98" s="0">
         <v>150</v>
@@ -4212,7 +4326,7 @@
         <v>100</v>
       </c>
       <c r="L98" s="0">
-        <v>383.85999999999996</v>
+        <v>369.08000000000004</v>
       </c>
     </row>
     <row r="99">
@@ -4250,7 +4364,7 @@
         <v>40</v>
       </c>
       <c r="L99" s="0">
-        <v>218.87999999999988</v>
+        <v>217.52499999999986</v>
       </c>
     </row>
     <row r="100">
@@ -4261,7 +4375,7 @@
         <v>110</v>
       </c>
       <c r="C100" s="0">
-        <v>54.917251470017142</v>
+        <v>51.975255855551936</v>
       </c>
       <c r="D100" s="0">
         <v>150</v>
@@ -4288,7 +4402,7 @@
         <v>100</v>
       </c>
       <c r="L100" s="0">
-        <v>385.12999999999994</v>
+        <v>370.38999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4326,7 +4440,7 @@
         <v>40</v>
       </c>
       <c r="L101" s="0">
-        <v>221.3900000000001</v>
+        <v>217.58500000000004</v>
       </c>
     </row>
     <row r="102">
@@ -4337,7 +4451,7 @@
         <v>110</v>
       </c>
       <c r="C102" s="0">
-        <v>54.917251470017142</v>
+        <v>51.975255855551936</v>
       </c>
       <c r="D102" s="0">
         <v>150</v>
@@ -4364,7 +4478,7 @@
         <v>100</v>
       </c>
       <c r="L102" s="0">
-        <v>386.39999999999998</v>
+        <v>371.69999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4402,7 +4516,7 @@
         <v>40</v>
       </c>
       <c r="L103" s="0">
-        <v>223.90000000000001</v>
+        <v>220.00000000000003</v>
       </c>
     </row>
     <row r="104">
@@ -4413,7 +4527,7 @@
         <v>110</v>
       </c>
       <c r="C104" s="0">
-        <v>54.917251470017142</v>
+        <v>52.465588457962802</v>
       </c>
       <c r="D104" s="0">
         <v>150</v>
@@ -4440,7 +4554,7 @@
         <v>100</v>
       </c>
       <c r="L104" s="0">
-        <v>387.65999999999997</v>
+        <v>372.98999999999995</v>
       </c>
     </row>
     <row r="105">
@@ -4478,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="L105" s="0">
-        <v>226.21999999999991</v>
+        <v>219.95000000000005</v>
       </c>
     </row>
     <row r="106">
@@ -4489,7 +4603,7 @@
         <v>110</v>
       </c>
       <c r="C106" s="0">
-        <v>56.878581879660608</v>
+        <v>52.955921060373669</v>
       </c>
       <c r="D106" s="0">
         <v>150</v>
@@ -4516,7 +4630,7 @@
         <v>100</v>
       </c>
       <c r="L106" s="0">
-        <v>388.92000000000007</v>
+        <v>374.28000000000003</v>
       </c>
     </row>
     <row r="107">
@@ -4554,7 +4668,7 @@
         <v>40</v>
       </c>
       <c r="L107" s="0">
-        <v>219.00000000000023</v>
+        <v>219.93999999999994</v>
       </c>
     </row>
     <row r="108">
@@ -4565,7 +4679,7 @@
         <v>110</v>
       </c>
       <c r="C108" s="0">
-        <v>56.878581879660608</v>
+        <v>53.446253662784535</v>
       </c>
       <c r="D108" s="0">
         <v>150</v>
@@ -4592,7 +4706,7 @@
         <v>100</v>
       </c>
       <c r="L108" s="0">
-        <v>390.17999999999995</v>
+        <v>375.56999999999988</v>
       </c>
     </row>
     <row r="109">
@@ -4630,7 +4744,7 @@
         <v>40</v>
       </c>
       <c r="L109" s="0">
-        <v>221.39999999999986</v>
+        <v>219.87749999999983</v>
       </c>
     </row>
     <row r="110">
@@ -4641,7 +4755,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="0">
-        <v>56.878581879660608</v>
+        <v>53.936586265195402</v>
       </c>
       <c r="D110" s="0">
         <v>150</v>
@@ -4668,7 +4782,7 @@
         <v>100</v>
       </c>
       <c r="L110" s="0">
-        <v>391.43999999999994</v>
+        <v>376.85999999999996</v>
       </c>
     </row>
     <row r="111">
@@ -4706,7 +4820,7 @@
         <v>40</v>
       </c>
       <c r="L111" s="0">
-        <v>223.79999999999995</v>
+        <v>219.8599999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4717,7 +4831,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="0">
-        <v>56.878581879660608</v>
+        <v>53.936586265195402</v>
       </c>
       <c r="D112" s="0">
         <v>150</v>
@@ -4744,7 +4858,7 @@
         <v>100</v>
       </c>
       <c r="L112" s="0">
-        <v>392.70000000000005</v>
+        <v>378.14999999999992</v>
       </c>
     </row>
     <row r="113">
@@ -4782,7 +4896,7 @@
         <v>40</v>
       </c>
       <c r="L113" s="0">
-        <v>226.20000000000005</v>
+        <v>222.17499999999998</v>
       </c>
     </row>
     <row r="114">
@@ -4793,7 +4907,7 @@
         <v>110</v>
       </c>
       <c r="C114" s="0">
-        <v>56.878581879660608</v>
+        <v>54.426918867606268</v>
       </c>
       <c r="D114" s="0">
         <v>150</v>
@@ -4820,7 +4934,7 @@
         <v>100</v>
       </c>
       <c r="L114" s="0">
-        <v>393.96000000000004</v>
+        <v>379.43999999999988</v>
       </c>
     </row>
     <row r="115">
@@ -4858,7 +4972,7 @@
         <v>40</v>
       </c>
       <c r="L115" s="0">
-        <v>228.60000000000014</v>
+        <v>222.22499999999991</v>
       </c>
     </row>
     <row r="116">
@@ -4869,7 +4983,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="0">
-        <v>58.839912289304074</v>
+        <v>54.917251470017142</v>
       </c>
       <c r="D116" s="0">
         <v>150</v>
@@ -4896,7 +5010,7 @@
         <v>100</v>
       </c>
       <c r="L116" s="0">
-        <v>395.22000000000003</v>
+        <v>380.72999999999996</v>
       </c>
     </row>
     <row r="117">
@@ -4934,7 +5048,7 @@
         <v>40</v>
       </c>
       <c r="L117" s="0">
-        <v>221.56999999999994</v>
+        <v>222.31999999999994</v>
       </c>
     </row>
     <row r="118">
@@ -4945,7 +5059,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="0">
-        <v>58.839912289304074</v>
+        <v>55.407584072428008</v>
       </c>
       <c r="D118" s="0">
         <v>150</v>
@@ -4972,7 +5086,7 @@
         <v>100</v>
       </c>
       <c r="L118" s="0">
-        <v>396.4799999999999</v>
+        <v>382.01999999999992</v>
       </c>
     </row>
     <row r="119">
@@ -5010,7 +5124,7 @@
         <v>40</v>
       </c>
       <c r="L119" s="0">
-        <v>224.07999999999993</v>
+        <v>222.38</v>
       </c>
     </row>
     <row r="120">
@@ -5021,7 +5135,7 @@
         <v>110</v>
       </c>
       <c r="C120" s="0">
-        <v>58.839912289304074</v>
+        <v>55.897916674838875</v>
       </c>
       <c r="D120" s="0">
         <v>150</v>
@@ -5048,7 +5162,7 @@
         <v>100</v>
       </c>
       <c r="L120" s="0">
-        <v>397.74000000000001</v>
+        <v>383.30999999999989</v>
       </c>
     </row>
     <row r="121">
@@ -5086,7 +5200,7 @@
         <v>40</v>
       </c>
       <c r="L121" s="0">
-        <v>226.58999999999992</v>
+        <v>222.49000000000012</v>
       </c>
     </row>
     <row r="122">
@@ -5097,7 +5211,7 @@
         <v>110</v>
       </c>
       <c r="C122" s="0">
-        <v>58.839912289304074</v>
+        <v>56.388249277249741</v>
       </c>
       <c r="D122" s="0">
         <v>150</v>
@@ -5124,7 +5238,7 @@
         <v>100</v>
       </c>
       <c r="L122" s="0">
-        <v>399</v>
+        <v>384.60000000000002</v>
       </c>
     </row>
     <row r="123">
@@ -5162,7 +5276,7 @@
         <v>40</v>
       </c>
       <c r="L123" s="0">
-        <v>229.09999999999999</v>
+        <v>222.64999999999998</v>
       </c>
     </row>
     <row r="124">
@@ -5173,7 +5287,7 @@
         <v>110</v>
       </c>
       <c r="C124" s="0">
-        <v>58.839912289304074</v>
+        <v>56.388249277249741</v>
       </c>
       <c r="D124" s="0">
         <v>150</v>
@@ -5200,7 +5314,7 @@
         <v>100</v>
       </c>
       <c r="L124" s="0">
-        <v>400.31000000000006</v>
+        <v>385.88</v>
       </c>
     </row>
     <row r="125">
@@ -5238,7 +5352,7 @@
         <v>40</v>
       </c>
       <c r="L125" s="0">
-        <v>231.4100000000002</v>
+        <v>224.89999999999998</v>
       </c>
     </row>
     <row r="126">
@@ -5249,7 +5363,7 @@
         <v>110</v>
       </c>
       <c r="C126" s="0">
-        <v>60.801242698947547</v>
+        <v>56.878581879660608</v>
       </c>
       <c r="D126" s="0">
         <v>150</v>
@@ -5276,7 +5390,7 @@
         <v>100</v>
       </c>
       <c r="L126" s="0">
-        <v>401.62</v>
+        <v>387.16000000000008</v>
       </c>
     </row>
     <row r="127">
@@ -5314,7 +5428,7 @@
         <v>40</v>
       </c>
       <c r="L127" s="0">
-        <v>224.4000000000002</v>
+        <v>224.94000000000017</v>
       </c>
     </row>
     <row r="128">
@@ -5325,7 +5439,7 @@
         <v>110</v>
       </c>
       <c r="C128" s="0">
-        <v>60.801242698947547</v>
+        <v>57.368914482071474</v>
       </c>
       <c r="D128" s="0">
         <v>150</v>
@@ -5352,7 +5466,7 @@
         <v>100</v>
       </c>
       <c r="L128" s="0">
-        <v>402.92999999999995</v>
+        <v>388.43999999999994</v>
       </c>
     </row>
     <row r="129">
@@ -5390,7 +5504,7 @@
         <v>40</v>
       </c>
       <c r="L129" s="0">
-        <v>226.79999999999984</v>
+        <v>224.9525000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5401,7 +5515,7 @@
         <v>110</v>
       </c>
       <c r="C130" s="0">
-        <v>60.801242698947547</v>
+        <v>57.859247084482341</v>
       </c>
       <c r="D130" s="0">
         <v>150</v>
@@ -5428,7 +5542,7 @@
         <v>100</v>
       </c>
       <c r="L130" s="0">
-        <v>404.24000000000001</v>
+        <v>389.72000000000003</v>
       </c>
     </row>
     <row r="131">
@@ -5466,7 +5580,7 @@
         <v>40</v>
       </c>
       <c r="L131" s="0">
-        <v>229.19999999999993</v>
+        <v>225.00999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5477,7 +5591,7 @@
         <v>110</v>
       </c>
       <c r="C132" s="0">
-        <v>60.801242698947547</v>
+        <v>58.349579686893208</v>
       </c>
       <c r="D132" s="0">
         <v>150</v>
@@ -5504,7 +5618,7 @@
         <v>100</v>
       </c>
       <c r="L132" s="0">
-        <v>405.54999999999995</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133">
@@ -5542,7 +5656,7 @@
         <v>40</v>
       </c>
       <c r="L133" s="0">
-        <v>231.60000000000002</v>
+        <v>225.11249999999998</v>
       </c>
     </row>
     <row r="134">
@@ -5553,7 +5667,7 @@
         <v>110</v>
       </c>
       <c r="C134" s="0">
-        <v>60.801242698947547</v>
+        <v>58.349579686893208</v>
       </c>
       <c r="D134" s="0">
         <v>150</v>
@@ -5580,7 +5694,7 @@
         <v>100</v>
       </c>
       <c r="L134" s="0">
-        <v>406.86000000000001</v>
+        <v>392.27999999999997</v>
       </c>
     </row>
     <row r="135">
@@ -5618,7 +5732,7 @@
         <v>40</v>
       </c>
       <c r="L135" s="0">
-        <v>234.00000000000011</v>
+        <v>227.45000000000005</v>
       </c>
     </row>
     <row r="136">
@@ -5629,7 +5743,7 @@
         <v>110</v>
       </c>
       <c r="C136" s="0">
-        <v>62.762573108591013</v>
+        <v>58.839912289304074</v>
       </c>
       <c r="D136" s="0">
         <v>150</v>
@@ -5656,7 +5770,7 @@
         <v>100</v>
       </c>
       <c r="L136" s="0">
-        <v>408.17000000000007</v>
+        <v>393.56000000000006</v>
       </c>
     </row>
     <row r="137">
@@ -5694,7 +5808,7 @@
         <v>40</v>
       </c>
       <c r="L137" s="0">
-        <v>227.29999999999995</v>
+        <v>227.62</v>
       </c>
     </row>
     <row r="138">
@@ -5705,7 +5819,7 @@
         <v>110</v>
       </c>
       <c r="C138" s="0">
-        <v>62.762573108591013</v>
+        <v>59.330244891714948</v>
       </c>
       <c r="D138" s="0">
         <v>150</v>
@@ -5732,7 +5846,7 @@
         <v>100</v>
       </c>
       <c r="L138" s="0">
-        <v>409.48000000000002</v>
+        <v>394.83999999999992</v>
       </c>
     </row>
     <row r="139">
@@ -5770,7 +5884,7 @@
         <v>40</v>
       </c>
       <c r="L139" s="0">
-        <v>229.79999999999995</v>
+        <v>227.75499999999977</v>
       </c>
     </row>
     <row r="140">
@@ -5781,7 +5895,7 @@
         <v>110</v>
       </c>
       <c r="C140" s="0">
-        <v>62.762573108591013</v>
+        <v>59.820577494125814</v>
       </c>
       <c r="D140" s="0">
         <v>150</v>
@@ -5808,7 +5922,7 @@
         <v>100</v>
       </c>
       <c r="L140" s="0">
-        <v>410.78999999999996</v>
+        <v>396.12</v>
       </c>
     </row>
     <row r="141">
@@ -5846,7 +5960,7 @@
         <v>40</v>
       </c>
       <c r="L141" s="0">
-        <v>232.29999999999995</v>
+        <v>227.93999999999983</v>
       </c>
     </row>
     <row r="142">
@@ -5857,7 +5971,7 @@
         <v>110</v>
       </c>
       <c r="C142" s="0">
-        <v>62.762573108591013</v>
+        <v>60.310910096536681</v>
       </c>
       <c r="D142" s="0">
         <v>150</v>
@@ -5884,7 +5998,7 @@
         <v>100</v>
       </c>
       <c r="L142" s="0">
-        <v>412.10000000000002</v>
+        <v>397.39999999999998</v>
       </c>
     </row>
     <row r="143">
@@ -5922,7 +6036,7 @@
         <v>40</v>
       </c>
       <c r="L143" s="0">
-        <v>234.80000000000001</v>
+        <v>228.17500000000001</v>
       </c>
     </row>
     <row r="144">
@@ -5933,7 +6047,7 @@
         <v>110</v>
       </c>
       <c r="C144" s="0">
-        <v>62.762573108591013</v>
+        <v>60.801242698947547</v>
       </c>
       <c r="D144" s="0">
         <v>150</v>
@@ -5960,7 +6074,7 @@
         <v>100</v>
       </c>
       <c r="L144" s="0">
-        <v>413.38</v>
+        <v>398.65999999999997</v>
       </c>
     </row>
     <row r="145">
@@ -5998,7 +6112,7 @@
         <v>40</v>
       </c>
       <c r="L145" s="0">
-        <v>237.1099999999999</v>
+        <v>228.26999999999998</v>
       </c>
     </row>
     <row r="146">
@@ -6009,7 +6123,7 @@
         <v>110</v>
       </c>
       <c r="C146" s="0">
-        <v>64.723903518234479</v>
+        <v>61.291575301358414</v>
       </c>
       <c r="D146" s="0">
         <v>150</v>
@@ -6036,7 +6150,7 @@
         <v>100</v>
       </c>
       <c r="L146" s="0">
-        <v>414.66000000000008</v>
+        <v>399.92000000000007</v>
       </c>
     </row>
     <row r="147">
@@ -6074,7 +6188,7 @@
         <v>40</v>
       </c>
       <c r="L147" s="0">
-        <v>230.30000000000018</v>
+        <v>228.31000000000017</v>
       </c>
     </row>
     <row r="148">
@@ -6085,7 +6199,7 @@
         <v>110</v>
       </c>
       <c r="C148" s="0">
-        <v>64.723903518234479</v>
+        <v>61.291575301358414</v>
       </c>
       <c r="D148" s="0">
         <v>150</v>
@@ -6112,7 +6226,7 @@
         <v>100</v>
       </c>
       <c r="L148" s="0">
-        <v>415.93999999999994</v>
+        <v>401.17999999999995</v>
       </c>
     </row>
     <row r="149">
@@ -6150,7 +6264,7 @@
         <v>40</v>
       </c>
       <c r="L149" s="0">
-        <v>232.69999999999982</v>
+        <v>230.60249999999996</v>
       </c>
     </row>
     <row r="150">
@@ -6161,7 +6275,7 @@
         <v>110</v>
       </c>
       <c r="C150" s="0">
-        <v>64.723903518234479</v>
+        <v>61.78190790376928</v>
       </c>
       <c r="D150" s="0">
         <v>150</v>
@@ -6188,7 +6302,7 @@
         <v>100</v>
       </c>
       <c r="L150" s="0">
-        <v>412.29999999999995</v>
+        <v>402.44000000000005</v>
       </c>
     </row>
     <row r="151">
@@ -6199,7 +6313,7 @@
         <v>55</v>
       </c>
       <c r="C151" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D151" s="0">
         <v>49.999999999999986</v>
@@ -6226,7 +6340,7 @@
         <v>40</v>
       </c>
       <c r="L151" s="0">
-        <v>235.09999999999991</v>
+        <v>230.71000000000004</v>
       </c>
     </row>
     <row r="152">
@@ -6237,7 +6351,7 @@
         <v>110</v>
       </c>
       <c r="C152" s="0">
-        <v>64.723903518234479</v>
+        <v>62.272240506180147</v>
       </c>
       <c r="D152" s="0">
         <v>150</v>
@@ -6264,7 +6378,7 @@
         <v>100</v>
       </c>
       <c r="L152" s="0">
-        <v>413.60000000000002</v>
+        <v>403.70000000000005</v>
       </c>
     </row>
     <row r="153">
@@ -6275,7 +6389,7 @@
         <v>55</v>
       </c>
       <c r="C153" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D153" s="0">
         <v>49.999999999999986</v>
@@ -6302,7 +6416,7 @@
         <v>40</v>
       </c>
       <c r="L153" s="0">
-        <v>237.5</v>
+        <v>230.86250000000001</v>
       </c>
     </row>
     <row r="154">
@@ -6313,7 +6427,7 @@
         <v>110</v>
       </c>
       <c r="C154" s="0">
-        <v>65</v>
+        <v>62.762573108591013</v>
       </c>
       <c r="D154" s="0">
         <v>150</v>
@@ -6340,7 +6454,7 @@
         <v>100</v>
       </c>
       <c r="L154" s="0">
-        <v>414.90000000000009</v>
+        <v>404.96000000000004</v>
       </c>
     </row>
     <row r="155">
@@ -6351,7 +6465,7 @@
         <v>55</v>
       </c>
       <c r="C155" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D155" s="0">
         <v>49.999999999999986</v>
@@ -6378,7 +6492,7 @@
         <v>40</v>
       </c>
       <c r="L155" s="0">
-        <v>230.94000000000005</v>
+        <v>231.06000000000006</v>
       </c>
     </row>
     <row r="156">
@@ -6389,7 +6503,7 @@
         <v>110</v>
       </c>
       <c r="C156" s="0">
-        <v>65</v>
+        <v>63.25290571100188</v>
       </c>
       <c r="D156" s="0">
         <v>150</v>
@@ -6416,7 +6530,7 @@
         <v>100</v>
       </c>
       <c r="L156" s="0">
-        <v>416.20000000000005</v>
+        <v>406.22000000000003</v>
       </c>
     </row>
     <row r="157">
@@ -6427,7 +6541,7 @@
         <v>55</v>
       </c>
       <c r="C157" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D157" s="0">
         <v>49.999999999999986</v>
@@ -6454,7 +6568,7 @@
         <v>40</v>
       </c>
       <c r="L157" s="0">
-        <v>233.43000000000006</v>
+        <v>231.22749999999985</v>
       </c>
     </row>
     <row r="158">
@@ -6465,7 +6579,7 @@
         <v>110</v>
       </c>
       <c r="C158" s="0">
-        <v>65</v>
+        <v>63.743238313412753</v>
       </c>
       <c r="D158" s="0">
         <v>150</v>
@@ -6492,7 +6606,7 @@
         <v>100</v>
       </c>
       <c r="L158" s="0">
-        <v>417.5</v>
+        <v>407.48000000000002</v>
       </c>
     </row>
     <row r="159">
@@ -6503,7 +6617,7 @@
         <v>55</v>
       </c>
       <c r="C159" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D159" s="0">
         <v>49.999999999999986</v>
@@ -6530,7 +6644,7 @@
         <v>40</v>
       </c>
       <c r="L159" s="0">
-        <v>235.92000000000007</v>
+        <v>231.43999999999994</v>
       </c>
     </row>
     <row r="160">
@@ -6541,7 +6655,7 @@
         <v>110</v>
       </c>
       <c r="C160" s="0">
-        <v>65</v>
+        <v>64.23357091582362</v>
       </c>
       <c r="D160" s="0">
         <v>150</v>
@@ -6568,7 +6682,7 @@
         <v>100</v>
       </c>
       <c r="L160" s="0">
-        <v>418.79999999999995</v>
+        <v>408.74000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -6579,7 +6693,7 @@
         <v>55</v>
       </c>
       <c r="C161" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D161" s="0">
         <v>49.999999999999986</v>
@@ -6606,7 +6720,7 @@
         <v>40</v>
       </c>
       <c r="L161" s="0">
-        <v>238.41000000000008</v>
+        <v>231.69749999999999</v>
       </c>
     </row>
     <row r="162">
@@ -6617,7 +6731,7 @@
         <v>110</v>
       </c>
       <c r="C162" s="0">
-        <v>65</v>
+        <v>64.23357091582362</v>
       </c>
       <c r="D162" s="0">
         <v>150</v>
@@ -6644,7 +6758,7 @@
         <v>100</v>
       </c>
       <c r="L162" s="0">
-        <v>420.10000000000002</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163">
@@ -6655,7 +6769,7 @@
         <v>55</v>
       </c>
       <c r="C163" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D163" s="0">
         <v>49.999999999999986</v>
@@ -6682,7 +6796,7 @@
         <v>40</v>
       </c>
       <c r="L163" s="0">
-        <v>240.90000000000001</v>
+        <v>234.125</v>
       </c>
     </row>
     <row r="164">
@@ -6693,7 +6807,7 @@
         <v>110</v>
       </c>
       <c r="C164" s="0">
-        <v>65</v>
+        <v>64.723903518234479</v>
       </c>
       <c r="D164" s="0">
         <v>150</v>
@@ -6720,7 +6834,7 @@
         <v>100</v>
       </c>
       <c r="L164" s="0">
-        <v>421.40000000000009</v>
+        <v>411.25999999999999</v>
       </c>
     </row>
     <row r="165">
@@ -6731,7 +6845,7 @@
         <v>55</v>
       </c>
       <c r="C165" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D165" s="0">
         <v>49.999999999999986</v>
@@ -6758,7 +6872,7 @@
         <v>40</v>
       </c>
       <c r="L165" s="0">
-        <v>234.29000000000008</v>
+        <v>234.25999999999999</v>
       </c>
     </row>
     <row r="166">
@@ -6796,7 +6910,7 @@
         <v>100</v>
       </c>
       <c r="L166" s="0">
-        <v>422.70000000000005</v>
+        <v>412.51999999999998</v>
       </c>
     </row>
     <row r="167">
@@ -6807,7 +6921,7 @@
         <v>55</v>
       </c>
       <c r="C167" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D167" s="0">
         <v>49.999999999999986</v>
@@ -6834,7 +6948,7 @@
         <v>40</v>
       </c>
       <c r="L167" s="0">
-        <v>236.67999999999995</v>
+        <v>234.36000000000013</v>
       </c>
     </row>
     <row r="168">
@@ -6872,7 +6986,7 @@
         <v>100</v>
       </c>
       <c r="L168" s="0">
-        <v>424</v>
+        <v>413.77999999999997</v>
       </c>
     </row>
     <row r="169">
@@ -6883,7 +6997,7 @@
         <v>55</v>
       </c>
       <c r="C169" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D169" s="0">
         <v>49.999999999999986</v>
@@ -6910,7 +7024,7 @@
         <v>40</v>
       </c>
       <c r="L169" s="0">
-        <v>239.06999999999982</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="170">
@@ -6948,7 +7062,7 @@
         <v>100</v>
       </c>
       <c r="L170" s="0">
-        <v>425.29999999999995</v>
+        <v>415.03999999999996</v>
       </c>
     </row>
     <row r="171">
@@ -6959,7 +7073,7 @@
         <v>55</v>
       </c>
       <c r="C171" s="0">
-        <v>11.767982457860816</v>
+        <v>10</v>
       </c>
       <c r="D171" s="0">
         <v>49.999999999999986</v>
@@ -6986,7 +7100,7 @@
         <v>40</v>
       </c>
       <c r="L171" s="0">
-        <v>241.45999999999992</v>
+        <v>234.67999999999984</v>
       </c>
     </row>
     <row r="172">
@@ -7024,7 +7138,7 @@
         <v>100</v>
       </c>
       <c r="L172" s="0">
-        <v>422.04999999999995</v>
+        <v>416.29999999999995</v>
       </c>
     </row>
     <row r="173">
@@ -7035,7 +7149,7 @@
         <v>55</v>
       </c>
       <c r="C173" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D173" s="0">
         <v>49.999999999999986</v>
@@ -7062,7 +7176,7 @@
         <v>40</v>
       </c>
       <c r="L173" s="0">
-        <v>243.85000000000002</v>
+        <v>234.90000000000009</v>
       </c>
     </row>
     <row r="174">
@@ -7100,7 +7214,7 @@
         <v>100</v>
       </c>
       <c r="L174" s="0">
-        <v>423.36000000000001</v>
+        <v>417.55999999999995</v>
       </c>
     </row>
     <row r="175">
@@ -7111,7 +7225,7 @@
         <v>55</v>
       </c>
       <c r="C175" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D175" s="0">
         <v>49.999999999999986</v>
@@ -7138,7 +7252,7 @@
         <v>40</v>
       </c>
       <c r="L175" s="0">
-        <v>246.24000000000012</v>
+        <v>235.09999999999991</v>
       </c>
     </row>
     <row r="176">
@@ -7176,7 +7290,7 @@
         <v>100</v>
       </c>
       <c r="L176" s="0">
-        <v>424.67000000000007</v>
+        <v>418.82000000000005</v>
       </c>
     </row>
     <row r="177">
@@ -7187,7 +7301,7 @@
         <v>55</v>
       </c>
       <c r="C177" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D177" s="0">
         <v>49.999999999999986</v>
@@ -7214,7 +7328,7 @@
         <v>40</v>
       </c>
       <c r="L177" s="0">
-        <v>248.63</v>
+        <v>237.46250000000009</v>
       </c>
     </row>
     <row r="178">
@@ -7252,7 +7366,7 @@
         <v>100</v>
       </c>
       <c r="L178" s="0">
-        <v>425.98000000000002</v>
+        <v>420.07999999999993</v>
       </c>
     </row>
     <row r="179">
@@ -7263,7 +7377,7 @@
         <v>55</v>
       </c>
       <c r="C179" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D179" s="0">
         <v>49.999999999999986</v>
@@ -7290,7 +7404,7 @@
         <v>40</v>
       </c>
       <c r="L179" s="0">
-        <v>251.01999999999987</v>
+        <v>237.73000000000002</v>
       </c>
     </row>
     <row r="180">
@@ -7328,7 +7442,7 @@
         <v>100</v>
       </c>
       <c r="L180" s="0">
-        <v>427.28999999999996</v>
+        <v>421.34000000000003</v>
       </c>
     </row>
     <row r="181">
@@ -7339,7 +7453,7 @@
         <v>55</v>
       </c>
       <c r="C181" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D181" s="0">
         <v>49.999999999999986</v>
@@ -7366,7 +7480,7 @@
         <v>40</v>
       </c>
       <c r="L181" s="0">
-        <v>253.40999999999997</v>
+        <v>238.0424999999999</v>
       </c>
     </row>
     <row r="182">
@@ -7404,7 +7518,7 @@
         <v>100</v>
       </c>
       <c r="L182" s="0">
-        <v>428.60000000000002</v>
+        <v>422.60000000000002</v>
       </c>
     </row>
     <row r="183">
@@ -7415,7 +7529,7 @@
         <v>55</v>
       </c>
       <c r="C183" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D183" s="0">
         <v>49.999999999999986</v>
@@ -7442,7 +7556,7 @@
         <v>40</v>
       </c>
       <c r="L183" s="0">
-        <v>255.80000000000001</v>
+        <v>238.40000000000001</v>
       </c>
     </row>
     <row r="184">
@@ -7480,7 +7594,7 @@
         <v>100</v>
       </c>
       <c r="L184" s="0">
-        <v>429.90000000000009</v>
+        <v>423.84000000000003</v>
       </c>
     </row>
     <row r="185">
@@ -7491,7 +7605,7 @@
         <v>55</v>
       </c>
       <c r="C185" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D185" s="0">
         <v>49.999999999999986</v>
@@ -7518,7 +7632,7 @@
         <v>40</v>
       </c>
       <c r="L185" s="0">
-        <v>258.02999999999997</v>
+        <v>240.65999999999997</v>
       </c>
     </row>
     <row r="186">
@@ -7556,7 +7670,7 @@
         <v>100</v>
       </c>
       <c r="L186" s="0">
-        <v>431.20000000000005</v>
+        <v>425.08000000000004</v>
       </c>
     </row>
     <row r="187">
@@ -7567,7 +7681,7 @@
         <v>55</v>
       </c>
       <c r="C187" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D187" s="0">
         <v>49.999999999999986</v>
@@ -7594,7 +7708,7 @@
         <v>40</v>
       </c>
       <c r="L187" s="0">
-        <v>260.25999999999999</v>
+        <v>242.91999999999996</v>
       </c>
     </row>
     <row r="188">
@@ -7632,7 +7746,7 @@
         <v>100</v>
       </c>
       <c r="L188" s="0">
-        <v>432.5</v>
+        <v>426.31999999999994</v>
       </c>
     </row>
     <row r="189">
@@ -7643,7 +7757,7 @@
         <v>55</v>
       </c>
       <c r="C189" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D189" s="0">
         <v>49.999999999999986</v>
@@ -7670,7 +7784,7 @@
         <v>40</v>
       </c>
       <c r="L189" s="0">
-        <v>262.49000000000001</v>
+        <v>245.17999999999995</v>
       </c>
     </row>
     <row r="190">
@@ -7708,7 +7822,7 @@
         <v>100</v>
       </c>
       <c r="L190" s="0">
-        <v>433.79999999999995</v>
+        <v>427.55999999999995</v>
       </c>
     </row>
     <row r="191">
@@ -7719,7 +7833,7 @@
         <v>55</v>
       </c>
       <c r="C191" s="0">
-        <v>13.729312867504285</v>
+        <v>10</v>
       </c>
       <c r="D191" s="0">
         <v>49.999999999999986</v>
@@ -7746,7 +7860,7 @@
         <v>40</v>
       </c>
       <c r="L191" s="0">
-        <v>264.72000000000003</v>
+        <v>247.43999999999994</v>
       </c>
     </row>
     <row r="192">
@@ -7784,7 +7898,7 @@
         <v>100</v>
       </c>
       <c r="L192" s="0">
-        <v>430.7999999999999</v>
+        <v>428.79999999999995</v>
       </c>
     </row>
     <row r="193">
@@ -7795,7 +7909,7 @@
         <v>55</v>
       </c>
       <c r="C193" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D193" s="0">
         <v>49.999999999999986</v>
@@ -7822,7 +7936,7 @@
         <v>40</v>
       </c>
       <c r="L193" s="0">
-        <v>266.95000000000005</v>
+        <v>249.70000000000016</v>
       </c>
     </row>
     <row r="194">
@@ -7860,7 +7974,7 @@
         <v>100</v>
       </c>
       <c r="L194" s="0">
-        <v>432.11999999999995</v>
+        <v>430.03999999999996</v>
       </c>
     </row>
     <row r="195">
@@ -7871,7 +7985,7 @@
         <v>55</v>
       </c>
       <c r="C195" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D195" s="0">
         <v>49.999999999999986</v>
@@ -7898,7 +8012,7 @@
         <v>40</v>
       </c>
       <c r="L195" s="0">
-        <v>269.18000000000006</v>
+        <v>251.96000000000015</v>
       </c>
     </row>
     <row r="196">
@@ -7936,7 +8050,7 @@
         <v>100</v>
       </c>
       <c r="L196" s="0">
-        <v>433.44</v>
+        <v>431.27999999999997</v>
       </c>
     </row>
     <row r="197">
@@ -7947,7 +8061,7 @@
         <v>55</v>
       </c>
       <c r="C197" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D197" s="0">
         <v>49.999999999999986</v>
@@ -7974,7 +8088,7 @@
         <v>40</v>
       </c>
       <c r="L197" s="0">
-        <v>271.41000000000008</v>
+        <v>254.22000000000014</v>
       </c>
     </row>
     <row r="198">
@@ -8012,7 +8126,7 @@
         <v>100</v>
       </c>
       <c r="L198" s="0">
-        <v>434.75999999999993</v>
+        <v>432.51999999999998</v>
       </c>
     </row>
     <row r="199">
@@ -8023,7 +8137,7 @@
         <v>55</v>
       </c>
       <c r="C199" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D199" s="0">
         <v>49.999999999999986</v>
@@ -8050,7 +8164,7 @@
         <v>40</v>
       </c>
       <c r="L199" s="0">
-        <v>273.63999999999987</v>
+        <v>256.4799999999999</v>
       </c>
     </row>
     <row r="200">
@@ -8088,7 +8202,7 @@
         <v>100</v>
       </c>
       <c r="L200" s="0">
-        <v>436.07999999999987</v>
+        <v>433.75999999999999</v>
       </c>
     </row>
     <row r="201">
@@ -8099,7 +8213,7 @@
         <v>55</v>
       </c>
       <c r="C201" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D201" s="0">
         <v>49.999999999999986</v>
@@ -8126,7 +8240,7 @@
         <v>40</v>
       </c>
       <c r="L201" s="0">
-        <v>275.86999999999989</v>
+        <v>258.7399999999999</v>
       </c>
     </row>
     <row r="202">
@@ -8164,7 +8278,7 @@
         <v>100</v>
       </c>
       <c r="L202" s="0">
-        <v>437.39999999999998</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203">
@@ -8175,7 +8289,7 @@
         <v>55</v>
       </c>
       <c r="C203" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D203" s="0">
         <v>49.999999999999986</v>
@@ -8202,7 +8316,7 @@
         <v>40</v>
       </c>
       <c r="L203" s="0">
-        <v>278.10000000000002</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204">
@@ -8240,7 +8354,7 @@
         <v>100</v>
       </c>
       <c r="L204" s="0">
-        <v>438.70000000000005</v>
+        <v>436.24000000000001</v>
       </c>
     </row>
     <row r="205">
@@ -8251,7 +8365,7 @@
         <v>55</v>
       </c>
       <c r="C205" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D205" s="0">
         <v>49.999999999999986</v>
@@ -8278,7 +8392,7 @@
         <v>40</v>
       </c>
       <c r="L205" s="0">
-        <v>280.21000000000015</v>
+        <v>263.11000000000013</v>
       </c>
     </row>
     <row r="206">
@@ -8316,7 +8430,7 @@
         <v>100</v>
       </c>
       <c r="L206" s="0">
-        <v>440</v>
+        <v>437.48000000000002</v>
       </c>
     </row>
     <row r="207">
@@ -8327,7 +8441,7 @@
         <v>55</v>
       </c>
       <c r="C207" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D207" s="0">
         <v>49.999999999999986</v>
@@ -8354,7 +8468,7 @@
         <v>40</v>
       </c>
       <c r="L207" s="0">
-        <v>282.32000000000028</v>
+        <v>265.22000000000003</v>
       </c>
     </row>
     <row r="208">
@@ -8392,7 +8506,7 @@
         <v>100</v>
       </c>
       <c r="L208" s="0">
-        <v>441.29999999999995</v>
+        <v>438.72000000000003</v>
       </c>
     </row>
     <row r="209">
@@ -8403,7 +8517,7 @@
         <v>55</v>
       </c>
       <c r="C209" s="0">
-        <v>15.690643277147753</v>
+        <v>10</v>
       </c>
       <c r="D209" s="0">
         <v>49.999999999999986</v>
@@ -8430,7 +8544,7 @@
         <v>40</v>
       </c>
       <c r="L209" s="0">
-        <v>284.43000000000018</v>
+        <v>267.32999999999993</v>
       </c>
     </row>
     <row r="210">
@@ -8468,7 +8582,7 @@
         <v>100</v>
       </c>
       <c r="L210" s="0">
-        <v>438.38</v>
+        <v>439.96000000000004</v>
       </c>
     </row>
     <row r="211">
@@ -8479,7 +8593,7 @@
         <v>55</v>
       </c>
       <c r="C211" s="0">
-        <v>17.651973686791223</v>
+        <v>10</v>
       </c>
       <c r="D211" s="0">
         <v>49.999999999999986</v>
@@ -8506,7 +8620,7 @@
         <v>40</v>
       </c>
       <c r="L211" s="0">
-        <v>286.54000000000008</v>
+        <v>269.43999999999983</v>
       </c>
     </row>
     <row r="212">
@@ -8544,7 +8658,7 @@
         <v>100</v>
       </c>
       <c r="L212" s="0">
-        <v>439.70000000000005</v>
+        <v>441.20000000000005</v>
       </c>
     </row>
     <row r="213">
@@ -8555,7 +8669,7 @@
         <v>55</v>
       </c>
       <c r="C213" s="0">
-        <v>17.651973686791223</v>
+        <v>10</v>
       </c>
       <c r="D213" s="0">
         <v>49.999999999999986</v>
@@ -8582,7 +8696,7 @@
         <v>40</v>
       </c>
       <c r="L213" s="0">
-        <v>288.6500000000002</v>
+        <v>271.54999999999995</v>
       </c>
     </row>
     <row r="214">
@@ -8620,7 +8734,7 @@
         <v>100</v>
       </c>
       <c r="L214" s="0">
-        <v>441.01999999999998</v>
+        <v>442.44000000000005</v>
       </c>
     </row>
     <row r="215">
@@ -8631,7 +8745,7 @@
         <v>55</v>
       </c>
       <c r="C215" s="0">
-        <v>17.651973686791223</v>
+        <v>10</v>
       </c>
       <c r="D215" s="0">
         <v>49.999999999999986</v>
@@ -8658,7 +8772,7 @@
         <v>40</v>
       </c>
       <c r="L215" s="0">
-        <v>290.7600000000001</v>
+        <v>273.65999999999985</v>
       </c>
     </row>
     <row r="216">
@@ -8696,7 +8810,7 @@
         <v>100</v>
       </c>
       <c r="L216" s="0">
-        <v>442.34000000000003</v>
+        <v>442.61499999999995</v>
       </c>
     </row>
     <row r="217">
@@ -8707,7 +8821,7 @@
         <v>55</v>
       </c>
       <c r="C217" s="0">
-        <v>17.651973686791223</v>
+        <v>10.296984650628213</v>
       </c>
       <c r="D217" s="0">
         <v>49.999999999999986</v>
@@ -8734,7 +8848,7 @@
         <v>40</v>
       </c>
       <c r="L217" s="0">
-        <v>292.87000000000023</v>
+        <v>275.76999999999998</v>
       </c>
     </row>
     <row r="218">
@@ -8772,7 +8886,7 @@
         <v>100</v>
       </c>
       <c r="L218" s="0">
-        <v>443.65999999999997</v>
+        <v>443.85999999999996</v>
       </c>
     </row>
     <row r="219">
@@ -8783,7 +8897,7 @@
         <v>55</v>
       </c>
       <c r="C219" s="0">
-        <v>17.651973686791223</v>
+        <v>10.296984650628213</v>
       </c>
       <c r="D219" s="0">
         <v>49.999999999999986</v>
@@ -8810,7 +8924,7 @@
         <v>40</v>
       </c>
       <c r="L219" s="0">
-        <v>294.98000000000013</v>
+        <v>277.87999999999988</v>
       </c>
     </row>
     <row r="220">
@@ -8848,7 +8962,7 @@
         <v>100</v>
       </c>
       <c r="L220" s="0">
-        <v>444.98000000000002</v>
+        <v>445.10499999999996</v>
       </c>
     </row>
     <row r="221">
@@ -8859,7 +8973,7 @@
         <v>55</v>
       </c>
       <c r="C221" s="0">
-        <v>17.651973686791223</v>
+        <v>10.296984650628213</v>
       </c>
       <c r="D221" s="0">
         <v>49.999999999999986</v>
@@ -8886,7 +9000,7 @@
         <v>40</v>
       </c>
       <c r="L221" s="0">
-        <v>297.09000000000003</v>
+        <v>279.98999999999978</v>
       </c>
     </row>
     <row r="222">
@@ -8924,7 +9038,7 @@
         <v>100</v>
       </c>
       <c r="L222" s="0">
-        <v>446.30000000000001</v>
+        <v>445.29999999999995</v>
       </c>
     </row>
     <row r="223">
@@ -8935,7 +9049,7 @@
         <v>55</v>
       </c>
       <c r="C223" s="0">
-        <v>17.651973686791223</v>
+        <v>10.787317253039081</v>
       </c>
       <c r="D223" s="0">
         <v>49.999999999999986</v>
@@ -8962,7 +9076,7 @@
         <v>40</v>
       </c>
       <c r="L223" s="0">
-        <v>299.19999999999999</v>
+        <v>282.10000000000002</v>
       </c>
     </row>
     <row r="224">
@@ -9000,7 +9114,7 @@
         <v>100</v>
       </c>
       <c r="L224" s="0">
-        <v>447.58999999999997</v>
+        <v>446.53499999999997</v>
       </c>
     </row>
     <row r="225">
@@ -9011,7 +9125,7 @@
         <v>55</v>
       </c>
       <c r="C225" s="0">
-        <v>17.651973686791223</v>
+        <v>10.787317253039081</v>
       </c>
       <c r="D225" s="0">
         <v>49.999999999999986</v>
@@ -9038,7 +9152,7 @@
         <v>40</v>
       </c>
       <c r="L225" s="0">
-        <v>301.20000000000005</v>
+        <v>284.11000000000001</v>
       </c>
     </row>
     <row r="226">
@@ -9076,7 +9190,7 @@
         <v>100</v>
       </c>
       <c r="L226" s="0">
-        <v>448.88000000000005</v>
+        <v>447.76999999999998</v>
       </c>
     </row>
     <row r="227">
@@ -9087,7 +9201,7 @@
         <v>55</v>
       </c>
       <c r="C227" s="0">
-        <v>17.651973686791223</v>
+        <v>10.787317253039081</v>
       </c>
       <c r="D227" s="0">
         <v>49.999999999999986</v>
@@ -9114,7 +9228,7 @@
         <v>40</v>
       </c>
       <c r="L227" s="0">
-        <v>303.20000000000005</v>
+        <v>286.12</v>
       </c>
     </row>
     <row r="228">
@@ -9152,7 +9266,7 @@
         <v>100</v>
       </c>
       <c r="L228" s="0">
-        <v>445.22999999999996</v>
+        <v>447.96249999999998</v>
       </c>
     </row>
     <row r="229">
@@ -9163,7 +9277,7 @@
         <v>55</v>
       </c>
       <c r="C229" s="0">
-        <v>19.613304096434693</v>
+        <v>11.277649855449948</v>
       </c>
       <c r="D229" s="0">
         <v>49.999999999999986</v>
@@ -9190,7 +9304,7 @@
         <v>40</v>
       </c>
       <c r="L229" s="0">
-        <v>305.20000000000005</v>
+        <v>288.13</v>
       </c>
     </row>
     <row r="230">
@@ -9228,7 +9342,7 @@
         <v>100</v>
       </c>
       <c r="L230" s="0">
-        <v>446.53999999999991</v>
+        <v>449.19999999999993</v>
       </c>
     </row>
     <row r="231">
@@ -9239,7 +9353,7 @@
         <v>55</v>
       </c>
       <c r="C231" s="0">
-        <v>19.613304096434693</v>
+        <v>11.277649855449948</v>
       </c>
       <c r="D231" s="0">
         <v>49.999999999999986</v>
@@ -9266,7 +9380,7 @@
         <v>40</v>
       </c>
       <c r="L231" s="0">
-        <v>307.20000000000005</v>
+        <v>290.13999999999999</v>
       </c>
     </row>
     <row r="232">
@@ -9304,7 +9418,7 @@
         <v>100</v>
       </c>
       <c r="L232" s="0">
-        <v>447.84999999999997</v>
+        <v>449.40000000000003</v>
       </c>
     </row>
     <row r="233">
@@ -9315,7 +9429,7 @@
         <v>55</v>
       </c>
       <c r="C233" s="0">
-        <v>19.613304096434693</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D233" s="0">
         <v>49.999999999999986</v>
@@ -9342,7 +9456,7 @@
         <v>40</v>
       </c>
       <c r="L233" s="0">
-        <v>309.20000000000005</v>
+        <v>292.14999999999998</v>
       </c>
     </row>
     <row r="234">
@@ -9380,7 +9494,7 @@
         <v>100</v>
       </c>
       <c r="L234" s="0">
-        <v>449.15999999999991</v>
+        <v>450.64000000000016</v>
       </c>
     </row>
     <row r="235">
@@ -9391,7 +9505,7 @@
         <v>55</v>
       </c>
       <c r="C235" s="0">
-        <v>19.613304096434693</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D235" s="0">
         <v>49.999999999999986</v>
@@ -9418,7 +9532,7 @@
         <v>40</v>
       </c>
       <c r="L235" s="0">
-        <v>311.20000000000005</v>
+        <v>294.15999999999997</v>
       </c>
     </row>
     <row r="236">
@@ -9456,7 +9570,7 @@
         <v>100</v>
       </c>
       <c r="L236" s="0">
-        <v>450.46999999999997</v>
+        <v>451.88000000000017</v>
       </c>
     </row>
     <row r="237">
@@ -9467,7 +9581,7 @@
         <v>55</v>
       </c>
       <c r="C237" s="0">
-        <v>19.613304096434693</v>
+        <v>11.767982457860816</v>
       </c>
       <c r="D237" s="0">
         <v>49.999999999999986</v>
@@ -9494,7 +9608,7 @@
         <v>40</v>
       </c>
       <c r="L237" s="0">
-        <v>313.20000000000005</v>
+        <v>296.16999999999996</v>
       </c>
     </row>
     <row r="238">
@@ -9532,7 +9646,7 @@
         <v>100</v>
       </c>
       <c r="L238" s="0">
-        <v>451.77999999999992</v>
+        <v>451.92000000000007</v>
       </c>
     </row>
     <row r="239">
@@ -9543,7 +9657,7 @@
         <v>55</v>
       </c>
       <c r="C239" s="0">
-        <v>19.613304096434693</v>
+        <v>12.258315060271682</v>
       </c>
       <c r="D239" s="0">
         <v>49.999999999999986</v>
@@ -9570,7 +9684,7 @@
         <v>40</v>
       </c>
       <c r="L239" s="0">
-        <v>315.20000000000005</v>
+        <v>298.17999999999995</v>
       </c>
     </row>
     <row r="240">
@@ -9608,7 +9722,7 @@
         <v>100</v>
       </c>
       <c r="L240" s="0">
-        <v>453.08999999999986</v>
+        <v>453.16000000000008</v>
       </c>
     </row>
     <row r="241">
@@ -9619,7 +9733,7 @@
         <v>55</v>
       </c>
       <c r="C241" s="0">
-        <v>19.613304096434693</v>
+        <v>12.258315060271682</v>
       </c>
       <c r="D241" s="0">
         <v>49.999999999999986</v>
@@ -9646,7 +9760,7 @@
         <v>40</v>
       </c>
       <c r="L241" s="0">
-        <v>317.20000000000005</v>
+        <v>300.18999999999994</v>
       </c>
     </row>
     <row r="242">
@@ -9684,7 +9798,7 @@
         <v>100</v>
       </c>
       <c r="L242" s="0">
-        <v>454.39999999999998</v>
+        <v>454.40000000000003</v>
       </c>
     </row>
     <row r="243">
@@ -9695,7 +9809,7 @@
         <v>55</v>
       </c>
       <c r="C243" s="0">
-        <v>19.613304096434693</v>
+        <v>12.258315060271682</v>
       </c>
       <c r="D243" s="0">
         <v>49.999999999999986</v>
@@ -9722,7 +9836,7 @@
         <v>40</v>
       </c>
       <c r="L243" s="0">
-        <v>319.19999999999999</v>
+        <v>302.19999999999999</v>
       </c>
     </row>
     <row r="244">
@@ -9760,7 +9874,7 @@
         <v>100</v>
       </c>
       <c r="L244" s="0">
-        <v>455.69000000000005</v>
+        <v>454.42000000000007</v>
       </c>
     </row>
     <row r="245">
@@ -9771,7 +9885,7 @@
         <v>55</v>
       </c>
       <c r="C245" s="0">
-        <v>19.613304096434693</v>
+        <v>12.748647662682551</v>
       </c>
       <c r="D245" s="0">
         <v>49.999999999999986</v>
@@ -9798,7 +9912,7 @@
         <v>40</v>
       </c>
       <c r="L245" s="0">
-        <v>321.12000000000012</v>
+        <v>304.11000000000013</v>
       </c>
     </row>
     <row r="246">
@@ -9836,7 +9950,7 @@
         <v>100</v>
       </c>
       <c r="L246" s="0">
-        <v>456.98000000000002</v>
+        <v>455.6400000000001</v>
       </c>
     </row>
     <row r="247">
@@ -9847,7 +9961,7 @@
         <v>55</v>
       </c>
       <c r="C247" s="0">
-        <v>19.613304096434693</v>
+        <v>12.748647662682551</v>
       </c>
       <c r="D247" s="0">
         <v>49.999999999999986</v>
@@ -9874,7 +9988,7 @@
         <v>40</v>
       </c>
       <c r="L247" s="0">
-        <v>323.04000000000008</v>
+        <v>306.0200000000001</v>
       </c>
     </row>
     <row r="248">
@@ -9912,7 +10026,7 @@
         <v>100</v>
       </c>
       <c r="L248" s="0">
-        <v>458.26999999999998</v>
+        <v>456.8599999999999</v>
       </c>
     </row>
     <row r="249">
@@ -9923,7 +10037,7 @@
         <v>55</v>
       </c>
       <c r="C249" s="0">
-        <v>19.613304096434693</v>
+        <v>12.748647662682551</v>
       </c>
       <c r="D249" s="0">
         <v>49.999999999999986</v>
@@ -9950,7 +10064,7 @@
         <v>40</v>
       </c>
       <c r="L249" s="0">
-        <v>324.96000000000004</v>
+        <v>307.92999999999995</v>
       </c>
     </row>
     <row r="250">
@@ -9988,7 +10102,7 @@
         <v>100</v>
       </c>
       <c r="L250" s="0">
-        <v>454.69999999999993</v>
+        <v>456.89999999999998</v>
       </c>
     </row>
     <row r="251">
@@ -9999,7 +10113,7 @@
         <v>55</v>
       </c>
       <c r="C251" s="0">
-        <v>21.574634506078162</v>
+        <v>13.238980265093417</v>
       </c>
       <c r="D251" s="0">
         <v>49.999999999999986</v>
@@ -10026,7 +10140,7 @@
         <v>40</v>
       </c>
       <c r="L251" s="0">
-        <v>326.88</v>
+        <v>309.84000000000003</v>
       </c>
     </row>
     <row r="252">
@@ -10064,7 +10178,7 @@
         <v>100</v>
       </c>
       <c r="L252" s="0">
-        <v>456</v>
+        <v>458.125</v>
       </c>
     </row>
     <row r="253">
@@ -10075,7 +10189,7 @@
         <v>55</v>
       </c>
       <c r="C253" s="0">
-        <v>21.574634506078162</v>
+        <v>13.238980265093417</v>
       </c>
       <c r="D253" s="0">
         <v>49.999999999999986</v>
@@ -10102,7 +10216,7 @@
         <v>40</v>
       </c>
       <c r="L253" s="0">
-        <v>328.80000000000007</v>
+        <v>311.75</v>
       </c>
     </row>
     <row r="254">
@@ -10140,7 +10254,7 @@
         <v>100</v>
       </c>
       <c r="L254" s="0">
-        <v>457.30000000000007</v>
+        <v>459.35000000000002</v>
       </c>
     </row>
     <row r="255">
@@ -10151,7 +10265,7 @@
         <v>55</v>
       </c>
       <c r="C255" s="0">
-        <v>21.574634506078162</v>
+        <v>13.238980265093417</v>
       </c>
       <c r="D255" s="0">
         <v>49.999999999999986</v>
@@ -10178,7 +10292,7 @@
         <v>40</v>
       </c>
       <c r="L255" s="0">
-        <v>330.72000000000003</v>
+        <v>313.66000000000008</v>
       </c>
     </row>
     <row r="256">
@@ -10216,7 +10330,7 @@
         <v>100</v>
       </c>
       <c r="L256" s="0">
-        <v>458.60000000000002</v>
+        <v>459.41000000000003</v>
       </c>
     </row>
     <row r="257">
@@ -10227,7 +10341,7 @@
         <v>55</v>
       </c>
       <c r="C257" s="0">
-        <v>21.574634506078162</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D257" s="0">
         <v>49.999999999999986</v>
@@ -10254,7 +10368,7 @@
         <v>40</v>
       </c>
       <c r="L257" s="0">
-        <v>332.6400000000001</v>
+        <v>315.57000000000016</v>
       </c>
     </row>
     <row r="258">
@@ -10292,7 +10406,7 @@
         <v>100</v>
       </c>
       <c r="L258" s="0">
-        <v>459.89999999999998</v>
+        <v>460.63999999999993</v>
       </c>
     </row>
     <row r="259">
@@ -10303,7 +10417,7 @@
         <v>55</v>
       </c>
       <c r="C259" s="0">
-        <v>21.574634506078162</v>
+        <v>13.729312867504285</v>
       </c>
       <c r="D259" s="0">
         <v>49.999999999999986</v>
@@ -10330,7 +10444,7 @@
         <v>40</v>
       </c>
       <c r="L259" s="0">
-        <v>334.55999999999995</v>
+        <v>317.48000000000002</v>
       </c>
     </row>
     <row r="260">
@@ -10368,7 +10482,7 @@
         <v>100</v>
       </c>
       <c r="L260" s="0">
-        <v>461.19999999999993</v>
+        <v>460.66750000000013</v>
       </c>
     </row>
     <row r="261">
@@ -10379,7 +10493,7 @@
         <v>55</v>
       </c>
       <c r="C261" s="0">
-        <v>21.574634506078162</v>
+        <v>14.219645469915152</v>
       </c>
       <c r="D261" s="0">
         <v>49.999999999999986</v>
@@ -10406,7 +10520,7 @@
         <v>40</v>
       </c>
       <c r="L261" s="0">
-        <v>336.48000000000002</v>
+        <v>319.38999999999999</v>
       </c>
     </row>
     <row r="262">
@@ -10444,7 +10558,7 @@
         <v>100</v>
       </c>
       <c r="L262" s="0">
-        <v>462.5</v>
+        <v>461.90000000000003</v>
       </c>
     </row>
     <row r="263">
@@ -10455,7 +10569,7 @@
         <v>55</v>
       </c>
       <c r="C263" s="0">
-        <v>21.574634506078162</v>
+        <v>14.219645469915152</v>
       </c>
       <c r="D263" s="0">
         <v>49.999999999999986</v>
@@ -10482,7 +10596,7 @@
         <v>40</v>
       </c>
       <c r="L263" s="0">
-        <v>338.39999999999998</v>
+        <v>321.30000000000001</v>
       </c>
     </row>
     <row r="264">
@@ -10520,7 +10634,7 @@
         <v>100</v>
       </c>
       <c r="L264" s="0">
-        <v>463.80000000000007</v>
+        <v>463.1225</v>
       </c>
     </row>
     <row r="265">
@@ -10531,7 +10645,7 @@
         <v>55</v>
       </c>
       <c r="C265" s="0">
-        <v>21.574634506078162</v>
+        <v>14.219645469915152</v>
       </c>
       <c r="D265" s="0">
         <v>49.999999999999986</v>
@@ -10558,7 +10672,7 @@
         <v>40</v>
       </c>
       <c r="L265" s="0">
-        <v>340.2399999999999</v>
+        <v>323.1400000000001</v>
       </c>
     </row>
     <row r="266">
@@ -10596,7 +10710,7 @@
         <v>100</v>
       </c>
       <c r="L266" s="0">
-        <v>465.10000000000002</v>
+        <v>463.15000000000009</v>
       </c>
     </row>
     <row r="267">
@@ -10607,7 +10721,7 @@
         <v>55</v>
       </c>
       <c r="C267" s="0">
-        <v>21.574634506078162</v>
+        <v>14.709978072326019</v>
       </c>
       <c r="D267" s="0">
         <v>49.999999999999986</v>
@@ -10634,7 +10748,7 @@
         <v>40</v>
       </c>
       <c r="L267" s="0">
-        <v>342.07999999999993</v>
+        <v>324.98000000000013</v>
       </c>
     </row>
     <row r="268">
@@ -10672,7 +10786,7 @@
         <v>100</v>
       </c>
       <c r="L268" s="0">
-        <v>466.39999999999998</v>
+        <v>464.375</v>
       </c>
     </row>
     <row r="269">
@@ -10683,7 +10797,7 @@
         <v>55</v>
       </c>
       <c r="C269" s="0">
-        <v>21.574634506078162</v>
+        <v>14.709978072326019</v>
       </c>
       <c r="D269" s="0">
         <v>49.999999999999986</v>
@@ -10710,7 +10824,7 @@
         <v>40</v>
       </c>
       <c r="L269" s="0">
-        <v>343.91999999999985</v>
+        <v>326.82000000000005</v>
       </c>
     </row>
     <row r="270">
@@ -10748,7 +10862,7 @@
         <v>100</v>
       </c>
       <c r="L270" s="0">
-        <v>463.09999999999991</v>
+        <v>465.60000000000002</v>
       </c>
     </row>
     <row r="271">
@@ -10759,7 +10873,7 @@
         <v>55</v>
       </c>
       <c r="C271" s="0">
-        <v>23.535964915721632</v>
+        <v>14.709978072326019</v>
       </c>
       <c r="D271" s="0">
         <v>49.999999999999986</v>
@@ -10786,7 +10900,7 @@
         <v>40</v>
       </c>
       <c r="L271" s="0">
-        <v>345.75999999999988</v>
+        <v>328.66000000000008</v>
       </c>
     </row>
     <row r="272">
@@ -10824,7 +10938,7 @@
         <v>100</v>
       </c>
       <c r="L272" s="0">
-        <v>464.39999999999998</v>
+        <v>465.63750000000005</v>
       </c>
     </row>
     <row r="273">
@@ -10835,7 +10949,7 @@
         <v>55</v>
       </c>
       <c r="C273" s="0">
-        <v>23.535964915721632</v>
+        <v>15.200310674736887</v>
       </c>
       <c r="D273" s="0">
         <v>49.999999999999986</v>
@@ -10862,7 +10976,7 @@
         <v>40</v>
       </c>
       <c r="L273" s="0">
-        <v>347.59999999999991</v>
+        <v>330.5</v>
       </c>
     </row>
     <row r="274">
@@ -10900,7 +11014,7 @@
         <v>100</v>
       </c>
       <c r="L274" s="0">
-        <v>465.70000000000005</v>
+        <v>466.86500000000012</v>
       </c>
     </row>
     <row r="275">
@@ -10911,7 +11025,7 @@
         <v>55</v>
       </c>
       <c r="C275" s="0">
-        <v>23.535964915721632</v>
+        <v>15.200310674736887</v>
       </c>
       <c r="D275" s="0">
         <v>49.999999999999986</v>
@@ -10938,7 +11052,7 @@
         <v>40</v>
       </c>
       <c r="L275" s="0">
-        <v>349.43999999999994</v>
+        <v>332.34000000000003</v>
       </c>
     </row>
     <row r="276">
@@ -10976,7 +11090,7 @@
         <v>100</v>
       </c>
       <c r="L276" s="0">
-        <v>467</v>
+        <v>468.09250000000009</v>
       </c>
     </row>
     <row r="277">
@@ -10987,7 +11101,7 @@
         <v>55</v>
       </c>
       <c r="C277" s="0">
-        <v>23.535964915721632</v>
+        <v>15.200310674736887</v>
       </c>
       <c r="D277" s="0">
         <v>49.999999999999986</v>
@@ -11014,7 +11128,7 @@
         <v>40</v>
       </c>
       <c r="L277" s="0">
-        <v>351.27999999999997</v>
+        <v>334.18000000000006</v>
       </c>
     </row>
     <row r="278">
@@ -11052,7 +11166,7 @@
         <v>100</v>
       </c>
       <c r="L278" s="0">
-        <v>468.29999999999995</v>
+        <v>468.13999999999993</v>
       </c>
     </row>
     <row r="279">
@@ -11063,7 +11177,7 @@
         <v>55</v>
       </c>
       <c r="C279" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D279" s="0">
         <v>49.999999999999986</v>
@@ -11090,7 +11204,7 @@
         <v>40</v>
       </c>
       <c r="L279" s="0">
-        <v>353.11999999999989</v>
+        <v>336.01999999999998</v>
       </c>
     </row>
     <row r="280">
@@ -11128,7 +11242,7 @@
         <v>100</v>
       </c>
       <c r="L280" s="0">
-        <v>469.59999999999991</v>
+        <v>469.36999999999995</v>
       </c>
     </row>
     <row r="281">
@@ -11139,7 +11253,7 @@
         <v>55</v>
       </c>
       <c r="C281" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D281" s="0">
         <v>49.999999999999986</v>
@@ -11166,7 +11280,7 @@
         <v>40</v>
       </c>
       <c r="L281" s="0">
-        <v>354.95999999999992</v>
+        <v>337.86000000000001</v>
       </c>
     </row>
     <row r="282">
@@ -11204,7 +11318,7 @@
         <v>100</v>
       </c>
       <c r="L282" s="0">
-        <v>470.89999999999998</v>
+        <v>470.60000000000002</v>
       </c>
     </row>
     <row r="283">
@@ -11215,7 +11329,7 @@
         <v>55</v>
       </c>
       <c r="C283" s="0">
-        <v>23.535964915721632</v>
+        <v>15.690643277147753</v>
       </c>
       <c r="D283" s="0">
         <v>49.999999999999986</v>
@@ -11242,7 +11356,7 @@
         <v>40</v>
       </c>
       <c r="L283" s="0">
-        <v>356.80000000000001</v>
+        <v>339.69999999999999</v>
       </c>
     </row>
     <row r="284">
@@ -11280,7 +11394,7 @@
         <v>100</v>
       </c>
       <c r="L284" s="0">
-        <v>472.20000000000005</v>
+        <v>470.70749999999998</v>
       </c>
     </row>
     <row r="285">
@@ -11291,7 +11405,7 @@
         <v>55</v>
       </c>
       <c r="C285" s="0">
-        <v>23.535964915721632</v>
+        <v>16.18097587955862</v>
       </c>
       <c r="D285" s="0">
         <v>49.999999999999986</v>
@@ -11318,7 +11432,7 @@
         <v>40</v>
       </c>
       <c r="L285" s="0">
-        <v>358.59000000000003</v>
+        <v>341.48000000000002</v>
       </c>
     </row>
     <row r="286">
@@ -11356,7 +11470,7 @@
         <v>100</v>
       </c>
       <c r="L286" s="0">
-        <v>473.5</v>
+        <v>471.94000000000005</v>
       </c>
     </row>
     <row r="287">
@@ -11367,7 +11481,7 @@
         <v>55</v>
       </c>
       <c r="C287" s="0">
-        <v>23.535964915721632</v>
+        <v>16.18097587955862</v>
       </c>
       <c r="D287" s="0">
         <v>49.999999999999986</v>
@@ -11394,7 +11508,7 @@
         <v>40</v>
       </c>
       <c r="L287" s="0">
-        <v>360.38</v>
+        <v>343.2600000000001</v>
       </c>
     </row>
     <row r="288">
@@ -11432,7 +11546,7 @@
         <v>100</v>
       </c>
       <c r="L288" s="0">
-        <v>474.79999999999995</v>
+        <v>473.17250000000001</v>
       </c>
     </row>
     <row r="289">
@@ -11443,7 +11557,7 @@
         <v>55</v>
       </c>
       <c r="C289" s="0">
-        <v>23.535964915721632</v>
+        <v>16.18097587955862</v>
       </c>
       <c r="D289" s="0">
         <v>49.999999999999986</v>
@@ -11470,7 +11584,7 @@
         <v>40</v>
       </c>
       <c r="L289" s="0">
-        <v>362.16999999999985</v>
+        <v>345.03999999999996</v>
       </c>
     </row>
     <row r="290">
@@ -11508,7 +11622,7 @@
         <v>100</v>
       </c>
       <c r="L290" s="0">
-        <v>471.63999999999999</v>
+        <v>473.28999999999996</v>
       </c>
     </row>
     <row r="291">
@@ -11519,7 +11633,7 @@
         <v>55</v>
       </c>
       <c r="C291" s="0">
-        <v>25.497295325365101</v>
+        <v>16.67130848196949</v>
       </c>
       <c r="D291" s="0">
         <v>49.999999999999986</v>
@@ -11546,7 +11660,7 @@
         <v>40</v>
       </c>
       <c r="L291" s="0">
-        <v>363.95999999999992</v>
+        <v>346.81999999999994</v>
       </c>
     </row>
     <row r="292">
@@ -11584,7 +11698,7 @@
         <v>100</v>
       </c>
       <c r="L292" s="0">
-        <v>472.94999999999993</v>
+        <v>474.52499999999998</v>
       </c>
     </row>
     <row r="293">
@@ -11595,7 +11709,7 @@
         <v>55</v>
       </c>
       <c r="C293" s="0">
-        <v>25.497295325365101</v>
+        <v>16.67130848196949</v>
       </c>
       <c r="D293" s="0">
         <v>49.999999999999986</v>
@@ -11622,7 +11736,7 @@
         <v>40</v>
       </c>
       <c r="L293" s="0">
-        <v>365.75</v>
+        <v>348.59999999999991</v>
       </c>
     </row>
     <row r="294">
@@ -11660,7 +11774,7 @@
         <v>100</v>
       </c>
       <c r="L294" s="0">
-        <v>474.25999999999999</v>
+        <v>475.7600000000001</v>
       </c>
     </row>
     <row r="295">
@@ -11671,7 +11785,7 @@
         <v>55</v>
       </c>
       <c r="C295" s="0">
-        <v>25.497295325365101</v>
+        <v>16.67130848196949</v>
       </c>
       <c r="D295" s="0">
         <v>49.999999999999986</v>
@@ -11698,7 +11812,7 @@
         <v>40</v>
       </c>
       <c r="L295" s="0">
-        <v>367.53999999999996</v>
+        <v>350.38</v>
       </c>
     </row>
     <row r="296">
@@ -11736,7 +11850,7 @@
         <v>100</v>
       </c>
       <c r="L296" s="0">
-        <v>475.57000000000005</v>
+        <v>475.88750000000005</v>
       </c>
     </row>
     <row r="297">
@@ -11747,7 +11861,7 @@
         <v>55</v>
       </c>
       <c r="C297" s="0">
-        <v>25.497295325365101</v>
+        <v>17.161641084380356</v>
       </c>
       <c r="D297" s="0">
         <v>49.999999999999986</v>
@@ -11774,7 +11888,7 @@
         <v>40</v>
       </c>
       <c r="L297" s="0">
-        <v>369.33000000000004</v>
+        <v>352.15999999999997</v>
       </c>
     </row>
     <row r="298">
@@ -11812,7 +11926,7 @@
         <v>100</v>
       </c>
       <c r="L298" s="0">
-        <v>476.88</v>
+        <v>477.125</v>
       </c>
     </row>
     <row r="299">
@@ -11823,7 +11937,7 @@
         <v>55</v>
       </c>
       <c r="C299" s="0">
-        <v>25.497295325365101</v>
+        <v>17.161641084380356</v>
       </c>
       <c r="D299" s="0">
         <v>49.999999999999986</v>
@@ -11850,7 +11964,7 @@
         <v>40</v>
       </c>
       <c r="L299" s="0">
-        <v>371.11999999999989</v>
+        <v>353.93999999999994</v>
       </c>
     </row>
     <row r="300">
@@ -11888,7 +12002,7 @@
         <v>100</v>
       </c>
       <c r="L300" s="0">
-        <v>478.18999999999994</v>
+        <v>477.25999999999999</v>
       </c>
     </row>
     <row r="301">
@@ -11899,7 +12013,7 @@
         <v>55</v>
       </c>
       <c r="C301" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D301" s="0">
         <v>49.999999999999986</v>
@@ -11926,7 +12040,7 @@
         <v>40</v>
       </c>
       <c r="L301" s="0">
-        <v>372.90999999999985</v>
+        <v>355.71999999999991</v>
       </c>
     </row>
     <row r="302">
@@ -11964,7 +12078,7 @@
         <v>100</v>
       </c>
       <c r="L302" s="0">
-        <v>479.5</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="303">
@@ -11975,7 +12089,7 @@
         <v>55</v>
       </c>
       <c r="C303" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D303" s="0">
         <v>49.999999999999986</v>
@@ -12002,7 +12116,7 @@
         <v>40</v>
       </c>
       <c r="L303" s="0">
-        <v>374.69999999999999</v>
+        <v>357.5</v>
       </c>
     </row>
     <row r="304">
@@ -12040,7 +12154,7 @@
         <v>100</v>
       </c>
       <c r="L304" s="0">
-        <v>480.78999999999996</v>
+        <v>479.72000000000003</v>
       </c>
     </row>
     <row r="305">
@@ -12051,7 +12165,7 @@
         <v>55</v>
       </c>
       <c r="C305" s="0">
-        <v>25.497295325365101</v>
+        <v>17.651973686791223</v>
       </c>
       <c r="D305" s="0">
         <v>49.999999999999986</v>
@@ -12078,7 +12192,7 @@
         <v>40</v>
       </c>
       <c r="L305" s="0">
-        <v>376.43000000000006</v>
+        <v>359.21000000000004</v>
       </c>
     </row>
     <row r="306">
@@ -12116,7 +12230,7 @@
         <v>100</v>
       </c>
       <c r="L306" s="0">
-        <v>482.08000000000004</v>
+        <v>479.85000000000002</v>
       </c>
     </row>
     <row r="307">
@@ -12127,7 +12241,7 @@
         <v>55</v>
       </c>
       <c r="C307" s="0">
-        <v>25.497295325365101</v>
+        <v>18.142306289202089</v>
       </c>
       <c r="D307" s="0">
         <v>49.999999999999986</v>
@@ -12154,7 +12268,7 @@
         <v>40</v>
       </c>
       <c r="L307" s="0">
-        <v>378.16000000000008</v>
+        <v>360.92000000000007</v>
       </c>
     </row>
     <row r="308">
@@ -12192,7 +12306,7 @@
         <v>100</v>
       </c>
       <c r="L308" s="0">
-        <v>479.02999999999997</v>
+        <v>481.07499999999993</v>
       </c>
     </row>
     <row r="309">
@@ -12203,7 +12317,7 @@
         <v>55</v>
       </c>
       <c r="C309" s="0">
-        <v>27.458625735008571</v>
+        <v>18.142306289202089</v>
       </c>
       <c r="D309" s="0">
         <v>49.999999999999986</v>
@@ -12230,7 +12344,7 @@
         <v>40</v>
       </c>
       <c r="L309" s="0">
-        <v>379.88999999999999</v>
+        <v>362.63</v>
       </c>
     </row>
     <row r="310">
@@ -12268,7 +12382,7 @@
         <v>100</v>
       </c>
       <c r="L310" s="0">
-        <v>480.33999999999992</v>
+        <v>482.29999999999995</v>
       </c>
     </row>
     <row r="311">
@@ -12279,7 +12393,7 @@
         <v>55</v>
       </c>
       <c r="C311" s="0">
-        <v>27.458625735008571</v>
+        <v>18.142306289202089</v>
       </c>
       <c r="D311" s="0">
         <v>49.999999999999986</v>
@@ -12306,7 +12420,7 @@
         <v>40</v>
       </c>
       <c r="L311" s="0">
-        <v>381.62</v>
+        <v>364.34000000000003</v>
       </c>
     </row>
     <row r="312">
@@ -12344,7 +12458,7 @@
         <v>100</v>
       </c>
       <c r="L312" s="0">
-        <v>481.64999999999998</v>
+        <v>482.45000000000005</v>
       </c>
     </row>
     <row r="313">
@@ -12355,7 +12469,7 @@
         <v>55</v>
       </c>
       <c r="C313" s="0">
-        <v>27.458625735008571</v>
+        <v>18.632638891612956</v>
       </c>
       <c r="D313" s="0">
         <v>49.999999999999986</v>
@@ -12382,7 +12496,7 @@
         <v>40</v>
       </c>
       <c r="L313" s="0">
-        <v>383.35000000000002</v>
+        <v>366.05000000000007</v>
       </c>
     </row>
     <row r="314">
@@ -12420,7 +12534,7 @@
         <v>100</v>
       </c>
       <c r="L314" s="0">
-        <v>482.95999999999992</v>
+        <v>483.68000000000006</v>
       </c>
     </row>
     <row r="315">
@@ -12431,7 +12545,7 @@
         <v>55</v>
       </c>
       <c r="C315" s="0">
-        <v>27.458625735008571</v>
+        <v>18.632638891612956</v>
       </c>
       <c r="D315" s="0">
         <v>49.999999999999986</v>
@@ -12458,7 +12572,7 @@
         <v>40</v>
       </c>
       <c r="L315" s="0">
-        <v>385.08000000000004</v>
+        <v>367.7600000000001</v>
       </c>
     </row>
     <row r="316">
@@ -12496,7 +12610,7 @@
         <v>100</v>
       </c>
       <c r="L316" s="0">
-        <v>484.26999999999998</v>
+        <v>483.84500000000003</v>
       </c>
     </row>
     <row r="317">
@@ -12507,7 +12621,7 @@
         <v>55</v>
       </c>
       <c r="C317" s="0">
-        <v>27.458625735008571</v>
+        <v>19.122971494023826</v>
       </c>
       <c r="D317" s="0">
         <v>49.999999999999986</v>
@@ -12534,7 +12648,7 @@
         <v>40</v>
       </c>
       <c r="L317" s="0">
-        <v>386.81000000000006</v>
+        <v>369.47000000000014</v>
       </c>
     </row>
     <row r="318">
@@ -12572,7 +12686,7 @@
         <v>100</v>
       </c>
       <c r="L318" s="0">
-        <v>485.57999999999993</v>
+        <v>485.07999999999993</v>
       </c>
     </row>
     <row r="319">
@@ -12583,7 +12697,7 @@
         <v>55</v>
       </c>
       <c r="C319" s="0">
-        <v>27.458625735008571</v>
+        <v>19.122971494023826</v>
       </c>
       <c r="D319" s="0">
         <v>49.999999999999986</v>
@@ -12610,7 +12724,7 @@
         <v>40</v>
       </c>
       <c r="L319" s="0">
-        <v>388.53999999999996</v>
+        <v>371.17999999999995</v>
       </c>
     </row>
     <row r="320">
@@ -12648,7 +12762,7 @@
         <v>100</v>
       </c>
       <c r="L320" s="0">
-        <v>486.88999999999987</v>
+        <v>486.31499999999994</v>
       </c>
     </row>
     <row r="321">
@@ -12659,7 +12773,7 @@
         <v>55</v>
       </c>
       <c r="C321" s="0">
-        <v>27.458625735008571</v>
+        <v>19.122971494023826</v>
       </c>
       <c r="D321" s="0">
         <v>49.999999999999986</v>
@@ -12686,7 +12800,7 @@
         <v>40</v>
       </c>
       <c r="L321" s="0">
-        <v>390.26999999999998</v>
+        <v>372.88999999999999</v>
       </c>
     </row>
     <row r="322">
@@ -12724,7 +12838,7 @@
         <v>100</v>
       </c>
       <c r="L322" s="0">
-        <v>488.19999999999999</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="323">
@@ -12735,7 +12849,7 @@
         <v>55</v>
       </c>
       <c r="C323" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D323" s="0">
         <v>49.999999999999986</v>
@@ -12762,7 +12876,7 @@
         <v>40</v>
       </c>
       <c r="L323" s="0">
-        <v>392</v>
+        <v>374.60000000000002</v>
       </c>
     </row>
     <row r="324">
@@ -12800,7 +12914,7 @@
         <v>100</v>
       </c>
       <c r="L324" s="0">
-        <v>489.50000000000006</v>
+        <v>487.72000000000003</v>
       </c>
     </row>
     <row r="325">
@@ -12811,7 +12925,7 @@
         <v>55</v>
       </c>
       <c r="C325" s="0">
-        <v>27.458625735008571</v>
+        <v>19.613304096434693</v>
       </c>
       <c r="D325" s="0">
         <v>49.999999999999986</v>
@@ -12838,7 +12952,7 @@
         <v>40</v>
       </c>
       <c r="L325" s="0">
-        <v>393.68000000000006</v>
+        <v>376.2700000000001</v>
       </c>
     </row>
     <row r="326">
@@ -12876,7 +12990,7 @@
         <v>100</v>
       </c>
       <c r="L326" s="0">
-        <v>486.62</v>
+        <v>487.90000000000003</v>
       </c>
     </row>
     <row r="327">
@@ -12887,7 +13001,7 @@
         <v>55</v>
       </c>
       <c r="C327" s="0">
-        <v>29.419956144652037</v>
+        <v>20.103636698845559</v>
       </c>
       <c r="D327" s="0">
         <v>49.999999999999986</v>
@@ -12914,7 +13028,7 @@
         <v>40</v>
       </c>
       <c r="L327" s="0">
-        <v>395.36000000000001</v>
+        <v>377.94000000000005</v>
       </c>
     </row>
     <row r="328">
@@ -12952,7 +13066,7 @@
         <v>100</v>
       </c>
       <c r="L328" s="0">
-        <v>487.92999999999995</v>
+        <v>489.12499999999994</v>
       </c>
     </row>
     <row r="329">
@@ -12963,7 +13077,7 @@
         <v>55</v>
       </c>
       <c r="C329" s="0">
-        <v>29.419956144652037</v>
+        <v>20.103636698845559</v>
       </c>
       <c r="D329" s="0">
         <v>49.999999999999986</v>
@@ -12990,7 +13104,7 @@
         <v>40</v>
       </c>
       <c r="L329" s="0">
-        <v>397.03999999999996</v>
+        <v>379.61000000000001</v>
       </c>
     </row>
     <row r="330">
@@ -13028,7 +13142,7 @@
         <v>100</v>
       </c>
       <c r="L330" s="0">
-        <v>489.24000000000012</v>
+        <v>490.35000000000008</v>
       </c>
     </row>
     <row r="331">
@@ -13039,7 +13153,7 @@
         <v>55</v>
       </c>
       <c r="C331" s="0">
-        <v>29.419956144652037</v>
+        <v>20.103636698845559</v>
       </c>
       <c r="D331" s="0">
         <v>49.999999999999986</v>
@@ -13066,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="L331" s="0">
-        <v>398.72000000000014</v>
+        <v>381.28000000000009</v>
       </c>
     </row>
     <row r="332">
@@ -13104,7 +13218,7 @@
         <v>100</v>
       </c>
       <c r="L332" s="0">
-        <v>490.54999999999995</v>
+        <v>490.55000000000001</v>
       </c>
     </row>
     <row r="333">
@@ -13115,7 +13229,7 @@
         <v>55</v>
       </c>
       <c r="C333" s="0">
-        <v>29.419956144652037</v>
+        <v>20.593969301256426</v>
       </c>
       <c r="D333" s="0">
         <v>49.999999999999986</v>
@@ -13142,7 +13256,7 @@
         <v>40</v>
       </c>
       <c r="L333" s="0">
-        <v>400.39999999999998</v>
+        <v>382.95000000000005</v>
       </c>
     </row>
     <row r="334">
@@ -13180,7 +13294,7 @@
         <v>100</v>
       </c>
       <c r="L334" s="0">
-        <v>491.86000000000001</v>
+        <v>491.78000000000003</v>
       </c>
     </row>
     <row r="335">
@@ -13191,7 +13305,7 @@
         <v>55</v>
       </c>
       <c r="C335" s="0">
-        <v>29.419956144652037</v>
+        <v>20.593969301256426</v>
       </c>
       <c r="D335" s="0">
         <v>49.999999999999986</v>
@@ -13218,7 +13332,7 @@
         <v>40</v>
       </c>
       <c r="L335" s="0">
-        <v>402.08000000000004</v>
+        <v>384.62000000000012</v>
       </c>
     </row>
     <row r="336">
@@ -13256,7 +13370,7 @@
         <v>100</v>
       </c>
       <c r="L336" s="0">
-        <v>493.17000000000007</v>
+        <v>491.99500000000018</v>
       </c>
     </row>
     <row r="337">
@@ -13267,7 +13381,7 @@
         <v>55</v>
       </c>
       <c r="C337" s="0">
-        <v>29.419956144652037</v>
+        <v>21.084301903667296</v>
       </c>
       <c r="D337" s="0">
         <v>49.999999999999986</v>
@@ -13294,7 +13408,7 @@
         <v>40</v>
       </c>
       <c r="L337" s="0">
-        <v>403.7600000000001</v>
+        <v>386.29000000000019</v>
       </c>
     </row>
     <row r="338">
@@ -13332,7 +13446,7 @@
         <v>100</v>
       </c>
       <c r="L338" s="0">
-        <v>494.48000000000002</v>
+        <v>493.23000000000008</v>
       </c>
     </row>
     <row r="339">
@@ -13343,7 +13457,7 @@
         <v>55</v>
       </c>
       <c r="C339" s="0">
-        <v>29.419956144652037</v>
+        <v>21.084301903667296</v>
       </c>
       <c r="D339" s="0">
         <v>49.999999999999986</v>
@@ -13370,7 +13484,7 @@
         <v>40</v>
       </c>
       <c r="L339" s="0">
-        <v>405.43999999999994</v>
+        <v>387.96000000000004</v>
       </c>
     </row>
     <row r="340">
@@ -13408,7 +13522,7 @@
         <v>100</v>
       </c>
       <c r="L340" s="0">
-        <v>495.79000000000008</v>
+        <v>494.4650000000002</v>
       </c>
     </row>
     <row r="341">
@@ -13419,7 +13533,7 @@
         <v>55</v>
       </c>
       <c r="C341" s="0">
-        <v>29.419956144652037</v>
+        <v>21.084301903667296</v>
       </c>
       <c r="D341" s="0">
         <v>49.999999999999986</v>
@@ -13446,7 +13560,7 @@
         <v>40</v>
       </c>
       <c r="L341" s="0">
-        <v>407.12000000000012</v>
+        <v>389.63000000000022</v>
       </c>
     </row>
     <row r="342">
@@ -13484,7 +13598,7 @@
         <v>100</v>
       </c>
       <c r="L342" s="0">
-        <v>497.10000000000002</v>
+        <v>494.69999999999999</v>
       </c>
     </row>
     <row r="343">
@@ -13495,7 +13609,7 @@
         <v>55</v>
       </c>
       <c r="C343" s="0">
-        <v>29.419956144652037</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D343" s="0">
         <v>49.999999999999986</v>
@@ -13522,7 +13636,7 @@
         <v>40</v>
       </c>
       <c r="L343" s="0">
-        <v>408.80000000000001</v>
+        <v>391.30000000000001</v>
       </c>
     </row>
     <row r="344">
@@ -13560,7 +13674,7 @@
         <v>100</v>
       </c>
       <c r="L344" s="0">
-        <v>494.21000000000004</v>
+        <v>495.93000000000001</v>
       </c>
     </row>
     <row r="345">
@@ -13571,7 +13685,7 @@
         <v>55</v>
       </c>
       <c r="C345" s="0">
-        <v>31.381286554295507</v>
+        <v>21.574634506078162</v>
       </c>
       <c r="D345" s="0">
         <v>49.999999999999986</v>
@@ -13598,7 +13712,7 @@
         <v>40</v>
       </c>
       <c r="L345" s="0">
-        <v>410.43000000000006</v>
+        <v>392.91000000000008</v>
       </c>
     </row>
     <row r="346">
@@ -13636,7 +13750,7 @@
         <v>100</v>
       </c>
       <c r="L346" s="0">
-        <v>495.51999999999998</v>
+        <v>496.14000000000004</v>
       </c>
     </row>
     <row r="347">
@@ -13647,7 +13761,7 @@
         <v>55</v>
       </c>
       <c r="C347" s="0">
-        <v>31.381286554295507</v>
+        <v>22.064967108489029</v>
       </c>
       <c r="D347" s="0">
         <v>49.999999999999986</v>
@@ -13674,7 +13788,7 @@
         <v>40</v>
       </c>
       <c r="L347" s="0">
-        <v>412.06000000000006</v>
+        <v>394.5200000000001</v>
       </c>
     </row>
     <row r="348">
@@ -13712,7 +13826,7 @@
         <v>100</v>
       </c>
       <c r="L348" s="0">
-        <v>496.82999999999993</v>
+        <v>497.3725</v>
       </c>
     </row>
     <row r="349">
@@ -13723,7 +13837,7 @@
         <v>55</v>
       </c>
       <c r="C349" s="0">
-        <v>31.381286554295507</v>
+        <v>22.064967108489029</v>
       </c>
       <c r="D349" s="0">
         <v>49.999999999999986</v>
@@ -13750,7 +13864,7 @@
         <v>40</v>
       </c>
       <c r="L349" s="0">
-        <v>413.68999999999994</v>
+        <v>396.13</v>
       </c>
     </row>
     <row r="350">
@@ -13788,7 +13902,7 @@
         <v>100</v>
       </c>
       <c r="L350" s="0">
-        <v>498.1400000000001</v>
+        <v>497.59000000000015</v>
       </c>
     </row>
     <row r="351">
@@ -13799,7 +13913,7 @@
         <v>55</v>
       </c>
       <c r="C351" s="0">
-        <v>31.381286554295507</v>
+        <v>22.555299710899895</v>
       </c>
       <c r="D351" s="0">
         <v>49.999999999999986</v>
@@ -13826,7 +13940,7 @@
         <v>40</v>
       </c>
       <c r="L351" s="0">
-        <v>415.32000000000016</v>
+        <v>397.74000000000012</v>
       </c>
     </row>
     <row r="352">
@@ -13864,7 +13978,7 @@
         <v>100</v>
       </c>
       <c r="L352" s="0">
-        <v>499.45000000000005</v>
+        <v>498.82500000000005</v>
       </c>
     </row>
     <row r="353">
@@ -13875,7 +13989,7 @@
         <v>55</v>
       </c>
       <c r="C353" s="0">
-        <v>31.381286554295507</v>
+        <v>22.555299710899895</v>
       </c>
       <c r="D353" s="0">
         <v>49.999999999999986</v>
@@ -13902,7 +14016,7 @@
         <v>40</v>
       </c>
       <c r="L353" s="0">
-        <v>416.95000000000005</v>
+        <v>399.35000000000002</v>
       </c>
     </row>
     <row r="354">
@@ -13940,7 +14054,7 @@
         <v>100</v>
       </c>
       <c r="L354" s="0">
-        <v>500.75999999999999</v>
+        <v>500.06000000000006</v>
       </c>
     </row>
     <row r="355">
@@ -13951,7 +14065,7 @@
         <v>55</v>
       </c>
       <c r="C355" s="0">
-        <v>31.381286554295507</v>
+        <v>22.555299710899895</v>
       </c>
       <c r="D355" s="0">
         <v>49.999999999999986</v>
@@ -13978,7 +14092,7 @@
         <v>40</v>
       </c>
       <c r="L355" s="0">
-        <v>418.58000000000004</v>
+        <v>400.96000000000004</v>
       </c>
     </row>
     <row r="356">
@@ -14016,7 +14130,7 @@
         <v>100</v>
       </c>
       <c r="L356" s="0">
-        <v>502.07000000000005</v>
+        <v>500.28750000000002</v>
       </c>
     </row>
     <row r="357">
@@ -14027,7 +14141,7 @@
         <v>55</v>
       </c>
       <c r="C357" s="0">
-        <v>31.381286554295507</v>
+        <v>23.045632313310762</v>
       </c>
       <c r="D357" s="0">
         <v>49.999999999999986</v>
@@ -14054,7 +14168,7 @@
         <v>40</v>
       </c>
       <c r="L357" s="0">
-        <v>420.21000000000004</v>
+        <v>402.57000000000005</v>
       </c>
     </row>
     <row r="358">
@@ -14092,7 +14206,7 @@
         <v>100</v>
       </c>
       <c r="L358" s="0">
-        <v>503.38</v>
+        <v>501.52499999999998</v>
       </c>
     </row>
     <row r="359">
@@ -14103,7 +14217,7 @@
         <v>55</v>
       </c>
       <c r="C359" s="0">
-        <v>31.381286554295507</v>
+        <v>23.045632313310762</v>
       </c>
       <c r="D359" s="0">
         <v>49.999999999999986</v>
@@ -14130,7 +14244,7 @@
         <v>40</v>
       </c>
       <c r="L359" s="0">
-        <v>421.83999999999992</v>
+        <v>404.17999999999995</v>
       </c>
     </row>
     <row r="360">
@@ -14168,7 +14282,7 @@
         <v>100</v>
       </c>
       <c r="L360" s="0">
-        <v>500.68000000000001</v>
+        <v>501.7600000000001</v>
       </c>
     </row>
     <row r="361">
@@ -14179,7 +14293,7 @@
         <v>55</v>
       </c>
       <c r="C361" s="0">
-        <v>33.34261696393898</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D361" s="0">
         <v>49.999999999999986</v>
@@ -14206,7 +14320,7 @@
         <v>40</v>
       </c>
       <c r="L361" s="0">
-        <v>423.47000000000014</v>
+        <v>405.79000000000008</v>
       </c>
     </row>
     <row r="362">
@@ -14244,7 +14358,7 @@
         <v>100</v>
       </c>
       <c r="L362" s="0">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="363">
@@ -14255,7 +14369,7 @@
         <v>55</v>
       </c>
       <c r="C363" s="0">
-        <v>33.34261696393898</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D363" s="0">
         <v>49.999999999999986</v>
@@ -14282,7 +14396,7 @@
         <v>40</v>
       </c>
       <c r="L363" s="0">
-        <v>425.10000000000002</v>
+        <v>407.39999999999998</v>
       </c>
     </row>
     <row r="364">
@@ -14320,7 +14434,7 @@
         <v>100</v>
       </c>
       <c r="L364" s="0">
-        <v>503.32000000000005</v>
+        <v>504.23000000000002</v>
       </c>
     </row>
     <row r="365">
@@ -14331,7 +14445,7 @@
         <v>55</v>
       </c>
       <c r="C365" s="0">
-        <v>33.34261696393898</v>
+        <v>23.535964915721632</v>
       </c>
       <c r="D365" s="0">
         <v>49.999999999999986</v>
@@ -14358,7 +14472,7 @@
         <v>40</v>
       </c>
       <c r="L365" s="0">
-        <v>426.69000000000005</v>
+        <v>408.98000000000002</v>
       </c>
     </row>
     <row r="366">
@@ -14396,7 +14510,7 @@
         <v>100</v>
       </c>
       <c r="L366" s="0">
-        <v>504.6400000000001</v>
+        <v>504.495</v>
       </c>
     </row>
     <row r="367">
@@ -14407,7 +14521,7 @@
         <v>55</v>
       </c>
       <c r="C367" s="0">
-        <v>33.34261696393898</v>
+        <v>24.026297518132498</v>
       </c>
       <c r="D367" s="0">
         <v>49.999999999999986</v>
@@ -14434,7 +14548,7 @@
         <v>40</v>
       </c>
       <c r="L367" s="0">
-        <v>428.28000000000009</v>
+        <v>410.56000000000006</v>
       </c>
     </row>
     <row r="368">
@@ -14472,7 +14586,7 @@
         <v>100</v>
       </c>
       <c r="L368" s="0">
-        <v>505.95999999999992</v>
+        <v>505.7299999999999</v>
       </c>
     </row>
     <row r="369">
@@ -14483,7 +14597,7 @@
         <v>55</v>
       </c>
       <c r="C369" s="0">
-        <v>33.34261696393898</v>
+        <v>24.026297518132498</v>
       </c>
       <c r="D369" s="0">
         <v>49.999999999999986</v>
@@ -14510,7 +14624,7 @@
         <v>40</v>
       </c>
       <c r="L369" s="0">
-        <v>429.87</v>
+        <v>412.13999999999987</v>
       </c>
     </row>
     <row r="370">
@@ -14548,7 +14662,7 @@
         <v>100</v>
       </c>
       <c r="L370" s="0">
-        <v>507.28000000000009</v>
+        <v>506.01000000000005</v>
       </c>
     </row>
     <row r="371">
@@ -14559,7 +14673,7 @@
         <v>55</v>
       </c>
       <c r="C371" s="0">
-        <v>33.34261696393898</v>
+        <v>24.516630120543365</v>
       </c>
       <c r="D371" s="0">
         <v>49.999999999999986</v>
@@ -14586,7 +14700,7 @@
         <v>40</v>
       </c>
       <c r="L371" s="0">
-        <v>431.46000000000015</v>
+        <v>413.72000000000003</v>
       </c>
     </row>
     <row r="372">
@@ -14624,7 +14738,7 @@
         <v>100</v>
       </c>
       <c r="L372" s="0">
-        <v>508.60000000000002</v>
+        <v>507.25</v>
       </c>
     </row>
     <row r="373">
@@ -14635,7 +14749,7 @@
         <v>55</v>
       </c>
       <c r="C373" s="0">
-        <v>33.34261696393898</v>
+        <v>24.516630120543365</v>
       </c>
       <c r="D373" s="0">
         <v>49.999999999999986</v>
@@ -14662,7 +14776,7 @@
         <v>40</v>
       </c>
       <c r="L373" s="0">
-        <v>433.05000000000007</v>
+        <v>415.29999999999995</v>
       </c>
     </row>
     <row r="374">
@@ -14700,7 +14814,7 @@
         <v>100</v>
       </c>
       <c r="L374" s="0">
-        <v>509.92000000000007</v>
+        <v>507.54500000000007</v>
       </c>
     </row>
     <row r="375">
@@ -14711,7 +14825,7 @@
         <v>55</v>
       </c>
       <c r="C375" s="0">
-        <v>33.34261696393898</v>
+        <v>25.006962722954231</v>
       </c>
       <c r="D375" s="0">
         <v>49.999999999999986</v>
@@ -14738,7 +14852,7 @@
         <v>40</v>
       </c>
       <c r="L375" s="0">
-        <v>434.63999999999999</v>
+        <v>416.87999999999988</v>
       </c>
     </row>
     <row r="376">
@@ -14776,7 +14890,7 @@
         <v>100</v>
       </c>
       <c r="L376" s="0">
-        <v>507.24000000000001</v>
+        <v>508.79000000000008</v>
       </c>
     </row>
     <row r="377">
@@ -14787,7 +14901,7 @@
         <v>55</v>
       </c>
       <c r="C377" s="0">
-        <v>35.303947373582446</v>
+        <v>25.006962722954231</v>
       </c>
       <c r="D377" s="0">
         <v>49.999999999999986</v>
@@ -14814,7 +14928,7 @@
         <v>40</v>
       </c>
       <c r="L377" s="0">
-        <v>436.23000000000002</v>
+        <v>418.45999999999992</v>
       </c>
     </row>
     <row r="378">
@@ -14852,7 +14966,7 @@
         <v>100</v>
       </c>
       <c r="L378" s="0">
-        <v>508.55999999999995</v>
+        <v>509.10000000000002</v>
       </c>
     </row>
     <row r="379">
@@ -14863,7 +14977,7 @@
         <v>55</v>
       </c>
       <c r="C379" s="0">
-        <v>35.303947373582446</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D379" s="0">
         <v>49.999999999999986</v>
@@ -14890,7 +15004,7 @@
         <v>40</v>
       </c>
       <c r="L379" s="0">
-        <v>437.81999999999994</v>
+        <v>420.03999999999985</v>
       </c>
     </row>
     <row r="380">
@@ -14928,7 +15042,7 @@
         <v>100</v>
       </c>
       <c r="L380" s="0">
-        <v>509.88000000000011</v>
+        <v>510.35000000000014</v>
       </c>
     </row>
     <row r="381">
@@ -14939,7 +15053,7 @@
         <v>55</v>
       </c>
       <c r="C381" s="0">
-        <v>35.303947373582446</v>
+        <v>25.497295325365101</v>
       </c>
       <c r="D381" s="0">
         <v>49.999999999999986</v>
@@ -14966,7 +15080,7 @@
         <v>40</v>
       </c>
       <c r="L381" s="0">
-        <v>439.41000000000008</v>
+        <v>421.62</v>
       </c>
     </row>
     <row r="382">
@@ -15004,7 +15118,7 @@
         <v>100</v>
       </c>
       <c r="L382" s="0">
-        <v>511.19999999999999</v>
+        <v>510.65000000000009</v>
       </c>
     </row>
     <row r="383">
@@ -15015,7 +15129,7 @@
         <v>55</v>
       </c>
       <c r="C383" s="0">
-        <v>35.303947373582446</v>
+        <v>25.987627927775968</v>
       </c>
       <c r="D383" s="0">
         <v>49.999999999999986</v>
@@ -15042,7 +15156,7 @@
         <v>40</v>
       </c>
       <c r="L383" s="0">
-        <v>441</v>
+        <v>423.19999999999999</v>
       </c>
     </row>
     <row r="384">
@@ -15080,7 +15194,7 @@
         <v>100</v>
       </c>
       <c r="L384" s="0">
-        <v>512.50999999999999</v>
+        <v>511.88250000000005</v>
       </c>
     </row>
     <row r="385">
@@ -15091,7 +15205,7 @@
         <v>55</v>
       </c>
       <c r="C385" s="0">
-        <v>35.303947373582446</v>
+        <v>25.987627927775968</v>
       </c>
       <c r="D385" s="0">
         <v>49.999999999999986</v>
@@ -15118,7 +15232,7 @@
         <v>40</v>
       </c>
       <c r="L385" s="0">
-        <v>442.55000000000007</v>
+        <v>424.72999999999996</v>
       </c>
     </row>
     <row r="386">
@@ -15156,7 +15270,7 @@
         <v>100</v>
       </c>
       <c r="L386" s="0">
-        <v>513.81999999999994</v>
+        <v>512.17000000000007</v>
       </c>
     </row>
     <row r="387">
@@ -15167,7 +15281,7 @@
         <v>55</v>
       </c>
       <c r="C387" s="0">
-        <v>35.303947373582446</v>
+        <v>26.477960530186834</v>
       </c>
       <c r="D387" s="0">
         <v>49.999999999999986</v>
@@ -15194,7 +15308,7 @@
         <v>40</v>
       </c>
       <c r="L387" s="0">
-        <v>444.10000000000002</v>
+        <v>426.26000000000005</v>
       </c>
     </row>
     <row r="388">
@@ -15232,7 +15346,7 @@
         <v>100</v>
       </c>
       <c r="L388" s="0">
-        <v>515.12999999999988</v>
+        <v>513.40499999999997</v>
       </c>
     </row>
     <row r="389">
@@ -15243,7 +15357,7 @@
         <v>55</v>
       </c>
       <c r="C389" s="0">
-        <v>35.303947373582446</v>
+        <v>26.477960530186834</v>
       </c>
       <c r="D389" s="0">
         <v>49.999999999999986</v>
@@ -15270,7 +15384,7 @@
         <v>40</v>
       </c>
       <c r="L389" s="0">
-        <v>445.64999999999998</v>
+        <v>427.78999999999991</v>
       </c>
     </row>
     <row r="390">
@@ -15308,7 +15422,7 @@
         <v>100</v>
       </c>
       <c r="L390" s="0">
-        <v>516.44000000000005</v>
+        <v>514.6400000000001</v>
       </c>
     </row>
     <row r="391">
@@ -15319,7 +15433,7 @@
         <v>55</v>
       </c>
       <c r="C391" s="0">
-        <v>35.303947373582446</v>
+        <v>26.477960530186834</v>
       </c>
       <c r="D391" s="0">
         <v>49.999999999999986</v>
@@ -15346,7 +15460,7 @@
         <v>40</v>
       </c>
       <c r="L391" s="0">
-        <v>447.20000000000005</v>
+        <v>429.32000000000011</v>
       </c>
     </row>
     <row r="392">
@@ -15384,7 +15498,7 @@
         <v>100</v>
       </c>
       <c r="L392" s="0">
-        <v>513.95000000000005</v>
+        <v>514.9375</v>
       </c>
     </row>
     <row r="393">
@@ -15395,7 +15509,7 @@
         <v>55</v>
       </c>
       <c r="C393" s="0">
-        <v>37.265277783225912</v>
+        <v>26.968293132597701</v>
       </c>
       <c r="D393" s="0">
         <v>49.999999999999986</v>
@@ -15422,7 +15536,7 @@
         <v>40</v>
       </c>
       <c r="L393" s="0">
-        <v>448.75</v>
+        <v>430.84999999999997</v>
       </c>
     </row>
     <row r="394">
@@ -15460,7 +15574,7 @@
         <v>100</v>
       </c>
       <c r="L394" s="0">
-        <v>515.27999999999997</v>
+        <v>516.17500000000007</v>
       </c>
     </row>
     <row r="395">
@@ -15471,7 +15585,7 @@
         <v>55</v>
       </c>
       <c r="C395" s="0">
-        <v>37.265277783225912</v>
+        <v>26.968293132597701</v>
       </c>
       <c r="D395" s="0">
         <v>49.999999999999986</v>
@@ -15498,7 +15612,7 @@
         <v>40</v>
       </c>
       <c r="L395" s="0">
-        <v>450.30000000000007</v>
+        <v>432.38000000000005</v>
       </c>
     </row>
     <row r="396">
@@ -15536,7 +15650,7 @@
         <v>100</v>
       </c>
       <c r="L396" s="0">
-        <v>516.6099999999999</v>
+        <v>516.48000000000002</v>
       </c>
     </row>
     <row r="397">
@@ -15547,7 +15661,7 @@
         <v>55</v>
       </c>
       <c r="C397" s="0">
-        <v>37.265277783225912</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D397" s="0">
         <v>49.999999999999986</v>
@@ -15574,7 +15688,7 @@
         <v>40</v>
       </c>
       <c r="L397" s="0">
-        <v>451.85000000000002</v>
+        <v>433.91000000000003</v>
       </c>
     </row>
     <row r="398">
@@ -15612,7 +15726,7 @@
         <v>100</v>
       </c>
       <c r="L398" s="0">
-        <v>517.93999999999983</v>
+        <v>517.72000000000003</v>
       </c>
     </row>
     <row r="399">
@@ -15623,7 +15737,7 @@
         <v>55</v>
       </c>
       <c r="C399" s="0">
-        <v>37.265277783225912</v>
+        <v>27.458625735008571</v>
       </c>
       <c r="D399" s="0">
         <v>49.999999999999986</v>
@@ -15650,7 +15764,7 @@
         <v>40</v>
       </c>
       <c r="L399" s="0">
-        <v>453.39999999999998</v>
+        <v>435.44</v>
       </c>
     </row>
     <row r="400">
@@ -15688,7 +15802,7 @@
         <v>100</v>
       </c>
       <c r="L400" s="0">
-        <v>519.26999999999998</v>
+        <v>518.00750000000005</v>
       </c>
     </row>
     <row r="401">
@@ -15699,7 +15813,7 @@
         <v>55</v>
       </c>
       <c r="C401" s="0">
-        <v>37.265277783225912</v>
+        <v>27.948958337419437</v>
       </c>
       <c r="D401" s="0">
         <v>49.999999999999986</v>
@@ -15726,7 +15840,7 @@
         <v>40</v>
       </c>
       <c r="L401" s="0">
-        <v>454.95000000000005</v>
+        <v>436.97000000000008</v>
       </c>
     </row>
     <row r="402">
@@ -15764,7 +15878,7 @@
         <v>100</v>
       </c>
       <c r="L402" s="0">
-        <v>520.60000000000002</v>
+        <v>519.25</v>
       </c>
     </row>
     <row r="403">
@@ -15775,7 +15889,7 @@
         <v>55</v>
       </c>
       <c r="C403" s="0">
-        <v>37.265277783225912</v>
+        <v>27.948958337419437</v>
       </c>
       <c r="D403" s="0">
         <v>49.999999999999986</v>
@@ -15802,7 +15916,7 @@
         <v>40</v>
       </c>
       <c r="L403" s="0">
-        <v>456.5</v>
+        <v>438.5</v>
       </c>
     </row>
   </sheetData>
